--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>JKS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3593100</v>
+        <v>4163300</v>
       </c>
       <c r="E8" s="3">
-        <v>3798300</v>
+        <v>3505000</v>
       </c>
       <c r="F8" s="3">
-        <v>3070600</v>
+        <v>3705200</v>
       </c>
       <c r="G8" s="3">
-        <v>2217400</v>
+        <v>2995200</v>
       </c>
       <c r="H8" s="3">
-        <v>1397600</v>
+        <v>2163000</v>
       </c>
       <c r="I8" s="3">
-        <v>1015700</v>
+        <v>1363300</v>
       </c>
       <c r="J8" s="3">
+        <v>990800</v>
+      </c>
+      <c r="K8" s="3">
         <v>688000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1074000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3089000</v>
+        <v>3403100</v>
       </c>
       <c r="E9" s="3">
-        <v>3369100</v>
+        <v>3013200</v>
       </c>
       <c r="F9" s="3">
-        <v>2515400</v>
+        <v>3286500</v>
       </c>
       <c r="G9" s="3">
-        <v>1796800</v>
+        <v>2453700</v>
       </c>
       <c r="H9" s="3">
-        <v>1096700</v>
+        <v>1752700</v>
       </c>
       <c r="I9" s="3">
-        <v>809400</v>
+        <v>1069800</v>
       </c>
       <c r="J9" s="3">
+        <v>789600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1309300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>906800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>504200</v>
+        <v>760200</v>
       </c>
       <c r="E10" s="3">
-        <v>429200</v>
+        <v>491800</v>
       </c>
       <c r="F10" s="3">
-        <v>555200</v>
+        <v>418700</v>
       </c>
       <c r="G10" s="3">
-        <v>420600</v>
+        <v>541600</v>
       </c>
       <c r="H10" s="3">
-        <v>300900</v>
+        <v>410300</v>
       </c>
       <c r="I10" s="3">
-        <v>206200</v>
+        <v>293500</v>
       </c>
       <c r="J10" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-621300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>167200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>52600</v>
+        <v>45400</v>
       </c>
       <c r="E12" s="3">
-        <v>42200</v>
+        <v>51300</v>
       </c>
       <c r="F12" s="3">
-        <v>26000</v>
+        <v>41200</v>
       </c>
       <c r="G12" s="3">
-        <v>20600</v>
+        <v>25300</v>
       </c>
       <c r="H12" s="3">
-        <v>15300</v>
+        <v>20100</v>
       </c>
       <c r="I12" s="3">
-        <v>9400</v>
+        <v>14900</v>
       </c>
       <c r="J12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K12" s="3">
         <v>9900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>17300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6600</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3501900</v>
+        <v>3918400</v>
       </c>
       <c r="E17" s="3">
-        <v>3751600</v>
+        <v>3416000</v>
       </c>
       <c r="F17" s="3">
-        <v>2876300</v>
+        <v>3659600</v>
       </c>
       <c r="G17" s="3">
-        <v>2056400</v>
+        <v>2805700</v>
       </c>
       <c r="H17" s="3">
-        <v>1276500</v>
+        <v>2006000</v>
       </c>
       <c r="I17" s="3">
-        <v>923000</v>
+        <v>1245200</v>
       </c>
       <c r="J17" s="3">
+        <v>900400</v>
+      </c>
+      <c r="K17" s="3">
         <v>864900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1028100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>91200</v>
+        <v>244900</v>
       </c>
       <c r="E18" s="3">
-        <v>46700</v>
+        <v>88900</v>
       </c>
       <c r="F18" s="3">
-        <v>194300</v>
+        <v>45600</v>
       </c>
       <c r="G18" s="3">
-        <v>161000</v>
+        <v>189500</v>
       </c>
       <c r="H18" s="3">
-        <v>121100</v>
+        <v>157000</v>
       </c>
       <c r="I18" s="3">
-        <v>92600</v>
+        <v>118100</v>
       </c>
       <c r="J18" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-177000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,79 +1049,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>21500</v>
+        <v>8900</v>
       </c>
       <c r="E20" s="3">
-        <v>18300</v>
+        <v>21000</v>
       </c>
       <c r="F20" s="3">
-        <v>-15300</v>
+        <v>17900</v>
       </c>
       <c r="G20" s="3">
-        <v>-36500</v>
+        <v>-14900</v>
       </c>
       <c r="H20" s="3">
-        <v>-40400</v>
+        <v>-35700</v>
       </c>
       <c r="I20" s="3">
-        <v>-59100</v>
+        <v>-39400</v>
       </c>
       <c r="J20" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-45800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>229900</v>
+        <v>390400</v>
       </c>
       <c r="E21" s="3">
-        <v>153400</v>
+        <v>224000</v>
       </c>
       <c r="F21" s="3">
-        <v>292100</v>
+        <v>149400</v>
       </c>
       <c r="G21" s="3">
-        <v>214900</v>
+        <v>284600</v>
       </c>
       <c r="H21" s="3">
-        <v>144100</v>
+        <v>209300</v>
       </c>
       <c r="I21" s="3">
-        <v>85600</v>
+        <v>140400</v>
       </c>
       <c r="J21" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-174600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>90900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>54200</v>
+        <v>78700</v>
       </c>
       <c r="E22" s="3">
-        <v>43700</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>52900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>42600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>58500</v>
+        <v>175100</v>
       </c>
       <c r="E23" s="3">
-        <v>21400</v>
+        <v>57000</v>
       </c>
       <c r="F23" s="3">
-        <v>179000</v>
+        <v>20800</v>
       </c>
       <c r="G23" s="3">
-        <v>124400</v>
+        <v>174600</v>
       </c>
       <c r="H23" s="3">
-        <v>80700</v>
+        <v>121400</v>
       </c>
       <c r="I23" s="3">
-        <v>33500</v>
+        <v>78800</v>
       </c>
       <c r="J23" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-222800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
-        <v>700</v>
-      </c>
       <c r="F24" s="3">
-        <v>36900</v>
+        <v>600</v>
       </c>
       <c r="G24" s="3">
-        <v>14400</v>
+        <v>36000</v>
       </c>
       <c r="H24" s="3">
-        <v>-19400</v>
+        <v>14100</v>
       </c>
       <c r="I24" s="3">
-        <v>2700</v>
+        <v>-18900</v>
       </c>
       <c r="J24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57800</v>
+        <v>136200</v>
       </c>
       <c r="E26" s="3">
-        <v>20700</v>
+        <v>56400</v>
       </c>
       <c r="F26" s="3">
-        <v>142100</v>
+        <v>20200</v>
       </c>
       <c r="G26" s="3">
-        <v>110000</v>
+        <v>138600</v>
       </c>
       <c r="H26" s="3">
-        <v>100200</v>
+        <v>107300</v>
       </c>
       <c r="I26" s="3">
-        <v>30900</v>
+        <v>97700</v>
       </c>
       <c r="J26" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-221500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>58300</v>
+        <v>125800</v>
       </c>
       <c r="E27" s="3">
-        <v>20300</v>
+        <v>56900</v>
       </c>
       <c r="F27" s="3">
-        <v>119300</v>
+        <v>19800</v>
       </c>
       <c r="G27" s="3">
-        <v>87200</v>
+        <v>116300</v>
       </c>
       <c r="H27" s="3">
-        <v>93900</v>
+        <v>85100</v>
       </c>
       <c r="I27" s="3">
-        <v>27000</v>
+        <v>91600</v>
       </c>
       <c r="J27" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-221300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,29 +1343,32 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>142800</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>12800</v>
+        <v>139300</v>
       </c>
       <c r="H29" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
+        <v>12500</v>
+      </c>
+      <c r="I29" s="3">
+        <v>3900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21500</v>
+        <v>-8900</v>
       </c>
       <c r="E32" s="3">
-        <v>-18300</v>
+        <v>-21000</v>
       </c>
       <c r="F32" s="3">
-        <v>15300</v>
+        <v>-17900</v>
       </c>
       <c r="G32" s="3">
-        <v>36500</v>
+        <v>14900</v>
       </c>
       <c r="H32" s="3">
-        <v>40400</v>
+        <v>35700</v>
       </c>
       <c r="I32" s="3">
-        <v>59100</v>
+        <v>39400</v>
       </c>
       <c r="J32" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K32" s="3">
         <v>45800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>58300</v>
+        <v>125800</v>
       </c>
       <c r="E33" s="3">
-        <v>20300</v>
+        <v>56900</v>
       </c>
       <c r="F33" s="3">
-        <v>262100</v>
+        <v>19800</v>
       </c>
       <c r="G33" s="3">
-        <v>100100</v>
+        <v>255700</v>
       </c>
       <c r="H33" s="3">
-        <v>97900</v>
+        <v>97600</v>
       </c>
       <c r="I33" s="3">
-        <v>27000</v>
+        <v>95500</v>
       </c>
       <c r="J33" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-221300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>58300</v>
+        <v>125800</v>
       </c>
       <c r="E35" s="3">
-        <v>20300</v>
+        <v>56900</v>
       </c>
       <c r="F35" s="3">
-        <v>262100</v>
+        <v>19800</v>
       </c>
       <c r="G35" s="3">
-        <v>100100</v>
+        <v>255700</v>
       </c>
       <c r="H35" s="3">
-        <v>97900</v>
+        <v>97600</v>
       </c>
       <c r="I35" s="3">
-        <v>27000</v>
+        <v>95500</v>
       </c>
       <c r="J35" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-221300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,58 +1645,62 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>445500</v>
+        <v>792400</v>
       </c>
       <c r="E41" s="3">
-        <v>276700</v>
+        <v>435200</v>
       </c>
       <c r="F41" s="3">
-        <v>358900</v>
+        <v>270300</v>
       </c>
       <c r="G41" s="3">
-        <v>343300</v>
+        <v>350600</v>
       </c>
       <c r="H41" s="3">
-        <v>255000</v>
+        <v>335300</v>
       </c>
       <c r="I41" s="3">
-        <v>65400</v>
+        <v>249100</v>
       </c>
       <c r="J41" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K41" s="3">
         <v>40000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
-        <v>10200</v>
-      </c>
       <c r="G42" s="3">
-        <v>4200</v>
+        <v>10000</v>
       </c>
       <c r="H42" s="3">
-        <v>19100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>17</v>
+        <v>4100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>18600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>17</v>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1039000</v>
+        <v>1065100</v>
       </c>
       <c r="E43" s="3">
-        <v>1051600</v>
+        <v>1014900</v>
       </c>
       <c r="F43" s="3">
-        <v>1119900</v>
+        <v>1027300</v>
       </c>
       <c r="G43" s="3">
-        <v>474100</v>
+        <v>1094000</v>
       </c>
       <c r="H43" s="3">
-        <v>487700</v>
+        <v>463100</v>
       </c>
       <c r="I43" s="3">
-        <v>322400</v>
+        <v>476400</v>
       </c>
       <c r="J43" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K43" s="3">
         <v>276500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>374700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>824100</v>
+        <v>815600</v>
       </c>
       <c r="E44" s="3">
-        <v>613200</v>
+        <v>805000</v>
       </c>
       <c r="F44" s="3">
-        <v>641900</v>
+        <v>599000</v>
       </c>
       <c r="G44" s="3">
-        <v>459600</v>
+        <v>627000</v>
       </c>
       <c r="H44" s="3">
-        <v>271300</v>
+        <v>449000</v>
       </c>
       <c r="I44" s="3">
-        <v>102200</v>
+        <v>265100</v>
       </c>
       <c r="J44" s="3">
+        <v>99800</v>
+      </c>
+      <c r="K44" s="3">
         <v>75800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>116100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>970600</v>
+        <v>1768300</v>
       </c>
       <c r="E45" s="3">
-        <v>871500</v>
+        <v>948100</v>
       </c>
       <c r="F45" s="3">
-        <v>695000</v>
+        <v>851300</v>
       </c>
       <c r="G45" s="3">
-        <v>1949200</v>
+        <v>678900</v>
       </c>
       <c r="H45" s="3">
-        <v>459700</v>
+        <v>1904100</v>
       </c>
       <c r="I45" s="3">
-        <v>276600</v>
+        <v>449000</v>
       </c>
       <c r="J45" s="3">
+        <v>270200</v>
+      </c>
+      <c r="K45" s="3">
         <v>179900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3279100</v>
+        <v>4441400</v>
       </c>
       <c r="E46" s="3">
-        <v>2813300</v>
+        <v>3203300</v>
       </c>
       <c r="F46" s="3">
-        <v>2825900</v>
+        <v>2748200</v>
       </c>
       <c r="G46" s="3">
-        <v>3227600</v>
+        <v>2760500</v>
       </c>
       <c r="H46" s="3">
-        <v>1492700</v>
+        <v>3152900</v>
       </c>
       <c r="I46" s="3">
-        <v>766600</v>
+        <v>1458200</v>
       </c>
       <c r="J46" s="3">
+        <v>748800</v>
+      </c>
+      <c r="K46" s="3">
         <v>571900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>670200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3700</v>
+        <v>39000</v>
       </c>
       <c r="E47" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="F47" s="3">
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="G47" s="3">
         <v>1000</v>
       </c>
       <c r="H47" s="3">
-        <v>14800</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="3">
-        <v>17700</v>
+        <v>14500</v>
       </c>
       <c r="J47" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K47" s="3">
         <v>5000</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1441500</v>
+        <v>1763800</v>
       </c>
       <c r="E48" s="3">
-        <v>1026400</v>
+        <v>1408100</v>
       </c>
       <c r="F48" s="3">
-        <v>687800</v>
+        <v>1002700</v>
       </c>
       <c r="G48" s="3">
-        <v>540400</v>
+        <v>671900</v>
       </c>
       <c r="H48" s="3">
-        <v>1069600</v>
+        <v>527900</v>
       </c>
       <c r="I48" s="3">
-        <v>652300</v>
+        <v>1044900</v>
       </c>
       <c r="J48" s="3">
+        <v>637200</v>
+      </c>
+      <c r="K48" s="3">
         <v>554700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>571600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>87600</v>
+        <v>88900</v>
       </c>
       <c r="E49" s="3">
-        <v>67300</v>
+        <v>85500</v>
       </c>
       <c r="F49" s="3">
-        <v>67600</v>
+        <v>65700</v>
       </c>
       <c r="G49" s="3">
-        <v>53100</v>
+        <v>66000</v>
       </c>
       <c r="H49" s="3">
-        <v>54800</v>
+        <v>51900</v>
       </c>
       <c r="I49" s="3">
-        <v>52400</v>
+        <v>53500</v>
       </c>
       <c r="J49" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K49" s="3">
         <v>53400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>332400</v>
+        <v>372800</v>
       </c>
       <c r="E52" s="3">
-        <v>198500</v>
+        <v>324700</v>
       </c>
       <c r="F52" s="3">
-        <v>161200</v>
+        <v>193900</v>
       </c>
       <c r="G52" s="3">
-        <v>185400</v>
+        <v>157400</v>
       </c>
       <c r="H52" s="3">
-        <v>106200</v>
+        <v>181100</v>
       </c>
       <c r="I52" s="3">
-        <v>33500</v>
+        <v>103800</v>
       </c>
       <c r="J52" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K52" s="3">
         <v>27900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>70500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5144200</v>
+        <v>6705900</v>
       </c>
       <c r="E54" s="3">
-        <v>4108800</v>
+        <v>5025200</v>
       </c>
       <c r="F54" s="3">
-        <v>3743500</v>
+        <v>4013700</v>
       </c>
       <c r="G54" s="3">
-        <v>3894700</v>
+        <v>3656900</v>
       </c>
       <c r="H54" s="3">
-        <v>2738200</v>
+        <v>3804600</v>
       </c>
       <c r="I54" s="3">
-        <v>1522500</v>
+        <v>2674800</v>
       </c>
       <c r="J54" s="3">
+        <v>1487300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1201300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1334500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1091700</v>
+        <v>699200</v>
       </c>
       <c r="E57" s="3">
-        <v>928100</v>
+        <v>746700</v>
       </c>
       <c r="F57" s="3">
-        <v>761800</v>
+        <v>653600</v>
       </c>
       <c r="G57" s="3">
-        <v>671900</v>
+        <v>601300</v>
       </c>
       <c r="H57" s="3">
-        <v>623700</v>
+        <v>530500</v>
       </c>
       <c r="I57" s="3">
-        <v>363200</v>
+        <v>609300</v>
       </c>
       <c r="J57" s="3">
+        <v>354800</v>
+      </c>
+      <c r="K57" s="3">
         <v>404700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>290200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1891800</v>
+        <v>2353800</v>
       </c>
       <c r="E58" s="3">
-        <v>1705600</v>
+        <v>1848100</v>
       </c>
       <c r="F58" s="3">
-        <v>1536500</v>
+        <v>1666100</v>
       </c>
       <c r="G58" s="3">
-        <v>1337500</v>
+        <v>1501000</v>
       </c>
       <c r="H58" s="3">
-        <v>735500</v>
+        <v>1306600</v>
       </c>
       <c r="I58" s="3">
-        <v>606000</v>
+        <v>718500</v>
       </c>
       <c r="J58" s="3">
+        <v>592000</v>
+      </c>
+      <c r="K58" s="3">
         <v>532100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>923400</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>480200</v>
+        <v>1330800</v>
       </c>
       <c r="E59" s="3">
-        <v>230600</v>
+        <v>788800</v>
       </c>
       <c r="F59" s="3">
-        <v>336300</v>
+        <v>478200</v>
       </c>
       <c r="G59" s="3">
-        <v>1321100</v>
+        <v>471400</v>
       </c>
       <c r="H59" s="3">
-        <v>150700</v>
+        <v>1416400</v>
       </c>
       <c r="I59" s="3">
-        <v>69100</v>
+        <v>147200</v>
       </c>
       <c r="J59" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K59" s="3">
         <v>65500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3463800</v>
+        <v>4383800</v>
       </c>
       <c r="E60" s="3">
-        <v>2864200</v>
+        <v>3383600</v>
       </c>
       <c r="F60" s="3">
-        <v>2634700</v>
+        <v>2797900</v>
       </c>
       <c r="G60" s="3">
-        <v>2671900</v>
+        <v>2573700</v>
       </c>
       <c r="H60" s="3">
-        <v>1509900</v>
+        <v>2610100</v>
       </c>
       <c r="I60" s="3">
-        <v>1038400</v>
+        <v>1475000</v>
       </c>
       <c r="J60" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="K60" s="3">
         <v>895100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>820600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>372000</v>
+        <v>406200</v>
       </c>
       <c r="E61" s="3">
-        <v>174600</v>
+        <v>363400</v>
       </c>
       <c r="F61" s="3">
-        <v>76400</v>
+        <v>170500</v>
       </c>
       <c r="G61" s="3">
-        <v>310600</v>
+        <v>74600</v>
       </c>
       <c r="H61" s="3">
-        <v>482100</v>
+        <v>303400</v>
       </c>
       <c r="I61" s="3">
-        <v>171400</v>
+        <v>470900</v>
       </c>
       <c r="J61" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K61" s="3">
         <v>93400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>79000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>95500</v>
+        <v>172200</v>
       </c>
       <c r="E62" s="3">
-        <v>110200</v>
+        <v>93200</v>
       </c>
       <c r="F62" s="3">
-        <v>105500</v>
+        <v>107600</v>
       </c>
       <c r="G62" s="3">
-        <v>57100</v>
+        <v>103100</v>
       </c>
       <c r="H62" s="3">
-        <v>33300</v>
+        <v>55700</v>
       </c>
       <c r="I62" s="3">
-        <v>22800</v>
+        <v>32500</v>
       </c>
       <c r="J62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K62" s="3">
         <v>15700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4019300</v>
+        <v>5402000</v>
       </c>
       <c r="E66" s="3">
-        <v>3149000</v>
+        <v>3926300</v>
       </c>
       <c r="F66" s="3">
-        <v>2816500</v>
+        <v>3076100</v>
       </c>
       <c r="G66" s="3">
-        <v>3274600</v>
+        <v>2751300</v>
       </c>
       <c r="H66" s="3">
-        <v>2235000</v>
+        <v>3198800</v>
       </c>
       <c r="I66" s="3">
-        <v>1234100</v>
+        <v>2183200</v>
       </c>
       <c r="J66" s="3">
+        <v>1205600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1005400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>913500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>541300</v>
+        <v>654700</v>
       </c>
       <c r="E72" s="3">
-        <v>483000</v>
+        <v>528800</v>
       </c>
       <c r="F72" s="3">
-        <v>462700</v>
+        <v>471800</v>
       </c>
       <c r="G72" s="3">
-        <v>200700</v>
+        <v>451900</v>
       </c>
       <c r="H72" s="3">
-        <v>102600</v>
+        <v>196100</v>
       </c>
       <c r="I72" s="3">
-        <v>6000</v>
+        <v>100200</v>
       </c>
       <c r="J72" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-20900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>203100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1124900</v>
+        <v>1304000</v>
       </c>
       <c r="E76" s="3">
-        <v>959800</v>
+        <v>1098800</v>
       </c>
       <c r="F76" s="3">
-        <v>927000</v>
+        <v>937600</v>
       </c>
       <c r="G76" s="3">
-        <v>620100</v>
+        <v>905500</v>
       </c>
       <c r="H76" s="3">
-        <v>503200</v>
+        <v>605800</v>
       </c>
       <c r="I76" s="3">
-        <v>288400</v>
+        <v>491600</v>
       </c>
       <c r="J76" s="3">
+        <v>281700</v>
+      </c>
+      <c r="K76" s="3">
         <v>195900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>421000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>58300</v>
+        <v>125800</v>
       </c>
       <c r="E81" s="3">
-        <v>20300</v>
+        <v>56900</v>
       </c>
       <c r="F81" s="3">
-        <v>262100</v>
+        <v>19800</v>
       </c>
       <c r="G81" s="3">
-        <v>100100</v>
+        <v>255700</v>
       </c>
       <c r="H81" s="3">
-        <v>97900</v>
+        <v>97600</v>
       </c>
       <c r="I81" s="3">
-        <v>27000</v>
+        <v>95500</v>
       </c>
       <c r="J81" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-221300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>117300</v>
+        <v>137000</v>
       </c>
       <c r="E83" s="3">
-        <v>88400</v>
+        <v>114400</v>
       </c>
       <c r="F83" s="3">
-        <v>113100</v>
+        <v>86200</v>
       </c>
       <c r="G83" s="3">
-        <v>90500</v>
+        <v>110300</v>
       </c>
       <c r="H83" s="3">
-        <v>63400</v>
+        <v>88300</v>
       </c>
       <c r="I83" s="3">
-        <v>52100</v>
+        <v>61800</v>
       </c>
       <c r="J83" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K83" s="3">
         <v>48200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>88200</v>
+        <v>197400</v>
       </c>
       <c r="E89" s="3">
-        <v>-25400</v>
+        <v>86000</v>
       </c>
       <c r="F89" s="3">
-        <v>-258700</v>
+        <v>-24800</v>
       </c>
       <c r="G89" s="3">
-        <v>192100</v>
+        <v>-252300</v>
       </c>
       <c r="H89" s="3">
-        <v>26800</v>
+        <v>187400</v>
       </c>
       <c r="I89" s="3">
-        <v>89700</v>
+        <v>26200</v>
       </c>
       <c r="J89" s="3">
+        <v>87500</v>
+      </c>
+      <c r="K89" s="3">
         <v>102800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-111400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-347400</v>
+        <v>-514200</v>
       </c>
       <c r="E91" s="3">
-        <v>-312600</v>
+        <v>-343100</v>
       </c>
       <c r="F91" s="3">
-        <v>-283400</v>
+        <v>-359000</v>
       </c>
       <c r="G91" s="3">
-        <v>-123500</v>
+        <v>-550300</v>
       </c>
       <c r="H91" s="3">
-        <v>-70300</v>
+        <v>-418500</v>
       </c>
       <c r="I91" s="3">
-        <v>-66500</v>
+        <v>-420100</v>
       </c>
       <c r="J91" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-276200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-564600</v>
+        <v>-843300</v>
       </c>
       <c r="E94" s="3">
-        <v>-349100</v>
+        <v>-550700</v>
       </c>
       <c r="F94" s="3">
-        <v>-991300</v>
+        <v>-340600</v>
       </c>
       <c r="G94" s="3">
-        <v>-475600</v>
+        <v>-967000</v>
       </c>
       <c r="H94" s="3">
-        <v>-596700</v>
+        <v>-463900</v>
       </c>
       <c r="I94" s="3">
-        <v>-184500</v>
+        <v>-582100</v>
       </c>
       <c r="J94" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-71900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-353900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>570000</v>
+        <v>1033200</v>
       </c>
       <c r="E100" s="3">
-        <v>302700</v>
+        <v>556000</v>
       </c>
       <c r="F100" s="3">
-        <v>1069700</v>
+        <v>367300</v>
       </c>
       <c r="G100" s="3">
-        <v>552500</v>
+        <v>1043400</v>
       </c>
       <c r="H100" s="3">
-        <v>761000</v>
+        <v>538900</v>
       </c>
       <c r="I100" s="3">
-        <v>120700</v>
+        <v>742300</v>
       </c>
       <c r="J100" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-53200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>453800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9800</v>
+        <v>3500</v>
       </c>
       <c r="E101" s="3">
-        <v>-10400</v>
+        <v>9600</v>
       </c>
       <c r="F101" s="3">
-        <v>10700</v>
+        <v>-10200</v>
       </c>
       <c r="G101" s="3">
-        <v>4500</v>
+        <v>10400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1600</v>
+        <v>4400</v>
       </c>
       <c r="I101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>103400</v>
+        <v>390800</v>
       </c>
       <c r="E102" s="3">
-        <v>-82200</v>
+        <v>100900</v>
       </c>
       <c r="F102" s="3">
-        <v>-169600</v>
+        <v>-8200</v>
       </c>
       <c r="G102" s="3">
-        <v>273600</v>
+        <v>-165500</v>
       </c>
       <c r="H102" s="3">
-        <v>189500</v>
+        <v>266900</v>
       </c>
       <c r="I102" s="3">
-        <v>25400</v>
+        <v>184900</v>
       </c>
       <c r="J102" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-22200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4163300</v>
+        <v>4320100</v>
       </c>
       <c r="E8" s="3">
-        <v>3505000</v>
+        <v>3636900</v>
       </c>
       <c r="F8" s="3">
-        <v>3705200</v>
+        <v>3844700</v>
       </c>
       <c r="G8" s="3">
-        <v>2995200</v>
+        <v>3108000</v>
       </c>
       <c r="H8" s="3">
-        <v>2163000</v>
+        <v>2244400</v>
       </c>
       <c r="I8" s="3">
-        <v>1363300</v>
+        <v>1414700</v>
       </c>
       <c r="J8" s="3">
-        <v>990800</v>
+        <v>1028100</v>
       </c>
       <c r="K8" s="3">
         <v>688000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3403100</v>
+        <v>3531200</v>
       </c>
       <c r="E9" s="3">
-        <v>3013200</v>
+        <v>3126600</v>
       </c>
       <c r="F9" s="3">
-        <v>3286500</v>
+        <v>3410200</v>
       </c>
       <c r="G9" s="3">
-        <v>2453700</v>
+        <v>2546100</v>
       </c>
       <c r="H9" s="3">
-        <v>1752700</v>
+        <v>1818700</v>
       </c>
       <c r="I9" s="3">
-        <v>1069800</v>
+        <v>1110100</v>
       </c>
       <c r="J9" s="3">
-        <v>789600</v>
+        <v>819300</v>
       </c>
       <c r="K9" s="3">
         <v>1309300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>760200</v>
+        <v>788800</v>
       </c>
       <c r="E10" s="3">
-        <v>491800</v>
+        <v>510300</v>
       </c>
       <c r="F10" s="3">
-        <v>418700</v>
+        <v>434500</v>
       </c>
       <c r="G10" s="3">
-        <v>541600</v>
+        <v>561900</v>
       </c>
       <c r="H10" s="3">
-        <v>410300</v>
+        <v>425700</v>
       </c>
       <c r="I10" s="3">
-        <v>293500</v>
+        <v>304600</v>
       </c>
       <c r="J10" s="3">
-        <v>201200</v>
+        <v>208700</v>
       </c>
       <c r="K10" s="3">
         <v>-621300</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45400</v>
+        <v>47100</v>
       </c>
       <c r="E12" s="3">
-        <v>51300</v>
+        <v>53200</v>
       </c>
       <c r="F12" s="3">
-        <v>41200</v>
+        <v>42700</v>
       </c>
       <c r="G12" s="3">
-        <v>25300</v>
+        <v>26300</v>
       </c>
       <c r="H12" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="I12" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="J12" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="K12" s="3">
         <v>9900</v>
@@ -897,16 +897,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="E14" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>16900</v>
+        <v>17500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3918400</v>
+        <v>4066000</v>
       </c>
       <c r="E17" s="3">
-        <v>3416000</v>
+        <v>3544600</v>
       </c>
       <c r="F17" s="3">
-        <v>3659600</v>
+        <v>3797400</v>
       </c>
       <c r="G17" s="3">
-        <v>2805700</v>
+        <v>2911400</v>
       </c>
       <c r="H17" s="3">
-        <v>2006000</v>
+        <v>2081500</v>
       </c>
       <c r="I17" s="3">
-        <v>1245200</v>
+        <v>1292100</v>
       </c>
       <c r="J17" s="3">
-        <v>900400</v>
+        <v>934300</v>
       </c>
       <c r="K17" s="3">
         <v>864900</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>244900</v>
+        <v>254100</v>
       </c>
       <c r="E18" s="3">
-        <v>88900</v>
+        <v>92300</v>
       </c>
       <c r="F18" s="3">
-        <v>45600</v>
+        <v>47300</v>
       </c>
       <c r="G18" s="3">
-        <v>189500</v>
+        <v>196700</v>
       </c>
       <c r="H18" s="3">
-        <v>157000</v>
+        <v>162900</v>
       </c>
       <c r="I18" s="3">
-        <v>118100</v>
+        <v>122600</v>
       </c>
       <c r="J18" s="3">
-        <v>90400</v>
+        <v>93800</v>
       </c>
       <c r="K18" s="3">
         <v>-177000</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="E20" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="F20" s="3">
-        <v>17900</v>
+        <v>18500</v>
       </c>
       <c r="G20" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="H20" s="3">
-        <v>-35700</v>
+        <v>-37000</v>
       </c>
       <c r="I20" s="3">
-        <v>-39400</v>
+        <v>-40900</v>
       </c>
       <c r="J20" s="3">
-        <v>-57700</v>
+        <v>-59800</v>
       </c>
       <c r="K20" s="3">
         <v>-45800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>390400</v>
+        <v>405000</v>
       </c>
       <c r="E21" s="3">
-        <v>224000</v>
+        <v>232300</v>
       </c>
       <c r="F21" s="3">
-        <v>149400</v>
+        <v>154900</v>
       </c>
       <c r="G21" s="3">
-        <v>284600</v>
+        <v>295300</v>
       </c>
       <c r="H21" s="3">
-        <v>209300</v>
+        <v>217200</v>
       </c>
       <c r="I21" s="3">
-        <v>140400</v>
+        <v>145600</v>
       </c>
       <c r="J21" s="3">
-        <v>83400</v>
+        <v>86500</v>
       </c>
       <c r="K21" s="3">
         <v>-174600</v>
@@ -1122,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>78700</v>
+        <v>81600</v>
       </c>
       <c r="E22" s="3">
-        <v>52900</v>
+        <v>54900</v>
       </c>
       <c r="F22" s="3">
-        <v>42600</v>
+        <v>44200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>175100</v>
+        <v>181700</v>
       </c>
       <c r="E23" s="3">
-        <v>57000</v>
+        <v>59200</v>
       </c>
       <c r="F23" s="3">
-        <v>20800</v>
+        <v>21600</v>
       </c>
       <c r="G23" s="3">
-        <v>174600</v>
+        <v>181200</v>
       </c>
       <c r="H23" s="3">
-        <v>121400</v>
+        <v>125900</v>
       </c>
       <c r="I23" s="3">
-        <v>78800</v>
+        <v>81700</v>
       </c>
       <c r="J23" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="K23" s="3">
         <v>-222800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38900</v>
+        <v>40400</v>
       </c>
       <c r="E24" s="3">
         <v>600</v>
       </c>
       <c r="F24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G24" s="3">
-        <v>36000</v>
+        <v>37400</v>
       </c>
       <c r="H24" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="I24" s="3">
-        <v>-18900</v>
+        <v>-19700</v>
       </c>
       <c r="J24" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K24" s="3">
         <v>-1300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>136200</v>
+        <v>141300</v>
       </c>
       <c r="E26" s="3">
-        <v>56400</v>
+        <v>58500</v>
       </c>
       <c r="F26" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="G26" s="3">
-        <v>138600</v>
+        <v>143800</v>
       </c>
       <c r="H26" s="3">
-        <v>107300</v>
+        <v>111300</v>
       </c>
       <c r="I26" s="3">
-        <v>97700</v>
+        <v>101400</v>
       </c>
       <c r="J26" s="3">
-        <v>30100</v>
+        <v>31200</v>
       </c>
       <c r="K26" s="3">
         <v>-221500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>125800</v>
+        <v>130500</v>
       </c>
       <c r="E27" s="3">
-        <v>56900</v>
+        <v>59000</v>
       </c>
       <c r="F27" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="G27" s="3">
-        <v>116300</v>
+        <v>120700</v>
       </c>
       <c r="H27" s="3">
-        <v>85100</v>
+        <v>88300</v>
       </c>
       <c r="I27" s="3">
-        <v>91600</v>
+        <v>95100</v>
       </c>
       <c r="J27" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="K27" s="3">
         <v>-221300</v>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>139300</v>
+        <v>144600</v>
       </c>
       <c r="H29" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="I29" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8900</v>
+        <v>-9200</v>
       </c>
       <c r="E32" s="3">
-        <v>-21000</v>
+        <v>-21800</v>
       </c>
       <c r="F32" s="3">
-        <v>-17900</v>
+        <v>-18500</v>
       </c>
       <c r="G32" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="H32" s="3">
-        <v>35700</v>
+        <v>37000</v>
       </c>
       <c r="I32" s="3">
-        <v>39400</v>
+        <v>40900</v>
       </c>
       <c r="J32" s="3">
-        <v>57700</v>
+        <v>59800</v>
       </c>
       <c r="K32" s="3">
         <v>45800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>125800</v>
+        <v>130500</v>
       </c>
       <c r="E33" s="3">
-        <v>56900</v>
+        <v>59000</v>
       </c>
       <c r="F33" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="G33" s="3">
-        <v>255700</v>
+        <v>265300</v>
       </c>
       <c r="H33" s="3">
-        <v>97600</v>
+        <v>101300</v>
       </c>
       <c r="I33" s="3">
-        <v>95500</v>
+        <v>99100</v>
       </c>
       <c r="J33" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="K33" s="3">
         <v>-221300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>125800</v>
+        <v>130500</v>
       </c>
       <c r="E35" s="3">
-        <v>56900</v>
+        <v>59000</v>
       </c>
       <c r="F35" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="G35" s="3">
-        <v>255700</v>
+        <v>265300</v>
       </c>
       <c r="H35" s="3">
-        <v>97600</v>
+        <v>101300</v>
       </c>
       <c r="I35" s="3">
-        <v>95500</v>
+        <v>99100</v>
       </c>
       <c r="J35" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="K35" s="3">
         <v>-221300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>792400</v>
+        <v>821100</v>
       </c>
       <c r="E41" s="3">
-        <v>435200</v>
+        <v>450900</v>
       </c>
       <c r="F41" s="3">
-        <v>270300</v>
+        <v>280000</v>
       </c>
       <c r="G41" s="3">
-        <v>350600</v>
+        <v>363300</v>
       </c>
       <c r="H41" s="3">
-        <v>335300</v>
+        <v>347500</v>
       </c>
       <c r="I41" s="3">
-        <v>249100</v>
+        <v>258100</v>
       </c>
       <c r="J41" s="3">
-        <v>63900</v>
+        <v>66200</v>
       </c>
       <c r="K41" s="3">
         <v>40000</v>
@@ -1694,13 +1694,13 @@
         <v>400</v>
       </c>
       <c r="G42" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="H42" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I42" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>17</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1065100</v>
+        <v>1103600</v>
       </c>
       <c r="E43" s="3">
-        <v>1014900</v>
+        <v>1051700</v>
       </c>
       <c r="F43" s="3">
-        <v>1027300</v>
+        <v>1064400</v>
       </c>
       <c r="G43" s="3">
-        <v>1094000</v>
+        <v>1133600</v>
       </c>
       <c r="H43" s="3">
-        <v>463100</v>
+        <v>479900</v>
       </c>
       <c r="I43" s="3">
-        <v>476400</v>
+        <v>493600</v>
       </c>
       <c r="J43" s="3">
-        <v>315000</v>
+        <v>326400</v>
       </c>
       <c r="K43" s="3">
         <v>276500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>815600</v>
+        <v>845100</v>
       </c>
       <c r="E44" s="3">
-        <v>805000</v>
+        <v>834100</v>
       </c>
       <c r="F44" s="3">
-        <v>599000</v>
+        <v>620700</v>
       </c>
       <c r="G44" s="3">
-        <v>627000</v>
+        <v>649700</v>
       </c>
       <c r="H44" s="3">
-        <v>449000</v>
+        <v>465200</v>
       </c>
       <c r="I44" s="3">
-        <v>265100</v>
+        <v>274700</v>
       </c>
       <c r="J44" s="3">
-        <v>99800</v>
+        <v>103400</v>
       </c>
       <c r="K44" s="3">
         <v>75800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1768300</v>
+        <v>1832300</v>
       </c>
       <c r="E45" s="3">
-        <v>948100</v>
+        <v>982400</v>
       </c>
       <c r="F45" s="3">
-        <v>851300</v>
+        <v>882100</v>
       </c>
       <c r="G45" s="3">
-        <v>678900</v>
+        <v>703500</v>
       </c>
       <c r="H45" s="3">
-        <v>1904100</v>
+        <v>1973000</v>
       </c>
       <c r="I45" s="3">
-        <v>449000</v>
+        <v>465300</v>
       </c>
       <c r="J45" s="3">
-        <v>270200</v>
+        <v>279900</v>
       </c>
       <c r="K45" s="3">
         <v>179900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4441400</v>
+        <v>4602100</v>
       </c>
       <c r="E46" s="3">
-        <v>3203300</v>
+        <v>3319100</v>
       </c>
       <c r="F46" s="3">
-        <v>2748200</v>
+        <v>2847600</v>
       </c>
       <c r="G46" s="3">
-        <v>2760500</v>
+        <v>2860300</v>
       </c>
       <c r="H46" s="3">
-        <v>3152900</v>
+        <v>3266900</v>
       </c>
       <c r="I46" s="3">
-        <v>1458200</v>
+        <v>1510900</v>
       </c>
       <c r="J46" s="3">
-        <v>748800</v>
+        <v>775900</v>
       </c>
       <c r="K46" s="3">
         <v>571900</v>
@@ -1850,13 +1850,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>39000</v>
+        <v>40400</v>
       </c>
       <c r="E47" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F47" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G47" s="3">
         <v>1000</v>
@@ -1865,10 +1865,10 @@
         <v>1000</v>
       </c>
       <c r="I47" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="J47" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="K47" s="3">
         <v>5000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1763800</v>
+        <v>1827600</v>
       </c>
       <c r="E48" s="3">
-        <v>1408100</v>
+        <v>1459100</v>
       </c>
       <c r="F48" s="3">
-        <v>1002700</v>
+        <v>1039000</v>
       </c>
       <c r="G48" s="3">
-        <v>671900</v>
+        <v>696200</v>
       </c>
       <c r="H48" s="3">
-        <v>527900</v>
+        <v>547000</v>
       </c>
       <c r="I48" s="3">
-        <v>1044900</v>
+        <v>1082700</v>
       </c>
       <c r="J48" s="3">
-        <v>637200</v>
+        <v>660200</v>
       </c>
       <c r="K48" s="3">
         <v>554700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>88900</v>
+        <v>92100</v>
       </c>
       <c r="E49" s="3">
-        <v>85500</v>
+        <v>88600</v>
       </c>
       <c r="F49" s="3">
-        <v>65700</v>
+        <v>68100</v>
       </c>
       <c r="G49" s="3">
-        <v>66000</v>
+        <v>68400</v>
       </c>
       <c r="H49" s="3">
-        <v>51900</v>
+        <v>53800</v>
       </c>
       <c r="I49" s="3">
-        <v>53500</v>
+        <v>55500</v>
       </c>
       <c r="J49" s="3">
-        <v>51200</v>
+        <v>53100</v>
       </c>
       <c r="K49" s="3">
         <v>53400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>372800</v>
+        <v>386300</v>
       </c>
       <c r="E52" s="3">
-        <v>324700</v>
+        <v>336400</v>
       </c>
       <c r="F52" s="3">
-        <v>193900</v>
+        <v>200900</v>
       </c>
       <c r="G52" s="3">
-        <v>157400</v>
+        <v>163100</v>
       </c>
       <c r="H52" s="3">
-        <v>181100</v>
+        <v>187600</v>
       </c>
       <c r="I52" s="3">
-        <v>103800</v>
+        <v>107500</v>
       </c>
       <c r="J52" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="K52" s="3">
         <v>27900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6705900</v>
+        <v>6948500</v>
       </c>
       <c r="E54" s="3">
-        <v>5025200</v>
+        <v>5207000</v>
       </c>
       <c r="F54" s="3">
-        <v>4013700</v>
+        <v>4158900</v>
       </c>
       <c r="G54" s="3">
-        <v>3656900</v>
+        <v>3789100</v>
       </c>
       <c r="H54" s="3">
-        <v>3804600</v>
+        <v>3942200</v>
       </c>
       <c r="I54" s="3">
-        <v>2674800</v>
+        <v>2771600</v>
       </c>
       <c r="J54" s="3">
-        <v>1487300</v>
+        <v>1541100</v>
       </c>
       <c r="K54" s="3">
         <v>1201300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>699200</v>
+        <v>724500</v>
       </c>
       <c r="E57" s="3">
-        <v>746700</v>
+        <v>773800</v>
       </c>
       <c r="F57" s="3">
-        <v>653600</v>
+        <v>677300</v>
       </c>
       <c r="G57" s="3">
-        <v>601300</v>
+        <v>623000</v>
       </c>
       <c r="H57" s="3">
-        <v>530500</v>
+        <v>549700</v>
       </c>
       <c r="I57" s="3">
-        <v>609300</v>
+        <v>631400</v>
       </c>
       <c r="J57" s="3">
-        <v>354800</v>
+        <v>367600</v>
       </c>
       <c r="K57" s="3">
         <v>404700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2353800</v>
+        <v>2438900</v>
       </c>
       <c r="E58" s="3">
-        <v>1848100</v>
+        <v>1914900</v>
       </c>
       <c r="F58" s="3">
-        <v>1666100</v>
+        <v>1726400</v>
       </c>
       <c r="G58" s="3">
-        <v>1501000</v>
+        <v>1555300</v>
       </c>
       <c r="H58" s="3">
-        <v>1306600</v>
+        <v>1353900</v>
       </c>
       <c r="I58" s="3">
-        <v>718500</v>
+        <v>744500</v>
       </c>
       <c r="J58" s="3">
-        <v>592000</v>
+        <v>613400</v>
       </c>
       <c r="K58" s="3">
         <v>532100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1330800</v>
+        <v>1378900</v>
       </c>
       <c r="E59" s="3">
-        <v>788800</v>
+        <v>817400</v>
       </c>
       <c r="F59" s="3">
-        <v>478200</v>
+        <v>495500</v>
       </c>
       <c r="G59" s="3">
-        <v>471400</v>
+        <v>488500</v>
       </c>
       <c r="H59" s="3">
-        <v>1416400</v>
+        <v>1467600</v>
       </c>
       <c r="I59" s="3">
-        <v>147200</v>
+        <v>152500</v>
       </c>
       <c r="J59" s="3">
-        <v>67500</v>
+        <v>70000</v>
       </c>
       <c r="K59" s="3">
         <v>65500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4383800</v>
+        <v>4542400</v>
       </c>
       <c r="E60" s="3">
-        <v>3383600</v>
+        <v>3506000</v>
       </c>
       <c r="F60" s="3">
-        <v>2797900</v>
+        <v>2899100</v>
       </c>
       <c r="G60" s="3">
-        <v>2573700</v>
+        <v>2666800</v>
       </c>
       <c r="H60" s="3">
-        <v>2610100</v>
+        <v>2704500</v>
       </c>
       <c r="I60" s="3">
-        <v>1475000</v>
+        <v>1528300</v>
       </c>
       <c r="J60" s="3">
-        <v>1014400</v>
+        <v>1051000</v>
       </c>
       <c r="K60" s="3">
         <v>895100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>406200</v>
+        <v>420900</v>
       </c>
       <c r="E61" s="3">
-        <v>363400</v>
+        <v>376500</v>
       </c>
       <c r="F61" s="3">
-        <v>170500</v>
+        <v>176700</v>
       </c>
       <c r="G61" s="3">
-        <v>74600</v>
+        <v>77300</v>
       </c>
       <c r="H61" s="3">
-        <v>303400</v>
+        <v>314400</v>
       </c>
       <c r="I61" s="3">
-        <v>470900</v>
+        <v>488000</v>
       </c>
       <c r="J61" s="3">
-        <v>167400</v>
+        <v>173500</v>
       </c>
       <c r="K61" s="3">
         <v>93400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>172200</v>
+        <v>178400</v>
       </c>
       <c r="E62" s="3">
-        <v>93200</v>
+        <v>96600</v>
       </c>
       <c r="F62" s="3">
-        <v>107600</v>
+        <v>111500</v>
       </c>
       <c r="G62" s="3">
-        <v>103100</v>
+        <v>106800</v>
       </c>
       <c r="H62" s="3">
-        <v>55700</v>
+        <v>57700</v>
       </c>
       <c r="I62" s="3">
-        <v>32500</v>
+        <v>33700</v>
       </c>
       <c r="J62" s="3">
-        <v>22300</v>
+        <v>23100</v>
       </c>
       <c r="K62" s="3">
         <v>15700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5402000</v>
+        <v>5597400</v>
       </c>
       <c r="E66" s="3">
-        <v>3926300</v>
+        <v>4068400</v>
       </c>
       <c r="F66" s="3">
-        <v>3076100</v>
+        <v>3187400</v>
       </c>
       <c r="G66" s="3">
-        <v>2751300</v>
+        <v>2850900</v>
       </c>
       <c r="H66" s="3">
-        <v>3198800</v>
+        <v>3314500</v>
       </c>
       <c r="I66" s="3">
-        <v>2183200</v>
+        <v>2262200</v>
       </c>
       <c r="J66" s="3">
-        <v>1205600</v>
+        <v>1249200</v>
       </c>
       <c r="K66" s="3">
         <v>1005400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>654700</v>
+        <v>678400</v>
       </c>
       <c r="E72" s="3">
-        <v>528800</v>
+        <v>547900</v>
       </c>
       <c r="F72" s="3">
-        <v>471800</v>
+        <v>488900</v>
       </c>
       <c r="G72" s="3">
-        <v>451900</v>
+        <v>468300</v>
       </c>
       <c r="H72" s="3">
-        <v>196100</v>
+        <v>203100</v>
       </c>
       <c r="I72" s="3">
-        <v>100200</v>
+        <v>103800</v>
       </c>
       <c r="J72" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="K72" s="3">
         <v>-20900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1304000</v>
+        <v>1351100</v>
       </c>
       <c r="E76" s="3">
-        <v>1098800</v>
+        <v>1138600</v>
       </c>
       <c r="F76" s="3">
-        <v>937600</v>
+        <v>971500</v>
       </c>
       <c r="G76" s="3">
-        <v>905500</v>
+        <v>938300</v>
       </c>
       <c r="H76" s="3">
-        <v>605800</v>
+        <v>627700</v>
       </c>
       <c r="I76" s="3">
-        <v>491600</v>
+        <v>509300</v>
       </c>
       <c r="J76" s="3">
-        <v>281700</v>
+        <v>291900</v>
       </c>
       <c r="K76" s="3">
         <v>195900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>125800</v>
+        <v>130500</v>
       </c>
       <c r="E81" s="3">
-        <v>56900</v>
+        <v>59000</v>
       </c>
       <c r="F81" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="G81" s="3">
-        <v>255700</v>
+        <v>265300</v>
       </c>
       <c r="H81" s="3">
-        <v>97600</v>
+        <v>101300</v>
       </c>
       <c r="I81" s="3">
-        <v>95500</v>
+        <v>99100</v>
       </c>
       <c r="J81" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="K81" s="3">
         <v>-221300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>137000</v>
+        <v>142200</v>
       </c>
       <c r="E83" s="3">
-        <v>114400</v>
+        <v>118700</v>
       </c>
       <c r="F83" s="3">
-        <v>86200</v>
+        <v>89500</v>
       </c>
       <c r="G83" s="3">
-        <v>110300</v>
+        <v>114500</v>
       </c>
       <c r="H83" s="3">
-        <v>88300</v>
+        <v>91600</v>
       </c>
       <c r="I83" s="3">
-        <v>61800</v>
+        <v>64200</v>
       </c>
       <c r="J83" s="3">
-        <v>50800</v>
+        <v>52800</v>
       </c>
       <c r="K83" s="3">
         <v>48200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>197400</v>
+        <v>204900</v>
       </c>
       <c r="E89" s="3">
-        <v>86000</v>
+        <v>89300</v>
       </c>
       <c r="F89" s="3">
-        <v>-24800</v>
+        <v>-25700</v>
       </c>
       <c r="G89" s="3">
-        <v>-252300</v>
+        <v>-261800</v>
       </c>
       <c r="H89" s="3">
-        <v>187400</v>
+        <v>194500</v>
       </c>
       <c r="I89" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="J89" s="3">
-        <v>87500</v>
+        <v>90800</v>
       </c>
       <c r="K89" s="3">
         <v>102800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-514200</v>
+        <v>-533600</v>
       </c>
       <c r="E91" s="3">
-        <v>-343100</v>
+        <v>-356000</v>
       </c>
       <c r="F91" s="3">
-        <v>-359000</v>
+        <v>-372500</v>
       </c>
       <c r="G91" s="3">
-        <v>-550300</v>
+        <v>-571000</v>
       </c>
       <c r="H91" s="3">
-        <v>-418500</v>
+        <v>-434200</v>
       </c>
       <c r="I91" s="3">
-        <v>-420100</v>
+        <v>-435900</v>
       </c>
       <c r="J91" s="3">
-        <v>-138900</v>
+        <v>-144200</v>
       </c>
       <c r="K91" s="3">
         <v>-17400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-843300</v>
+        <v>-875100</v>
       </c>
       <c r="E94" s="3">
-        <v>-550700</v>
+        <v>-571500</v>
       </c>
       <c r="F94" s="3">
-        <v>-340600</v>
+        <v>-353400</v>
       </c>
       <c r="G94" s="3">
-        <v>-967000</v>
+        <v>-1003400</v>
       </c>
       <c r="H94" s="3">
-        <v>-463900</v>
+        <v>-481400</v>
       </c>
       <c r="I94" s="3">
-        <v>-582100</v>
+        <v>-604000</v>
       </c>
       <c r="J94" s="3">
-        <v>-180000</v>
+        <v>-186800</v>
       </c>
       <c r="K94" s="3">
         <v>-71900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1033200</v>
+        <v>1072100</v>
       </c>
       <c r="E100" s="3">
-        <v>556000</v>
+        <v>576900</v>
       </c>
       <c r="F100" s="3">
-        <v>367300</v>
+        <v>381100</v>
       </c>
       <c r="G100" s="3">
-        <v>1043400</v>
+        <v>1082700</v>
       </c>
       <c r="H100" s="3">
-        <v>538900</v>
+        <v>559200</v>
       </c>
       <c r="I100" s="3">
-        <v>742300</v>
+        <v>770300</v>
       </c>
       <c r="J100" s="3">
-        <v>117700</v>
+        <v>122200</v>
       </c>
       <c r="K100" s="3">
         <v>-53200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E101" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="F101" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="G101" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="H101" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I101" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>390800</v>
+        <v>405500</v>
       </c>
       <c r="E102" s="3">
-        <v>100900</v>
+        <v>104700</v>
       </c>
       <c r="F102" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="G102" s="3">
-        <v>-165500</v>
+        <v>-171700</v>
       </c>
       <c r="H102" s="3">
-        <v>266900</v>
+        <v>276900</v>
       </c>
       <c r="I102" s="3">
-        <v>184900</v>
+        <v>191800</v>
       </c>
       <c r="J102" s="3">
-        <v>24800</v>
+        <v>25700</v>
       </c>
       <c r="K102" s="3">
         <v>-22200</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4320100</v>
+        <v>4525000</v>
       </c>
       <c r="E8" s="3">
-        <v>3636900</v>
+        <v>3809500</v>
       </c>
       <c r="F8" s="3">
-        <v>3844700</v>
+        <v>4027100</v>
       </c>
       <c r="G8" s="3">
-        <v>3108000</v>
+        <v>3255500</v>
       </c>
       <c r="H8" s="3">
-        <v>2244400</v>
+        <v>2350900</v>
       </c>
       <c r="I8" s="3">
-        <v>1414700</v>
+        <v>1481800</v>
       </c>
       <c r="J8" s="3">
-        <v>1028100</v>
+        <v>1076800</v>
       </c>
       <c r="K8" s="3">
         <v>688000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3531200</v>
+        <v>3698700</v>
       </c>
       <c r="E9" s="3">
-        <v>3126600</v>
+        <v>3275000</v>
       </c>
       <c r="F9" s="3">
-        <v>3410200</v>
+        <v>3572000</v>
       </c>
       <c r="G9" s="3">
-        <v>2546100</v>
+        <v>2666900</v>
       </c>
       <c r="H9" s="3">
-        <v>1818700</v>
+        <v>1905000</v>
       </c>
       <c r="I9" s="3">
-        <v>1110100</v>
+        <v>1162800</v>
       </c>
       <c r="J9" s="3">
-        <v>819300</v>
+        <v>858200</v>
       </c>
       <c r="K9" s="3">
         <v>1309300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>788800</v>
+        <v>826300</v>
       </c>
       <c r="E10" s="3">
-        <v>510300</v>
+        <v>534500</v>
       </c>
       <c r="F10" s="3">
-        <v>434500</v>
+        <v>455100</v>
       </c>
       <c r="G10" s="3">
-        <v>561900</v>
+        <v>588600</v>
       </c>
       <c r="H10" s="3">
-        <v>425700</v>
+        <v>445900</v>
       </c>
       <c r="I10" s="3">
-        <v>304600</v>
+        <v>319000</v>
       </c>
       <c r="J10" s="3">
-        <v>208700</v>
+        <v>218600</v>
       </c>
       <c r="K10" s="3">
         <v>-621300</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>47100</v>
+        <v>49400</v>
       </c>
       <c r="E12" s="3">
-        <v>53200</v>
+        <v>55800</v>
       </c>
       <c r="F12" s="3">
-        <v>42700</v>
+        <v>44700</v>
       </c>
       <c r="G12" s="3">
-        <v>26300</v>
+        <v>27500</v>
       </c>
       <c r="H12" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="I12" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="J12" s="3">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="K12" s="3">
         <v>9900</v>
@@ -897,16 +897,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="E14" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4066000</v>
+        <v>4258900</v>
       </c>
       <c r="E17" s="3">
-        <v>3544600</v>
+        <v>3712800</v>
       </c>
       <c r="F17" s="3">
-        <v>3797400</v>
+        <v>3977500</v>
       </c>
       <c r="G17" s="3">
-        <v>2911400</v>
+        <v>3049500</v>
       </c>
       <c r="H17" s="3">
-        <v>2081500</v>
+        <v>2180300</v>
       </c>
       <c r="I17" s="3">
-        <v>1292100</v>
+        <v>1353400</v>
       </c>
       <c r="J17" s="3">
-        <v>934300</v>
+        <v>978600</v>
       </c>
       <c r="K17" s="3">
         <v>864900</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>254100</v>
+        <v>266100</v>
       </c>
       <c r="E18" s="3">
-        <v>92300</v>
+        <v>96700</v>
       </c>
       <c r="F18" s="3">
-        <v>47300</v>
+        <v>49500</v>
       </c>
       <c r="G18" s="3">
-        <v>196700</v>
+        <v>206000</v>
       </c>
       <c r="H18" s="3">
-        <v>162900</v>
+        <v>170600</v>
       </c>
       <c r="I18" s="3">
-        <v>122600</v>
+        <v>128400</v>
       </c>
       <c r="J18" s="3">
-        <v>93800</v>
+        <v>98200</v>
       </c>
       <c r="K18" s="3">
         <v>-177000</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9200</v>
+        <v>9700</v>
       </c>
       <c r="E20" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="F20" s="3">
-        <v>18500</v>
+        <v>19400</v>
       </c>
       <c r="G20" s="3">
-        <v>-15500</v>
+        <v>-16200</v>
       </c>
       <c r="H20" s="3">
-        <v>-37000</v>
+        <v>-38700</v>
       </c>
       <c r="I20" s="3">
-        <v>-40900</v>
+        <v>-42800</v>
       </c>
       <c r="J20" s="3">
-        <v>-59800</v>
+        <v>-62700</v>
       </c>
       <c r="K20" s="3">
         <v>-45800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>405000</v>
+        <v>424700</v>
       </c>
       <c r="E21" s="3">
-        <v>232300</v>
+        <v>243800</v>
       </c>
       <c r="F21" s="3">
-        <v>154900</v>
+        <v>162600</v>
       </c>
       <c r="G21" s="3">
-        <v>295300</v>
+        <v>309700</v>
       </c>
       <c r="H21" s="3">
-        <v>217200</v>
+        <v>227800</v>
       </c>
       <c r="I21" s="3">
-        <v>145600</v>
+        <v>152800</v>
       </c>
       <c r="J21" s="3">
-        <v>86500</v>
+        <v>90800</v>
       </c>
       <c r="K21" s="3">
         <v>-174600</v>
@@ -1122,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>81600</v>
+        <v>85500</v>
       </c>
       <c r="E22" s="3">
-        <v>54900</v>
+        <v>57500</v>
       </c>
       <c r="F22" s="3">
-        <v>44200</v>
+        <v>46300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>181700</v>
+        <v>190300</v>
       </c>
       <c r="E23" s="3">
-        <v>59200</v>
+        <v>62000</v>
       </c>
       <c r="F23" s="3">
-        <v>21600</v>
+        <v>22600</v>
       </c>
       <c r="G23" s="3">
-        <v>181200</v>
+        <v>189800</v>
       </c>
       <c r="H23" s="3">
-        <v>125900</v>
+        <v>131900</v>
       </c>
       <c r="I23" s="3">
-        <v>81700</v>
+        <v>85600</v>
       </c>
       <c r="J23" s="3">
-        <v>33900</v>
+        <v>35500</v>
       </c>
       <c r="K23" s="3">
         <v>-222800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40400</v>
+        <v>42300</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
       </c>
       <c r="G24" s="3">
-        <v>37400</v>
+        <v>39200</v>
       </c>
       <c r="H24" s="3">
-        <v>14600</v>
+        <v>15300</v>
       </c>
       <c r="I24" s="3">
-        <v>-19700</v>
+        <v>-20600</v>
       </c>
       <c r="J24" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K24" s="3">
         <v>-1300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>141300</v>
+        <v>148000</v>
       </c>
       <c r="E26" s="3">
-        <v>58500</v>
+        <v>61300</v>
       </c>
       <c r="F26" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="G26" s="3">
-        <v>143800</v>
+        <v>150600</v>
       </c>
       <c r="H26" s="3">
-        <v>111300</v>
+        <v>116600</v>
       </c>
       <c r="I26" s="3">
-        <v>101400</v>
+        <v>106200</v>
       </c>
       <c r="J26" s="3">
-        <v>31200</v>
+        <v>32700</v>
       </c>
       <c r="K26" s="3">
         <v>-221500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>130500</v>
+        <v>136700</v>
       </c>
       <c r="E27" s="3">
-        <v>59000</v>
+        <v>61800</v>
       </c>
       <c r="F27" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="G27" s="3">
-        <v>120700</v>
+        <v>126400</v>
       </c>
       <c r="H27" s="3">
-        <v>88300</v>
+        <v>92500</v>
       </c>
       <c r="I27" s="3">
-        <v>95100</v>
+        <v>99600</v>
       </c>
       <c r="J27" s="3">
-        <v>27300</v>
+        <v>28600</v>
       </c>
       <c r="K27" s="3">
         <v>-221300</v>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>144600</v>
+        <v>151400</v>
       </c>
       <c r="H29" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="I29" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9200</v>
+        <v>-9700</v>
       </c>
       <c r="E32" s="3">
-        <v>-21800</v>
+        <v>-22800</v>
       </c>
       <c r="F32" s="3">
-        <v>-18500</v>
+        <v>-19400</v>
       </c>
       <c r="G32" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="H32" s="3">
-        <v>37000</v>
+        <v>38700</v>
       </c>
       <c r="I32" s="3">
-        <v>40900</v>
+        <v>42800</v>
       </c>
       <c r="J32" s="3">
-        <v>59800</v>
+        <v>62700</v>
       </c>
       <c r="K32" s="3">
         <v>45800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>130500</v>
+        <v>136700</v>
       </c>
       <c r="E33" s="3">
-        <v>59000</v>
+        <v>61800</v>
       </c>
       <c r="F33" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="G33" s="3">
-        <v>265300</v>
+        <v>277900</v>
       </c>
       <c r="H33" s="3">
-        <v>101300</v>
+        <v>106100</v>
       </c>
       <c r="I33" s="3">
-        <v>99100</v>
+        <v>103800</v>
       </c>
       <c r="J33" s="3">
-        <v>27300</v>
+        <v>28600</v>
       </c>
       <c r="K33" s="3">
         <v>-221300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>130500</v>
+        <v>136700</v>
       </c>
       <c r="E35" s="3">
-        <v>59000</v>
+        <v>61800</v>
       </c>
       <c r="F35" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="G35" s="3">
-        <v>265300</v>
+        <v>277900</v>
       </c>
       <c r="H35" s="3">
-        <v>101300</v>
+        <v>106100</v>
       </c>
       <c r="I35" s="3">
-        <v>99100</v>
+        <v>103800</v>
       </c>
       <c r="J35" s="3">
-        <v>27300</v>
+        <v>28600</v>
       </c>
       <c r="K35" s="3">
         <v>-221300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>821100</v>
+        <v>860100</v>
       </c>
       <c r="E41" s="3">
-        <v>450900</v>
+        <v>472300</v>
       </c>
       <c r="F41" s="3">
-        <v>280000</v>
+        <v>293300</v>
       </c>
       <c r="G41" s="3">
-        <v>363300</v>
+        <v>380500</v>
       </c>
       <c r="H41" s="3">
-        <v>347500</v>
+        <v>364000</v>
       </c>
       <c r="I41" s="3">
-        <v>258100</v>
+        <v>270300</v>
       </c>
       <c r="J41" s="3">
-        <v>66200</v>
+        <v>69400</v>
       </c>
       <c r="K41" s="3">
         <v>40000</v>
@@ -1694,13 +1694,13 @@
         <v>400</v>
       </c>
       <c r="G42" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="H42" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="I42" s="3">
-        <v>19300</v>
+        <v>20200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>17</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1103600</v>
+        <v>1156000</v>
       </c>
       <c r="E43" s="3">
-        <v>1051700</v>
+        <v>1101600</v>
       </c>
       <c r="F43" s="3">
-        <v>1064400</v>
+        <v>1114900</v>
       </c>
       <c r="G43" s="3">
-        <v>1133600</v>
+        <v>1187300</v>
       </c>
       <c r="H43" s="3">
-        <v>479900</v>
+        <v>502600</v>
       </c>
       <c r="I43" s="3">
-        <v>493600</v>
+        <v>517000</v>
       </c>
       <c r="J43" s="3">
-        <v>326400</v>
+        <v>341800</v>
       </c>
       <c r="K43" s="3">
         <v>276500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>845100</v>
+        <v>885200</v>
       </c>
       <c r="E44" s="3">
-        <v>834100</v>
+        <v>873700</v>
       </c>
       <c r="F44" s="3">
-        <v>620700</v>
+        <v>650100</v>
       </c>
       <c r="G44" s="3">
-        <v>649700</v>
+        <v>680500</v>
       </c>
       <c r="H44" s="3">
-        <v>465200</v>
+        <v>487300</v>
       </c>
       <c r="I44" s="3">
-        <v>274700</v>
+        <v>287700</v>
       </c>
       <c r="J44" s="3">
-        <v>103400</v>
+        <v>108300</v>
       </c>
       <c r="K44" s="3">
         <v>75800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1832300</v>
+        <v>1919200</v>
       </c>
       <c r="E45" s="3">
-        <v>982400</v>
+        <v>1029000</v>
       </c>
       <c r="F45" s="3">
-        <v>882100</v>
+        <v>924000</v>
       </c>
       <c r="G45" s="3">
-        <v>703500</v>
+        <v>736800</v>
       </c>
       <c r="H45" s="3">
-        <v>1973000</v>
+        <v>2066600</v>
       </c>
       <c r="I45" s="3">
-        <v>465300</v>
+        <v>487300</v>
       </c>
       <c r="J45" s="3">
-        <v>279900</v>
+        <v>293200</v>
       </c>
       <c r="K45" s="3">
         <v>179900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4602100</v>
+        <v>4820400</v>
       </c>
       <c r="E46" s="3">
-        <v>3319100</v>
+        <v>3476600</v>
       </c>
       <c r="F46" s="3">
-        <v>2847600</v>
+        <v>2982700</v>
       </c>
       <c r="G46" s="3">
-        <v>2860300</v>
+        <v>2996000</v>
       </c>
       <c r="H46" s="3">
-        <v>3266900</v>
+        <v>3421900</v>
       </c>
       <c r="I46" s="3">
-        <v>1510900</v>
+        <v>1582600</v>
       </c>
       <c r="J46" s="3">
-        <v>775900</v>
+        <v>812700</v>
       </c>
       <c r="K46" s="3">
         <v>571900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40400</v>
+        <v>42300</v>
       </c>
       <c r="E47" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="F47" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="G47" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H47" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I47" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="J47" s="3">
-        <v>18000</v>
+        <v>18800</v>
       </c>
       <c r="K47" s="3">
         <v>5000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1827600</v>
+        <v>1914300</v>
       </c>
       <c r="E48" s="3">
-        <v>1459100</v>
+        <v>1528300</v>
       </c>
       <c r="F48" s="3">
-        <v>1039000</v>
+        <v>1088300</v>
       </c>
       <c r="G48" s="3">
-        <v>696200</v>
+        <v>729200</v>
       </c>
       <c r="H48" s="3">
-        <v>547000</v>
+        <v>573000</v>
       </c>
       <c r="I48" s="3">
-        <v>1082700</v>
+        <v>1134000</v>
       </c>
       <c r="J48" s="3">
-        <v>660200</v>
+        <v>691500</v>
       </c>
       <c r="K48" s="3">
         <v>554700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>92100</v>
+        <v>96500</v>
       </c>
       <c r="E49" s="3">
-        <v>88600</v>
+        <v>92800</v>
       </c>
       <c r="F49" s="3">
-        <v>68100</v>
+        <v>71300</v>
       </c>
       <c r="G49" s="3">
-        <v>68400</v>
+        <v>71700</v>
       </c>
       <c r="H49" s="3">
-        <v>53800</v>
+        <v>56300</v>
       </c>
       <c r="I49" s="3">
-        <v>55500</v>
+        <v>58100</v>
       </c>
       <c r="J49" s="3">
-        <v>53100</v>
+        <v>55600</v>
       </c>
       <c r="K49" s="3">
         <v>53400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>386300</v>
+        <v>404600</v>
       </c>
       <c r="E52" s="3">
-        <v>336400</v>
+        <v>352400</v>
       </c>
       <c r="F52" s="3">
-        <v>200900</v>
+        <v>210400</v>
       </c>
       <c r="G52" s="3">
-        <v>163100</v>
+        <v>170900</v>
       </c>
       <c r="H52" s="3">
-        <v>187600</v>
+        <v>196500</v>
       </c>
       <c r="I52" s="3">
-        <v>107500</v>
+        <v>112600</v>
       </c>
       <c r="J52" s="3">
-        <v>33900</v>
+        <v>35500</v>
       </c>
       <c r="K52" s="3">
         <v>27900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6948500</v>
+        <v>7278100</v>
       </c>
       <c r="E54" s="3">
-        <v>5207000</v>
+        <v>5454000</v>
       </c>
       <c r="F54" s="3">
-        <v>4158900</v>
+        <v>4356200</v>
       </c>
       <c r="G54" s="3">
-        <v>3789100</v>
+        <v>3968900</v>
       </c>
       <c r="H54" s="3">
-        <v>3942200</v>
+        <v>4129200</v>
       </c>
       <c r="I54" s="3">
-        <v>2771600</v>
+        <v>2903000</v>
       </c>
       <c r="J54" s="3">
-        <v>1541100</v>
+        <v>1614200</v>
       </c>
       <c r="K54" s="3">
         <v>1201300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>724500</v>
+        <v>758900</v>
       </c>
       <c r="E57" s="3">
-        <v>773800</v>
+        <v>810500</v>
       </c>
       <c r="F57" s="3">
-        <v>677300</v>
+        <v>709400</v>
       </c>
       <c r="G57" s="3">
-        <v>623000</v>
+        <v>652600</v>
       </c>
       <c r="H57" s="3">
-        <v>549700</v>
+        <v>575700</v>
       </c>
       <c r="I57" s="3">
-        <v>631400</v>
+        <v>661300</v>
       </c>
       <c r="J57" s="3">
-        <v>367600</v>
+        <v>385100</v>
       </c>
       <c r="K57" s="3">
         <v>404700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2438900</v>
+        <v>2554600</v>
       </c>
       <c r="E58" s="3">
-        <v>1914900</v>
+        <v>2005800</v>
       </c>
       <c r="F58" s="3">
-        <v>1726400</v>
+        <v>1808300</v>
       </c>
       <c r="G58" s="3">
-        <v>1555300</v>
+        <v>1629100</v>
       </c>
       <c r="H58" s="3">
-        <v>1353900</v>
+        <v>1418100</v>
       </c>
       <c r="I58" s="3">
-        <v>744500</v>
+        <v>779800</v>
       </c>
       <c r="J58" s="3">
-        <v>613400</v>
+        <v>642500</v>
       </c>
       <c r="K58" s="3">
         <v>532100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1378900</v>
+        <v>1444400</v>
       </c>
       <c r="E59" s="3">
-        <v>817400</v>
+        <v>856100</v>
       </c>
       <c r="F59" s="3">
-        <v>495500</v>
+        <v>519000</v>
       </c>
       <c r="G59" s="3">
-        <v>488500</v>
+        <v>511600</v>
       </c>
       <c r="H59" s="3">
-        <v>1467600</v>
+        <v>1537200</v>
       </c>
       <c r="I59" s="3">
-        <v>152500</v>
+        <v>159700</v>
       </c>
       <c r="J59" s="3">
-        <v>70000</v>
+        <v>73300</v>
       </c>
       <c r="K59" s="3">
         <v>65500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4542400</v>
+        <v>4757900</v>
       </c>
       <c r="E60" s="3">
-        <v>3506000</v>
+        <v>3672400</v>
       </c>
       <c r="F60" s="3">
-        <v>2899100</v>
+        <v>3036700</v>
       </c>
       <c r="G60" s="3">
-        <v>2666800</v>
+        <v>2793300</v>
       </c>
       <c r="H60" s="3">
-        <v>2704500</v>
+        <v>2832800</v>
       </c>
       <c r="I60" s="3">
-        <v>1528300</v>
+        <v>1600800</v>
       </c>
       <c r="J60" s="3">
-        <v>1051000</v>
+        <v>1100900</v>
       </c>
       <c r="K60" s="3">
         <v>895100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>420900</v>
+        <v>440800</v>
       </c>
       <c r="E61" s="3">
-        <v>376500</v>
+        <v>394400</v>
       </c>
       <c r="F61" s="3">
-        <v>176700</v>
+        <v>185100</v>
       </c>
       <c r="G61" s="3">
-        <v>77300</v>
+        <v>81000</v>
       </c>
       <c r="H61" s="3">
-        <v>314400</v>
+        <v>329300</v>
       </c>
       <c r="I61" s="3">
-        <v>488000</v>
+        <v>511100</v>
       </c>
       <c r="J61" s="3">
-        <v>173500</v>
+        <v>181700</v>
       </c>
       <c r="K61" s="3">
         <v>93400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>178400</v>
+        <v>186900</v>
       </c>
       <c r="E62" s="3">
-        <v>96600</v>
+        <v>101200</v>
       </c>
       <c r="F62" s="3">
-        <v>111500</v>
+        <v>116800</v>
       </c>
       <c r="G62" s="3">
-        <v>106800</v>
+        <v>111800</v>
       </c>
       <c r="H62" s="3">
-        <v>57700</v>
+        <v>60500</v>
       </c>
       <c r="I62" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="J62" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="K62" s="3">
         <v>15700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5597400</v>
+        <v>5862900</v>
       </c>
       <c r="E66" s="3">
-        <v>4068400</v>
+        <v>4261400</v>
       </c>
       <c r="F66" s="3">
-        <v>3187400</v>
+        <v>3338600</v>
       </c>
       <c r="G66" s="3">
-        <v>2850900</v>
+        <v>2986100</v>
       </c>
       <c r="H66" s="3">
-        <v>3314500</v>
+        <v>3471800</v>
       </c>
       <c r="I66" s="3">
-        <v>2262200</v>
+        <v>2369500</v>
       </c>
       <c r="J66" s="3">
-        <v>1249200</v>
+        <v>1308500</v>
       </c>
       <c r="K66" s="3">
         <v>1005400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>678400</v>
+        <v>710600</v>
       </c>
       <c r="E72" s="3">
-        <v>547900</v>
+        <v>573900</v>
       </c>
       <c r="F72" s="3">
-        <v>488900</v>
+        <v>512100</v>
       </c>
       <c r="G72" s="3">
-        <v>468300</v>
+        <v>490500</v>
       </c>
       <c r="H72" s="3">
-        <v>203100</v>
+        <v>212800</v>
       </c>
       <c r="I72" s="3">
-        <v>103800</v>
+        <v>108800</v>
       </c>
       <c r="J72" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="K72" s="3">
         <v>-20900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1351100</v>
+        <v>1415200</v>
       </c>
       <c r="E76" s="3">
-        <v>1138600</v>
+        <v>1192600</v>
       </c>
       <c r="F76" s="3">
-        <v>971500</v>
+        <v>1017600</v>
       </c>
       <c r="G76" s="3">
-        <v>938300</v>
+        <v>982800</v>
       </c>
       <c r="H76" s="3">
-        <v>627700</v>
+        <v>657400</v>
       </c>
       <c r="I76" s="3">
-        <v>509300</v>
+        <v>533500</v>
       </c>
       <c r="J76" s="3">
-        <v>291900</v>
+        <v>305700</v>
       </c>
       <c r="K76" s="3">
         <v>195900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>130500</v>
+        <v>136700</v>
       </c>
       <c r="E81" s="3">
-        <v>59000</v>
+        <v>61800</v>
       </c>
       <c r="F81" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="G81" s="3">
-        <v>265300</v>
+        <v>277900</v>
       </c>
       <c r="H81" s="3">
-        <v>101300</v>
+        <v>106100</v>
       </c>
       <c r="I81" s="3">
-        <v>99100</v>
+        <v>103800</v>
       </c>
       <c r="J81" s="3">
-        <v>27300</v>
+        <v>28600</v>
       </c>
       <c r="K81" s="3">
         <v>-221300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>142200</v>
+        <v>148900</v>
       </c>
       <c r="E83" s="3">
-        <v>118700</v>
+        <v>124300</v>
       </c>
       <c r="F83" s="3">
-        <v>89500</v>
+        <v>93700</v>
       </c>
       <c r="G83" s="3">
-        <v>114500</v>
+        <v>119900</v>
       </c>
       <c r="H83" s="3">
-        <v>91600</v>
+        <v>95900</v>
       </c>
       <c r="I83" s="3">
-        <v>64200</v>
+        <v>67200</v>
       </c>
       <c r="J83" s="3">
-        <v>52800</v>
+        <v>55300</v>
       </c>
       <c r="K83" s="3">
         <v>48200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>204900</v>
+        <v>214600</v>
       </c>
       <c r="E89" s="3">
-        <v>89300</v>
+        <v>93500</v>
       </c>
       <c r="F89" s="3">
-        <v>-25700</v>
+        <v>-26900</v>
       </c>
       <c r="G89" s="3">
-        <v>-261800</v>
+        <v>-274300</v>
       </c>
       <c r="H89" s="3">
-        <v>194500</v>
+        <v>203700</v>
       </c>
       <c r="I89" s="3">
-        <v>27200</v>
+        <v>28500</v>
       </c>
       <c r="J89" s="3">
-        <v>90800</v>
+        <v>95100</v>
       </c>
       <c r="K89" s="3">
         <v>102800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-533600</v>
+        <v>-558900</v>
       </c>
       <c r="E91" s="3">
-        <v>-356000</v>
+        <v>-372900</v>
       </c>
       <c r="F91" s="3">
-        <v>-372500</v>
+        <v>-390200</v>
       </c>
       <c r="G91" s="3">
-        <v>-571000</v>
+        <v>-598100</v>
       </c>
       <c r="H91" s="3">
-        <v>-434200</v>
+        <v>-454800</v>
       </c>
       <c r="I91" s="3">
-        <v>-435900</v>
+        <v>-456600</v>
       </c>
       <c r="J91" s="3">
-        <v>-144200</v>
+        <v>-151000</v>
       </c>
       <c r="K91" s="3">
         <v>-17400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-875100</v>
+        <v>-916600</v>
       </c>
       <c r="E94" s="3">
-        <v>-571500</v>
+        <v>-598600</v>
       </c>
       <c r="F94" s="3">
-        <v>-353400</v>
+        <v>-370200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1003400</v>
+        <v>-1051000</v>
       </c>
       <c r="H94" s="3">
-        <v>-481400</v>
+        <v>-504200</v>
       </c>
       <c r="I94" s="3">
-        <v>-604000</v>
+        <v>-632600</v>
       </c>
       <c r="J94" s="3">
-        <v>-186800</v>
+        <v>-195600</v>
       </c>
       <c r="K94" s="3">
         <v>-71900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1072100</v>
+        <v>1122900</v>
       </c>
       <c r="E100" s="3">
-        <v>576900</v>
+        <v>604300</v>
       </c>
       <c r="F100" s="3">
-        <v>381100</v>
+        <v>399200</v>
       </c>
       <c r="G100" s="3">
-        <v>1082700</v>
+        <v>1134100</v>
       </c>
       <c r="H100" s="3">
-        <v>559200</v>
+        <v>585800</v>
       </c>
       <c r="I100" s="3">
-        <v>770300</v>
+        <v>806800</v>
       </c>
       <c r="J100" s="3">
-        <v>122200</v>
+        <v>127900</v>
       </c>
       <c r="K100" s="3">
         <v>-53200</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E101" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="F101" s="3">
-        <v>-10500</v>
+        <v>-11000</v>
       </c>
       <c r="G101" s="3">
-        <v>10800</v>
+        <v>11400</v>
       </c>
       <c r="H101" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>405500</v>
+        <v>424700</v>
       </c>
       <c r="E102" s="3">
-        <v>104700</v>
+        <v>109600</v>
       </c>
       <c r="F102" s="3">
-        <v>-8500</v>
+        <v>-8900</v>
       </c>
       <c r="G102" s="3">
-        <v>-171700</v>
+        <v>-179800</v>
       </c>
       <c r="H102" s="3">
-        <v>276900</v>
+        <v>290000</v>
       </c>
       <c r="I102" s="3">
-        <v>191800</v>
+        <v>200900</v>
       </c>
       <c r="J102" s="3">
-        <v>25700</v>
+        <v>26900</v>
       </c>
       <c r="K102" s="3">
         <v>-22200</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4525000</v>
+        <v>4544600</v>
       </c>
       <c r="E8" s="3">
-        <v>3809500</v>
+        <v>3826000</v>
       </c>
       <c r="F8" s="3">
-        <v>4027100</v>
+        <v>4044500</v>
       </c>
       <c r="G8" s="3">
-        <v>3255500</v>
+        <v>3269600</v>
       </c>
       <c r="H8" s="3">
-        <v>2350900</v>
+        <v>2361100</v>
       </c>
       <c r="I8" s="3">
-        <v>1481800</v>
+        <v>1488200</v>
       </c>
       <c r="J8" s="3">
-        <v>1076800</v>
+        <v>1081500</v>
       </c>
       <c r="K8" s="3">
         <v>688000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3698700</v>
+        <v>3714800</v>
       </c>
       <c r="E9" s="3">
-        <v>3275000</v>
+        <v>3289200</v>
       </c>
       <c r="F9" s="3">
-        <v>3572000</v>
+        <v>3587500</v>
       </c>
       <c r="G9" s="3">
-        <v>2666900</v>
+        <v>2678400</v>
       </c>
       <c r="H9" s="3">
-        <v>1905000</v>
+        <v>1913300</v>
       </c>
       <c r="I9" s="3">
-        <v>1162800</v>
+        <v>1167800</v>
       </c>
       <c r="J9" s="3">
-        <v>858200</v>
+        <v>861900</v>
       </c>
       <c r="K9" s="3">
         <v>1309300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>826300</v>
+        <v>829900</v>
       </c>
       <c r="E10" s="3">
-        <v>534500</v>
+        <v>536800</v>
       </c>
       <c r="F10" s="3">
-        <v>455100</v>
+        <v>457100</v>
       </c>
       <c r="G10" s="3">
-        <v>588600</v>
+        <v>591200</v>
       </c>
       <c r="H10" s="3">
-        <v>445900</v>
+        <v>447900</v>
       </c>
       <c r="I10" s="3">
-        <v>319000</v>
+        <v>320400</v>
       </c>
       <c r="J10" s="3">
-        <v>218600</v>
+        <v>219600</v>
       </c>
       <c r="K10" s="3">
         <v>-621300</v>
@@ -831,22 +831,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>49400</v>
+        <v>49600</v>
       </c>
       <c r="E12" s="3">
-        <v>55800</v>
+        <v>56000</v>
       </c>
       <c r="F12" s="3">
-        <v>44700</v>
+        <v>44900</v>
       </c>
       <c r="G12" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="H12" s="3">
         <v>21900</v>
       </c>
       <c r="I12" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="J12" s="3">
         <v>10000</v>
@@ -900,13 +900,13 @@
         <v>7400</v>
       </c>
       <c r="E14" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4258900</v>
+        <v>4277300</v>
       </c>
       <c r="E17" s="3">
-        <v>3712800</v>
+        <v>3728900</v>
       </c>
       <c r="F17" s="3">
-        <v>3977500</v>
+        <v>3994800</v>
       </c>
       <c r="G17" s="3">
-        <v>3049500</v>
+        <v>3062700</v>
       </c>
       <c r="H17" s="3">
-        <v>2180300</v>
+        <v>2189700</v>
       </c>
       <c r="I17" s="3">
-        <v>1353400</v>
+        <v>1359300</v>
       </c>
       <c r="J17" s="3">
-        <v>978600</v>
+        <v>982900</v>
       </c>
       <c r="K17" s="3">
         <v>864900</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>266100</v>
+        <v>267300</v>
       </c>
       <c r="E18" s="3">
-        <v>96700</v>
+        <v>97100</v>
       </c>
       <c r="F18" s="3">
-        <v>49500</v>
+        <v>49700</v>
       </c>
       <c r="G18" s="3">
-        <v>206000</v>
+        <v>206900</v>
       </c>
       <c r="H18" s="3">
-        <v>170600</v>
+        <v>171400</v>
       </c>
       <c r="I18" s="3">
-        <v>128400</v>
+        <v>129000</v>
       </c>
       <c r="J18" s="3">
-        <v>98200</v>
+        <v>98600</v>
       </c>
       <c r="K18" s="3">
         <v>-177000</v>
@@ -1059,22 +1059,22 @@
         <v>9700</v>
       </c>
       <c r="E20" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="F20" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="G20" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="H20" s="3">
-        <v>-38700</v>
+        <v>-38900</v>
       </c>
       <c r="I20" s="3">
-        <v>-42800</v>
+        <v>-43000</v>
       </c>
       <c r="J20" s="3">
-        <v>-62700</v>
+        <v>-62900</v>
       </c>
       <c r="K20" s="3">
         <v>-45800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>424700</v>
+        <v>427100</v>
       </c>
       <c r="E21" s="3">
-        <v>243800</v>
+        <v>245300</v>
       </c>
       <c r="F21" s="3">
-        <v>162600</v>
+        <v>163700</v>
       </c>
       <c r="G21" s="3">
-        <v>309700</v>
+        <v>311500</v>
       </c>
       <c r="H21" s="3">
-        <v>227800</v>
+        <v>229200</v>
       </c>
       <c r="I21" s="3">
-        <v>152800</v>
+        <v>153700</v>
       </c>
       <c r="J21" s="3">
-        <v>90800</v>
+        <v>91400</v>
       </c>
       <c r="K21" s="3">
         <v>-174600</v>
@@ -1122,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>85500</v>
+        <v>85900</v>
       </c>
       <c r="E22" s="3">
-        <v>57500</v>
+        <v>57800</v>
       </c>
       <c r="F22" s="3">
-        <v>46300</v>
+        <v>46500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>190300</v>
+        <v>191200</v>
       </c>
       <c r="E23" s="3">
-        <v>62000</v>
+        <v>62200</v>
       </c>
       <c r="F23" s="3">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="G23" s="3">
-        <v>189800</v>
+        <v>190600</v>
       </c>
       <c r="H23" s="3">
-        <v>131900</v>
+        <v>132500</v>
       </c>
       <c r="I23" s="3">
-        <v>85600</v>
+        <v>86000</v>
       </c>
       <c r="J23" s="3">
-        <v>35500</v>
+        <v>35700</v>
       </c>
       <c r="K23" s="3">
         <v>-222800</v>
@@ -1188,7 +1188,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42300</v>
+        <v>42500</v>
       </c>
       <c r="E24" s="3">
         <v>700</v>
@@ -1197,13 +1197,13 @@
         <v>700</v>
       </c>
       <c r="G24" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="H24" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="I24" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="J24" s="3">
         <v>2800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>148000</v>
+        <v>148700</v>
       </c>
       <c r="E26" s="3">
-        <v>61300</v>
+        <v>61600</v>
       </c>
       <c r="F26" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="G26" s="3">
-        <v>150600</v>
+        <v>151300</v>
       </c>
       <c r="H26" s="3">
-        <v>116600</v>
+        <v>117100</v>
       </c>
       <c r="I26" s="3">
-        <v>106200</v>
+        <v>106700</v>
       </c>
       <c r="J26" s="3">
-        <v>32700</v>
+        <v>32900</v>
       </c>
       <c r="K26" s="3">
         <v>-221500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>136700</v>
+        <v>137300</v>
       </c>
       <c r="E27" s="3">
-        <v>61800</v>
+        <v>62100</v>
       </c>
       <c r="F27" s="3">
         <v>21600</v>
       </c>
       <c r="G27" s="3">
-        <v>126400</v>
+        <v>127000</v>
       </c>
       <c r="H27" s="3">
-        <v>92500</v>
+        <v>92900</v>
       </c>
       <c r="I27" s="3">
-        <v>99600</v>
+        <v>100000</v>
       </c>
       <c r="J27" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="K27" s="3">
         <v>-221300</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>151400</v>
+        <v>152100</v>
       </c>
       <c r="H29" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="I29" s="3">
         <v>4300</v>
@@ -1455,22 +1455,22 @@
         <v>-9700</v>
       </c>
       <c r="E32" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="F32" s="3">
-        <v>-19400</v>
+        <v>-19500</v>
       </c>
       <c r="G32" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="H32" s="3">
-        <v>38700</v>
+        <v>38900</v>
       </c>
       <c r="I32" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="J32" s="3">
-        <v>62700</v>
+        <v>62900</v>
       </c>
       <c r="K32" s="3">
         <v>45800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>136700</v>
+        <v>137300</v>
       </c>
       <c r="E33" s="3">
-        <v>61800</v>
+        <v>62100</v>
       </c>
       <c r="F33" s="3">
         <v>21600</v>
       </c>
       <c r="G33" s="3">
-        <v>277900</v>
+        <v>279100</v>
       </c>
       <c r="H33" s="3">
-        <v>106100</v>
+        <v>106600</v>
       </c>
       <c r="I33" s="3">
-        <v>103800</v>
+        <v>104300</v>
       </c>
       <c r="J33" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="K33" s="3">
         <v>-221300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>136700</v>
+        <v>137300</v>
       </c>
       <c r="E35" s="3">
-        <v>61800</v>
+        <v>62100</v>
       </c>
       <c r="F35" s="3">
         <v>21600</v>
       </c>
       <c r="G35" s="3">
-        <v>277900</v>
+        <v>279100</v>
       </c>
       <c r="H35" s="3">
-        <v>106100</v>
+        <v>106600</v>
       </c>
       <c r="I35" s="3">
-        <v>103800</v>
+        <v>104300</v>
       </c>
       <c r="J35" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="K35" s="3">
         <v>-221300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>860100</v>
+        <v>863800</v>
       </c>
       <c r="E41" s="3">
-        <v>472300</v>
+        <v>474400</v>
       </c>
       <c r="F41" s="3">
-        <v>293300</v>
+        <v>294600</v>
       </c>
       <c r="G41" s="3">
-        <v>380500</v>
+        <v>382200</v>
       </c>
       <c r="H41" s="3">
-        <v>364000</v>
+        <v>365500</v>
       </c>
       <c r="I41" s="3">
-        <v>270300</v>
+        <v>271500</v>
       </c>
       <c r="J41" s="3">
-        <v>69400</v>
+        <v>69700</v>
       </c>
       <c r="K41" s="3">
         <v>40000</v>
@@ -1694,13 +1694,13 @@
         <v>400</v>
       </c>
       <c r="G42" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="H42" s="3">
         <v>4500</v>
       </c>
       <c r="I42" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>17</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1156000</v>
+        <v>1161000</v>
       </c>
       <c r="E43" s="3">
-        <v>1101600</v>
+        <v>1106300</v>
       </c>
       <c r="F43" s="3">
-        <v>1114900</v>
+        <v>1119800</v>
       </c>
       <c r="G43" s="3">
-        <v>1187300</v>
+        <v>1192500</v>
       </c>
       <c r="H43" s="3">
-        <v>502600</v>
+        <v>504800</v>
       </c>
       <c r="I43" s="3">
-        <v>517000</v>
+        <v>519300</v>
       </c>
       <c r="J43" s="3">
-        <v>341800</v>
+        <v>343300</v>
       </c>
       <c r="K43" s="3">
         <v>276500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>885200</v>
+        <v>889000</v>
       </c>
       <c r="E44" s="3">
-        <v>873700</v>
+        <v>877500</v>
       </c>
       <c r="F44" s="3">
-        <v>650100</v>
+        <v>652900</v>
       </c>
       <c r="G44" s="3">
-        <v>680500</v>
+        <v>683500</v>
       </c>
       <c r="H44" s="3">
-        <v>487300</v>
+        <v>489400</v>
       </c>
       <c r="I44" s="3">
-        <v>287700</v>
+        <v>288900</v>
       </c>
       <c r="J44" s="3">
-        <v>108300</v>
+        <v>108800</v>
       </c>
       <c r="K44" s="3">
         <v>75800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1919200</v>
+        <v>1927500</v>
       </c>
       <c r="E45" s="3">
-        <v>1029000</v>
+        <v>1033500</v>
       </c>
       <c r="F45" s="3">
-        <v>924000</v>
+        <v>928000</v>
       </c>
       <c r="G45" s="3">
-        <v>736800</v>
+        <v>740000</v>
       </c>
       <c r="H45" s="3">
-        <v>2066600</v>
+        <v>2075600</v>
       </c>
       <c r="I45" s="3">
-        <v>487300</v>
+        <v>489400</v>
       </c>
       <c r="J45" s="3">
-        <v>293200</v>
+        <v>294500</v>
       </c>
       <c r="K45" s="3">
         <v>179900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4820400</v>
+        <v>4841300</v>
       </c>
       <c r="E46" s="3">
-        <v>3476600</v>
+        <v>3491700</v>
       </c>
       <c r="F46" s="3">
-        <v>2982700</v>
+        <v>2995700</v>
       </c>
       <c r="G46" s="3">
-        <v>2996000</v>
+        <v>3009000</v>
       </c>
       <c r="H46" s="3">
-        <v>3421900</v>
+        <v>3436800</v>
       </c>
       <c r="I46" s="3">
-        <v>1582600</v>
+        <v>1589500</v>
       </c>
       <c r="J46" s="3">
-        <v>812700</v>
+        <v>816300</v>
       </c>
       <c r="K46" s="3">
         <v>571900</v>
@@ -1850,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42300</v>
+        <v>42500</v>
       </c>
       <c r="E47" s="3">
         <v>3900</v>
@@ -1865,10 +1865,10 @@
         <v>1100</v>
       </c>
       <c r="I47" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="J47" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="K47" s="3">
         <v>5000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1914300</v>
+        <v>1922600</v>
       </c>
       <c r="E48" s="3">
-        <v>1528300</v>
+        <v>1534900</v>
       </c>
       <c r="F48" s="3">
-        <v>1088300</v>
+        <v>1093000</v>
       </c>
       <c r="G48" s="3">
-        <v>729200</v>
+        <v>732400</v>
       </c>
       <c r="H48" s="3">
-        <v>573000</v>
+        <v>575400</v>
       </c>
       <c r="I48" s="3">
-        <v>1134000</v>
+        <v>1139000</v>
       </c>
       <c r="J48" s="3">
-        <v>691500</v>
+        <v>694500</v>
       </c>
       <c r="K48" s="3">
         <v>554700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>96500</v>
+        <v>96900</v>
       </c>
       <c r="E49" s="3">
-        <v>92800</v>
+        <v>93200</v>
       </c>
       <c r="F49" s="3">
-        <v>71300</v>
+        <v>71700</v>
       </c>
       <c r="G49" s="3">
-        <v>71700</v>
+        <v>72000</v>
       </c>
       <c r="H49" s="3">
-        <v>56300</v>
+        <v>56600</v>
       </c>
       <c r="I49" s="3">
-        <v>58100</v>
+        <v>58300</v>
       </c>
       <c r="J49" s="3">
-        <v>55600</v>
+        <v>55800</v>
       </c>
       <c r="K49" s="3">
         <v>53400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>404600</v>
+        <v>406400</v>
       </c>
       <c r="E52" s="3">
-        <v>352400</v>
+        <v>353900</v>
       </c>
       <c r="F52" s="3">
-        <v>210400</v>
+        <v>211300</v>
       </c>
       <c r="G52" s="3">
-        <v>170900</v>
+        <v>171600</v>
       </c>
       <c r="H52" s="3">
-        <v>196500</v>
+        <v>197400</v>
       </c>
       <c r="I52" s="3">
-        <v>112600</v>
+        <v>113100</v>
       </c>
       <c r="J52" s="3">
-        <v>35500</v>
+        <v>35600</v>
       </c>
       <c r="K52" s="3">
         <v>27900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7278100</v>
+        <v>7309700</v>
       </c>
       <c r="E54" s="3">
-        <v>5454000</v>
+        <v>5477600</v>
       </c>
       <c r="F54" s="3">
-        <v>4356200</v>
+        <v>4375100</v>
       </c>
       <c r="G54" s="3">
-        <v>3968900</v>
+        <v>3986100</v>
       </c>
       <c r="H54" s="3">
-        <v>4129200</v>
+        <v>4147100</v>
       </c>
       <c r="I54" s="3">
-        <v>2903000</v>
+        <v>2915600</v>
       </c>
       <c r="J54" s="3">
-        <v>1614200</v>
+        <v>1621200</v>
       </c>
       <c r="K54" s="3">
         <v>1201300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>758900</v>
+        <v>762200</v>
       </c>
       <c r="E57" s="3">
-        <v>810500</v>
+        <v>814000</v>
       </c>
       <c r="F57" s="3">
-        <v>709400</v>
+        <v>712500</v>
       </c>
       <c r="G57" s="3">
-        <v>652600</v>
+        <v>655400</v>
       </c>
       <c r="H57" s="3">
-        <v>575700</v>
+        <v>578200</v>
       </c>
       <c r="I57" s="3">
-        <v>661300</v>
+        <v>664200</v>
       </c>
       <c r="J57" s="3">
-        <v>385100</v>
+        <v>386800</v>
       </c>
       <c r="K57" s="3">
         <v>404700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2554600</v>
+        <v>2565700</v>
       </c>
       <c r="E58" s="3">
-        <v>2005800</v>
+        <v>2014500</v>
       </c>
       <c r="F58" s="3">
-        <v>1808300</v>
+        <v>1816100</v>
       </c>
       <c r="G58" s="3">
-        <v>1629100</v>
+        <v>1636100</v>
       </c>
       <c r="H58" s="3">
-        <v>1418100</v>
+        <v>1424200</v>
       </c>
       <c r="I58" s="3">
-        <v>779800</v>
+        <v>783200</v>
       </c>
       <c r="J58" s="3">
-        <v>642500</v>
+        <v>645300</v>
       </c>
       <c r="K58" s="3">
         <v>532100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1444400</v>
+        <v>1450600</v>
       </c>
       <c r="E59" s="3">
-        <v>856100</v>
+        <v>859900</v>
       </c>
       <c r="F59" s="3">
-        <v>519000</v>
+        <v>521200</v>
       </c>
       <c r="G59" s="3">
-        <v>511600</v>
+        <v>513900</v>
       </c>
       <c r="H59" s="3">
-        <v>1537200</v>
+        <v>1543900</v>
       </c>
       <c r="I59" s="3">
-        <v>159700</v>
+        <v>160400</v>
       </c>
       <c r="J59" s="3">
-        <v>73300</v>
+        <v>73600</v>
       </c>
       <c r="K59" s="3">
         <v>65500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4757900</v>
+        <v>4778500</v>
       </c>
       <c r="E60" s="3">
-        <v>3672400</v>
+        <v>3688300</v>
       </c>
       <c r="F60" s="3">
-        <v>3036700</v>
+        <v>3049900</v>
       </c>
       <c r="G60" s="3">
-        <v>2793300</v>
+        <v>2805400</v>
       </c>
       <c r="H60" s="3">
-        <v>2832800</v>
+        <v>2845100</v>
       </c>
       <c r="I60" s="3">
-        <v>1600800</v>
+        <v>1607800</v>
       </c>
       <c r="J60" s="3">
-        <v>1100900</v>
+        <v>1105700</v>
       </c>
       <c r="K60" s="3">
         <v>895100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>440800</v>
+        <v>442700</v>
       </c>
       <c r="E61" s="3">
-        <v>394400</v>
+        <v>396100</v>
       </c>
       <c r="F61" s="3">
-        <v>185100</v>
+        <v>185900</v>
       </c>
       <c r="G61" s="3">
-        <v>81000</v>
+        <v>81400</v>
       </c>
       <c r="H61" s="3">
-        <v>329300</v>
+        <v>330700</v>
       </c>
       <c r="I61" s="3">
-        <v>511100</v>
+        <v>513400</v>
       </c>
       <c r="J61" s="3">
-        <v>181700</v>
+        <v>182500</v>
       </c>
       <c r="K61" s="3">
         <v>93400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>186900</v>
+        <v>187700</v>
       </c>
       <c r="E62" s="3">
-        <v>101200</v>
+        <v>101600</v>
       </c>
       <c r="F62" s="3">
-        <v>116800</v>
+        <v>117300</v>
       </c>
       <c r="G62" s="3">
-        <v>111800</v>
+        <v>112300</v>
       </c>
       <c r="H62" s="3">
-        <v>60500</v>
+        <v>60800</v>
       </c>
       <c r="I62" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="J62" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="K62" s="3">
         <v>15700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5862900</v>
+        <v>5888400</v>
       </c>
       <c r="E66" s="3">
-        <v>4261400</v>
+        <v>4279900</v>
       </c>
       <c r="F66" s="3">
-        <v>3338600</v>
+        <v>3353100</v>
       </c>
       <c r="G66" s="3">
-        <v>2986100</v>
+        <v>2999100</v>
       </c>
       <c r="H66" s="3">
-        <v>3471800</v>
+        <v>3486800</v>
       </c>
       <c r="I66" s="3">
-        <v>2369500</v>
+        <v>2379800</v>
       </c>
       <c r="J66" s="3">
-        <v>1308500</v>
+        <v>1314100</v>
       </c>
       <c r="K66" s="3">
         <v>1005400</v>
@@ -2621,22 +2621,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>710600</v>
+        <v>713700</v>
       </c>
       <c r="E72" s="3">
-        <v>573900</v>
+        <v>576400</v>
       </c>
       <c r="F72" s="3">
-        <v>512100</v>
+        <v>514300</v>
       </c>
       <c r="G72" s="3">
-        <v>490500</v>
+        <v>492600</v>
       </c>
       <c r="H72" s="3">
-        <v>212800</v>
+        <v>213700</v>
       </c>
       <c r="I72" s="3">
-        <v>108800</v>
+        <v>109200</v>
       </c>
       <c r="J72" s="3">
         <v>6400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1415200</v>
+        <v>1421400</v>
       </c>
       <c r="E76" s="3">
-        <v>1192600</v>
+        <v>1197800</v>
       </c>
       <c r="F76" s="3">
-        <v>1017600</v>
+        <v>1022000</v>
       </c>
       <c r="G76" s="3">
-        <v>982800</v>
+        <v>987100</v>
       </c>
       <c r="H76" s="3">
-        <v>657400</v>
+        <v>660300</v>
       </c>
       <c r="I76" s="3">
-        <v>533500</v>
+        <v>535800</v>
       </c>
       <c r="J76" s="3">
-        <v>305700</v>
+        <v>307000</v>
       </c>
       <c r="K76" s="3">
         <v>195900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>136700</v>
+        <v>137300</v>
       </c>
       <c r="E81" s="3">
-        <v>61800</v>
+        <v>62100</v>
       </c>
       <c r="F81" s="3">
         <v>21600</v>
       </c>
       <c r="G81" s="3">
-        <v>277900</v>
+        <v>279100</v>
       </c>
       <c r="H81" s="3">
-        <v>106100</v>
+        <v>106600</v>
       </c>
       <c r="I81" s="3">
-        <v>103800</v>
+        <v>104300</v>
       </c>
       <c r="J81" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="K81" s="3">
         <v>-221300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>148900</v>
+        <v>149600</v>
       </c>
       <c r="E83" s="3">
-        <v>124300</v>
+        <v>124900</v>
       </c>
       <c r="F83" s="3">
-        <v>93700</v>
+        <v>94100</v>
       </c>
       <c r="G83" s="3">
-        <v>119900</v>
+        <v>120500</v>
       </c>
       <c r="H83" s="3">
-        <v>95900</v>
+        <v>96400</v>
       </c>
       <c r="I83" s="3">
-        <v>67200</v>
+        <v>67500</v>
       </c>
       <c r="J83" s="3">
-        <v>55300</v>
+        <v>55500</v>
       </c>
       <c r="K83" s="3">
         <v>48200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>214600</v>
+        <v>215500</v>
       </c>
       <c r="E89" s="3">
-        <v>93500</v>
+        <v>93900</v>
       </c>
       <c r="F89" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="G89" s="3">
-        <v>-274300</v>
+        <v>-275500</v>
       </c>
       <c r="H89" s="3">
-        <v>203700</v>
+        <v>204600</v>
       </c>
       <c r="I89" s="3">
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="J89" s="3">
-        <v>95100</v>
+        <v>95500</v>
       </c>
       <c r="K89" s="3">
         <v>102800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-558900</v>
+        <v>-561300</v>
       </c>
       <c r="E91" s="3">
-        <v>-372900</v>
+        <v>-374500</v>
       </c>
       <c r="F91" s="3">
-        <v>-390200</v>
+        <v>-391800</v>
       </c>
       <c r="G91" s="3">
-        <v>-598100</v>
+        <v>-600700</v>
       </c>
       <c r="H91" s="3">
-        <v>-454800</v>
+        <v>-456800</v>
       </c>
       <c r="I91" s="3">
-        <v>-456600</v>
+        <v>-458600</v>
       </c>
       <c r="J91" s="3">
-        <v>-151000</v>
+        <v>-151700</v>
       </c>
       <c r="K91" s="3">
         <v>-17400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-916600</v>
+        <v>-920500</v>
       </c>
       <c r="E94" s="3">
-        <v>-598600</v>
+        <v>-601200</v>
       </c>
       <c r="F94" s="3">
-        <v>-370200</v>
+        <v>-371800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1051000</v>
+        <v>-1055600</v>
       </c>
       <c r="H94" s="3">
-        <v>-504200</v>
+        <v>-506400</v>
       </c>
       <c r="I94" s="3">
-        <v>-632600</v>
+        <v>-635400</v>
       </c>
       <c r="J94" s="3">
-        <v>-195600</v>
+        <v>-196500</v>
       </c>
       <c r="K94" s="3">
         <v>-71900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1122900</v>
+        <v>1127800</v>
       </c>
       <c r="E100" s="3">
-        <v>604300</v>
+        <v>606900</v>
       </c>
       <c r="F100" s="3">
-        <v>399200</v>
+        <v>400900</v>
       </c>
       <c r="G100" s="3">
-        <v>1134100</v>
+        <v>1139000</v>
       </c>
       <c r="H100" s="3">
-        <v>585800</v>
+        <v>588300</v>
       </c>
       <c r="I100" s="3">
-        <v>806800</v>
+        <v>810300</v>
       </c>
       <c r="J100" s="3">
-        <v>127900</v>
+        <v>128500</v>
       </c>
       <c r="K100" s="3">
         <v>-53200</v>
@@ -3469,7 +3469,7 @@
         <v>10400</v>
       </c>
       <c r="F101" s="3">
-        <v>-11000</v>
+        <v>-11100</v>
       </c>
       <c r="G101" s="3">
         <v>11400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>424700</v>
+        <v>426600</v>
       </c>
       <c r="E102" s="3">
-        <v>109600</v>
+        <v>110100</v>
       </c>
       <c r="F102" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="G102" s="3">
-        <v>-179800</v>
+        <v>-180600</v>
       </c>
       <c r="H102" s="3">
-        <v>290000</v>
+        <v>291300</v>
       </c>
       <c r="I102" s="3">
-        <v>200900</v>
+        <v>201800</v>
       </c>
       <c r="J102" s="3">
-        <v>26900</v>
+        <v>27000</v>
       </c>
       <c r="K102" s="3">
         <v>-22200</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>JKS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4544600</v>
+        <v>5480500</v>
       </c>
       <c r="E8" s="3">
-        <v>3826000</v>
+        <v>4640700</v>
       </c>
       <c r="F8" s="3">
-        <v>4044500</v>
+        <v>3906900</v>
       </c>
       <c r="G8" s="3">
-        <v>3269600</v>
+        <v>4130000</v>
       </c>
       <c r="H8" s="3">
-        <v>2361100</v>
+        <v>3338700</v>
       </c>
       <c r="I8" s="3">
-        <v>1488200</v>
+        <v>2411000</v>
       </c>
       <c r="J8" s="3">
+        <v>1519700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1081500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>688000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1074000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3714800</v>
+        <v>4517700</v>
       </c>
       <c r="E9" s="3">
-        <v>3289200</v>
+        <v>3793300</v>
       </c>
       <c r="F9" s="3">
-        <v>3587500</v>
+        <v>3358700</v>
       </c>
       <c r="G9" s="3">
-        <v>2678400</v>
+        <v>3663300</v>
       </c>
       <c r="H9" s="3">
-        <v>1913300</v>
+        <v>2735100</v>
       </c>
       <c r="I9" s="3">
-        <v>1167800</v>
+        <v>1953700</v>
       </c>
       <c r="J9" s="3">
+        <v>1192500</v>
+      </c>
+      <c r="K9" s="3">
         <v>861900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1309300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>906800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>829900</v>
+        <v>962800</v>
       </c>
       <c r="E10" s="3">
-        <v>536800</v>
+        <v>847400</v>
       </c>
       <c r="F10" s="3">
-        <v>457100</v>
+        <v>548200</v>
       </c>
       <c r="G10" s="3">
-        <v>591200</v>
+        <v>466700</v>
       </c>
       <c r="H10" s="3">
-        <v>447900</v>
+        <v>603700</v>
       </c>
       <c r="I10" s="3">
-        <v>320400</v>
+        <v>457300</v>
       </c>
       <c r="J10" s="3">
+        <v>327200</v>
+      </c>
+      <c r="K10" s="3">
         <v>219600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-621300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>167200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>49600</v>
+        <v>60700</v>
       </c>
       <c r="E12" s="3">
-        <v>56000</v>
+        <v>50600</v>
       </c>
       <c r="F12" s="3">
-        <v>44900</v>
+        <v>57200</v>
       </c>
       <c r="G12" s="3">
-        <v>27700</v>
+        <v>45900</v>
       </c>
       <c r="H12" s="3">
-        <v>21900</v>
+        <v>28300</v>
       </c>
       <c r="I12" s="3">
-        <v>16300</v>
+        <v>22400</v>
       </c>
       <c r="J12" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K12" s="3">
         <v>10000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7400</v>
+        <v>17800</v>
       </c>
       <c r="E14" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>18400</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>18800</v>
       </c>
       <c r="I14" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6600</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4277300</v>
+        <v>5202100</v>
       </c>
       <c r="E17" s="3">
-        <v>3728900</v>
+        <v>4367800</v>
       </c>
       <c r="F17" s="3">
-        <v>3994800</v>
+        <v>3807800</v>
       </c>
       <c r="G17" s="3">
-        <v>3062700</v>
+        <v>4079300</v>
       </c>
       <c r="H17" s="3">
-        <v>2189700</v>
+        <v>3127500</v>
       </c>
       <c r="I17" s="3">
-        <v>1359300</v>
+        <v>2236000</v>
       </c>
       <c r="J17" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="K17" s="3">
         <v>982900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>864900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1028100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>267300</v>
+        <v>278500</v>
       </c>
       <c r="E18" s="3">
-        <v>97100</v>
+        <v>272900</v>
       </c>
       <c r="F18" s="3">
-        <v>49700</v>
+        <v>99100</v>
       </c>
       <c r="G18" s="3">
-        <v>206900</v>
+        <v>50800</v>
       </c>
       <c r="H18" s="3">
-        <v>171400</v>
+        <v>211300</v>
       </c>
       <c r="I18" s="3">
-        <v>129000</v>
+        <v>175000</v>
       </c>
       <c r="J18" s="3">
+        <v>131700</v>
+      </c>
+      <c r="K18" s="3">
         <v>98600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-177000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,88 +1082,95 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9700</v>
+        <v>-84700</v>
       </c>
       <c r="E20" s="3">
-        <v>22900</v>
+        <v>9900</v>
       </c>
       <c r="F20" s="3">
-        <v>19500</v>
+        <v>23400</v>
       </c>
       <c r="G20" s="3">
-        <v>-16300</v>
+        <v>19900</v>
       </c>
       <c r="H20" s="3">
-        <v>-38900</v>
+        <v>-16600</v>
       </c>
       <c r="I20" s="3">
-        <v>-43000</v>
+        <v>-39700</v>
       </c>
       <c r="J20" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-62900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-45800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>427100</v>
+        <v>409300</v>
       </c>
       <c r="E21" s="3">
-        <v>245300</v>
+        <v>435400</v>
       </c>
       <c r="F21" s="3">
-        <v>163700</v>
+        <v>249900</v>
       </c>
       <c r="G21" s="3">
-        <v>311500</v>
+        <v>166700</v>
       </c>
       <c r="H21" s="3">
-        <v>229200</v>
+        <v>317500</v>
       </c>
       <c r="I21" s="3">
-        <v>153700</v>
+        <v>233500</v>
       </c>
       <c r="J21" s="3">
+        <v>156600</v>
+      </c>
+      <c r="K21" s="3">
         <v>91400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-174600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>90900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>85900</v>
+        <v>105400</v>
       </c>
       <c r="E22" s="3">
-        <v>57800</v>
+        <v>87700</v>
       </c>
       <c r="F22" s="3">
-        <v>46500</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
+        <v>59000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>47500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>191200</v>
+        <v>88400</v>
       </c>
       <c r="E23" s="3">
-        <v>62200</v>
+        <v>195200</v>
       </c>
       <c r="F23" s="3">
-        <v>22700</v>
+        <v>63600</v>
       </c>
       <c r="G23" s="3">
-        <v>190600</v>
+        <v>23200</v>
       </c>
       <c r="H23" s="3">
-        <v>132500</v>
+        <v>194700</v>
       </c>
       <c r="I23" s="3">
-        <v>86000</v>
+        <v>135300</v>
       </c>
       <c r="J23" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K23" s="3">
         <v>35700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-222800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42500</v>
+        <v>27800</v>
       </c>
       <c r="E24" s="3">
-        <v>700</v>
+        <v>43400</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
       </c>
       <c r="G24" s="3">
-        <v>39300</v>
+        <v>700</v>
       </c>
       <c r="H24" s="3">
-        <v>15400</v>
+        <v>40200</v>
       </c>
       <c r="I24" s="3">
-        <v>-20700</v>
+        <v>15700</v>
       </c>
       <c r="J24" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>148700</v>
+        <v>60500</v>
       </c>
       <c r="E26" s="3">
-        <v>61600</v>
+        <v>151800</v>
       </c>
       <c r="F26" s="3">
-        <v>22000</v>
+        <v>62900</v>
       </c>
       <c r="G26" s="3">
-        <v>151300</v>
+        <v>22500</v>
       </c>
       <c r="H26" s="3">
-        <v>117100</v>
+        <v>154500</v>
       </c>
       <c r="I26" s="3">
-        <v>106700</v>
+        <v>119600</v>
       </c>
       <c r="J26" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K26" s="3">
         <v>32900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-221500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>137300</v>
+        <v>35900</v>
       </c>
       <c r="E27" s="3">
-        <v>62100</v>
+        <v>140200</v>
       </c>
       <c r="F27" s="3">
-        <v>21600</v>
+        <v>63400</v>
       </c>
       <c r="G27" s="3">
-        <v>127000</v>
+        <v>22100</v>
       </c>
       <c r="H27" s="3">
-        <v>92900</v>
+        <v>129700</v>
       </c>
       <c r="I27" s="3">
-        <v>100000</v>
+        <v>94800</v>
       </c>
       <c r="J27" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K27" s="3">
         <v>28700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-221300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,32 +1403,35 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>152100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>13700</v>
+        <v>155300</v>
       </c>
       <c r="I29" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
+        <v>14000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4400</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9700</v>
+        <v>84700</v>
       </c>
       <c r="E32" s="3">
-        <v>-22900</v>
+        <v>-9900</v>
       </c>
       <c r="F32" s="3">
-        <v>-19500</v>
+        <v>-23400</v>
       </c>
       <c r="G32" s="3">
-        <v>16300</v>
+        <v>-19900</v>
       </c>
       <c r="H32" s="3">
-        <v>38900</v>
+        <v>16600</v>
       </c>
       <c r="I32" s="3">
-        <v>43000</v>
+        <v>39700</v>
       </c>
       <c r="J32" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K32" s="3">
         <v>62900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>45800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>137300</v>
+        <v>35900</v>
       </c>
       <c r="E33" s="3">
-        <v>62100</v>
+        <v>140200</v>
       </c>
       <c r="F33" s="3">
-        <v>21600</v>
+        <v>63400</v>
       </c>
       <c r="G33" s="3">
-        <v>279100</v>
+        <v>22100</v>
       </c>
       <c r="H33" s="3">
-        <v>106600</v>
+        <v>285000</v>
       </c>
       <c r="I33" s="3">
-        <v>104300</v>
+        <v>108800</v>
       </c>
       <c r="J33" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K33" s="3">
         <v>28700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-221300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>137300</v>
+        <v>35900</v>
       </c>
       <c r="E35" s="3">
-        <v>62100</v>
+        <v>140200</v>
       </c>
       <c r="F35" s="3">
-        <v>21600</v>
+        <v>63400</v>
       </c>
       <c r="G35" s="3">
-        <v>279100</v>
+        <v>22100</v>
       </c>
       <c r="H35" s="3">
-        <v>106600</v>
+        <v>285000</v>
       </c>
       <c r="I35" s="3">
-        <v>104300</v>
+        <v>108800</v>
       </c>
       <c r="J35" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K35" s="3">
         <v>28700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-221300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,64 +1731,68 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>863800</v>
+        <v>1167200</v>
       </c>
       <c r="E41" s="3">
-        <v>474400</v>
+        <v>882100</v>
       </c>
       <c r="F41" s="3">
-        <v>294600</v>
+        <v>484400</v>
       </c>
       <c r="G41" s="3">
-        <v>382200</v>
+        <v>300800</v>
       </c>
       <c r="H41" s="3">
-        <v>365500</v>
+        <v>390200</v>
       </c>
       <c r="I41" s="3">
-        <v>271500</v>
+        <v>373300</v>
       </c>
       <c r="J41" s="3">
+        <v>277200</v>
+      </c>
+      <c r="K41" s="3">
         <v>69700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>400</v>
       </c>
-      <c r="G42" s="3">
-        <v>10900</v>
-      </c>
       <c r="H42" s="3">
-        <v>4500</v>
+        <v>11100</v>
       </c>
       <c r="I42" s="3">
-        <v>20300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>17</v>
+        <v>4600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20700</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>17</v>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1161000</v>
+        <v>1076300</v>
       </c>
       <c r="E43" s="3">
-        <v>1106300</v>
+        <v>1185600</v>
       </c>
       <c r="F43" s="3">
-        <v>1119800</v>
+        <v>1129700</v>
       </c>
       <c r="G43" s="3">
-        <v>1192500</v>
+        <v>1143400</v>
       </c>
       <c r="H43" s="3">
-        <v>504800</v>
+        <v>1217700</v>
       </c>
       <c r="I43" s="3">
-        <v>519300</v>
+        <v>515500</v>
       </c>
       <c r="J43" s="3">
+        <v>530300</v>
+      </c>
+      <c r="K43" s="3">
         <v>343300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>276500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>374700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>889000</v>
+        <v>1306900</v>
       </c>
       <c r="E44" s="3">
-        <v>877500</v>
+        <v>907800</v>
       </c>
       <c r="F44" s="3">
-        <v>652900</v>
+        <v>896000</v>
       </c>
       <c r="G44" s="3">
-        <v>683500</v>
+        <v>666700</v>
       </c>
       <c r="H44" s="3">
-        <v>489400</v>
+        <v>697900</v>
       </c>
       <c r="I44" s="3">
-        <v>288900</v>
+        <v>499800</v>
       </c>
       <c r="J44" s="3">
+        <v>295000</v>
+      </c>
+      <c r="K44" s="3">
         <v>108800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>75800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>116100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1927500</v>
+        <v>1615400</v>
       </c>
       <c r="E45" s="3">
-        <v>1033500</v>
+        <v>1968300</v>
       </c>
       <c r="F45" s="3">
-        <v>928000</v>
+        <v>1055400</v>
       </c>
       <c r="G45" s="3">
-        <v>740000</v>
+        <v>947600</v>
       </c>
       <c r="H45" s="3">
-        <v>2075600</v>
+        <v>755700</v>
       </c>
       <c r="I45" s="3">
-        <v>489400</v>
+        <v>2119400</v>
       </c>
       <c r="J45" s="3">
+        <v>499800</v>
+      </c>
+      <c r="K45" s="3">
         <v>294500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>179900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>131500</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4841300</v>
+        <v>5254700</v>
       </c>
       <c r="E46" s="3">
-        <v>3491700</v>
+        <v>4943700</v>
       </c>
       <c r="F46" s="3">
-        <v>2995700</v>
+        <v>3565500</v>
       </c>
       <c r="G46" s="3">
-        <v>3009000</v>
+        <v>3059000</v>
       </c>
       <c r="H46" s="3">
-        <v>3436800</v>
+        <v>3072700</v>
       </c>
       <c r="I46" s="3">
-        <v>1589500</v>
+        <v>3509400</v>
       </c>
       <c r="J46" s="3">
+        <v>1623100</v>
+      </c>
+      <c r="K46" s="3">
         <v>816300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>571900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>670200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42500</v>
+        <v>34400</v>
       </c>
       <c r="E47" s="3">
-        <v>3900</v>
+        <v>43400</v>
       </c>
       <c r="F47" s="3">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="G47" s="3">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="H47" s="3">
         <v>1100</v>
       </c>
       <c r="I47" s="3">
-        <v>15800</v>
+        <v>1100</v>
       </c>
       <c r="J47" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K47" s="3">
         <v>18900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5000</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1922600</v>
+        <v>2222600</v>
       </c>
       <c r="E48" s="3">
-        <v>1534900</v>
+        <v>1963200</v>
       </c>
       <c r="F48" s="3">
-        <v>1093000</v>
+        <v>1567400</v>
       </c>
       <c r="G48" s="3">
-        <v>732400</v>
+        <v>1116100</v>
       </c>
       <c r="H48" s="3">
-        <v>575400</v>
+        <v>747900</v>
       </c>
       <c r="I48" s="3">
-        <v>1139000</v>
+        <v>587600</v>
       </c>
       <c r="J48" s="3">
+        <v>1163000</v>
+      </c>
+      <c r="K48" s="3">
         <v>694500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>554700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>571600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>96900</v>
+        <v>124300</v>
       </c>
       <c r="E49" s="3">
-        <v>93200</v>
+        <v>99000</v>
       </c>
       <c r="F49" s="3">
-        <v>71700</v>
+        <v>95200</v>
       </c>
       <c r="G49" s="3">
-        <v>72000</v>
+        <v>73200</v>
       </c>
       <c r="H49" s="3">
-        <v>56600</v>
+        <v>73500</v>
       </c>
       <c r="I49" s="3">
-        <v>58300</v>
+        <v>57800</v>
       </c>
       <c r="J49" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K49" s="3">
         <v>55800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>406400</v>
+        <v>668700</v>
       </c>
       <c r="E52" s="3">
-        <v>353900</v>
+        <v>415000</v>
       </c>
       <c r="F52" s="3">
-        <v>211300</v>
+        <v>361400</v>
       </c>
       <c r="G52" s="3">
-        <v>171600</v>
+        <v>215800</v>
       </c>
       <c r="H52" s="3">
-        <v>197400</v>
+        <v>175200</v>
       </c>
       <c r="I52" s="3">
-        <v>113100</v>
+        <v>201600</v>
       </c>
       <c r="J52" s="3">
+        <v>115500</v>
+      </c>
+      <c r="K52" s="3">
         <v>35600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>70500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7309700</v>
+        <v>8304800</v>
       </c>
       <c r="E54" s="3">
-        <v>5477600</v>
+        <v>7464300</v>
       </c>
       <c r="F54" s="3">
-        <v>4375100</v>
+        <v>5593500</v>
       </c>
       <c r="G54" s="3">
-        <v>3986100</v>
+        <v>4467600</v>
       </c>
       <c r="H54" s="3">
-        <v>4147100</v>
+        <v>4070400</v>
       </c>
       <c r="I54" s="3">
-        <v>2915600</v>
+        <v>4234800</v>
       </c>
       <c r="J54" s="3">
+        <v>2977300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1621200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1201300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1334500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>762200</v>
+        <v>694300</v>
       </c>
       <c r="E57" s="3">
-        <v>814000</v>
+        <v>778300</v>
       </c>
       <c r="F57" s="3">
-        <v>712500</v>
+        <v>831200</v>
       </c>
       <c r="G57" s="3">
-        <v>655400</v>
+        <v>727600</v>
       </c>
       <c r="H57" s="3">
-        <v>578200</v>
+        <v>669300</v>
       </c>
       <c r="I57" s="3">
-        <v>664200</v>
+        <v>590500</v>
       </c>
       <c r="J57" s="3">
+        <v>678200</v>
+      </c>
+      <c r="K57" s="3">
         <v>386800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>404700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>290200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2565700</v>
+        <v>3069900</v>
       </c>
       <c r="E58" s="3">
-        <v>2014500</v>
+        <v>2619900</v>
       </c>
       <c r="F58" s="3">
-        <v>1816100</v>
+        <v>2057000</v>
       </c>
       <c r="G58" s="3">
-        <v>1636100</v>
+        <v>1854500</v>
       </c>
       <c r="H58" s="3">
-        <v>1424200</v>
+        <v>1670700</v>
       </c>
       <c r="I58" s="3">
-        <v>783200</v>
+        <v>1454300</v>
       </c>
       <c r="J58" s="3">
+        <v>799700</v>
+      </c>
+      <c r="K58" s="3">
         <v>645300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>532100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>923400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1450600</v>
+        <v>1105900</v>
       </c>
       <c r="E59" s="3">
-        <v>859900</v>
+        <v>1481300</v>
       </c>
       <c r="F59" s="3">
-        <v>521200</v>
+        <v>878000</v>
       </c>
       <c r="G59" s="3">
-        <v>513900</v>
+        <v>532300</v>
       </c>
       <c r="H59" s="3">
-        <v>1543900</v>
+        <v>524700</v>
       </c>
       <c r="I59" s="3">
-        <v>160400</v>
+        <v>1576600</v>
       </c>
       <c r="J59" s="3">
+        <v>163800</v>
+      </c>
+      <c r="K59" s="3">
         <v>73600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4778500</v>
+        <v>4870100</v>
       </c>
       <c r="E60" s="3">
-        <v>3688300</v>
+        <v>4879600</v>
       </c>
       <c r="F60" s="3">
-        <v>3049900</v>
+        <v>3766300</v>
       </c>
       <c r="G60" s="3">
-        <v>2805400</v>
+        <v>3114300</v>
       </c>
       <c r="H60" s="3">
-        <v>2845100</v>
+        <v>2864800</v>
       </c>
       <c r="I60" s="3">
-        <v>1607800</v>
+        <v>2905300</v>
       </c>
       <c r="J60" s="3">
+        <v>1641800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1105700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>895100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>820600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>442700</v>
+        <v>1188000</v>
       </c>
       <c r="E61" s="3">
-        <v>396100</v>
+        <v>452100</v>
       </c>
       <c r="F61" s="3">
-        <v>185900</v>
+        <v>404500</v>
       </c>
       <c r="G61" s="3">
-        <v>81400</v>
+        <v>189800</v>
       </c>
       <c r="H61" s="3">
-        <v>330700</v>
+        <v>83100</v>
       </c>
       <c r="I61" s="3">
-        <v>513400</v>
+        <v>337700</v>
       </c>
       <c r="J61" s="3">
+        <v>524200</v>
+      </c>
+      <c r="K61" s="3">
         <v>182500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>93400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>79000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>187700</v>
+        <v>220000</v>
       </c>
       <c r="E62" s="3">
-        <v>101600</v>
+        <v>191700</v>
       </c>
       <c r="F62" s="3">
-        <v>117300</v>
+        <v>103800</v>
       </c>
       <c r="G62" s="3">
-        <v>112300</v>
+        <v>119800</v>
       </c>
       <c r="H62" s="3">
-        <v>60800</v>
+        <v>114700</v>
       </c>
       <c r="I62" s="3">
-        <v>35500</v>
+        <v>62000</v>
       </c>
       <c r="J62" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K62" s="3">
         <v>24300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5888400</v>
+        <v>6746600</v>
       </c>
       <c r="E66" s="3">
-        <v>4279900</v>
+        <v>6012800</v>
       </c>
       <c r="F66" s="3">
-        <v>3353100</v>
+        <v>4370400</v>
       </c>
       <c r="G66" s="3">
-        <v>2999100</v>
+        <v>3424000</v>
       </c>
       <c r="H66" s="3">
-        <v>3486800</v>
+        <v>3062500</v>
       </c>
       <c r="I66" s="3">
-        <v>2379800</v>
+        <v>3560600</v>
       </c>
       <c r="J66" s="3">
+        <v>2430100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1314100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1005400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>913500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>713700</v>
+        <v>765800</v>
       </c>
       <c r="E72" s="3">
-        <v>576400</v>
+        <v>728800</v>
       </c>
       <c r="F72" s="3">
-        <v>514300</v>
+        <v>588600</v>
       </c>
       <c r="G72" s="3">
-        <v>492600</v>
+        <v>525200</v>
       </c>
       <c r="H72" s="3">
-        <v>213700</v>
+        <v>503100</v>
       </c>
       <c r="I72" s="3">
-        <v>109200</v>
+        <v>218200</v>
       </c>
       <c r="J72" s="3">
+        <v>111600</v>
+      </c>
+      <c r="K72" s="3">
         <v>6400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>203100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1421400</v>
+        <v>1558200</v>
       </c>
       <c r="E76" s="3">
-        <v>1197800</v>
+        <v>1451400</v>
       </c>
       <c r="F76" s="3">
-        <v>1022000</v>
+        <v>1223100</v>
       </c>
       <c r="G76" s="3">
-        <v>987100</v>
+        <v>1043600</v>
       </c>
       <c r="H76" s="3">
-        <v>660300</v>
+        <v>1007900</v>
       </c>
       <c r="I76" s="3">
-        <v>535800</v>
+        <v>674300</v>
       </c>
       <c r="J76" s="3">
+        <v>547100</v>
+      </c>
+      <c r="K76" s="3">
         <v>307000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>195900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>421000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>137300</v>
+        <v>35900</v>
       </c>
       <c r="E81" s="3">
-        <v>62100</v>
+        <v>140200</v>
       </c>
       <c r="F81" s="3">
-        <v>21600</v>
+        <v>63400</v>
       </c>
       <c r="G81" s="3">
-        <v>279100</v>
+        <v>22100</v>
       </c>
       <c r="H81" s="3">
-        <v>106600</v>
+        <v>285000</v>
       </c>
       <c r="I81" s="3">
-        <v>104300</v>
+        <v>108800</v>
       </c>
       <c r="J81" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K81" s="3">
         <v>28700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-221300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>149600</v>
+        <v>215800</v>
       </c>
       <c r="E83" s="3">
-        <v>124900</v>
+        <v>152700</v>
       </c>
       <c r="F83" s="3">
-        <v>94100</v>
+        <v>127500</v>
       </c>
       <c r="G83" s="3">
-        <v>120500</v>
+        <v>96100</v>
       </c>
       <c r="H83" s="3">
-        <v>96400</v>
+        <v>123000</v>
       </c>
       <c r="I83" s="3">
-        <v>67500</v>
+        <v>98400</v>
       </c>
       <c r="J83" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K83" s="3">
         <v>55500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>215500</v>
+        <v>92300</v>
       </c>
       <c r="E89" s="3">
-        <v>93900</v>
+        <v>220100</v>
       </c>
       <c r="F89" s="3">
-        <v>-27100</v>
+        <v>95900</v>
       </c>
       <c r="G89" s="3">
-        <v>-275500</v>
+        <v>-27600</v>
       </c>
       <c r="H89" s="3">
-        <v>204600</v>
+        <v>-281300</v>
       </c>
       <c r="I89" s="3">
-        <v>28600</v>
+        <v>208900</v>
       </c>
       <c r="J89" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K89" s="3">
         <v>95500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-111400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-561300</v>
+        <v>-644500</v>
       </c>
       <c r="E91" s="3">
-        <v>-374500</v>
+        <v>-573200</v>
       </c>
       <c r="F91" s="3">
-        <v>-391800</v>
+        <v>-382400</v>
       </c>
       <c r="G91" s="3">
-        <v>-600700</v>
+        <v>-400100</v>
       </c>
       <c r="H91" s="3">
-        <v>-456800</v>
+        <v>-613400</v>
       </c>
       <c r="I91" s="3">
-        <v>-458600</v>
+        <v>-466400</v>
       </c>
       <c r="J91" s="3">
+        <v>-468300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-151700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-276200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-920500</v>
+        <v>-767400</v>
       </c>
       <c r="E94" s="3">
-        <v>-601200</v>
+        <v>-940000</v>
       </c>
       <c r="F94" s="3">
-        <v>-371800</v>
+        <v>-613900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1055600</v>
+        <v>-379700</v>
       </c>
       <c r="H94" s="3">
-        <v>-506400</v>
+        <v>-1077900</v>
       </c>
       <c r="I94" s="3">
-        <v>-635400</v>
+        <v>-517100</v>
       </c>
       <c r="J94" s="3">
+        <v>-648800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-196500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-71900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-353900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1127800</v>
+        <v>982400</v>
       </c>
       <c r="E100" s="3">
-        <v>606900</v>
+        <v>1151600</v>
       </c>
       <c r="F100" s="3">
-        <v>400900</v>
+        <v>619800</v>
       </c>
       <c r="G100" s="3">
-        <v>1139000</v>
+        <v>409400</v>
       </c>
       <c r="H100" s="3">
-        <v>588300</v>
+        <v>1163100</v>
       </c>
       <c r="I100" s="3">
-        <v>810300</v>
+        <v>600700</v>
       </c>
       <c r="J100" s="3">
+        <v>827400</v>
+      </c>
+      <c r="K100" s="3">
         <v>128500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-53200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>453800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3800</v>
+        <v>-26400</v>
       </c>
       <c r="E101" s="3">
-        <v>10400</v>
+        <v>3900</v>
       </c>
       <c r="F101" s="3">
-        <v>-11100</v>
+        <v>10700</v>
       </c>
       <c r="G101" s="3">
-        <v>11400</v>
+        <v>-11300</v>
       </c>
       <c r="H101" s="3">
-        <v>4800</v>
+        <v>11600</v>
       </c>
       <c r="I101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>426600</v>
+        <v>280900</v>
       </c>
       <c r="E102" s="3">
-        <v>110100</v>
+        <v>435600</v>
       </c>
       <c r="F102" s="3">
-        <v>-9000</v>
+        <v>112400</v>
       </c>
       <c r="G102" s="3">
-        <v>-180600</v>
+        <v>-9200</v>
       </c>
       <c r="H102" s="3">
-        <v>291300</v>
+        <v>-184400</v>
       </c>
       <c r="I102" s="3">
-        <v>201800</v>
+        <v>297500</v>
       </c>
       <c r="J102" s="3">
+        <v>206100</v>
+      </c>
+      <c r="K102" s="3">
         <v>27000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5480500</v>
+        <v>5409200</v>
       </c>
       <c r="E8" s="3">
-        <v>4640700</v>
+        <v>4580300</v>
       </c>
       <c r="F8" s="3">
-        <v>3906900</v>
+        <v>3856100</v>
       </c>
       <c r="G8" s="3">
-        <v>4130000</v>
+        <v>4076300</v>
       </c>
       <c r="H8" s="3">
-        <v>3338700</v>
+        <v>3295300</v>
       </c>
       <c r="I8" s="3">
-        <v>2411000</v>
+        <v>2379700</v>
       </c>
       <c r="J8" s="3">
-        <v>1519700</v>
+        <v>1499900</v>
       </c>
       <c r="K8" s="3">
         <v>1081500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4517700</v>
+        <v>4458900</v>
       </c>
       <c r="E9" s="3">
-        <v>3793300</v>
+        <v>3744000</v>
       </c>
       <c r="F9" s="3">
-        <v>3358700</v>
+        <v>3315000</v>
       </c>
       <c r="G9" s="3">
-        <v>3663300</v>
+        <v>3615700</v>
       </c>
       <c r="H9" s="3">
-        <v>2735100</v>
+        <v>2699500</v>
       </c>
       <c r="I9" s="3">
-        <v>1953700</v>
+        <v>1928300</v>
       </c>
       <c r="J9" s="3">
-        <v>1192500</v>
+        <v>1177000</v>
       </c>
       <c r="K9" s="3">
         <v>861900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>962800</v>
+        <v>950300</v>
       </c>
       <c r="E10" s="3">
-        <v>847400</v>
+        <v>836400</v>
       </c>
       <c r="F10" s="3">
-        <v>548200</v>
+        <v>541000</v>
       </c>
       <c r="G10" s="3">
-        <v>466700</v>
+        <v>460600</v>
       </c>
       <c r="H10" s="3">
-        <v>603700</v>
+        <v>595800</v>
       </c>
       <c r="I10" s="3">
-        <v>457300</v>
+        <v>451400</v>
       </c>
       <c r="J10" s="3">
-        <v>327200</v>
+        <v>322900</v>
       </c>
       <c r="K10" s="3">
         <v>219600</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>60700</v>
+        <v>59900</v>
       </c>
       <c r="E12" s="3">
-        <v>50600</v>
+        <v>50000</v>
       </c>
       <c r="F12" s="3">
-        <v>57200</v>
+        <v>56400</v>
       </c>
       <c r="G12" s="3">
-        <v>45900</v>
+        <v>45300</v>
       </c>
       <c r="H12" s="3">
-        <v>28300</v>
+        <v>27900</v>
       </c>
       <c r="I12" s="3">
-        <v>22400</v>
+        <v>22100</v>
       </c>
       <c r="J12" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="K12" s="3">
         <v>10000</v>
@@ -916,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="E14" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="F14" s="3">
         <v>3700</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5202100</v>
+        <v>5134400</v>
       </c>
       <c r="E17" s="3">
-        <v>4367800</v>
+        <v>4310900</v>
       </c>
       <c r="F17" s="3">
-        <v>3807800</v>
+        <v>3758200</v>
       </c>
       <c r="G17" s="3">
-        <v>4079300</v>
+        <v>4026200</v>
       </c>
       <c r="H17" s="3">
-        <v>3127500</v>
+        <v>3086800</v>
       </c>
       <c r="I17" s="3">
-        <v>2236000</v>
+        <v>2206900</v>
       </c>
       <c r="J17" s="3">
-        <v>1388000</v>
+        <v>1369900</v>
       </c>
       <c r="K17" s="3">
         <v>982900</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>278500</v>
+        <v>274800</v>
       </c>
       <c r="E18" s="3">
-        <v>272900</v>
+        <v>269400</v>
       </c>
       <c r="F18" s="3">
-        <v>99100</v>
+        <v>97900</v>
       </c>
       <c r="G18" s="3">
-        <v>50800</v>
+        <v>50100</v>
       </c>
       <c r="H18" s="3">
-        <v>211300</v>
+        <v>208500</v>
       </c>
       <c r="I18" s="3">
-        <v>175000</v>
+        <v>172700</v>
       </c>
       <c r="J18" s="3">
-        <v>131700</v>
+        <v>130000</v>
       </c>
       <c r="K18" s="3">
         <v>98600</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-84700</v>
+        <v>-83600</v>
       </c>
       <c r="E20" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="F20" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="G20" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="H20" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="I20" s="3">
-        <v>-39700</v>
+        <v>-39200</v>
       </c>
       <c r="J20" s="3">
-        <v>-43900</v>
+        <v>-43300</v>
       </c>
       <c r="K20" s="3">
         <v>-62900</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>409300</v>
+        <v>404600</v>
       </c>
       <c r="E21" s="3">
-        <v>435400</v>
+        <v>430200</v>
       </c>
       <c r="F21" s="3">
-        <v>249900</v>
+        <v>247000</v>
       </c>
       <c r="G21" s="3">
-        <v>166700</v>
+        <v>164800</v>
       </c>
       <c r="H21" s="3">
-        <v>317500</v>
+        <v>313700</v>
       </c>
       <c r="I21" s="3">
-        <v>233500</v>
+        <v>230800</v>
       </c>
       <c r="J21" s="3">
-        <v>156600</v>
+        <v>154800</v>
       </c>
       <c r="K21" s="3">
         <v>91400</v>
@@ -1161,16 +1161,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>105400</v>
+        <v>104100</v>
       </c>
       <c r="E22" s="3">
-        <v>87700</v>
+        <v>86500</v>
       </c>
       <c r="F22" s="3">
-        <v>59000</v>
+        <v>58200</v>
       </c>
       <c r="G22" s="3">
-        <v>47500</v>
+        <v>46900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>88400</v>
+        <v>87200</v>
       </c>
       <c r="E23" s="3">
-        <v>195200</v>
+        <v>192700</v>
       </c>
       <c r="F23" s="3">
-        <v>63600</v>
+        <v>62700</v>
       </c>
       <c r="G23" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="H23" s="3">
-        <v>194700</v>
+        <v>192100</v>
       </c>
       <c r="I23" s="3">
-        <v>135300</v>
+        <v>133500</v>
       </c>
       <c r="J23" s="3">
-        <v>87800</v>
+        <v>86700</v>
       </c>
       <c r="K23" s="3">
         <v>35700</v>
@@ -1233,10 +1233,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27800</v>
+        <v>27500</v>
       </c>
       <c r="E24" s="3">
-        <v>43400</v>
+        <v>42800</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
@@ -1245,13 +1245,13 @@
         <v>700</v>
       </c>
       <c r="H24" s="3">
-        <v>40200</v>
+        <v>39600</v>
       </c>
       <c r="I24" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="J24" s="3">
-        <v>-21100</v>
+        <v>-20800</v>
       </c>
       <c r="K24" s="3">
         <v>2800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>60500</v>
+        <v>59700</v>
       </c>
       <c r="E26" s="3">
-        <v>151800</v>
+        <v>149900</v>
       </c>
       <c r="F26" s="3">
-        <v>62900</v>
+        <v>62000</v>
       </c>
       <c r="G26" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="H26" s="3">
-        <v>154500</v>
+        <v>152500</v>
       </c>
       <c r="I26" s="3">
-        <v>119600</v>
+        <v>118000</v>
       </c>
       <c r="J26" s="3">
-        <v>108900</v>
+        <v>107500</v>
       </c>
       <c r="K26" s="3">
         <v>32900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="E27" s="3">
-        <v>140200</v>
+        <v>138400</v>
       </c>
       <c r="F27" s="3">
-        <v>63400</v>
+        <v>62600</v>
       </c>
       <c r="G27" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="H27" s="3">
-        <v>129700</v>
+        <v>128000</v>
       </c>
       <c r="I27" s="3">
-        <v>94800</v>
+        <v>93600</v>
       </c>
       <c r="J27" s="3">
-        <v>102100</v>
+        <v>100800</v>
       </c>
       <c r="K27" s="3">
         <v>28700</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>155300</v>
+        <v>153300</v>
       </c>
       <c r="I29" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="J29" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>84700</v>
+        <v>83600</v>
       </c>
       <c r="E32" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="F32" s="3">
-        <v>-23400</v>
+        <v>-23100</v>
       </c>
       <c r="G32" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="H32" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="I32" s="3">
-        <v>39700</v>
+        <v>39200</v>
       </c>
       <c r="J32" s="3">
-        <v>43900</v>
+        <v>43300</v>
       </c>
       <c r="K32" s="3">
         <v>62900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="E33" s="3">
-        <v>140200</v>
+        <v>138400</v>
       </c>
       <c r="F33" s="3">
-        <v>63400</v>
+        <v>62600</v>
       </c>
       <c r="G33" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="H33" s="3">
-        <v>285000</v>
+        <v>281300</v>
       </c>
       <c r="I33" s="3">
-        <v>108800</v>
+        <v>107400</v>
       </c>
       <c r="J33" s="3">
-        <v>106500</v>
+        <v>105100</v>
       </c>
       <c r="K33" s="3">
         <v>28700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="E35" s="3">
-        <v>140200</v>
+        <v>138400</v>
       </c>
       <c r="F35" s="3">
-        <v>63400</v>
+        <v>62600</v>
       </c>
       <c r="G35" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="H35" s="3">
-        <v>285000</v>
+        <v>281300</v>
       </c>
       <c r="I35" s="3">
-        <v>108800</v>
+        <v>107400</v>
       </c>
       <c r="J35" s="3">
-        <v>106500</v>
+        <v>105100</v>
       </c>
       <c r="K35" s="3">
         <v>28700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1167200</v>
+        <v>1152000</v>
       </c>
       <c r="E41" s="3">
-        <v>882100</v>
+        <v>870600</v>
       </c>
       <c r="F41" s="3">
-        <v>484400</v>
+        <v>478100</v>
       </c>
       <c r="G41" s="3">
-        <v>300800</v>
+        <v>296900</v>
       </c>
       <c r="H41" s="3">
-        <v>390200</v>
+        <v>385200</v>
       </c>
       <c r="I41" s="3">
-        <v>373300</v>
+        <v>368400</v>
       </c>
       <c r="J41" s="3">
-        <v>277200</v>
+        <v>273600</v>
       </c>
       <c r="K41" s="3">
         <v>69700</v>
@@ -1774,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>88900</v>
+        <v>87800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
@@ -1786,13 +1786,13 @@
         <v>400</v>
       </c>
       <c r="H42" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="I42" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J42" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>17</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1076300</v>
+        <v>1062300</v>
       </c>
       <c r="E43" s="3">
-        <v>1185600</v>
+        <v>1170100</v>
       </c>
       <c r="F43" s="3">
-        <v>1129700</v>
+        <v>1115000</v>
       </c>
       <c r="G43" s="3">
-        <v>1143400</v>
+        <v>1128600</v>
       </c>
       <c r="H43" s="3">
-        <v>1217700</v>
+        <v>1201900</v>
       </c>
       <c r="I43" s="3">
-        <v>515500</v>
+        <v>508800</v>
       </c>
       <c r="J43" s="3">
-        <v>530300</v>
+        <v>523400</v>
       </c>
       <c r="K43" s="3">
         <v>343300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1306900</v>
+        <v>1289900</v>
       </c>
       <c r="E44" s="3">
-        <v>907800</v>
+        <v>896000</v>
       </c>
       <c r="F44" s="3">
-        <v>896000</v>
+        <v>884400</v>
       </c>
       <c r="G44" s="3">
-        <v>666700</v>
+        <v>658100</v>
       </c>
       <c r="H44" s="3">
-        <v>697900</v>
+        <v>688800</v>
       </c>
       <c r="I44" s="3">
-        <v>499800</v>
+        <v>493200</v>
       </c>
       <c r="J44" s="3">
-        <v>295000</v>
+        <v>291200</v>
       </c>
       <c r="K44" s="3">
         <v>108800</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1615400</v>
+        <v>1594400</v>
       </c>
       <c r="E45" s="3">
-        <v>1968300</v>
+        <v>1942700</v>
       </c>
       <c r="F45" s="3">
-        <v>1055400</v>
+        <v>1041600</v>
       </c>
       <c r="G45" s="3">
-        <v>947600</v>
+        <v>935200</v>
       </c>
       <c r="H45" s="3">
-        <v>755700</v>
+        <v>745800</v>
       </c>
       <c r="I45" s="3">
-        <v>2119400</v>
+        <v>2091900</v>
       </c>
       <c r="J45" s="3">
-        <v>499800</v>
+        <v>493300</v>
       </c>
       <c r="K45" s="3">
         <v>294500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5254700</v>
+        <v>5186400</v>
       </c>
       <c r="E46" s="3">
-        <v>4943700</v>
+        <v>4879400</v>
       </c>
       <c r="F46" s="3">
-        <v>3565500</v>
+        <v>3519100</v>
       </c>
       <c r="G46" s="3">
-        <v>3059000</v>
+        <v>3019200</v>
       </c>
       <c r="H46" s="3">
-        <v>3072700</v>
+        <v>3032700</v>
       </c>
       <c r="I46" s="3">
-        <v>3509400</v>
+        <v>3463700</v>
       </c>
       <c r="J46" s="3">
-        <v>1623100</v>
+        <v>1601900</v>
       </c>
       <c r="K46" s="3">
         <v>816300</v>
@@ -1954,16 +1954,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34400</v>
+        <v>34000</v>
       </c>
       <c r="E47" s="3">
-        <v>43400</v>
+        <v>42800</v>
       </c>
       <c r="F47" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G47" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H47" s="3">
         <v>1100</v>
@@ -1972,7 +1972,7 @@
         <v>1100</v>
       </c>
       <c r="J47" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="K47" s="3">
         <v>18900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2222600</v>
+        <v>2193700</v>
       </c>
       <c r="E48" s="3">
-        <v>1963200</v>
+        <v>1937700</v>
       </c>
       <c r="F48" s="3">
-        <v>1567400</v>
+        <v>1547000</v>
       </c>
       <c r="G48" s="3">
-        <v>1116100</v>
+        <v>1101600</v>
       </c>
       <c r="H48" s="3">
-        <v>747900</v>
+        <v>738100</v>
       </c>
       <c r="I48" s="3">
-        <v>587600</v>
+        <v>580000</v>
       </c>
       <c r="J48" s="3">
-        <v>1163000</v>
+        <v>1147900</v>
       </c>
       <c r="K48" s="3">
         <v>694500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>124300</v>
+        <v>122700</v>
       </c>
       <c r="E49" s="3">
-        <v>99000</v>
+        <v>97700</v>
       </c>
       <c r="F49" s="3">
-        <v>95200</v>
+        <v>94000</v>
       </c>
       <c r="G49" s="3">
-        <v>73200</v>
+        <v>72200</v>
       </c>
       <c r="H49" s="3">
-        <v>73500</v>
+        <v>72600</v>
       </c>
       <c r="I49" s="3">
-        <v>57800</v>
+        <v>57000</v>
       </c>
       <c r="J49" s="3">
-        <v>59600</v>
+        <v>58800</v>
       </c>
       <c r="K49" s="3">
         <v>55800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>668700</v>
+        <v>660000</v>
       </c>
       <c r="E52" s="3">
-        <v>415000</v>
+        <v>409600</v>
       </c>
       <c r="F52" s="3">
-        <v>361400</v>
+        <v>356700</v>
       </c>
       <c r="G52" s="3">
-        <v>215800</v>
+        <v>213000</v>
       </c>
       <c r="H52" s="3">
-        <v>175200</v>
+        <v>172900</v>
       </c>
       <c r="I52" s="3">
-        <v>201600</v>
+        <v>198900</v>
       </c>
       <c r="J52" s="3">
-        <v>115500</v>
+        <v>114000</v>
       </c>
       <c r="K52" s="3">
         <v>35600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8304800</v>
+        <v>8196700</v>
       </c>
       <c r="E54" s="3">
-        <v>7464300</v>
+        <v>7367100</v>
       </c>
       <c r="F54" s="3">
-        <v>5593500</v>
+        <v>5520700</v>
       </c>
       <c r="G54" s="3">
-        <v>4467600</v>
+        <v>4409400</v>
       </c>
       <c r="H54" s="3">
-        <v>4070400</v>
+        <v>4017400</v>
       </c>
       <c r="I54" s="3">
-        <v>4234800</v>
+        <v>4179700</v>
       </c>
       <c r="J54" s="3">
-        <v>2977300</v>
+        <v>2938500</v>
       </c>
       <c r="K54" s="3">
         <v>1621200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>694300</v>
+        <v>685300</v>
       </c>
       <c r="E57" s="3">
-        <v>778300</v>
+        <v>768200</v>
       </c>
       <c r="F57" s="3">
-        <v>831200</v>
+        <v>820400</v>
       </c>
       <c r="G57" s="3">
-        <v>727600</v>
+        <v>718100</v>
       </c>
       <c r="H57" s="3">
-        <v>669300</v>
+        <v>660600</v>
       </c>
       <c r="I57" s="3">
-        <v>590500</v>
+        <v>582800</v>
       </c>
       <c r="J57" s="3">
-        <v>678200</v>
+        <v>669400</v>
       </c>
       <c r="K57" s="3">
         <v>386800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3069900</v>
+        <v>3029900</v>
       </c>
       <c r="E58" s="3">
-        <v>2619900</v>
+        <v>2585900</v>
       </c>
       <c r="F58" s="3">
-        <v>2057000</v>
+        <v>2030300</v>
       </c>
       <c r="G58" s="3">
-        <v>1854500</v>
+        <v>1830400</v>
       </c>
       <c r="H58" s="3">
-        <v>1670700</v>
+        <v>1649000</v>
       </c>
       <c r="I58" s="3">
-        <v>1454300</v>
+        <v>1435400</v>
       </c>
       <c r="J58" s="3">
-        <v>799700</v>
+        <v>789300</v>
       </c>
       <c r="K58" s="3">
         <v>645300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1105900</v>
+        <v>1091500</v>
       </c>
       <c r="E59" s="3">
-        <v>1481300</v>
+        <v>1462000</v>
       </c>
       <c r="F59" s="3">
-        <v>878000</v>
+        <v>866600</v>
       </c>
       <c r="G59" s="3">
-        <v>532300</v>
+        <v>525300</v>
       </c>
       <c r="H59" s="3">
-        <v>524700</v>
+        <v>517900</v>
       </c>
       <c r="I59" s="3">
-        <v>1576600</v>
+        <v>1556000</v>
       </c>
       <c r="J59" s="3">
-        <v>163800</v>
+        <v>161700</v>
       </c>
       <c r="K59" s="3">
         <v>73600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4870100</v>
+        <v>4806800</v>
       </c>
       <c r="E60" s="3">
-        <v>4879600</v>
+        <v>4816100</v>
       </c>
       <c r="F60" s="3">
-        <v>3766300</v>
+        <v>3717300</v>
       </c>
       <c r="G60" s="3">
-        <v>3114300</v>
+        <v>3073800</v>
       </c>
       <c r="H60" s="3">
-        <v>2864800</v>
+        <v>2827500</v>
       </c>
       <c r="I60" s="3">
-        <v>2905300</v>
+        <v>2867500</v>
       </c>
       <c r="J60" s="3">
-        <v>1641800</v>
+        <v>1620400</v>
       </c>
       <c r="K60" s="3">
         <v>1105700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1188000</v>
+        <v>1172500</v>
       </c>
       <c r="E61" s="3">
-        <v>452100</v>
+        <v>446200</v>
       </c>
       <c r="F61" s="3">
-        <v>404500</v>
+        <v>399200</v>
       </c>
       <c r="G61" s="3">
-        <v>189800</v>
+        <v>187300</v>
       </c>
       <c r="H61" s="3">
-        <v>83100</v>
+        <v>82000</v>
       </c>
       <c r="I61" s="3">
-        <v>337700</v>
+        <v>333300</v>
       </c>
       <c r="J61" s="3">
-        <v>524200</v>
+        <v>517400</v>
       </c>
       <c r="K61" s="3">
         <v>182500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>220000</v>
+        <v>217100</v>
       </c>
       <c r="E62" s="3">
-        <v>191700</v>
+        <v>189200</v>
       </c>
       <c r="F62" s="3">
-        <v>103800</v>
+        <v>102400</v>
       </c>
       <c r="G62" s="3">
-        <v>119800</v>
+        <v>118300</v>
       </c>
       <c r="H62" s="3">
-        <v>114700</v>
+        <v>113200</v>
       </c>
       <c r="I62" s="3">
-        <v>62000</v>
+        <v>61200</v>
       </c>
       <c r="J62" s="3">
-        <v>36200</v>
+        <v>35700</v>
       </c>
       <c r="K62" s="3">
         <v>24300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6746600</v>
+        <v>6658800</v>
       </c>
       <c r="E66" s="3">
-        <v>6012800</v>
+        <v>5934600</v>
       </c>
       <c r="F66" s="3">
-        <v>4370400</v>
+        <v>4313500</v>
       </c>
       <c r="G66" s="3">
-        <v>3424000</v>
+        <v>3379400</v>
       </c>
       <c r="H66" s="3">
-        <v>3062500</v>
+        <v>3022600</v>
       </c>
       <c r="I66" s="3">
-        <v>3560600</v>
+        <v>3514200</v>
       </c>
       <c r="J66" s="3">
-        <v>2430100</v>
+        <v>2398500</v>
       </c>
       <c r="K66" s="3">
         <v>1314100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>765800</v>
+        <v>755800</v>
       </c>
       <c r="E72" s="3">
-        <v>728800</v>
+        <v>719300</v>
       </c>
       <c r="F72" s="3">
-        <v>588600</v>
+        <v>580900</v>
       </c>
       <c r="G72" s="3">
-        <v>525200</v>
+        <v>518300</v>
       </c>
       <c r="H72" s="3">
-        <v>503100</v>
+        <v>496500</v>
       </c>
       <c r="I72" s="3">
-        <v>218200</v>
+        <v>215400</v>
       </c>
       <c r="J72" s="3">
-        <v>111600</v>
+        <v>110100</v>
       </c>
       <c r="K72" s="3">
         <v>6400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1558200</v>
+        <v>1537900</v>
       </c>
       <c r="E76" s="3">
-        <v>1451400</v>
+        <v>1432500</v>
       </c>
       <c r="F76" s="3">
-        <v>1223100</v>
+        <v>1207200</v>
       </c>
       <c r="G76" s="3">
-        <v>1043600</v>
+        <v>1030000</v>
       </c>
       <c r="H76" s="3">
-        <v>1007900</v>
+        <v>994800</v>
       </c>
       <c r="I76" s="3">
-        <v>674300</v>
+        <v>665500</v>
       </c>
       <c r="J76" s="3">
-        <v>547100</v>
+        <v>540000</v>
       </c>
       <c r="K76" s="3">
         <v>307000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="E81" s="3">
-        <v>140200</v>
+        <v>138400</v>
       </c>
       <c r="F81" s="3">
-        <v>63400</v>
+        <v>62600</v>
       </c>
       <c r="G81" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="H81" s="3">
-        <v>285000</v>
+        <v>281300</v>
       </c>
       <c r="I81" s="3">
-        <v>108800</v>
+        <v>107400</v>
       </c>
       <c r="J81" s="3">
-        <v>106500</v>
+        <v>105100</v>
       </c>
       <c r="K81" s="3">
         <v>28700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>215800</v>
+        <v>213000</v>
       </c>
       <c r="E83" s="3">
-        <v>152700</v>
+        <v>150700</v>
       </c>
       <c r="F83" s="3">
-        <v>127500</v>
+        <v>125800</v>
       </c>
       <c r="G83" s="3">
-        <v>96100</v>
+        <v>94900</v>
       </c>
       <c r="H83" s="3">
-        <v>123000</v>
+        <v>121400</v>
       </c>
       <c r="I83" s="3">
-        <v>98400</v>
+        <v>97100</v>
       </c>
       <c r="J83" s="3">
-        <v>68900</v>
+        <v>68000</v>
       </c>
       <c r="K83" s="3">
         <v>55500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>92300</v>
+        <v>91100</v>
       </c>
       <c r="E89" s="3">
-        <v>220100</v>
+        <v>217200</v>
       </c>
       <c r="F89" s="3">
-        <v>95900</v>
+        <v>94600</v>
       </c>
       <c r="G89" s="3">
-        <v>-27600</v>
+        <v>-27300</v>
       </c>
       <c r="H89" s="3">
-        <v>-281300</v>
+        <v>-277600</v>
       </c>
       <c r="I89" s="3">
-        <v>208900</v>
+        <v>206200</v>
       </c>
       <c r="J89" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="K89" s="3">
         <v>95500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-644500</v>
+        <v>-636200</v>
       </c>
       <c r="E91" s="3">
-        <v>-573200</v>
+        <v>-565700</v>
       </c>
       <c r="F91" s="3">
-        <v>-382400</v>
+        <v>-377500</v>
       </c>
       <c r="G91" s="3">
-        <v>-400100</v>
+        <v>-394900</v>
       </c>
       <c r="H91" s="3">
-        <v>-613400</v>
+        <v>-605400</v>
       </c>
       <c r="I91" s="3">
-        <v>-466400</v>
+        <v>-460400</v>
       </c>
       <c r="J91" s="3">
-        <v>-468300</v>
+        <v>-462200</v>
       </c>
       <c r="K91" s="3">
         <v>-151700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-767400</v>
+        <v>-757400</v>
       </c>
       <c r="E94" s="3">
-        <v>-940000</v>
+        <v>-927800</v>
       </c>
       <c r="F94" s="3">
-        <v>-613900</v>
+        <v>-605900</v>
       </c>
       <c r="G94" s="3">
-        <v>-379700</v>
+        <v>-374700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1077900</v>
+        <v>-1063800</v>
       </c>
       <c r="I94" s="3">
-        <v>-517100</v>
+        <v>-510400</v>
       </c>
       <c r="J94" s="3">
-        <v>-648800</v>
+        <v>-640400</v>
       </c>
       <c r="K94" s="3">
         <v>-196500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>982400</v>
+        <v>969700</v>
       </c>
       <c r="E100" s="3">
-        <v>1151600</v>
+        <v>1136700</v>
       </c>
       <c r="F100" s="3">
-        <v>619800</v>
+        <v>611700</v>
       </c>
       <c r="G100" s="3">
-        <v>409400</v>
+        <v>404100</v>
       </c>
       <c r="H100" s="3">
-        <v>1163100</v>
+        <v>1147900</v>
       </c>
       <c r="I100" s="3">
-        <v>600700</v>
+        <v>592900</v>
       </c>
       <c r="J100" s="3">
-        <v>827400</v>
+        <v>816700</v>
       </c>
       <c r="K100" s="3">
         <v>128500</v>
@@ -3711,19 +3711,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="E101" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F101" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="G101" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="H101" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="I101" s="3">
         <v>4900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>280900</v>
+        <v>277300</v>
       </c>
       <c r="E102" s="3">
-        <v>435600</v>
+        <v>429900</v>
       </c>
       <c r="F102" s="3">
-        <v>112400</v>
+        <v>111000</v>
       </c>
       <c r="G102" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="H102" s="3">
-        <v>-184400</v>
+        <v>-182000</v>
       </c>
       <c r="I102" s="3">
-        <v>297500</v>
+        <v>293600</v>
       </c>
       <c r="J102" s="3">
-        <v>206100</v>
+        <v>203400</v>
       </c>
       <c r="K102" s="3">
         <v>27000</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5409200</v>
+        <v>5499900</v>
       </c>
       <c r="E8" s="3">
-        <v>4580300</v>
+        <v>4657100</v>
       </c>
       <c r="F8" s="3">
-        <v>3856100</v>
+        <v>3920700</v>
       </c>
       <c r="G8" s="3">
-        <v>4076300</v>
+        <v>4144600</v>
       </c>
       <c r="H8" s="3">
-        <v>3295300</v>
+        <v>3350500</v>
       </c>
       <c r="I8" s="3">
-        <v>2379700</v>
+        <v>2419500</v>
       </c>
       <c r="J8" s="3">
-        <v>1499900</v>
+        <v>1525000</v>
       </c>
       <c r="K8" s="3">
         <v>1081500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4458900</v>
+        <v>4533600</v>
       </c>
       <c r="E9" s="3">
-        <v>3744000</v>
+        <v>3806700</v>
       </c>
       <c r="F9" s="3">
-        <v>3315000</v>
+        <v>3370600</v>
       </c>
       <c r="G9" s="3">
-        <v>3615700</v>
+        <v>3676200</v>
       </c>
       <c r="H9" s="3">
-        <v>2699500</v>
+        <v>2744700</v>
       </c>
       <c r="I9" s="3">
-        <v>1928300</v>
+        <v>1960600</v>
       </c>
       <c r="J9" s="3">
-        <v>1177000</v>
+        <v>1196700</v>
       </c>
       <c r="K9" s="3">
         <v>861900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>950300</v>
+        <v>966200</v>
       </c>
       <c r="E10" s="3">
-        <v>836400</v>
+        <v>850400</v>
       </c>
       <c r="F10" s="3">
-        <v>541000</v>
+        <v>550100</v>
       </c>
       <c r="G10" s="3">
-        <v>460600</v>
+        <v>468400</v>
       </c>
       <c r="H10" s="3">
-        <v>595800</v>
+        <v>605800</v>
       </c>
       <c r="I10" s="3">
-        <v>451400</v>
+        <v>458900</v>
       </c>
       <c r="J10" s="3">
-        <v>322900</v>
+        <v>328300</v>
       </c>
       <c r="K10" s="3">
         <v>219600</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>59900</v>
+        <v>60900</v>
       </c>
       <c r="E12" s="3">
-        <v>50000</v>
+        <v>50800</v>
       </c>
       <c r="F12" s="3">
-        <v>56400</v>
+        <v>57400</v>
       </c>
       <c r="G12" s="3">
-        <v>45300</v>
+        <v>46000</v>
       </c>
       <c r="H12" s="3">
-        <v>27900</v>
+        <v>28400</v>
       </c>
       <c r="I12" s="3">
-        <v>22100</v>
+        <v>22500</v>
       </c>
       <c r="J12" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="K12" s="3">
         <v>10000</v>
@@ -916,19 +916,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="E14" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5134400</v>
+        <v>5220400</v>
       </c>
       <c r="E17" s="3">
-        <v>4310900</v>
+        <v>4383200</v>
       </c>
       <c r="F17" s="3">
-        <v>3758200</v>
+        <v>3821200</v>
       </c>
       <c r="G17" s="3">
-        <v>4026200</v>
+        <v>4093600</v>
       </c>
       <c r="H17" s="3">
-        <v>3086800</v>
+        <v>3138500</v>
       </c>
       <c r="I17" s="3">
-        <v>2206900</v>
+        <v>2243900</v>
       </c>
       <c r="J17" s="3">
-        <v>1369900</v>
+        <v>1392900</v>
       </c>
       <c r="K17" s="3">
         <v>982900</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>274800</v>
+        <v>279500</v>
       </c>
       <c r="E18" s="3">
-        <v>269400</v>
+        <v>273900</v>
       </c>
       <c r="F18" s="3">
-        <v>97900</v>
+        <v>99500</v>
       </c>
       <c r="G18" s="3">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="H18" s="3">
-        <v>208500</v>
+        <v>212000</v>
       </c>
       <c r="I18" s="3">
-        <v>172700</v>
+        <v>175600</v>
       </c>
       <c r="J18" s="3">
-        <v>130000</v>
+        <v>132100</v>
       </c>
       <c r="K18" s="3">
         <v>98600</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-83600</v>
+        <v>-85000</v>
       </c>
       <c r="E20" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="F20" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="G20" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="H20" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="I20" s="3">
-        <v>-39200</v>
+        <v>-39900</v>
       </c>
       <c r="J20" s="3">
-        <v>-43300</v>
+        <v>-44000</v>
       </c>
       <c r="K20" s="3">
         <v>-62900</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>404600</v>
+        <v>410900</v>
       </c>
       <c r="E21" s="3">
-        <v>430200</v>
+        <v>437000</v>
       </c>
       <c r="F21" s="3">
-        <v>247000</v>
+        <v>250800</v>
       </c>
       <c r="G21" s="3">
-        <v>164800</v>
+        <v>167300</v>
       </c>
       <c r="H21" s="3">
-        <v>313700</v>
+        <v>318700</v>
       </c>
       <c r="I21" s="3">
-        <v>230800</v>
+        <v>234400</v>
       </c>
       <c r="J21" s="3">
-        <v>154800</v>
+        <v>157200</v>
       </c>
       <c r="K21" s="3">
         <v>91400</v>
@@ -1161,16 +1161,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>104100</v>
+        <v>105800</v>
       </c>
       <c r="E22" s="3">
-        <v>86500</v>
+        <v>88000</v>
       </c>
       <c r="F22" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="G22" s="3">
-        <v>46900</v>
+        <v>47600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87200</v>
+        <v>88700</v>
       </c>
       <c r="E23" s="3">
-        <v>192700</v>
+        <v>195900</v>
       </c>
       <c r="F23" s="3">
-        <v>62700</v>
+        <v>63800</v>
       </c>
       <c r="G23" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="H23" s="3">
-        <v>192100</v>
+        <v>195300</v>
       </c>
       <c r="I23" s="3">
-        <v>133500</v>
+        <v>135700</v>
       </c>
       <c r="J23" s="3">
-        <v>86700</v>
+        <v>88100</v>
       </c>
       <c r="K23" s="3">
         <v>35700</v>
@@ -1233,10 +1233,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27500</v>
+        <v>27900</v>
       </c>
       <c r="E24" s="3">
-        <v>42800</v>
+        <v>43500</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
@@ -1245,13 +1245,13 @@
         <v>700</v>
       </c>
       <c r="H24" s="3">
-        <v>39600</v>
+        <v>40300</v>
       </c>
       <c r="I24" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="J24" s="3">
-        <v>-20800</v>
+        <v>-21200</v>
       </c>
       <c r="K24" s="3">
         <v>2800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>59700</v>
+        <v>60700</v>
       </c>
       <c r="E26" s="3">
-        <v>149900</v>
+        <v>152400</v>
       </c>
       <c r="F26" s="3">
-        <v>62000</v>
+        <v>63100</v>
       </c>
       <c r="G26" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="H26" s="3">
-        <v>152500</v>
+        <v>155000</v>
       </c>
       <c r="I26" s="3">
-        <v>118000</v>
+        <v>120000</v>
       </c>
       <c r="J26" s="3">
-        <v>107500</v>
+        <v>109300</v>
       </c>
       <c r="K26" s="3">
         <v>32900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35500</v>
+        <v>36100</v>
       </c>
       <c r="E27" s="3">
-        <v>138400</v>
+        <v>140700</v>
       </c>
       <c r="F27" s="3">
-        <v>62600</v>
+        <v>63600</v>
       </c>
       <c r="G27" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="H27" s="3">
-        <v>128000</v>
+        <v>130100</v>
       </c>
       <c r="I27" s="3">
-        <v>93600</v>
+        <v>95200</v>
       </c>
       <c r="J27" s="3">
-        <v>100800</v>
+        <v>102500</v>
       </c>
       <c r="K27" s="3">
         <v>28700</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>153300</v>
+        <v>155900</v>
       </c>
       <c r="I29" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="J29" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>83600</v>
+        <v>85000</v>
       </c>
       <c r="E32" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="F32" s="3">
-        <v>-23100</v>
+        <v>-23500</v>
       </c>
       <c r="G32" s="3">
-        <v>-19700</v>
+        <v>-20000</v>
       </c>
       <c r="H32" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="I32" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="J32" s="3">
-        <v>43300</v>
+        <v>44000</v>
       </c>
       <c r="K32" s="3">
         <v>62900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>35500</v>
+        <v>36100</v>
       </c>
       <c r="E33" s="3">
-        <v>138400</v>
+        <v>140700</v>
       </c>
       <c r="F33" s="3">
-        <v>62600</v>
+        <v>63600</v>
       </c>
       <c r="G33" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="H33" s="3">
-        <v>281300</v>
+        <v>286000</v>
       </c>
       <c r="I33" s="3">
-        <v>107400</v>
+        <v>109200</v>
       </c>
       <c r="J33" s="3">
-        <v>105100</v>
+        <v>106900</v>
       </c>
       <c r="K33" s="3">
         <v>28700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>35500</v>
+        <v>36100</v>
       </c>
       <c r="E35" s="3">
-        <v>138400</v>
+        <v>140700</v>
       </c>
       <c r="F35" s="3">
-        <v>62600</v>
+        <v>63600</v>
       </c>
       <c r="G35" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="H35" s="3">
-        <v>281300</v>
+        <v>286000</v>
       </c>
       <c r="I35" s="3">
-        <v>107400</v>
+        <v>109200</v>
       </c>
       <c r="J35" s="3">
-        <v>105100</v>
+        <v>106900</v>
       </c>
       <c r="K35" s="3">
         <v>28700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1152000</v>
+        <v>1171300</v>
       </c>
       <c r="E41" s="3">
-        <v>870600</v>
+        <v>885200</v>
       </c>
       <c r="F41" s="3">
-        <v>478100</v>
+        <v>486100</v>
       </c>
       <c r="G41" s="3">
-        <v>296900</v>
+        <v>301900</v>
       </c>
       <c r="H41" s="3">
-        <v>385200</v>
+        <v>391600</v>
       </c>
       <c r="I41" s="3">
-        <v>368400</v>
+        <v>374600</v>
       </c>
       <c r="J41" s="3">
-        <v>273600</v>
+        <v>278200</v>
       </c>
       <c r="K41" s="3">
         <v>69700</v>
@@ -1774,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>87800</v>
+        <v>89200</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
@@ -1786,13 +1786,13 @@
         <v>400</v>
       </c>
       <c r="H42" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="I42" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J42" s="3">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>17</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1062300</v>
+        <v>1080100</v>
       </c>
       <c r="E43" s="3">
-        <v>1170100</v>
+        <v>1189700</v>
       </c>
       <c r="F43" s="3">
-        <v>1115000</v>
+        <v>1133700</v>
       </c>
       <c r="G43" s="3">
-        <v>1128600</v>
+        <v>1147500</v>
       </c>
       <c r="H43" s="3">
-        <v>1201900</v>
+        <v>1222000</v>
       </c>
       <c r="I43" s="3">
-        <v>508800</v>
+        <v>517300</v>
       </c>
       <c r="J43" s="3">
-        <v>523400</v>
+        <v>532100</v>
       </c>
       <c r="K43" s="3">
         <v>343300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1289900</v>
+        <v>1311500</v>
       </c>
       <c r="E44" s="3">
-        <v>896000</v>
+        <v>911000</v>
       </c>
       <c r="F44" s="3">
-        <v>884400</v>
+        <v>899200</v>
       </c>
       <c r="G44" s="3">
-        <v>658100</v>
+        <v>669100</v>
       </c>
       <c r="H44" s="3">
-        <v>688800</v>
+        <v>700400</v>
       </c>
       <c r="I44" s="3">
-        <v>493200</v>
+        <v>501500</v>
       </c>
       <c r="J44" s="3">
-        <v>291200</v>
+        <v>296100</v>
       </c>
       <c r="K44" s="3">
         <v>108800</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1594400</v>
+        <v>1621100</v>
       </c>
       <c r="E45" s="3">
-        <v>1942700</v>
+        <v>1975200</v>
       </c>
       <c r="F45" s="3">
-        <v>1041600</v>
+        <v>1059100</v>
       </c>
       <c r="G45" s="3">
-        <v>935200</v>
+        <v>950900</v>
       </c>
       <c r="H45" s="3">
-        <v>745800</v>
+        <v>758300</v>
       </c>
       <c r="I45" s="3">
-        <v>2091900</v>
+        <v>2126900</v>
       </c>
       <c r="J45" s="3">
-        <v>493300</v>
+        <v>501600</v>
       </c>
       <c r="K45" s="3">
         <v>294500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5186400</v>
+        <v>5273300</v>
       </c>
       <c r="E46" s="3">
-        <v>4879400</v>
+        <v>4961100</v>
       </c>
       <c r="F46" s="3">
-        <v>3519100</v>
+        <v>3578100</v>
       </c>
       <c r="G46" s="3">
-        <v>3019200</v>
+        <v>3069800</v>
       </c>
       <c r="H46" s="3">
-        <v>3032700</v>
+        <v>3083500</v>
       </c>
       <c r="I46" s="3">
-        <v>3463700</v>
+        <v>3521800</v>
       </c>
       <c r="J46" s="3">
-        <v>1601900</v>
+        <v>1628800</v>
       </c>
       <c r="K46" s="3">
         <v>816300</v>
@@ -1954,16 +1954,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34000</v>
+        <v>34500</v>
       </c>
       <c r="E47" s="3">
-        <v>42800</v>
+        <v>43500</v>
       </c>
       <c r="F47" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G47" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H47" s="3">
         <v>1100</v>
@@ -1972,7 +1972,7 @@
         <v>1100</v>
       </c>
       <c r="J47" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="K47" s="3">
         <v>18900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2193700</v>
+        <v>2230400</v>
       </c>
       <c r="E48" s="3">
-        <v>1937700</v>
+        <v>1970200</v>
       </c>
       <c r="F48" s="3">
-        <v>1547000</v>
+        <v>1572900</v>
       </c>
       <c r="G48" s="3">
-        <v>1101600</v>
+        <v>1120000</v>
       </c>
       <c r="H48" s="3">
-        <v>738100</v>
+        <v>750500</v>
       </c>
       <c r="I48" s="3">
-        <v>580000</v>
+        <v>589700</v>
       </c>
       <c r="J48" s="3">
-        <v>1147900</v>
+        <v>1167100</v>
       </c>
       <c r="K48" s="3">
         <v>694500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>122700</v>
+        <v>124700</v>
       </c>
       <c r="E49" s="3">
-        <v>97700</v>
+        <v>99300</v>
       </c>
       <c r="F49" s="3">
-        <v>94000</v>
+        <v>95500</v>
       </c>
       <c r="G49" s="3">
-        <v>72200</v>
+        <v>73400</v>
       </c>
       <c r="H49" s="3">
-        <v>72600</v>
+        <v>73800</v>
       </c>
       <c r="I49" s="3">
-        <v>57000</v>
+        <v>58000</v>
       </c>
       <c r="J49" s="3">
-        <v>58800</v>
+        <v>59800</v>
       </c>
       <c r="K49" s="3">
         <v>55800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>660000</v>
+        <v>671100</v>
       </c>
       <c r="E52" s="3">
-        <v>409600</v>
+        <v>416500</v>
       </c>
       <c r="F52" s="3">
-        <v>356700</v>
+        <v>362700</v>
       </c>
       <c r="G52" s="3">
-        <v>213000</v>
+        <v>216600</v>
       </c>
       <c r="H52" s="3">
-        <v>172900</v>
+        <v>175800</v>
       </c>
       <c r="I52" s="3">
-        <v>198900</v>
+        <v>202300</v>
       </c>
       <c r="J52" s="3">
-        <v>114000</v>
+        <v>115900</v>
       </c>
       <c r="K52" s="3">
         <v>35600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8196700</v>
+        <v>8334100</v>
       </c>
       <c r="E54" s="3">
-        <v>7367100</v>
+        <v>7490600</v>
       </c>
       <c r="F54" s="3">
-        <v>5520700</v>
+        <v>5613200</v>
       </c>
       <c r="G54" s="3">
-        <v>4409400</v>
+        <v>4483300</v>
       </c>
       <c r="H54" s="3">
-        <v>4017400</v>
+        <v>4084800</v>
       </c>
       <c r="I54" s="3">
-        <v>4179700</v>
+        <v>4249800</v>
       </c>
       <c r="J54" s="3">
-        <v>2938500</v>
+        <v>2987800</v>
       </c>
       <c r="K54" s="3">
         <v>1621200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>685300</v>
+        <v>696800</v>
       </c>
       <c r="E57" s="3">
-        <v>768200</v>
+        <v>781100</v>
       </c>
       <c r="F57" s="3">
-        <v>820400</v>
+        <v>834100</v>
       </c>
       <c r="G57" s="3">
-        <v>718100</v>
+        <v>730100</v>
       </c>
       <c r="H57" s="3">
-        <v>660600</v>
+        <v>671700</v>
       </c>
       <c r="I57" s="3">
-        <v>582800</v>
+        <v>592500</v>
       </c>
       <c r="J57" s="3">
-        <v>669400</v>
+        <v>680600</v>
       </c>
       <c r="K57" s="3">
         <v>386800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3029900</v>
+        <v>3080700</v>
       </c>
       <c r="E58" s="3">
-        <v>2585900</v>
+        <v>2629200</v>
       </c>
       <c r="F58" s="3">
-        <v>2030300</v>
+        <v>2064300</v>
       </c>
       <c r="G58" s="3">
-        <v>1830400</v>
+        <v>1861100</v>
       </c>
       <c r="H58" s="3">
-        <v>1649000</v>
+        <v>1676600</v>
       </c>
       <c r="I58" s="3">
-        <v>1435400</v>
+        <v>1459500</v>
       </c>
       <c r="J58" s="3">
-        <v>789300</v>
+        <v>802500</v>
       </c>
       <c r="K58" s="3">
         <v>645300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1091500</v>
+        <v>1109800</v>
       </c>
       <c r="E59" s="3">
-        <v>1462000</v>
+        <v>1486500</v>
       </c>
       <c r="F59" s="3">
-        <v>866600</v>
+        <v>881100</v>
       </c>
       <c r="G59" s="3">
-        <v>525300</v>
+        <v>534100</v>
       </c>
       <c r="H59" s="3">
-        <v>517900</v>
+        <v>526600</v>
       </c>
       <c r="I59" s="3">
-        <v>1556000</v>
+        <v>1582100</v>
       </c>
       <c r="J59" s="3">
-        <v>161700</v>
+        <v>164400</v>
       </c>
       <c r="K59" s="3">
         <v>73600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4806800</v>
+        <v>4887300</v>
       </c>
       <c r="E60" s="3">
-        <v>4816100</v>
+        <v>4896800</v>
       </c>
       <c r="F60" s="3">
-        <v>3717300</v>
+        <v>3779500</v>
       </c>
       <c r="G60" s="3">
-        <v>3073800</v>
+        <v>3125300</v>
       </c>
       <c r="H60" s="3">
-        <v>2827500</v>
+        <v>2874900</v>
       </c>
       <c r="I60" s="3">
-        <v>2867500</v>
+        <v>2915500</v>
       </c>
       <c r="J60" s="3">
-        <v>1620400</v>
+        <v>1647500</v>
       </c>
       <c r="K60" s="3">
         <v>1105700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1172500</v>
+        <v>1192200</v>
       </c>
       <c r="E61" s="3">
-        <v>446200</v>
+        <v>453700</v>
       </c>
       <c r="F61" s="3">
-        <v>399200</v>
+        <v>405900</v>
       </c>
       <c r="G61" s="3">
-        <v>187300</v>
+        <v>190500</v>
       </c>
       <c r="H61" s="3">
-        <v>82000</v>
+        <v>83400</v>
       </c>
       <c r="I61" s="3">
-        <v>333300</v>
+        <v>338900</v>
       </c>
       <c r="J61" s="3">
-        <v>517400</v>
+        <v>526100</v>
       </c>
       <c r="K61" s="3">
         <v>182500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>217100</v>
+        <v>220800</v>
       </c>
       <c r="E62" s="3">
-        <v>189200</v>
+        <v>192300</v>
       </c>
       <c r="F62" s="3">
-        <v>102400</v>
+        <v>104200</v>
       </c>
       <c r="G62" s="3">
-        <v>118300</v>
+        <v>120200</v>
       </c>
       <c r="H62" s="3">
-        <v>113200</v>
+        <v>115100</v>
       </c>
       <c r="I62" s="3">
-        <v>61200</v>
+        <v>62300</v>
       </c>
       <c r="J62" s="3">
-        <v>35700</v>
+        <v>36300</v>
       </c>
       <c r="K62" s="3">
         <v>24300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6658800</v>
+        <v>6770400</v>
       </c>
       <c r="E66" s="3">
-        <v>5934600</v>
+        <v>6034000</v>
       </c>
       <c r="F66" s="3">
-        <v>4313500</v>
+        <v>4385800</v>
       </c>
       <c r="G66" s="3">
-        <v>3379400</v>
+        <v>3436000</v>
       </c>
       <c r="H66" s="3">
-        <v>3022600</v>
+        <v>3073300</v>
       </c>
       <c r="I66" s="3">
-        <v>3514200</v>
+        <v>3573100</v>
       </c>
       <c r="J66" s="3">
-        <v>2398500</v>
+        <v>2438700</v>
       </c>
       <c r="K66" s="3">
         <v>1314100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>755800</v>
+        <v>768500</v>
       </c>
       <c r="E72" s="3">
-        <v>719300</v>
+        <v>731300</v>
       </c>
       <c r="F72" s="3">
-        <v>580900</v>
+        <v>590700</v>
       </c>
       <c r="G72" s="3">
-        <v>518300</v>
+        <v>527000</v>
       </c>
       <c r="H72" s="3">
-        <v>496500</v>
+        <v>504800</v>
       </c>
       <c r="I72" s="3">
-        <v>215400</v>
+        <v>219000</v>
       </c>
       <c r="J72" s="3">
-        <v>110100</v>
+        <v>111900</v>
       </c>
       <c r="K72" s="3">
         <v>6400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1537900</v>
+        <v>1563700</v>
       </c>
       <c r="E76" s="3">
-        <v>1432500</v>
+        <v>1456500</v>
       </c>
       <c r="F76" s="3">
-        <v>1207200</v>
+        <v>1227400</v>
       </c>
       <c r="G76" s="3">
-        <v>1030000</v>
+        <v>1047300</v>
       </c>
       <c r="H76" s="3">
-        <v>994800</v>
+        <v>1011500</v>
       </c>
       <c r="I76" s="3">
-        <v>665500</v>
+        <v>676600</v>
       </c>
       <c r="J76" s="3">
-        <v>540000</v>
+        <v>549100</v>
       </c>
       <c r="K76" s="3">
         <v>307000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>35500</v>
+        <v>36100</v>
       </c>
       <c r="E81" s="3">
-        <v>138400</v>
+        <v>140700</v>
       </c>
       <c r="F81" s="3">
-        <v>62600</v>
+        <v>63600</v>
       </c>
       <c r="G81" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="H81" s="3">
-        <v>281300</v>
+        <v>286000</v>
       </c>
       <c r="I81" s="3">
-        <v>107400</v>
+        <v>109200</v>
       </c>
       <c r="J81" s="3">
-        <v>105100</v>
+        <v>106900</v>
       </c>
       <c r="K81" s="3">
         <v>28700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>213000</v>
+        <v>216600</v>
       </c>
       <c r="E83" s="3">
-        <v>150700</v>
+        <v>153300</v>
       </c>
       <c r="F83" s="3">
-        <v>125800</v>
+        <v>128000</v>
       </c>
       <c r="G83" s="3">
-        <v>94900</v>
+        <v>96400</v>
       </c>
       <c r="H83" s="3">
-        <v>121400</v>
+        <v>123400</v>
       </c>
       <c r="I83" s="3">
-        <v>97100</v>
+        <v>98700</v>
       </c>
       <c r="J83" s="3">
-        <v>68000</v>
+        <v>69200</v>
       </c>
       <c r="K83" s="3">
         <v>55500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>91100</v>
+        <v>92600</v>
       </c>
       <c r="E89" s="3">
-        <v>217200</v>
+        <v>220900</v>
       </c>
       <c r="F89" s="3">
-        <v>94600</v>
+        <v>96200</v>
       </c>
       <c r="G89" s="3">
-        <v>-27300</v>
+        <v>-27700</v>
       </c>
       <c r="H89" s="3">
-        <v>-277600</v>
+        <v>-282300</v>
       </c>
       <c r="I89" s="3">
-        <v>206200</v>
+        <v>209600</v>
       </c>
       <c r="J89" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="K89" s="3">
         <v>95500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-636200</v>
+        <v>-646800</v>
       </c>
       <c r="E91" s="3">
-        <v>-565700</v>
+        <v>-575200</v>
       </c>
       <c r="F91" s="3">
-        <v>-377500</v>
+        <v>-383800</v>
       </c>
       <c r="G91" s="3">
-        <v>-394900</v>
+        <v>-401500</v>
       </c>
       <c r="H91" s="3">
-        <v>-605400</v>
+        <v>-615600</v>
       </c>
       <c r="I91" s="3">
-        <v>-460400</v>
+        <v>-468100</v>
       </c>
       <c r="J91" s="3">
-        <v>-462200</v>
+        <v>-469900</v>
       </c>
       <c r="K91" s="3">
         <v>-151700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-757400</v>
+        <v>-770100</v>
       </c>
       <c r="E94" s="3">
-        <v>-927800</v>
+        <v>-943300</v>
       </c>
       <c r="F94" s="3">
-        <v>-605900</v>
+        <v>-616000</v>
       </c>
       <c r="G94" s="3">
-        <v>-374700</v>
+        <v>-381000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1063800</v>
+        <v>-1081700</v>
       </c>
       <c r="I94" s="3">
-        <v>-510400</v>
+        <v>-518900</v>
       </c>
       <c r="J94" s="3">
-        <v>-640400</v>
+        <v>-651100</v>
       </c>
       <c r="K94" s="3">
         <v>-196500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>969700</v>
+        <v>985900</v>
       </c>
       <c r="E100" s="3">
-        <v>1136700</v>
+        <v>1155700</v>
       </c>
       <c r="F100" s="3">
-        <v>611700</v>
+        <v>622000</v>
       </c>
       <c r="G100" s="3">
-        <v>404100</v>
+        <v>410900</v>
       </c>
       <c r="H100" s="3">
-        <v>1147900</v>
+        <v>1167200</v>
       </c>
       <c r="I100" s="3">
-        <v>592900</v>
+        <v>602900</v>
       </c>
       <c r="J100" s="3">
-        <v>816700</v>
+        <v>830300</v>
       </c>
       <c r="K100" s="3">
         <v>128500</v>
@@ -3711,19 +3711,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26100</v>
+        <v>-26500</v>
       </c>
       <c r="E101" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F101" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="G101" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="H101" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="I101" s="3">
         <v>4900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>277300</v>
+        <v>281900</v>
       </c>
       <c r="E102" s="3">
-        <v>429900</v>
+        <v>437100</v>
       </c>
       <c r="F102" s="3">
-        <v>111000</v>
+        <v>112800</v>
       </c>
       <c r="G102" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="H102" s="3">
-        <v>-182000</v>
+        <v>-185100</v>
       </c>
       <c r="I102" s="3">
-        <v>293600</v>
+        <v>298500</v>
       </c>
       <c r="J102" s="3">
-        <v>203400</v>
+        <v>206800</v>
       </c>
       <c r="K102" s="3">
         <v>27000</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5499900</v>
+        <v>5542000</v>
       </c>
       <c r="E8" s="3">
-        <v>4657100</v>
+        <v>4692800</v>
       </c>
       <c r="F8" s="3">
-        <v>3920700</v>
+        <v>3950700</v>
       </c>
       <c r="G8" s="3">
-        <v>4144600</v>
+        <v>4176400</v>
       </c>
       <c r="H8" s="3">
-        <v>3350500</v>
+        <v>3376200</v>
       </c>
       <c r="I8" s="3">
-        <v>2419500</v>
+        <v>2438100</v>
       </c>
       <c r="J8" s="3">
-        <v>1525000</v>
+        <v>1536700</v>
       </c>
       <c r="K8" s="3">
         <v>1081500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4533600</v>
+        <v>4568400</v>
       </c>
       <c r="E9" s="3">
-        <v>3806700</v>
+        <v>3835900</v>
       </c>
       <c r="F9" s="3">
-        <v>3370600</v>
+        <v>3396400</v>
       </c>
       <c r="G9" s="3">
-        <v>3676200</v>
+        <v>3704400</v>
       </c>
       <c r="H9" s="3">
-        <v>2744700</v>
+        <v>2765700</v>
       </c>
       <c r="I9" s="3">
-        <v>1960600</v>
+        <v>1975600</v>
       </c>
       <c r="J9" s="3">
-        <v>1196700</v>
+        <v>1205900</v>
       </c>
       <c r="K9" s="3">
         <v>861900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>966200</v>
+        <v>973600</v>
       </c>
       <c r="E10" s="3">
-        <v>850400</v>
+        <v>856900</v>
       </c>
       <c r="F10" s="3">
-        <v>550100</v>
+        <v>554300</v>
       </c>
       <c r="G10" s="3">
-        <v>468400</v>
+        <v>471900</v>
       </c>
       <c r="H10" s="3">
-        <v>605800</v>
+        <v>610400</v>
       </c>
       <c r="I10" s="3">
-        <v>458900</v>
+        <v>462500</v>
       </c>
       <c r="J10" s="3">
-        <v>328300</v>
+        <v>330900</v>
       </c>
       <c r="K10" s="3">
         <v>219600</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>60900</v>
+        <v>61400</v>
       </c>
       <c r="E12" s="3">
-        <v>50800</v>
+        <v>51200</v>
       </c>
       <c r="F12" s="3">
-        <v>57400</v>
+        <v>57800</v>
       </c>
       <c r="G12" s="3">
-        <v>46000</v>
+        <v>46400</v>
       </c>
       <c r="H12" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="I12" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="J12" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="K12" s="3">
         <v>10000</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="3">
         <v>7600</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5220400</v>
+        <v>5260400</v>
       </c>
       <c r="E17" s="3">
-        <v>4383200</v>
+        <v>4416800</v>
       </c>
       <c r="F17" s="3">
-        <v>3821200</v>
+        <v>3850500</v>
       </c>
       <c r="G17" s="3">
-        <v>4093600</v>
+        <v>4125000</v>
       </c>
       <c r="H17" s="3">
-        <v>3138500</v>
+        <v>3162500</v>
       </c>
       <c r="I17" s="3">
-        <v>2243900</v>
+        <v>2261100</v>
       </c>
       <c r="J17" s="3">
-        <v>1392900</v>
+        <v>1403600</v>
       </c>
       <c r="K17" s="3">
         <v>982900</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>279500</v>
+        <v>281600</v>
       </c>
       <c r="E18" s="3">
-        <v>273900</v>
+        <v>276000</v>
       </c>
       <c r="F18" s="3">
-        <v>99500</v>
+        <v>100300</v>
       </c>
       <c r="G18" s="3">
-        <v>51000</v>
+        <v>51400</v>
       </c>
       <c r="H18" s="3">
-        <v>212000</v>
+        <v>213600</v>
       </c>
       <c r="I18" s="3">
-        <v>175600</v>
+        <v>177000</v>
       </c>
       <c r="J18" s="3">
-        <v>132100</v>
+        <v>133200</v>
       </c>
       <c r="K18" s="3">
         <v>98600</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-85000</v>
+        <v>-85600</v>
       </c>
       <c r="E20" s="3">
         <v>10000</v>
       </c>
       <c r="F20" s="3">
-        <v>23500</v>
+        <v>23700</v>
       </c>
       <c r="G20" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="H20" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="I20" s="3">
-        <v>-39900</v>
+        <v>-40200</v>
       </c>
       <c r="J20" s="3">
-        <v>-44000</v>
+        <v>-44400</v>
       </c>
       <c r="K20" s="3">
         <v>-62900</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>410900</v>
+        <v>414900</v>
       </c>
       <c r="E21" s="3">
-        <v>437000</v>
+        <v>441000</v>
       </c>
       <c r="F21" s="3">
-        <v>250800</v>
+        <v>253300</v>
       </c>
       <c r="G21" s="3">
-        <v>167300</v>
+        <v>169000</v>
       </c>
       <c r="H21" s="3">
-        <v>318700</v>
+        <v>321600</v>
       </c>
       <c r="I21" s="3">
-        <v>234400</v>
+        <v>236600</v>
       </c>
       <c r="J21" s="3">
-        <v>157200</v>
+        <v>158700</v>
       </c>
       <c r="K21" s="3">
         <v>91400</v>
@@ -1161,16 +1161,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>105800</v>
+        <v>106600</v>
       </c>
       <c r="E22" s="3">
-        <v>88000</v>
+        <v>88700</v>
       </c>
       <c r="F22" s="3">
-        <v>59200</v>
+        <v>59600</v>
       </c>
       <c r="G22" s="3">
-        <v>47600</v>
+        <v>48000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>88700</v>
+        <v>89400</v>
       </c>
       <c r="E23" s="3">
-        <v>195900</v>
+        <v>197400</v>
       </c>
       <c r="F23" s="3">
-        <v>63800</v>
+        <v>64300</v>
       </c>
       <c r="G23" s="3">
-        <v>23300</v>
+        <v>23500</v>
       </c>
       <c r="H23" s="3">
-        <v>195300</v>
+        <v>196800</v>
       </c>
       <c r="I23" s="3">
-        <v>135700</v>
+        <v>136800</v>
       </c>
       <c r="J23" s="3">
-        <v>88100</v>
+        <v>88800</v>
       </c>
       <c r="K23" s="3">
         <v>35700</v>
@@ -1233,10 +1233,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27900</v>
+        <v>28100</v>
       </c>
       <c r="E24" s="3">
-        <v>43500</v>
+        <v>43900</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
@@ -1245,13 +1245,13 @@
         <v>700</v>
       </c>
       <c r="H24" s="3">
-        <v>40300</v>
+        <v>40600</v>
       </c>
       <c r="I24" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="J24" s="3">
-        <v>-21200</v>
+        <v>-21400</v>
       </c>
       <c r="K24" s="3">
         <v>2800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>60700</v>
+        <v>61200</v>
       </c>
       <c r="E26" s="3">
-        <v>152400</v>
+        <v>153500</v>
       </c>
       <c r="F26" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="G26" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="H26" s="3">
-        <v>155000</v>
+        <v>156200</v>
       </c>
       <c r="I26" s="3">
-        <v>120000</v>
+        <v>120900</v>
       </c>
       <c r="J26" s="3">
-        <v>109300</v>
+        <v>110100</v>
       </c>
       <c r="K26" s="3">
         <v>32900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="E27" s="3">
-        <v>140700</v>
+        <v>141800</v>
       </c>
       <c r="F27" s="3">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="G27" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="H27" s="3">
-        <v>130100</v>
+        <v>131100</v>
       </c>
       <c r="I27" s="3">
-        <v>95200</v>
+        <v>95900</v>
       </c>
       <c r="J27" s="3">
-        <v>102500</v>
+        <v>103300</v>
       </c>
       <c r="K27" s="3">
         <v>28700</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>155900</v>
+        <v>157100</v>
       </c>
       <c r="I29" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="J29" s="3">
         <v>4400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>85000</v>
+        <v>85600</v>
       </c>
       <c r="E32" s="3">
         <v>-10000</v>
       </c>
       <c r="F32" s="3">
-        <v>-23500</v>
+        <v>-23700</v>
       </c>
       <c r="G32" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="H32" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="I32" s="3">
-        <v>39900</v>
+        <v>40200</v>
       </c>
       <c r="J32" s="3">
-        <v>44000</v>
+        <v>44400</v>
       </c>
       <c r="K32" s="3">
         <v>62900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="E33" s="3">
-        <v>140700</v>
+        <v>141800</v>
       </c>
       <c r="F33" s="3">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="G33" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="H33" s="3">
-        <v>286000</v>
+        <v>288200</v>
       </c>
       <c r="I33" s="3">
-        <v>109200</v>
+        <v>110000</v>
       </c>
       <c r="J33" s="3">
-        <v>106900</v>
+        <v>107700</v>
       </c>
       <c r="K33" s="3">
         <v>28700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="E35" s="3">
-        <v>140700</v>
+        <v>141800</v>
       </c>
       <c r="F35" s="3">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="G35" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="H35" s="3">
-        <v>286000</v>
+        <v>288200</v>
       </c>
       <c r="I35" s="3">
-        <v>109200</v>
+        <v>110000</v>
       </c>
       <c r="J35" s="3">
-        <v>106900</v>
+        <v>107700</v>
       </c>
       <c r="K35" s="3">
         <v>28700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1171300</v>
+        <v>1180300</v>
       </c>
       <c r="E41" s="3">
-        <v>885200</v>
+        <v>892000</v>
       </c>
       <c r="F41" s="3">
-        <v>486100</v>
+        <v>489800</v>
       </c>
       <c r="G41" s="3">
-        <v>301900</v>
+        <v>304200</v>
       </c>
       <c r="H41" s="3">
-        <v>391600</v>
+        <v>394600</v>
       </c>
       <c r="I41" s="3">
-        <v>374600</v>
+        <v>377500</v>
       </c>
       <c r="J41" s="3">
-        <v>278200</v>
+        <v>280300</v>
       </c>
       <c r="K41" s="3">
         <v>69700</v>
@@ -1774,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>89200</v>
+        <v>89900</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
@@ -1792,7 +1792,7 @@
         <v>4600</v>
       </c>
       <c r="J42" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>17</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1080100</v>
+        <v>1088400</v>
       </c>
       <c r="E43" s="3">
-        <v>1189700</v>
+        <v>1198900</v>
       </c>
       <c r="F43" s="3">
-        <v>1133700</v>
+        <v>1142400</v>
       </c>
       <c r="G43" s="3">
-        <v>1147500</v>
+        <v>1156300</v>
       </c>
       <c r="H43" s="3">
-        <v>1222000</v>
+        <v>1231400</v>
       </c>
       <c r="I43" s="3">
-        <v>517300</v>
+        <v>521300</v>
       </c>
       <c r="J43" s="3">
-        <v>532100</v>
+        <v>536200</v>
       </c>
       <c r="K43" s="3">
         <v>343300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1311500</v>
+        <v>1321500</v>
       </c>
       <c r="E44" s="3">
-        <v>911000</v>
+        <v>918000</v>
       </c>
       <c r="F44" s="3">
-        <v>899200</v>
+        <v>906100</v>
       </c>
       <c r="G44" s="3">
-        <v>669100</v>
+        <v>674200</v>
       </c>
       <c r="H44" s="3">
-        <v>700400</v>
+        <v>705700</v>
       </c>
       <c r="I44" s="3">
-        <v>501500</v>
+        <v>505400</v>
       </c>
       <c r="J44" s="3">
-        <v>296100</v>
+        <v>298300</v>
       </c>
       <c r="K44" s="3">
         <v>108800</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1621100</v>
+        <v>1633500</v>
       </c>
       <c r="E45" s="3">
-        <v>1975200</v>
+        <v>1990400</v>
       </c>
       <c r="F45" s="3">
-        <v>1059100</v>
+        <v>1067200</v>
       </c>
       <c r="G45" s="3">
-        <v>950900</v>
+        <v>958200</v>
       </c>
       <c r="H45" s="3">
-        <v>758300</v>
+        <v>764100</v>
       </c>
       <c r="I45" s="3">
-        <v>2126900</v>
+        <v>2143200</v>
       </c>
       <c r="J45" s="3">
-        <v>501600</v>
+        <v>505400</v>
       </c>
       <c r="K45" s="3">
         <v>294500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5273300</v>
+        <v>5313700</v>
       </c>
       <c r="E46" s="3">
-        <v>4961100</v>
+        <v>4999100</v>
       </c>
       <c r="F46" s="3">
-        <v>3578100</v>
+        <v>3605500</v>
       </c>
       <c r="G46" s="3">
-        <v>3069800</v>
+        <v>3093300</v>
       </c>
       <c r="H46" s="3">
-        <v>3083500</v>
+        <v>3107100</v>
       </c>
       <c r="I46" s="3">
-        <v>3521800</v>
+        <v>3548800</v>
       </c>
       <c r="J46" s="3">
-        <v>1628800</v>
+        <v>1641300</v>
       </c>
       <c r="K46" s="3">
         <v>816300</v>
@@ -1954,10 +1954,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34500</v>
+        <v>34800</v>
       </c>
       <c r="E47" s="3">
-        <v>43500</v>
+        <v>43900</v>
       </c>
       <c r="F47" s="3">
         <v>4000</v>
@@ -1972,7 +1972,7 @@
         <v>1100</v>
       </c>
       <c r="J47" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="K47" s="3">
         <v>18900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2230400</v>
+        <v>2247500</v>
       </c>
       <c r="E48" s="3">
-        <v>1970200</v>
+        <v>1985300</v>
       </c>
       <c r="F48" s="3">
-        <v>1572900</v>
+        <v>1584900</v>
       </c>
       <c r="G48" s="3">
-        <v>1120000</v>
+        <v>1128600</v>
       </c>
       <c r="H48" s="3">
-        <v>750500</v>
+        <v>756300</v>
       </c>
       <c r="I48" s="3">
-        <v>589700</v>
+        <v>594200</v>
       </c>
       <c r="J48" s="3">
-        <v>1167100</v>
+        <v>1176100</v>
       </c>
       <c r="K48" s="3">
         <v>694500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>124700</v>
+        <v>125700</v>
       </c>
       <c r="E49" s="3">
-        <v>99300</v>
+        <v>100100</v>
       </c>
       <c r="F49" s="3">
-        <v>95500</v>
+        <v>96300</v>
       </c>
       <c r="G49" s="3">
-        <v>73400</v>
+        <v>74000</v>
       </c>
       <c r="H49" s="3">
-        <v>73800</v>
+        <v>74300</v>
       </c>
       <c r="I49" s="3">
-        <v>58000</v>
+        <v>58400</v>
       </c>
       <c r="J49" s="3">
-        <v>59800</v>
+        <v>60200</v>
       </c>
       <c r="K49" s="3">
         <v>55800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>671100</v>
+        <v>676200</v>
       </c>
       <c r="E52" s="3">
-        <v>416500</v>
+        <v>419700</v>
       </c>
       <c r="F52" s="3">
-        <v>362700</v>
+        <v>365500</v>
       </c>
       <c r="G52" s="3">
-        <v>216600</v>
+        <v>218200</v>
       </c>
       <c r="H52" s="3">
-        <v>175800</v>
+        <v>177200</v>
       </c>
       <c r="I52" s="3">
-        <v>202300</v>
+        <v>203800</v>
       </c>
       <c r="J52" s="3">
-        <v>115900</v>
+        <v>116800</v>
       </c>
       <c r="K52" s="3">
         <v>35600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8334100</v>
+        <v>8397900</v>
       </c>
       <c r="E54" s="3">
-        <v>7490600</v>
+        <v>7548000</v>
       </c>
       <c r="F54" s="3">
-        <v>5613200</v>
+        <v>5656200</v>
       </c>
       <c r="G54" s="3">
-        <v>4483300</v>
+        <v>4517700</v>
       </c>
       <c r="H54" s="3">
-        <v>4084800</v>
+        <v>4116100</v>
       </c>
       <c r="I54" s="3">
-        <v>4249800</v>
+        <v>4282300</v>
       </c>
       <c r="J54" s="3">
-        <v>2987800</v>
+        <v>3010700</v>
       </c>
       <c r="K54" s="3">
         <v>1621200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>696800</v>
+        <v>702100</v>
       </c>
       <c r="E57" s="3">
-        <v>781100</v>
+        <v>787100</v>
       </c>
       <c r="F57" s="3">
-        <v>834100</v>
+        <v>840500</v>
       </c>
       <c r="G57" s="3">
-        <v>730100</v>
+        <v>735700</v>
       </c>
       <c r="H57" s="3">
-        <v>671700</v>
+        <v>676800</v>
       </c>
       <c r="I57" s="3">
-        <v>592500</v>
+        <v>597100</v>
       </c>
       <c r="J57" s="3">
-        <v>680600</v>
+        <v>685800</v>
       </c>
       <c r="K57" s="3">
         <v>386800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3080700</v>
+        <v>3104300</v>
       </c>
       <c r="E58" s="3">
-        <v>2629200</v>
+        <v>2649300</v>
       </c>
       <c r="F58" s="3">
-        <v>2064300</v>
+        <v>2080100</v>
       </c>
       <c r="G58" s="3">
-        <v>1861100</v>
+        <v>1875300</v>
       </c>
       <c r="H58" s="3">
-        <v>1676600</v>
+        <v>1689500</v>
       </c>
       <c r="I58" s="3">
-        <v>1459500</v>
+        <v>1470700</v>
       </c>
       <c r="J58" s="3">
-        <v>802500</v>
+        <v>808700</v>
       </c>
       <c r="K58" s="3">
         <v>645300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1109800</v>
+        <v>1118300</v>
       </c>
       <c r="E59" s="3">
-        <v>1486500</v>
+        <v>1497900</v>
       </c>
       <c r="F59" s="3">
-        <v>881100</v>
+        <v>887900</v>
       </c>
       <c r="G59" s="3">
-        <v>534100</v>
+        <v>538200</v>
       </c>
       <c r="H59" s="3">
-        <v>526600</v>
+        <v>530600</v>
       </c>
       <c r="I59" s="3">
-        <v>1582100</v>
+        <v>1594200</v>
       </c>
       <c r="J59" s="3">
-        <v>164400</v>
+        <v>165700</v>
       </c>
       <c r="K59" s="3">
         <v>73600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4887300</v>
+        <v>4924800</v>
       </c>
       <c r="E60" s="3">
-        <v>4896800</v>
+        <v>4934300</v>
       </c>
       <c r="F60" s="3">
-        <v>3779500</v>
+        <v>3808500</v>
       </c>
       <c r="G60" s="3">
-        <v>3125300</v>
+        <v>3149300</v>
       </c>
       <c r="H60" s="3">
-        <v>2874900</v>
+        <v>2896900</v>
       </c>
       <c r="I60" s="3">
-        <v>2915500</v>
+        <v>2937900</v>
       </c>
       <c r="J60" s="3">
-        <v>1647500</v>
+        <v>1660200</v>
       </c>
       <c r="K60" s="3">
         <v>1105700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1192200</v>
+        <v>1201300</v>
       </c>
       <c r="E61" s="3">
-        <v>453700</v>
+        <v>457200</v>
       </c>
       <c r="F61" s="3">
-        <v>405900</v>
+        <v>409000</v>
       </c>
       <c r="G61" s="3">
-        <v>190500</v>
+        <v>191900</v>
       </c>
       <c r="H61" s="3">
-        <v>83400</v>
+        <v>84000</v>
       </c>
       <c r="I61" s="3">
-        <v>338900</v>
+        <v>341500</v>
       </c>
       <c r="J61" s="3">
-        <v>526100</v>
+        <v>530100</v>
       </c>
       <c r="K61" s="3">
         <v>182500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>220800</v>
+        <v>222500</v>
       </c>
       <c r="E62" s="3">
-        <v>192300</v>
+        <v>193800</v>
       </c>
       <c r="F62" s="3">
-        <v>104200</v>
+        <v>105000</v>
       </c>
       <c r="G62" s="3">
-        <v>120200</v>
+        <v>121200</v>
       </c>
       <c r="H62" s="3">
-        <v>115100</v>
+        <v>116000</v>
       </c>
       <c r="I62" s="3">
-        <v>62300</v>
+        <v>62700</v>
       </c>
       <c r="J62" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="K62" s="3">
         <v>24300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6770400</v>
+        <v>6822300</v>
       </c>
       <c r="E66" s="3">
-        <v>6034000</v>
+        <v>6080300</v>
       </c>
       <c r="F66" s="3">
-        <v>4385800</v>
+        <v>4419400</v>
       </c>
       <c r="G66" s="3">
-        <v>3436000</v>
+        <v>3462400</v>
       </c>
       <c r="H66" s="3">
-        <v>3073300</v>
+        <v>3096800</v>
       </c>
       <c r="I66" s="3">
-        <v>3573100</v>
+        <v>3600500</v>
       </c>
       <c r="J66" s="3">
-        <v>2438700</v>
+        <v>2457400</v>
       </c>
       <c r="K66" s="3">
         <v>1314100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>768500</v>
+        <v>774300</v>
       </c>
       <c r="E72" s="3">
-        <v>731300</v>
+        <v>737000</v>
       </c>
       <c r="F72" s="3">
-        <v>590700</v>
+        <v>595200</v>
       </c>
       <c r="G72" s="3">
-        <v>527000</v>
+        <v>531100</v>
       </c>
       <c r="H72" s="3">
-        <v>504800</v>
+        <v>508700</v>
       </c>
       <c r="I72" s="3">
-        <v>219000</v>
+        <v>220700</v>
       </c>
       <c r="J72" s="3">
-        <v>111900</v>
+        <v>112800</v>
       </c>
       <c r="K72" s="3">
         <v>6400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1563700</v>
+        <v>1575700</v>
       </c>
       <c r="E76" s="3">
-        <v>1456500</v>
+        <v>1467700</v>
       </c>
       <c r="F76" s="3">
-        <v>1227400</v>
+        <v>1236800</v>
       </c>
       <c r="G76" s="3">
-        <v>1047300</v>
+        <v>1055300</v>
       </c>
       <c r="H76" s="3">
-        <v>1011500</v>
+        <v>1019200</v>
       </c>
       <c r="I76" s="3">
-        <v>676600</v>
+        <v>681800</v>
       </c>
       <c r="J76" s="3">
-        <v>549100</v>
+        <v>553300</v>
       </c>
       <c r="K76" s="3">
         <v>307000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="E81" s="3">
-        <v>140700</v>
+        <v>141800</v>
       </c>
       <c r="F81" s="3">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="G81" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="H81" s="3">
-        <v>286000</v>
+        <v>288200</v>
       </c>
       <c r="I81" s="3">
-        <v>109200</v>
+        <v>110000</v>
       </c>
       <c r="J81" s="3">
-        <v>106900</v>
+        <v>107700</v>
       </c>
       <c r="K81" s="3">
         <v>28700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>216600</v>
+        <v>218200</v>
       </c>
       <c r="E83" s="3">
-        <v>153300</v>
+        <v>154400</v>
       </c>
       <c r="F83" s="3">
-        <v>128000</v>
+        <v>128900</v>
       </c>
       <c r="G83" s="3">
-        <v>96400</v>
+        <v>97200</v>
       </c>
       <c r="H83" s="3">
-        <v>123400</v>
+        <v>124400</v>
       </c>
       <c r="I83" s="3">
-        <v>98700</v>
+        <v>99500</v>
       </c>
       <c r="J83" s="3">
-        <v>69200</v>
+        <v>69700</v>
       </c>
       <c r="K83" s="3">
         <v>55500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>92600</v>
+        <v>93300</v>
       </c>
       <c r="E89" s="3">
-        <v>220900</v>
+        <v>222500</v>
       </c>
       <c r="F89" s="3">
-        <v>96200</v>
+        <v>97000</v>
       </c>
       <c r="G89" s="3">
-        <v>-27700</v>
+        <v>-27900</v>
       </c>
       <c r="H89" s="3">
-        <v>-282300</v>
+        <v>-284400</v>
       </c>
       <c r="I89" s="3">
-        <v>209600</v>
+        <v>211200</v>
       </c>
       <c r="J89" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="K89" s="3">
         <v>95500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-646800</v>
+        <v>-651800</v>
       </c>
       <c r="E91" s="3">
-        <v>-575200</v>
+        <v>-579600</v>
       </c>
       <c r="F91" s="3">
-        <v>-383800</v>
+        <v>-386700</v>
       </c>
       <c r="G91" s="3">
-        <v>-401500</v>
+        <v>-404600</v>
       </c>
       <c r="H91" s="3">
-        <v>-615600</v>
+        <v>-620300</v>
       </c>
       <c r="I91" s="3">
-        <v>-468100</v>
+        <v>-471700</v>
       </c>
       <c r="J91" s="3">
-        <v>-469900</v>
+        <v>-473500</v>
       </c>
       <c r="K91" s="3">
         <v>-151700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-770100</v>
+        <v>-776000</v>
       </c>
       <c r="E94" s="3">
-        <v>-943300</v>
+        <v>-950500</v>
       </c>
       <c r="F94" s="3">
-        <v>-616000</v>
+        <v>-620800</v>
       </c>
       <c r="G94" s="3">
-        <v>-381000</v>
+        <v>-383900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1081700</v>
+        <v>-1090000</v>
       </c>
       <c r="I94" s="3">
-        <v>-518900</v>
+        <v>-522900</v>
       </c>
       <c r="J94" s="3">
-        <v>-651100</v>
+        <v>-656100</v>
       </c>
       <c r="K94" s="3">
         <v>-196500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>985900</v>
+        <v>993500</v>
       </c>
       <c r="E100" s="3">
-        <v>1155700</v>
+        <v>1164600</v>
       </c>
       <c r="F100" s="3">
-        <v>622000</v>
+        <v>626700</v>
       </c>
       <c r="G100" s="3">
-        <v>410900</v>
+        <v>414000</v>
       </c>
       <c r="H100" s="3">
-        <v>1167200</v>
+        <v>1176100</v>
       </c>
       <c r="I100" s="3">
-        <v>602900</v>
+        <v>607500</v>
       </c>
       <c r="J100" s="3">
-        <v>830300</v>
+        <v>836700</v>
       </c>
       <c r="K100" s="3">
         <v>128500</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="E101" s="3">
         <v>3900</v>
       </c>
       <c r="F101" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="G101" s="3">
-        <v>-11400</v>
+        <v>-11500</v>
       </c>
       <c r="H101" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="I101" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J101" s="3">
         <v>-1700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>281900</v>
+        <v>284100</v>
       </c>
       <c r="E102" s="3">
-        <v>437100</v>
+        <v>440500</v>
       </c>
       <c r="F102" s="3">
-        <v>112800</v>
+        <v>113700</v>
       </c>
       <c r="G102" s="3">
-        <v>-9200</v>
+        <v>-9300</v>
       </c>
       <c r="H102" s="3">
-        <v>-185100</v>
+        <v>-186500</v>
       </c>
       <c r="I102" s="3">
-        <v>298500</v>
+        <v>300800</v>
       </c>
       <c r="J102" s="3">
-        <v>206800</v>
+        <v>208400</v>
       </c>
       <c r="K102" s="3">
         <v>27000</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>JKS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5542000</v>
+        <v>6016200</v>
       </c>
       <c r="E8" s="3">
-        <v>4692800</v>
+        <v>5176700</v>
       </c>
       <c r="F8" s="3">
-        <v>3950700</v>
+        <v>4383400</v>
       </c>
       <c r="G8" s="3">
-        <v>4176400</v>
+        <v>3690300</v>
       </c>
       <c r="H8" s="3">
-        <v>3376200</v>
+        <v>3901100</v>
       </c>
       <c r="I8" s="3">
-        <v>2438100</v>
+        <v>3153600</v>
       </c>
       <c r="J8" s="3">
+        <v>2277400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1536700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1081500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>688000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1074000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4568400</v>
+        <v>5035100</v>
       </c>
       <c r="E9" s="3">
-        <v>3835900</v>
+        <v>4267200</v>
       </c>
       <c r="F9" s="3">
-        <v>3396400</v>
+        <v>3583000</v>
       </c>
       <c r="G9" s="3">
-        <v>3704400</v>
+        <v>3172500</v>
       </c>
       <c r="H9" s="3">
-        <v>2765700</v>
+        <v>3460200</v>
       </c>
       <c r="I9" s="3">
-        <v>1975600</v>
+        <v>2583400</v>
       </c>
       <c r="J9" s="3">
+        <v>1845400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1205900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>861900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1309300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>906800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>973600</v>
+        <v>981100</v>
       </c>
       <c r="E10" s="3">
-        <v>856900</v>
+        <v>909500</v>
       </c>
       <c r="F10" s="3">
-        <v>554300</v>
+        <v>800400</v>
       </c>
       <c r="G10" s="3">
-        <v>471900</v>
+        <v>517800</v>
       </c>
       <c r="H10" s="3">
-        <v>610400</v>
+        <v>440800</v>
       </c>
       <c r="I10" s="3">
-        <v>462500</v>
+        <v>570200</v>
       </c>
       <c r="J10" s="3">
+        <v>432000</v>
+      </c>
+      <c r="K10" s="3">
         <v>330900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>219600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-621300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>167200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>61400</v>
+        <v>68000</v>
       </c>
       <c r="E12" s="3">
-        <v>51200</v>
+        <v>57400</v>
       </c>
       <c r="F12" s="3">
-        <v>57800</v>
+        <v>47800</v>
       </c>
       <c r="G12" s="3">
-        <v>46400</v>
+        <v>54000</v>
       </c>
       <c r="H12" s="3">
-        <v>28600</v>
+        <v>43300</v>
       </c>
       <c r="I12" s="3">
-        <v>22700</v>
+        <v>26700</v>
       </c>
       <c r="J12" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K12" s="3">
         <v>16800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>18000</v>
+        <v>40300</v>
       </c>
       <c r="E14" s="3">
-        <v>7600</v>
+        <v>16800</v>
       </c>
       <c r="F14" s="3">
-        <v>3800</v>
+        <v>7100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="3">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>17800</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6600</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5260400</v>
+        <v>5853700</v>
       </c>
       <c r="E17" s="3">
-        <v>4416800</v>
+        <v>4913600</v>
       </c>
       <c r="F17" s="3">
-        <v>3850500</v>
+        <v>4125600</v>
       </c>
       <c r="G17" s="3">
-        <v>4125000</v>
+        <v>3596600</v>
       </c>
       <c r="H17" s="3">
-        <v>3162500</v>
+        <v>3853100</v>
       </c>
       <c r="I17" s="3">
-        <v>2261100</v>
+        <v>2954100</v>
       </c>
       <c r="J17" s="3">
+        <v>2112000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1403600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>982900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>864900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1028100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>281600</v>
+        <v>162500</v>
       </c>
       <c r="E18" s="3">
-        <v>276000</v>
+        <v>263000</v>
       </c>
       <c r="F18" s="3">
-        <v>100300</v>
+        <v>257800</v>
       </c>
       <c r="G18" s="3">
-        <v>51400</v>
+        <v>93600</v>
       </c>
       <c r="H18" s="3">
-        <v>213600</v>
+        <v>48000</v>
       </c>
       <c r="I18" s="3">
-        <v>177000</v>
+        <v>199500</v>
       </c>
       <c r="J18" s="3">
+        <v>165300</v>
+      </c>
+      <c r="K18" s="3">
         <v>133200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>98600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-177000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,97 +1115,104 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-85600</v>
+        <v>121700</v>
       </c>
       <c r="E20" s="3">
-        <v>10000</v>
+        <v>-80000</v>
       </c>
       <c r="F20" s="3">
-        <v>23700</v>
+        <v>9400</v>
       </c>
       <c r="G20" s="3">
-        <v>20100</v>
+        <v>22100</v>
       </c>
       <c r="H20" s="3">
-        <v>-16800</v>
+        <v>18800</v>
       </c>
       <c r="I20" s="3">
-        <v>-40200</v>
+        <v>-15700</v>
       </c>
       <c r="J20" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-44400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-62900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-45800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>414900</v>
+        <v>552400</v>
       </c>
       <c r="E21" s="3">
-        <v>441000</v>
+        <v>388900</v>
       </c>
       <c r="F21" s="3">
-        <v>253300</v>
+        <v>412900</v>
       </c>
       <c r="G21" s="3">
-        <v>169000</v>
+        <v>237400</v>
       </c>
       <c r="H21" s="3">
-        <v>321600</v>
+        <v>158500</v>
       </c>
       <c r="I21" s="3">
-        <v>236600</v>
+        <v>301200</v>
       </c>
       <c r="J21" s="3">
+        <v>221600</v>
+      </c>
+      <c r="K21" s="3">
         <v>158700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>91400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-174600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>90900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>106600</v>
+        <v>123500</v>
       </c>
       <c r="E22" s="3">
-        <v>88700</v>
+        <v>99600</v>
       </c>
       <c r="F22" s="3">
-        <v>59600</v>
+        <v>82800</v>
       </c>
       <c r="G22" s="3">
-        <v>48000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>17</v>
+        <v>55700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>44800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>17</v>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>89400</v>
+        <v>160600</v>
       </c>
       <c r="E23" s="3">
-        <v>197400</v>
+        <v>83500</v>
       </c>
       <c r="F23" s="3">
-        <v>64300</v>
+        <v>184400</v>
       </c>
       <c r="G23" s="3">
-        <v>23500</v>
+        <v>60000</v>
       </c>
       <c r="H23" s="3">
-        <v>196800</v>
+        <v>21900</v>
       </c>
       <c r="I23" s="3">
-        <v>136800</v>
+        <v>183900</v>
       </c>
       <c r="J23" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K23" s="3">
         <v>88800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-222800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="E24" s="3">
-        <v>43900</v>
+        <v>26300</v>
       </c>
       <c r="F24" s="3">
+        <v>41000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>40600</v>
-      </c>
       <c r="I24" s="3">
-        <v>15900</v>
+        <v>37900</v>
       </c>
       <c r="J24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-21400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11800</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>61200</v>
+        <v>132000</v>
       </c>
       <c r="E26" s="3">
-        <v>153500</v>
+        <v>57200</v>
       </c>
       <c r="F26" s="3">
-        <v>63600</v>
+        <v>143400</v>
       </c>
       <c r="G26" s="3">
-        <v>22800</v>
+        <v>59400</v>
       </c>
       <c r="H26" s="3">
-        <v>156200</v>
+        <v>21300</v>
       </c>
       <c r="I26" s="3">
-        <v>120900</v>
+        <v>145900</v>
       </c>
       <c r="J26" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K26" s="3">
         <v>110100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-221500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>36300</v>
+        <v>106200</v>
       </c>
       <c r="E27" s="3">
-        <v>141800</v>
+        <v>33900</v>
       </c>
       <c r="F27" s="3">
-        <v>64100</v>
+        <v>132400</v>
       </c>
       <c r="G27" s="3">
-        <v>22400</v>
+        <v>59900</v>
       </c>
       <c r="H27" s="3">
-        <v>131100</v>
+        <v>20900</v>
       </c>
       <c r="I27" s="3">
-        <v>95900</v>
+        <v>122500</v>
       </c>
       <c r="J27" s="3">
+        <v>89600</v>
+      </c>
+      <c r="K27" s="3">
         <v>103300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-221300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,23 +1478,23 @@
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>157100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>14100</v>
+        <v>146700</v>
       </c>
       <c r="J29" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K29" s="3">
         <v>4400</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>17</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>85600</v>
+        <v>-121700</v>
       </c>
       <c r="E32" s="3">
-        <v>-10000</v>
+        <v>80000</v>
       </c>
       <c r="F32" s="3">
-        <v>-23700</v>
+        <v>-9400</v>
       </c>
       <c r="G32" s="3">
-        <v>-20100</v>
+        <v>-22100</v>
       </c>
       <c r="H32" s="3">
-        <v>16800</v>
+        <v>-18800</v>
       </c>
       <c r="I32" s="3">
-        <v>40200</v>
+        <v>15700</v>
       </c>
       <c r="J32" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K32" s="3">
         <v>44400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>62900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>45800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>36300</v>
+        <v>106200</v>
       </c>
       <c r="E33" s="3">
-        <v>141800</v>
+        <v>33900</v>
       </c>
       <c r="F33" s="3">
-        <v>64100</v>
+        <v>132400</v>
       </c>
       <c r="G33" s="3">
-        <v>22400</v>
+        <v>59900</v>
       </c>
       <c r="H33" s="3">
-        <v>288200</v>
+        <v>20900</v>
       </c>
       <c r="I33" s="3">
-        <v>110000</v>
+        <v>269200</v>
       </c>
       <c r="J33" s="3">
+        <v>102800</v>
+      </c>
+      <c r="K33" s="3">
         <v>107700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-221300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>36300</v>
+        <v>106200</v>
       </c>
       <c r="E35" s="3">
-        <v>141800</v>
+        <v>33900</v>
       </c>
       <c r="F35" s="3">
-        <v>64100</v>
+        <v>132400</v>
       </c>
       <c r="G35" s="3">
-        <v>22400</v>
+        <v>59900</v>
       </c>
       <c r="H35" s="3">
-        <v>288200</v>
+        <v>20900</v>
       </c>
       <c r="I35" s="3">
-        <v>110000</v>
+        <v>269200</v>
       </c>
       <c r="J35" s="3">
+        <v>102800</v>
+      </c>
+      <c r="K35" s="3">
         <v>107700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-221300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,70 +1817,74 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1180300</v>
+        <v>1226200</v>
       </c>
       <c r="E41" s="3">
-        <v>892000</v>
+        <v>1102500</v>
       </c>
       <c r="F41" s="3">
-        <v>489800</v>
+        <v>833200</v>
       </c>
       <c r="G41" s="3">
-        <v>304200</v>
+        <v>457500</v>
       </c>
       <c r="H41" s="3">
-        <v>394600</v>
+        <v>284200</v>
       </c>
       <c r="I41" s="3">
-        <v>377500</v>
+        <v>368600</v>
       </c>
       <c r="J41" s="3">
+        <v>352600</v>
+      </c>
+      <c r="K41" s="3">
         <v>280300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>89900</v>
-      </c>
-      <c r="E42" s="3" t="s">
+        <v>22100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>84000</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>400</v>
       </c>
-      <c r="H42" s="3">
-        <v>11200</v>
-      </c>
       <c r="I42" s="3">
-        <v>4600</v>
+        <v>10500</v>
       </c>
       <c r="J42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K42" s="3">
         <v>21000</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>17</v>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1088400</v>
+        <v>1388800</v>
       </c>
       <c r="E43" s="3">
-        <v>1198900</v>
+        <v>1016700</v>
       </c>
       <c r="F43" s="3">
-        <v>1142400</v>
+        <v>1119800</v>
       </c>
       <c r="G43" s="3">
-        <v>1156300</v>
+        <v>1067100</v>
       </c>
       <c r="H43" s="3">
-        <v>1231400</v>
+        <v>1080000</v>
       </c>
       <c r="I43" s="3">
-        <v>521300</v>
+        <v>1150200</v>
       </c>
       <c r="J43" s="3">
+        <v>486900</v>
+      </c>
+      <c r="K43" s="3">
         <v>536200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>343300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>276500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>374700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1321500</v>
+        <v>1952900</v>
       </c>
       <c r="E44" s="3">
-        <v>918000</v>
+        <v>1234400</v>
       </c>
       <c r="F44" s="3">
-        <v>906100</v>
+        <v>857500</v>
       </c>
       <c r="G44" s="3">
-        <v>674200</v>
+        <v>846300</v>
       </c>
       <c r="H44" s="3">
-        <v>705700</v>
+        <v>629800</v>
       </c>
       <c r="I44" s="3">
-        <v>505400</v>
+        <v>659200</v>
       </c>
       <c r="J44" s="3">
+        <v>472000</v>
+      </c>
+      <c r="K44" s="3">
         <v>298300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>108800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>75800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>116100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1633500</v>
+        <v>2118400</v>
       </c>
       <c r="E45" s="3">
-        <v>1990400</v>
+        <v>1525800</v>
       </c>
       <c r="F45" s="3">
-        <v>1067200</v>
+        <v>1859200</v>
       </c>
       <c r="G45" s="3">
-        <v>958200</v>
+        <v>996800</v>
       </c>
       <c r="H45" s="3">
-        <v>764100</v>
+        <v>895000</v>
       </c>
       <c r="I45" s="3">
-        <v>2143200</v>
+        <v>713800</v>
       </c>
       <c r="J45" s="3">
+        <v>2001900</v>
+      </c>
+      <c r="K45" s="3">
         <v>505400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>294500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>179900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131500</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5313700</v>
+        <v>6708400</v>
       </c>
       <c r="E46" s="3">
-        <v>4999100</v>
+        <v>4963400</v>
       </c>
       <c r="F46" s="3">
-        <v>3605500</v>
+        <v>4669600</v>
       </c>
       <c r="G46" s="3">
-        <v>3093300</v>
+        <v>3367800</v>
       </c>
       <c r="H46" s="3">
-        <v>3107100</v>
+        <v>2889400</v>
       </c>
       <c r="I46" s="3">
-        <v>3548800</v>
+        <v>2902300</v>
       </c>
       <c r="J46" s="3">
+        <v>3314800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1641300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>816300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>571900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>670200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34800</v>
+        <v>97500</v>
       </c>
       <c r="E47" s="3">
-        <v>43900</v>
+        <v>32500</v>
       </c>
       <c r="F47" s="3">
-        <v>4000</v>
+        <v>41000</v>
       </c>
       <c r="G47" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="H47" s="3">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="I47" s="3">
         <v>1100</v>
       </c>
       <c r="J47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K47" s="3">
         <v>16300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5000</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2247500</v>
+        <v>3100000</v>
       </c>
       <c r="E48" s="3">
-        <v>1985300</v>
+        <v>2099400</v>
       </c>
       <c r="F48" s="3">
-        <v>1584900</v>
+        <v>1854400</v>
       </c>
       <c r="G48" s="3">
-        <v>1128600</v>
+        <v>1480500</v>
       </c>
       <c r="H48" s="3">
-        <v>756300</v>
+        <v>1054200</v>
       </c>
       <c r="I48" s="3">
-        <v>594200</v>
+        <v>706400</v>
       </c>
       <c r="J48" s="3">
+        <v>555000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1176100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>694500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>554700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>571600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>125700</v>
+        <v>168800</v>
       </c>
       <c r="E49" s="3">
-        <v>100100</v>
+        <v>117400</v>
       </c>
       <c r="F49" s="3">
-        <v>96300</v>
+        <v>93500</v>
       </c>
       <c r="G49" s="3">
-        <v>74000</v>
+        <v>89900</v>
       </c>
       <c r="H49" s="3">
-        <v>74300</v>
+        <v>69100</v>
       </c>
       <c r="I49" s="3">
-        <v>58400</v>
+        <v>69400</v>
       </c>
       <c r="J49" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K49" s="3">
         <v>60200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>54100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>676200</v>
+        <v>680200</v>
       </c>
       <c r="E52" s="3">
-        <v>419700</v>
+        <v>631600</v>
       </c>
       <c r="F52" s="3">
-        <v>365500</v>
+        <v>392000</v>
       </c>
       <c r="G52" s="3">
-        <v>218200</v>
+        <v>341400</v>
       </c>
       <c r="H52" s="3">
-        <v>177200</v>
+        <v>203800</v>
       </c>
       <c r="I52" s="3">
-        <v>203800</v>
+        <v>165500</v>
       </c>
       <c r="J52" s="3">
+        <v>190400</v>
+      </c>
+      <c r="K52" s="3">
         <v>116800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8397900</v>
+        <v>10754800</v>
       </c>
       <c r="E54" s="3">
-        <v>7548000</v>
+        <v>7844300</v>
       </c>
       <c r="F54" s="3">
-        <v>5656200</v>
+        <v>7050400</v>
       </c>
       <c r="G54" s="3">
-        <v>4517700</v>
+        <v>5283300</v>
       </c>
       <c r="H54" s="3">
-        <v>4116100</v>
+        <v>4219900</v>
       </c>
       <c r="I54" s="3">
-        <v>4282300</v>
+        <v>3844700</v>
       </c>
       <c r="J54" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3010700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1621200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1201300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1334500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>702100</v>
+        <v>1004400</v>
       </c>
       <c r="E57" s="3">
-        <v>787100</v>
+        <v>655800</v>
       </c>
       <c r="F57" s="3">
-        <v>840500</v>
+        <v>735200</v>
       </c>
       <c r="G57" s="3">
-        <v>735700</v>
+        <v>785100</v>
       </c>
       <c r="H57" s="3">
-        <v>676800</v>
+        <v>687200</v>
       </c>
       <c r="I57" s="3">
-        <v>597100</v>
+        <v>632200</v>
       </c>
       <c r="J57" s="3">
+        <v>557700</v>
+      </c>
+      <c r="K57" s="3">
         <v>685800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>386800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>404700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>290200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3104300</v>
+        <v>3773400</v>
       </c>
       <c r="E58" s="3">
-        <v>2649300</v>
+        <v>2899700</v>
       </c>
       <c r="F58" s="3">
-        <v>2080100</v>
+        <v>2474700</v>
       </c>
       <c r="G58" s="3">
-        <v>1875300</v>
+        <v>1943000</v>
       </c>
       <c r="H58" s="3">
-        <v>1689500</v>
+        <v>1751700</v>
       </c>
       <c r="I58" s="3">
-        <v>1470700</v>
+        <v>1578100</v>
       </c>
       <c r="J58" s="3">
+        <v>1373700</v>
+      </c>
+      <c r="K58" s="3">
         <v>808700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>645300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>532100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>923400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1118300</v>
+        <v>1921200</v>
       </c>
       <c r="E59" s="3">
-        <v>1497900</v>
+        <v>1044600</v>
       </c>
       <c r="F59" s="3">
-        <v>887900</v>
+        <v>1399200</v>
       </c>
       <c r="G59" s="3">
-        <v>538200</v>
+        <v>829300</v>
       </c>
       <c r="H59" s="3">
-        <v>530600</v>
+        <v>502700</v>
       </c>
       <c r="I59" s="3">
-        <v>1594200</v>
+        <v>495600</v>
       </c>
       <c r="J59" s="3">
+        <v>1489100</v>
+      </c>
+      <c r="K59" s="3">
         <v>165700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4924800</v>
+        <v>6698900</v>
       </c>
       <c r="E60" s="3">
-        <v>4934300</v>
+        <v>4600100</v>
       </c>
       <c r="F60" s="3">
-        <v>3808500</v>
+        <v>4609000</v>
       </c>
       <c r="G60" s="3">
-        <v>3149300</v>
+        <v>3557400</v>
       </c>
       <c r="H60" s="3">
-        <v>2896900</v>
+        <v>2941700</v>
       </c>
       <c r="I60" s="3">
-        <v>2937900</v>
+        <v>2705900</v>
       </c>
       <c r="J60" s="3">
+        <v>2744200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1660200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1105700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>895100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>820600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1201300</v>
+        <v>1738900</v>
       </c>
       <c r="E61" s="3">
-        <v>457200</v>
+        <v>1122100</v>
       </c>
       <c r="F61" s="3">
-        <v>409000</v>
+        <v>427000</v>
       </c>
       <c r="G61" s="3">
-        <v>191900</v>
+        <v>382100</v>
       </c>
       <c r="H61" s="3">
-        <v>84000</v>
+        <v>179300</v>
       </c>
       <c r="I61" s="3">
-        <v>341500</v>
+        <v>78500</v>
       </c>
       <c r="J61" s="3">
+        <v>319000</v>
+      </c>
+      <c r="K61" s="3">
         <v>530100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>182500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>93400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>79000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>222500</v>
+        <v>211700</v>
       </c>
       <c r="E62" s="3">
-        <v>193800</v>
+        <v>207800</v>
       </c>
       <c r="F62" s="3">
-        <v>105000</v>
+        <v>181000</v>
       </c>
       <c r="G62" s="3">
-        <v>121200</v>
+        <v>98000</v>
       </c>
       <c r="H62" s="3">
-        <v>116000</v>
+        <v>113200</v>
       </c>
       <c r="I62" s="3">
-        <v>62700</v>
+        <v>108300</v>
       </c>
       <c r="J62" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K62" s="3">
         <v>36600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6822300</v>
+        <v>9126600</v>
       </c>
       <c r="E66" s="3">
-        <v>6080300</v>
+        <v>6372500</v>
       </c>
       <c r="F66" s="3">
-        <v>4419400</v>
+        <v>5679500</v>
       </c>
       <c r="G66" s="3">
-        <v>3462400</v>
+        <v>4128000</v>
       </c>
       <c r="H66" s="3">
-        <v>3096800</v>
+        <v>3234100</v>
       </c>
       <c r="I66" s="3">
-        <v>3600500</v>
+        <v>2892700</v>
       </c>
       <c r="J66" s="3">
+        <v>3363200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2457400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1314100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1005400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>913500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>774300</v>
+        <v>829500</v>
       </c>
       <c r="E72" s="3">
-        <v>737000</v>
+        <v>723300</v>
       </c>
       <c r="F72" s="3">
-        <v>595200</v>
+        <v>688400</v>
       </c>
       <c r="G72" s="3">
-        <v>531100</v>
+        <v>555900</v>
       </c>
       <c r="H72" s="3">
-        <v>508700</v>
+        <v>496000</v>
       </c>
       <c r="I72" s="3">
-        <v>220700</v>
+        <v>475200</v>
       </c>
       <c r="J72" s="3">
+        <v>206100</v>
+      </c>
+      <c r="K72" s="3">
         <v>112800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>203100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1575700</v>
+        <v>1628300</v>
       </c>
       <c r="E76" s="3">
-        <v>1467700</v>
+        <v>1471800</v>
       </c>
       <c r="F76" s="3">
-        <v>1236800</v>
+        <v>1370900</v>
       </c>
       <c r="G76" s="3">
-        <v>1055300</v>
+        <v>1155300</v>
       </c>
       <c r="H76" s="3">
-        <v>1019200</v>
+        <v>985700</v>
       </c>
       <c r="I76" s="3">
-        <v>681800</v>
+        <v>952100</v>
       </c>
       <c r="J76" s="3">
+        <v>636900</v>
+      </c>
+      <c r="K76" s="3">
         <v>553300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>307000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>195900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>421000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>36300</v>
+        <v>106200</v>
       </c>
       <c r="E81" s="3">
-        <v>141800</v>
+        <v>33900</v>
       </c>
       <c r="F81" s="3">
-        <v>64100</v>
+        <v>132400</v>
       </c>
       <c r="G81" s="3">
-        <v>22400</v>
+        <v>59900</v>
       </c>
       <c r="H81" s="3">
-        <v>288200</v>
+        <v>20900</v>
       </c>
       <c r="I81" s="3">
-        <v>110000</v>
+        <v>269200</v>
       </c>
       <c r="J81" s="3">
+        <v>102800</v>
+      </c>
+      <c r="K81" s="3">
         <v>107700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-221300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>218200</v>
+        <v>265600</v>
       </c>
       <c r="E83" s="3">
-        <v>154400</v>
+        <v>203800</v>
       </c>
       <c r="F83" s="3">
-        <v>128900</v>
+        <v>144300</v>
       </c>
       <c r="G83" s="3">
-        <v>97200</v>
+        <v>120400</v>
       </c>
       <c r="H83" s="3">
-        <v>124400</v>
+        <v>90800</v>
       </c>
       <c r="I83" s="3">
-        <v>99500</v>
+        <v>116200</v>
       </c>
       <c r="J83" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K83" s="3">
         <v>69700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>55500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>93300</v>
+        <v>63500</v>
       </c>
       <c r="E89" s="3">
-        <v>222500</v>
+        <v>87200</v>
       </c>
       <c r="F89" s="3">
-        <v>97000</v>
+        <v>207900</v>
       </c>
       <c r="G89" s="3">
-        <v>-27900</v>
+        <v>90600</v>
       </c>
       <c r="H89" s="3">
-        <v>-284400</v>
+        <v>-26100</v>
       </c>
       <c r="I89" s="3">
-        <v>211200</v>
+        <v>-265700</v>
       </c>
       <c r="J89" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K89" s="3">
         <v>29500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>95500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-111400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-651800</v>
+        <v>-1275200</v>
       </c>
       <c r="E91" s="3">
-        <v>-579600</v>
+        <v>-608800</v>
       </c>
       <c r="F91" s="3">
-        <v>-386700</v>
+        <v>-541400</v>
       </c>
       <c r="G91" s="3">
-        <v>-404600</v>
+        <v>-361200</v>
       </c>
       <c r="H91" s="3">
-        <v>-620300</v>
+        <v>-377900</v>
       </c>
       <c r="I91" s="3">
-        <v>-471700</v>
+        <v>-579400</v>
       </c>
       <c r="J91" s="3">
+        <v>-440600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-473500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-151700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-276200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-776000</v>
+        <v>-1666500</v>
       </c>
       <c r="E94" s="3">
-        <v>-950500</v>
+        <v>-724800</v>
       </c>
       <c r="F94" s="3">
-        <v>-620800</v>
+        <v>-887900</v>
       </c>
       <c r="G94" s="3">
-        <v>-383900</v>
+        <v>-579800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1090000</v>
+        <v>-358600</v>
       </c>
       <c r="I94" s="3">
-        <v>-522900</v>
+        <v>-1018100</v>
       </c>
       <c r="J94" s="3">
+        <v>-488400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-656100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-196500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-71900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-353900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>993500</v>
+        <v>1771000</v>
       </c>
       <c r="E100" s="3">
-        <v>1164600</v>
+        <v>928000</v>
       </c>
       <c r="F100" s="3">
-        <v>626700</v>
+        <v>1087800</v>
       </c>
       <c r="G100" s="3">
-        <v>414000</v>
+        <v>585400</v>
       </c>
       <c r="H100" s="3">
-        <v>1176100</v>
+        <v>386700</v>
       </c>
       <c r="I100" s="3">
-        <v>607500</v>
+        <v>1098600</v>
       </c>
       <c r="J100" s="3">
+        <v>567400</v>
+      </c>
+      <c r="K100" s="3">
         <v>836700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>128500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-53200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>453800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26700</v>
+        <v>-17200</v>
       </c>
       <c r="E101" s="3">
-        <v>3900</v>
+        <v>-24900</v>
       </c>
       <c r="F101" s="3">
-        <v>10800</v>
+        <v>3600</v>
       </c>
       <c r="G101" s="3">
-        <v>-11500</v>
+        <v>10100</v>
       </c>
       <c r="H101" s="3">
-        <v>11800</v>
+        <v>-10700</v>
       </c>
       <c r="I101" s="3">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="J101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>284100</v>
+        <v>150700</v>
       </c>
       <c r="E102" s="3">
-        <v>440500</v>
+        <v>265400</v>
       </c>
       <c r="F102" s="3">
-        <v>113700</v>
+        <v>411400</v>
       </c>
       <c r="G102" s="3">
-        <v>-9300</v>
+        <v>106200</v>
       </c>
       <c r="H102" s="3">
-        <v>-186500</v>
+        <v>-8700</v>
       </c>
       <c r="I102" s="3">
-        <v>300800</v>
+        <v>-174200</v>
       </c>
       <c r="J102" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K102" s="3">
         <v>208400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6016200</v>
+        <v>5961900</v>
       </c>
       <c r="E8" s="3">
-        <v>5176700</v>
+        <v>5130000</v>
       </c>
       <c r="F8" s="3">
-        <v>4383400</v>
+        <v>4343900</v>
       </c>
       <c r="G8" s="3">
-        <v>3690300</v>
+        <v>3657000</v>
       </c>
       <c r="H8" s="3">
-        <v>3901100</v>
+        <v>3865800</v>
       </c>
       <c r="I8" s="3">
-        <v>3153600</v>
+        <v>3125100</v>
       </c>
       <c r="J8" s="3">
-        <v>2277400</v>
+        <v>2256800</v>
       </c>
       <c r="K8" s="3">
         <v>1536700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5035100</v>
+        <v>4989700</v>
       </c>
       <c r="E9" s="3">
-        <v>4267200</v>
+        <v>4228700</v>
       </c>
       <c r="F9" s="3">
-        <v>3583000</v>
+        <v>3550700</v>
       </c>
       <c r="G9" s="3">
-        <v>3172500</v>
+        <v>3143900</v>
       </c>
       <c r="H9" s="3">
-        <v>3460200</v>
+        <v>3429000</v>
       </c>
       <c r="I9" s="3">
-        <v>2583400</v>
+        <v>2560100</v>
       </c>
       <c r="J9" s="3">
-        <v>1845400</v>
+        <v>1828700</v>
       </c>
       <c r="K9" s="3">
         <v>1205900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>981100</v>
+        <v>972200</v>
       </c>
       <c r="E10" s="3">
-        <v>909500</v>
+        <v>901200</v>
       </c>
       <c r="F10" s="3">
-        <v>800400</v>
+        <v>793200</v>
       </c>
       <c r="G10" s="3">
-        <v>517800</v>
+        <v>513100</v>
       </c>
       <c r="H10" s="3">
-        <v>440800</v>
+        <v>436900</v>
       </c>
       <c r="I10" s="3">
-        <v>570200</v>
+        <v>565000</v>
       </c>
       <c r="J10" s="3">
-        <v>432000</v>
+        <v>428100</v>
       </c>
       <c r="K10" s="3">
         <v>330900</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>68000</v>
+        <v>67400</v>
       </c>
       <c r="E12" s="3">
-        <v>57400</v>
+        <v>56800</v>
       </c>
       <c r="F12" s="3">
-        <v>47800</v>
+        <v>47400</v>
       </c>
       <c r="G12" s="3">
-        <v>54000</v>
+        <v>53500</v>
       </c>
       <c r="H12" s="3">
-        <v>43300</v>
+        <v>42900</v>
       </c>
       <c r="I12" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="J12" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="K12" s="3">
         <v>16800</v>
@@ -935,10 +935,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>40300</v>
+        <v>40000</v>
       </c>
       <c r="E14" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="F14" s="3">
         <v>7100</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5853700</v>
+        <v>5800900</v>
       </c>
       <c r="E17" s="3">
-        <v>4913600</v>
+        <v>4869300</v>
       </c>
       <c r="F17" s="3">
-        <v>4125600</v>
+        <v>4088400</v>
       </c>
       <c r="G17" s="3">
-        <v>3596600</v>
+        <v>3564200</v>
       </c>
       <c r="H17" s="3">
-        <v>3853100</v>
+        <v>3818300</v>
       </c>
       <c r="I17" s="3">
-        <v>2954100</v>
+        <v>2927400</v>
       </c>
       <c r="J17" s="3">
-        <v>2112000</v>
+        <v>2093000</v>
       </c>
       <c r="K17" s="3">
         <v>1403600</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>162500</v>
+        <v>161000</v>
       </c>
       <c r="E18" s="3">
-        <v>263000</v>
+        <v>260700</v>
       </c>
       <c r="F18" s="3">
-        <v>257800</v>
+        <v>255500</v>
       </c>
       <c r="G18" s="3">
-        <v>93600</v>
+        <v>92800</v>
       </c>
       <c r="H18" s="3">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="I18" s="3">
-        <v>199500</v>
+        <v>197700</v>
       </c>
       <c r="J18" s="3">
-        <v>165300</v>
+        <v>163800</v>
       </c>
       <c r="K18" s="3">
         <v>133200</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>121700</v>
+        <v>120600</v>
       </c>
       <c r="E20" s="3">
-        <v>-80000</v>
+        <v>-79300</v>
       </c>
       <c r="F20" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G20" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="H20" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="I20" s="3">
-        <v>-15700</v>
+        <v>-15500</v>
       </c>
       <c r="J20" s="3">
-        <v>-37500</v>
+        <v>-37200</v>
       </c>
       <c r="K20" s="3">
         <v>-44400</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>552400</v>
+        <v>541700</v>
       </c>
       <c r="E21" s="3">
-        <v>388900</v>
+        <v>381300</v>
       </c>
       <c r="F21" s="3">
-        <v>412900</v>
+        <v>405800</v>
       </c>
       <c r="G21" s="3">
-        <v>237400</v>
+        <v>232300</v>
       </c>
       <c r="H21" s="3">
-        <v>158500</v>
+        <v>154700</v>
       </c>
       <c r="I21" s="3">
-        <v>301200</v>
+        <v>296000</v>
       </c>
       <c r="J21" s="3">
-        <v>221600</v>
+        <v>217700</v>
       </c>
       <c r="K21" s="3">
         <v>158700</v>
@@ -1200,19 +1200,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>123500</v>
+        <v>122400</v>
       </c>
       <c r="E22" s="3">
-        <v>99600</v>
+        <v>98700</v>
       </c>
       <c r="F22" s="3">
-        <v>82800</v>
+        <v>82100</v>
       </c>
       <c r="G22" s="3">
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="H22" s="3">
-        <v>44800</v>
+        <v>44400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>17</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>160600</v>
+        <v>159200</v>
       </c>
       <c r="E23" s="3">
-        <v>83500</v>
+        <v>82700</v>
       </c>
       <c r="F23" s="3">
-        <v>184400</v>
+        <v>182700</v>
       </c>
       <c r="G23" s="3">
-        <v>60000</v>
+        <v>59500</v>
       </c>
       <c r="H23" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="I23" s="3">
-        <v>183900</v>
+        <v>182200</v>
       </c>
       <c r="J23" s="3">
-        <v>127800</v>
+        <v>126600</v>
       </c>
       <c r="K23" s="3">
         <v>88800</v>
@@ -1278,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28600</v>
+        <v>28400</v>
       </c>
       <c r="E24" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="F24" s="3">
-        <v>41000</v>
+        <v>40600</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
@@ -1293,10 +1293,10 @@
         <v>700</v>
       </c>
       <c r="I24" s="3">
-        <v>37900</v>
+        <v>37600</v>
       </c>
       <c r="J24" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="K24" s="3">
         <v>-21400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>132000</v>
+        <v>130800</v>
       </c>
       <c r="E26" s="3">
-        <v>57200</v>
+        <v>56700</v>
       </c>
       <c r="F26" s="3">
-        <v>143400</v>
+        <v>142100</v>
       </c>
       <c r="G26" s="3">
-        <v>59400</v>
+        <v>58800</v>
       </c>
       <c r="H26" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="I26" s="3">
-        <v>145900</v>
+        <v>144600</v>
       </c>
       <c r="J26" s="3">
-        <v>113000</v>
+        <v>111900</v>
       </c>
       <c r="K26" s="3">
         <v>110100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="E27" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="F27" s="3">
-        <v>132400</v>
+        <v>131200</v>
       </c>
       <c r="G27" s="3">
-        <v>59900</v>
+        <v>59400</v>
       </c>
       <c r="H27" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="I27" s="3">
-        <v>122500</v>
+        <v>121400</v>
       </c>
       <c r="J27" s="3">
-        <v>89600</v>
+        <v>88800</v>
       </c>
       <c r="K27" s="3">
         <v>103300</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>146700</v>
+        <v>145400</v>
       </c>
       <c r="J29" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="K29" s="3">
         <v>4400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-121700</v>
+        <v>-120600</v>
       </c>
       <c r="E32" s="3">
-        <v>80000</v>
+        <v>79300</v>
       </c>
       <c r="F32" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="G32" s="3">
-        <v>-22100</v>
+        <v>-21900</v>
       </c>
       <c r="H32" s="3">
-        <v>-18800</v>
+        <v>-18600</v>
       </c>
       <c r="I32" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="J32" s="3">
-        <v>37500</v>
+        <v>37200</v>
       </c>
       <c r="K32" s="3">
         <v>44400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="E33" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="F33" s="3">
-        <v>132400</v>
+        <v>131200</v>
       </c>
       <c r="G33" s="3">
-        <v>59900</v>
+        <v>59400</v>
       </c>
       <c r="H33" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="I33" s="3">
-        <v>269200</v>
+        <v>266800</v>
       </c>
       <c r="J33" s="3">
-        <v>102800</v>
+        <v>101800</v>
       </c>
       <c r="K33" s="3">
         <v>107700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="E35" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="F35" s="3">
-        <v>132400</v>
+        <v>131200</v>
       </c>
       <c r="G35" s="3">
-        <v>59900</v>
+        <v>59400</v>
       </c>
       <c r="H35" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="I35" s="3">
-        <v>269200</v>
+        <v>266800</v>
       </c>
       <c r="J35" s="3">
-        <v>102800</v>
+        <v>101800</v>
       </c>
       <c r="K35" s="3">
         <v>107700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1226200</v>
+        <v>1215200</v>
       </c>
       <c r="E41" s="3">
-        <v>1102500</v>
+        <v>1092500</v>
       </c>
       <c r="F41" s="3">
-        <v>833200</v>
+        <v>825600</v>
       </c>
       <c r="G41" s="3">
-        <v>457500</v>
+        <v>453400</v>
       </c>
       <c r="H41" s="3">
-        <v>284200</v>
+        <v>281600</v>
       </c>
       <c r="I41" s="3">
-        <v>368600</v>
+        <v>365300</v>
       </c>
       <c r="J41" s="3">
-        <v>352600</v>
+        <v>349400</v>
       </c>
       <c r="K41" s="3">
         <v>280300</v>
@@ -1863,10 +1863,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="E42" s="3">
-        <v>84000</v>
+        <v>83200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>17</v>
@@ -1878,7 +1878,7 @@
         <v>400</v>
       </c>
       <c r="I42" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="J42" s="3">
         <v>4300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1388800</v>
+        <v>1376300</v>
       </c>
       <c r="E43" s="3">
-        <v>1016700</v>
+        <v>1007500</v>
       </c>
       <c r="F43" s="3">
-        <v>1119800</v>
+        <v>1109700</v>
       </c>
       <c r="G43" s="3">
-        <v>1067100</v>
+        <v>1057500</v>
       </c>
       <c r="H43" s="3">
-        <v>1080000</v>
+        <v>1070300</v>
       </c>
       <c r="I43" s="3">
-        <v>1150200</v>
+        <v>1139800</v>
       </c>
       <c r="J43" s="3">
-        <v>486900</v>
+        <v>482500</v>
       </c>
       <c r="K43" s="3">
         <v>536200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1952900</v>
+        <v>1935200</v>
       </c>
       <c r="E44" s="3">
-        <v>1234400</v>
+        <v>1223300</v>
       </c>
       <c r="F44" s="3">
-        <v>857500</v>
+        <v>849700</v>
       </c>
       <c r="G44" s="3">
-        <v>846300</v>
+        <v>838700</v>
       </c>
       <c r="H44" s="3">
-        <v>629800</v>
+        <v>624100</v>
       </c>
       <c r="I44" s="3">
-        <v>659200</v>
+        <v>653300</v>
       </c>
       <c r="J44" s="3">
-        <v>472000</v>
+        <v>467800</v>
       </c>
       <c r="K44" s="3">
         <v>298300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2118400</v>
+        <v>2099300</v>
       </c>
       <c r="E45" s="3">
-        <v>1525800</v>
+        <v>1512100</v>
       </c>
       <c r="F45" s="3">
-        <v>1859200</v>
+        <v>1842400</v>
       </c>
       <c r="G45" s="3">
-        <v>996800</v>
+        <v>987800</v>
       </c>
       <c r="H45" s="3">
-        <v>895000</v>
+        <v>887000</v>
       </c>
       <c r="I45" s="3">
-        <v>713800</v>
+        <v>707300</v>
       </c>
       <c r="J45" s="3">
-        <v>2001900</v>
+        <v>1983900</v>
       </c>
       <c r="K45" s="3">
         <v>505400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6708400</v>
+        <v>6647900</v>
       </c>
       <c r="E46" s="3">
-        <v>4963400</v>
+        <v>4918600</v>
       </c>
       <c r="F46" s="3">
-        <v>4669600</v>
+        <v>4627400</v>
       </c>
       <c r="G46" s="3">
-        <v>3367800</v>
+        <v>3337400</v>
       </c>
       <c r="H46" s="3">
-        <v>2889400</v>
+        <v>2863300</v>
       </c>
       <c r="I46" s="3">
-        <v>2902300</v>
+        <v>2876100</v>
       </c>
       <c r="J46" s="3">
-        <v>3314800</v>
+        <v>3284900</v>
       </c>
       <c r="K46" s="3">
         <v>1641300</v>
@@ -2058,16 +2058,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>97500</v>
+        <v>96600</v>
       </c>
       <c r="E47" s="3">
-        <v>32500</v>
+        <v>32200</v>
       </c>
       <c r="F47" s="3">
-        <v>41000</v>
+        <v>40600</v>
       </c>
       <c r="G47" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H47" s="3">
         <v>3300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3100000</v>
+        <v>3072000</v>
       </c>
       <c r="E48" s="3">
-        <v>2099400</v>
+        <v>2080400</v>
       </c>
       <c r="F48" s="3">
-        <v>1854400</v>
+        <v>1837700</v>
       </c>
       <c r="G48" s="3">
-        <v>1480500</v>
+        <v>1467100</v>
       </c>
       <c r="H48" s="3">
-        <v>1054200</v>
+        <v>1044700</v>
       </c>
       <c r="I48" s="3">
-        <v>706400</v>
+        <v>700000</v>
       </c>
       <c r="J48" s="3">
-        <v>555000</v>
+        <v>550000</v>
       </c>
       <c r="K48" s="3">
         <v>1176100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>168800</v>
+        <v>8100</v>
       </c>
       <c r="E49" s="3">
-        <v>117400</v>
+        <v>5200</v>
       </c>
       <c r="F49" s="3">
-        <v>93500</v>
+        <v>5300</v>
       </c>
       <c r="G49" s="3">
-        <v>89900</v>
+        <v>89100</v>
       </c>
       <c r="H49" s="3">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="I49" s="3">
-        <v>69400</v>
+        <v>68800</v>
       </c>
       <c r="J49" s="3">
-        <v>54600</v>
+        <v>54100</v>
       </c>
       <c r="K49" s="3">
         <v>60200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>680200</v>
+        <v>833200</v>
       </c>
       <c r="E52" s="3">
-        <v>631600</v>
+        <v>737100</v>
       </c>
       <c r="F52" s="3">
-        <v>392000</v>
+        <v>475800</v>
       </c>
       <c r="G52" s="3">
-        <v>341400</v>
+        <v>338300</v>
       </c>
       <c r="H52" s="3">
-        <v>203800</v>
+        <v>202000</v>
       </c>
       <c r="I52" s="3">
-        <v>165500</v>
+        <v>164000</v>
       </c>
       <c r="J52" s="3">
-        <v>190400</v>
+        <v>188700</v>
       </c>
       <c r="K52" s="3">
         <v>116800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10754800</v>
+        <v>10657800</v>
       </c>
       <c r="E54" s="3">
-        <v>7844300</v>
+        <v>7773500</v>
       </c>
       <c r="F54" s="3">
-        <v>7050400</v>
+        <v>6986800</v>
       </c>
       <c r="G54" s="3">
-        <v>5283300</v>
+        <v>5235600</v>
       </c>
       <c r="H54" s="3">
-        <v>4219900</v>
+        <v>4181800</v>
       </c>
       <c r="I54" s="3">
-        <v>3844700</v>
+        <v>3810000</v>
       </c>
       <c r="J54" s="3">
-        <v>4000000</v>
+        <v>3963900</v>
       </c>
       <c r="K54" s="3">
         <v>3010700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1004400</v>
+        <v>995300</v>
       </c>
       <c r="E57" s="3">
-        <v>655800</v>
+        <v>649900</v>
       </c>
       <c r="F57" s="3">
-        <v>735200</v>
+        <v>728500</v>
       </c>
       <c r="G57" s="3">
-        <v>785100</v>
+        <v>778000</v>
       </c>
       <c r="H57" s="3">
-        <v>687200</v>
+        <v>681000</v>
       </c>
       <c r="I57" s="3">
-        <v>632200</v>
+        <v>626500</v>
       </c>
       <c r="J57" s="3">
-        <v>557700</v>
+        <v>552700</v>
       </c>
       <c r="K57" s="3">
         <v>685800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3773400</v>
+        <v>3739300</v>
       </c>
       <c r="E58" s="3">
-        <v>2899700</v>
+        <v>2873500</v>
       </c>
       <c r="F58" s="3">
-        <v>2474700</v>
+        <v>2452300</v>
       </c>
       <c r="G58" s="3">
-        <v>1943000</v>
+        <v>1925500</v>
       </c>
       <c r="H58" s="3">
-        <v>1751700</v>
+        <v>1735900</v>
       </c>
       <c r="I58" s="3">
-        <v>1578100</v>
+        <v>1563900</v>
       </c>
       <c r="J58" s="3">
-        <v>1373700</v>
+        <v>1361300</v>
       </c>
       <c r="K58" s="3">
         <v>808700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1921200</v>
+        <v>1903800</v>
       </c>
       <c r="E59" s="3">
-        <v>1044600</v>
+        <v>1035200</v>
       </c>
       <c r="F59" s="3">
-        <v>1399200</v>
+        <v>1386500</v>
       </c>
       <c r="G59" s="3">
-        <v>829300</v>
+        <v>821900</v>
       </c>
       <c r="H59" s="3">
-        <v>502700</v>
+        <v>498200</v>
       </c>
       <c r="I59" s="3">
-        <v>495600</v>
+        <v>491200</v>
       </c>
       <c r="J59" s="3">
-        <v>1489100</v>
+        <v>1475700</v>
       </c>
       <c r="K59" s="3">
         <v>165700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6698900</v>
+        <v>6638400</v>
       </c>
       <c r="E60" s="3">
-        <v>4600100</v>
+        <v>4558600</v>
       </c>
       <c r="F60" s="3">
-        <v>4609000</v>
+        <v>4567400</v>
       </c>
       <c r="G60" s="3">
-        <v>3557400</v>
+        <v>3525300</v>
       </c>
       <c r="H60" s="3">
-        <v>2941700</v>
+        <v>2915100</v>
       </c>
       <c r="I60" s="3">
-        <v>2705900</v>
+        <v>2681500</v>
       </c>
       <c r="J60" s="3">
-        <v>2744200</v>
+        <v>2719400</v>
       </c>
       <c r="K60" s="3">
         <v>1660200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1738900</v>
+        <v>1723200</v>
       </c>
       <c r="E61" s="3">
-        <v>1122100</v>
+        <v>1112000</v>
       </c>
       <c r="F61" s="3">
-        <v>427000</v>
+        <v>423200</v>
       </c>
       <c r="G61" s="3">
-        <v>382100</v>
+        <v>378600</v>
       </c>
       <c r="H61" s="3">
-        <v>179300</v>
+        <v>177700</v>
       </c>
       <c r="I61" s="3">
-        <v>78500</v>
+        <v>77800</v>
       </c>
       <c r="J61" s="3">
-        <v>319000</v>
+        <v>316100</v>
       </c>
       <c r="K61" s="3">
         <v>530100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>211700</v>
+        <v>209800</v>
       </c>
       <c r="E62" s="3">
-        <v>207800</v>
+        <v>205900</v>
       </c>
       <c r="F62" s="3">
-        <v>181000</v>
+        <v>179400</v>
       </c>
       <c r="G62" s="3">
-        <v>98000</v>
+        <v>97200</v>
       </c>
       <c r="H62" s="3">
-        <v>113200</v>
+        <v>112200</v>
       </c>
       <c r="I62" s="3">
-        <v>108300</v>
+        <v>107400</v>
       </c>
       <c r="J62" s="3">
-        <v>58600</v>
+        <v>58100</v>
       </c>
       <c r="K62" s="3">
         <v>36600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9126600</v>
+        <v>9044200</v>
       </c>
       <c r="E66" s="3">
-        <v>6372500</v>
+        <v>6315000</v>
       </c>
       <c r="F66" s="3">
-        <v>5679500</v>
+        <v>5628200</v>
       </c>
       <c r="G66" s="3">
-        <v>4128000</v>
+        <v>4090800</v>
       </c>
       <c r="H66" s="3">
-        <v>3234100</v>
+        <v>3204900</v>
       </c>
       <c r="I66" s="3">
-        <v>2892700</v>
+        <v>2866600</v>
       </c>
       <c r="J66" s="3">
-        <v>3363200</v>
+        <v>3332800</v>
       </c>
       <c r="K66" s="3">
         <v>2457400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>829500</v>
+        <v>822100</v>
       </c>
       <c r="E72" s="3">
-        <v>723300</v>
+        <v>716800</v>
       </c>
       <c r="F72" s="3">
-        <v>688400</v>
+        <v>682200</v>
       </c>
       <c r="G72" s="3">
-        <v>555900</v>
+        <v>550900</v>
       </c>
       <c r="H72" s="3">
-        <v>496000</v>
+        <v>491600</v>
       </c>
       <c r="I72" s="3">
-        <v>475200</v>
+        <v>470900</v>
       </c>
       <c r="J72" s="3">
-        <v>206100</v>
+        <v>204300</v>
       </c>
       <c r="K72" s="3">
         <v>112800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1628300</v>
+        <v>1613600</v>
       </c>
       <c r="E76" s="3">
-        <v>1471800</v>
+        <v>1458500</v>
       </c>
       <c r="F76" s="3">
-        <v>1370900</v>
+        <v>1358600</v>
       </c>
       <c r="G76" s="3">
-        <v>1155300</v>
+        <v>1144900</v>
       </c>
       <c r="H76" s="3">
-        <v>985700</v>
+        <v>976800</v>
       </c>
       <c r="I76" s="3">
-        <v>952100</v>
+        <v>943500</v>
       </c>
       <c r="J76" s="3">
-        <v>636900</v>
+        <v>631100</v>
       </c>
       <c r="K76" s="3">
         <v>553300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="E81" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="F81" s="3">
-        <v>132400</v>
+        <v>131200</v>
       </c>
       <c r="G81" s="3">
-        <v>59900</v>
+        <v>59400</v>
       </c>
       <c r="H81" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="I81" s="3">
-        <v>269200</v>
+        <v>266800</v>
       </c>
       <c r="J81" s="3">
-        <v>102800</v>
+        <v>101800</v>
       </c>
       <c r="K81" s="3">
         <v>107700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>265600</v>
+        <v>260500</v>
       </c>
       <c r="E83" s="3">
-        <v>203800</v>
+        <v>200200</v>
       </c>
       <c r="F83" s="3">
-        <v>144300</v>
+        <v>141200</v>
       </c>
       <c r="G83" s="3">
-        <v>120400</v>
+        <v>117700</v>
       </c>
       <c r="H83" s="3">
-        <v>90800</v>
+        <v>88700</v>
       </c>
       <c r="I83" s="3">
-        <v>116200</v>
+        <v>114000</v>
       </c>
       <c r="J83" s="3">
-        <v>92900</v>
+        <v>91200</v>
       </c>
       <c r="K83" s="3">
         <v>69700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63500</v>
+        <v>62900</v>
       </c>
       <c r="E89" s="3">
-        <v>87200</v>
+        <v>86400</v>
       </c>
       <c r="F89" s="3">
-        <v>207900</v>
+        <v>206000</v>
       </c>
       <c r="G89" s="3">
-        <v>90600</v>
+        <v>89700</v>
       </c>
       <c r="H89" s="3">
-        <v>-26100</v>
+        <v>-25900</v>
       </c>
       <c r="I89" s="3">
-        <v>-265700</v>
+        <v>-263300</v>
       </c>
       <c r="J89" s="3">
-        <v>197300</v>
+        <v>195500</v>
       </c>
       <c r="K89" s="3">
         <v>29500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1275200</v>
+        <v>-1263700</v>
       </c>
       <c r="E91" s="3">
-        <v>-608800</v>
+        <v>-603300</v>
       </c>
       <c r="F91" s="3">
-        <v>-541400</v>
+        <v>-536500</v>
       </c>
       <c r="G91" s="3">
-        <v>-361200</v>
+        <v>-358000</v>
       </c>
       <c r="H91" s="3">
-        <v>-377900</v>
+        <v>-374500</v>
       </c>
       <c r="I91" s="3">
-        <v>-579400</v>
+        <v>-574200</v>
       </c>
       <c r="J91" s="3">
-        <v>-440600</v>
+        <v>-436600</v>
       </c>
       <c r="K91" s="3">
         <v>-473500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1666500</v>
+        <v>-1651500</v>
       </c>
       <c r="E94" s="3">
-        <v>-724800</v>
+        <v>-718300</v>
       </c>
       <c r="F94" s="3">
-        <v>-887900</v>
+        <v>-879900</v>
       </c>
       <c r="G94" s="3">
-        <v>-579800</v>
+        <v>-574600</v>
       </c>
       <c r="H94" s="3">
-        <v>-358600</v>
+        <v>-355400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1018100</v>
+        <v>-1008900</v>
       </c>
       <c r="J94" s="3">
-        <v>-488400</v>
+        <v>-484000</v>
       </c>
       <c r="K94" s="3">
         <v>-656100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1771000</v>
+        <v>1755000</v>
       </c>
       <c r="E100" s="3">
-        <v>928000</v>
+        <v>919600</v>
       </c>
       <c r="F100" s="3">
-        <v>1087800</v>
+        <v>1078000</v>
       </c>
       <c r="G100" s="3">
-        <v>585400</v>
+        <v>580100</v>
       </c>
       <c r="H100" s="3">
-        <v>386700</v>
+        <v>383200</v>
       </c>
       <c r="I100" s="3">
-        <v>1098600</v>
+        <v>1088700</v>
       </c>
       <c r="J100" s="3">
-        <v>567400</v>
+        <v>562300</v>
       </c>
       <c r="K100" s="3">
         <v>836700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17200</v>
+        <v>-17100</v>
       </c>
       <c r="E101" s="3">
-        <v>-24900</v>
+        <v>-24700</v>
       </c>
       <c r="F101" s="3">
         <v>3600</v>
       </c>
       <c r="G101" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="H101" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="I101" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="J101" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K101" s="3">
         <v>-1700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>150700</v>
+        <v>149300</v>
       </c>
       <c r="E102" s="3">
-        <v>265400</v>
+        <v>263000</v>
       </c>
       <c r="F102" s="3">
-        <v>411400</v>
+        <v>407700</v>
       </c>
       <c r="G102" s="3">
-        <v>106200</v>
+        <v>105200</v>
       </c>
       <c r="H102" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="I102" s="3">
-        <v>-174200</v>
+        <v>-172600</v>
       </c>
       <c r="J102" s="3">
-        <v>281000</v>
+        <v>278400</v>
       </c>
       <c r="K102" s="3">
         <v>208400</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5961900</v>
+        <v>5683100</v>
       </c>
       <c r="E8" s="3">
-        <v>5130000</v>
+        <v>4890000</v>
       </c>
       <c r="F8" s="3">
-        <v>4343900</v>
+        <v>4140700</v>
       </c>
       <c r="G8" s="3">
-        <v>3657000</v>
+        <v>3485900</v>
       </c>
       <c r="H8" s="3">
-        <v>3865800</v>
+        <v>3685000</v>
       </c>
       <c r="I8" s="3">
-        <v>3125100</v>
+        <v>2979000</v>
       </c>
       <c r="J8" s="3">
-        <v>2256800</v>
+        <v>2151200</v>
       </c>
       <c r="K8" s="3">
         <v>1536700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4989700</v>
+        <v>4756300</v>
       </c>
       <c r="E9" s="3">
-        <v>4228700</v>
+        <v>4030900</v>
       </c>
       <c r="F9" s="3">
-        <v>3550700</v>
+        <v>3384600</v>
       </c>
       <c r="G9" s="3">
-        <v>3143900</v>
+        <v>2996800</v>
       </c>
       <c r="H9" s="3">
-        <v>3429000</v>
+        <v>3268600</v>
       </c>
       <c r="I9" s="3">
-        <v>2560100</v>
+        <v>2440400</v>
       </c>
       <c r="J9" s="3">
-        <v>1828700</v>
+        <v>1743200</v>
       </c>
       <c r="K9" s="3">
         <v>1205900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>972200</v>
+        <v>926800</v>
       </c>
       <c r="E10" s="3">
-        <v>901200</v>
+        <v>859100</v>
       </c>
       <c r="F10" s="3">
-        <v>793200</v>
+        <v>756100</v>
       </c>
       <c r="G10" s="3">
-        <v>513100</v>
+        <v>489100</v>
       </c>
       <c r="H10" s="3">
-        <v>436900</v>
+        <v>416400</v>
       </c>
       <c r="I10" s="3">
-        <v>565000</v>
+        <v>538600</v>
       </c>
       <c r="J10" s="3">
-        <v>428100</v>
+        <v>408100</v>
       </c>
       <c r="K10" s="3">
         <v>330900</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>67400</v>
+        <v>64300</v>
       </c>
       <c r="E12" s="3">
-        <v>56800</v>
+        <v>54200</v>
       </c>
       <c r="F12" s="3">
-        <v>47400</v>
+        <v>45200</v>
       </c>
       <c r="G12" s="3">
-        <v>53500</v>
+        <v>51000</v>
       </c>
       <c r="H12" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="I12" s="3">
-        <v>26400</v>
+        <v>25200</v>
       </c>
       <c r="J12" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="K12" s="3">
         <v>16800</v>
@@ -935,22 +935,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="E14" s="3">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="F14" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="G14" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5800900</v>
+        <v>5529600</v>
       </c>
       <c r="E17" s="3">
-        <v>4869300</v>
+        <v>4641600</v>
       </c>
       <c r="F17" s="3">
-        <v>4088400</v>
+        <v>3897100</v>
       </c>
       <c r="G17" s="3">
-        <v>3564200</v>
+        <v>3397500</v>
       </c>
       <c r="H17" s="3">
-        <v>3818300</v>
+        <v>3639700</v>
       </c>
       <c r="I17" s="3">
-        <v>2927400</v>
+        <v>2790500</v>
       </c>
       <c r="J17" s="3">
-        <v>2093000</v>
+        <v>1995100</v>
       </c>
       <c r="K17" s="3">
         <v>1403600</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>161000</v>
+        <v>153500</v>
       </c>
       <c r="E18" s="3">
-        <v>260700</v>
+        <v>248500</v>
       </c>
       <c r="F18" s="3">
-        <v>255500</v>
+        <v>243500</v>
       </c>
       <c r="G18" s="3">
-        <v>92800</v>
+        <v>88500</v>
       </c>
       <c r="H18" s="3">
-        <v>47500</v>
+        <v>45300</v>
       </c>
       <c r="I18" s="3">
-        <v>197700</v>
+        <v>188500</v>
       </c>
       <c r="J18" s="3">
-        <v>163800</v>
+        <v>156200</v>
       </c>
       <c r="K18" s="3">
         <v>133200</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>120600</v>
+        <v>114900</v>
       </c>
       <c r="E20" s="3">
-        <v>-79300</v>
+        <v>-75500</v>
       </c>
       <c r="F20" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="G20" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="H20" s="3">
-        <v>18600</v>
+        <v>17800</v>
       </c>
       <c r="I20" s="3">
-        <v>-15500</v>
+        <v>-14800</v>
       </c>
       <c r="J20" s="3">
-        <v>-37200</v>
+        <v>-35500</v>
       </c>
       <c r="K20" s="3">
         <v>-44400</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>541700</v>
+        <v>514800</v>
       </c>
       <c r="E21" s="3">
-        <v>381300</v>
+        <v>362300</v>
       </c>
       <c r="F21" s="3">
-        <v>405800</v>
+        <v>386000</v>
       </c>
       <c r="G21" s="3">
-        <v>232300</v>
+        <v>220700</v>
       </c>
       <c r="H21" s="3">
-        <v>154700</v>
+        <v>146900</v>
       </c>
       <c r="I21" s="3">
-        <v>296000</v>
+        <v>281500</v>
       </c>
       <c r="J21" s="3">
-        <v>217700</v>
+        <v>206900</v>
       </c>
       <c r="K21" s="3">
         <v>158700</v>
@@ -1200,19 +1200,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>122400</v>
+        <v>116700</v>
       </c>
       <c r="E22" s="3">
-        <v>98700</v>
+        <v>94100</v>
       </c>
       <c r="F22" s="3">
-        <v>82100</v>
+        <v>78200</v>
       </c>
       <c r="G22" s="3">
-        <v>55200</v>
+        <v>52600</v>
       </c>
       <c r="H22" s="3">
-        <v>44400</v>
+        <v>42400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>17</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>159200</v>
+        <v>151700</v>
       </c>
       <c r="E23" s="3">
-        <v>82700</v>
+        <v>78800</v>
       </c>
       <c r="F23" s="3">
-        <v>182700</v>
+        <v>174200</v>
       </c>
       <c r="G23" s="3">
-        <v>59500</v>
+        <v>56700</v>
       </c>
       <c r="H23" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="I23" s="3">
-        <v>182200</v>
+        <v>173700</v>
       </c>
       <c r="J23" s="3">
-        <v>126600</v>
+        <v>120700</v>
       </c>
       <c r="K23" s="3">
         <v>88800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28400</v>
+        <v>27000</v>
       </c>
       <c r="E24" s="3">
-        <v>26100</v>
+        <v>24800</v>
       </c>
       <c r="F24" s="3">
-        <v>40600</v>
+        <v>38700</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I24" s="3">
-        <v>37600</v>
+        <v>35800</v>
       </c>
       <c r="J24" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="K24" s="3">
         <v>-21400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>130800</v>
+        <v>124700</v>
       </c>
       <c r="E26" s="3">
-        <v>56700</v>
+        <v>54000</v>
       </c>
       <c r="F26" s="3">
-        <v>142100</v>
+        <v>135500</v>
       </c>
       <c r="G26" s="3">
-        <v>58800</v>
+        <v>56100</v>
       </c>
       <c r="H26" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="I26" s="3">
-        <v>144600</v>
+        <v>137800</v>
       </c>
       <c r="J26" s="3">
-        <v>111900</v>
+        <v>106700</v>
       </c>
       <c r="K26" s="3">
         <v>110100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105300</v>
+        <v>100400</v>
       </c>
       <c r="E27" s="3">
-        <v>33600</v>
+        <v>32100</v>
       </c>
       <c r="F27" s="3">
-        <v>131200</v>
+        <v>125100</v>
       </c>
       <c r="G27" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="H27" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="I27" s="3">
-        <v>121400</v>
+        <v>115700</v>
       </c>
       <c r="J27" s="3">
-        <v>88800</v>
+        <v>84600</v>
       </c>
       <c r="K27" s="3">
         <v>103300</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>145400</v>
+        <v>138600</v>
       </c>
       <c r="J29" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="K29" s="3">
         <v>4400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-120600</v>
+        <v>-114900</v>
       </c>
       <c r="E32" s="3">
-        <v>79300</v>
+        <v>75500</v>
       </c>
       <c r="F32" s="3">
-        <v>-9300</v>
+        <v>-8900</v>
       </c>
       <c r="G32" s="3">
-        <v>-21900</v>
+        <v>-20900</v>
       </c>
       <c r="H32" s="3">
-        <v>-18600</v>
+        <v>-17800</v>
       </c>
       <c r="I32" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="J32" s="3">
-        <v>37200</v>
+        <v>35500</v>
       </c>
       <c r="K32" s="3">
         <v>44400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105300</v>
+        <v>100400</v>
       </c>
       <c r="E33" s="3">
-        <v>33600</v>
+        <v>32100</v>
       </c>
       <c r="F33" s="3">
-        <v>131200</v>
+        <v>125100</v>
       </c>
       <c r="G33" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="H33" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="I33" s="3">
-        <v>266800</v>
+        <v>254300</v>
       </c>
       <c r="J33" s="3">
-        <v>101800</v>
+        <v>97100</v>
       </c>
       <c r="K33" s="3">
         <v>107700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105300</v>
+        <v>100400</v>
       </c>
       <c r="E35" s="3">
-        <v>33600</v>
+        <v>32100</v>
       </c>
       <c r="F35" s="3">
-        <v>131200</v>
+        <v>125100</v>
       </c>
       <c r="G35" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="H35" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="I35" s="3">
-        <v>266800</v>
+        <v>254300</v>
       </c>
       <c r="J35" s="3">
-        <v>101800</v>
+        <v>97100</v>
       </c>
       <c r="K35" s="3">
         <v>107700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1215200</v>
+        <v>1158300</v>
       </c>
       <c r="E41" s="3">
-        <v>1092500</v>
+        <v>1041400</v>
       </c>
       <c r="F41" s="3">
-        <v>825600</v>
+        <v>787000</v>
       </c>
       <c r="G41" s="3">
-        <v>453400</v>
+        <v>432200</v>
       </c>
       <c r="H41" s="3">
-        <v>281600</v>
+        <v>268400</v>
       </c>
       <c r="I41" s="3">
-        <v>365300</v>
+        <v>348200</v>
       </c>
       <c r="J41" s="3">
-        <v>349400</v>
+        <v>333000</v>
       </c>
       <c r="K41" s="3">
         <v>280300</v>
@@ -1863,10 +1863,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="E42" s="3">
-        <v>83200</v>
+        <v>79300</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>17</v>
@@ -1878,10 +1878,10 @@
         <v>400</v>
       </c>
       <c r="I42" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="J42" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K42" s="3">
         <v>21000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1376300</v>
+        <v>1311900</v>
       </c>
       <c r="E43" s="3">
-        <v>1007500</v>
+        <v>960400</v>
       </c>
       <c r="F43" s="3">
-        <v>1109700</v>
+        <v>1057800</v>
       </c>
       <c r="G43" s="3">
-        <v>1057500</v>
+        <v>1008000</v>
       </c>
       <c r="H43" s="3">
-        <v>1070300</v>
+        <v>1020200</v>
       </c>
       <c r="I43" s="3">
-        <v>1139800</v>
+        <v>1086500</v>
       </c>
       <c r="J43" s="3">
-        <v>482500</v>
+        <v>459900</v>
       </c>
       <c r="K43" s="3">
         <v>536200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1935200</v>
+        <v>1844700</v>
       </c>
       <c r="E44" s="3">
-        <v>1223300</v>
+        <v>1166100</v>
       </c>
       <c r="F44" s="3">
-        <v>849700</v>
+        <v>810000</v>
       </c>
       <c r="G44" s="3">
-        <v>838700</v>
+        <v>799500</v>
       </c>
       <c r="H44" s="3">
-        <v>624100</v>
+        <v>594900</v>
       </c>
       <c r="I44" s="3">
-        <v>653300</v>
+        <v>622700</v>
       </c>
       <c r="J44" s="3">
-        <v>467800</v>
+        <v>445900</v>
       </c>
       <c r="K44" s="3">
         <v>298300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2099300</v>
+        <v>2001100</v>
       </c>
       <c r="E45" s="3">
-        <v>1512100</v>
+        <v>1441300</v>
       </c>
       <c r="F45" s="3">
-        <v>1842400</v>
+        <v>1756200</v>
       </c>
       <c r="G45" s="3">
-        <v>987800</v>
+        <v>941600</v>
       </c>
       <c r="H45" s="3">
-        <v>887000</v>
+        <v>845500</v>
       </c>
       <c r="I45" s="3">
-        <v>707300</v>
+        <v>674200</v>
       </c>
       <c r="J45" s="3">
-        <v>1983900</v>
+        <v>1891100</v>
       </c>
       <c r="K45" s="3">
         <v>505400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6647900</v>
+        <v>6337000</v>
       </c>
       <c r="E46" s="3">
-        <v>4918600</v>
+        <v>4688600</v>
       </c>
       <c r="F46" s="3">
-        <v>4627400</v>
+        <v>4411000</v>
       </c>
       <c r="G46" s="3">
-        <v>3337400</v>
+        <v>3181300</v>
       </c>
       <c r="H46" s="3">
-        <v>2863300</v>
+        <v>2729400</v>
       </c>
       <c r="I46" s="3">
-        <v>2876100</v>
+        <v>2741600</v>
       </c>
       <c r="J46" s="3">
-        <v>3284900</v>
+        <v>3131300</v>
       </c>
       <c r="K46" s="3">
         <v>1641300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96600</v>
+        <v>92100</v>
       </c>
       <c r="E47" s="3">
-        <v>32200</v>
+        <v>30700</v>
       </c>
       <c r="F47" s="3">
-        <v>40600</v>
+        <v>38700</v>
       </c>
       <c r="G47" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H47" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K47" s="3">
         <v>16300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3072000</v>
+        <v>2928300</v>
       </c>
       <c r="E48" s="3">
-        <v>2080400</v>
+        <v>1983100</v>
       </c>
       <c r="F48" s="3">
-        <v>1837700</v>
+        <v>1751700</v>
       </c>
       <c r="G48" s="3">
-        <v>1467100</v>
+        <v>1398500</v>
       </c>
       <c r="H48" s="3">
-        <v>1044700</v>
+        <v>995800</v>
       </c>
       <c r="I48" s="3">
-        <v>700000</v>
+        <v>667300</v>
       </c>
       <c r="J48" s="3">
-        <v>550000</v>
+        <v>524300</v>
       </c>
       <c r="K48" s="3">
         <v>1176100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="E49" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F49" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="G49" s="3">
-        <v>89100</v>
+        <v>85000</v>
       </c>
       <c r="H49" s="3">
-        <v>68500</v>
+        <v>65300</v>
       </c>
       <c r="I49" s="3">
-        <v>68800</v>
+        <v>65600</v>
       </c>
       <c r="J49" s="3">
-        <v>54100</v>
+        <v>51600</v>
       </c>
       <c r="K49" s="3">
         <v>60200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>833200</v>
+        <v>794200</v>
       </c>
       <c r="E52" s="3">
-        <v>737100</v>
+        <v>702600</v>
       </c>
       <c r="F52" s="3">
-        <v>475800</v>
+        <v>453500</v>
       </c>
       <c r="G52" s="3">
-        <v>338300</v>
+        <v>322500</v>
       </c>
       <c r="H52" s="3">
-        <v>202000</v>
+        <v>192600</v>
       </c>
       <c r="I52" s="3">
-        <v>164000</v>
+        <v>156300</v>
       </c>
       <c r="J52" s="3">
-        <v>188700</v>
+        <v>179800</v>
       </c>
       <c r="K52" s="3">
         <v>116800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10657800</v>
+        <v>10159300</v>
       </c>
       <c r="E54" s="3">
-        <v>7773500</v>
+        <v>7409900</v>
       </c>
       <c r="F54" s="3">
-        <v>6986800</v>
+        <v>6660000</v>
       </c>
       <c r="G54" s="3">
-        <v>5235600</v>
+        <v>4990800</v>
       </c>
       <c r="H54" s="3">
-        <v>4181800</v>
+        <v>3986200</v>
       </c>
       <c r="I54" s="3">
-        <v>3810000</v>
+        <v>3631800</v>
       </c>
       <c r="J54" s="3">
-        <v>3963900</v>
+        <v>3778500</v>
       </c>
       <c r="K54" s="3">
         <v>3010700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>995300</v>
+        <v>948700</v>
       </c>
       <c r="E57" s="3">
-        <v>649900</v>
+        <v>619500</v>
       </c>
       <c r="F57" s="3">
-        <v>728500</v>
+        <v>694500</v>
       </c>
       <c r="G57" s="3">
-        <v>778000</v>
+        <v>741600</v>
       </c>
       <c r="H57" s="3">
-        <v>681000</v>
+        <v>649200</v>
       </c>
       <c r="I57" s="3">
-        <v>626500</v>
+        <v>597200</v>
       </c>
       <c r="J57" s="3">
-        <v>552700</v>
+        <v>526800</v>
       </c>
       <c r="K57" s="3">
         <v>685800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3739300</v>
+        <v>3564400</v>
       </c>
       <c r="E58" s="3">
-        <v>2873500</v>
+        <v>2739100</v>
       </c>
       <c r="F58" s="3">
-        <v>2452300</v>
+        <v>2337600</v>
       </c>
       <c r="G58" s="3">
-        <v>1925500</v>
+        <v>1835400</v>
       </c>
       <c r="H58" s="3">
-        <v>1735900</v>
+        <v>1654700</v>
       </c>
       <c r="I58" s="3">
-        <v>1563900</v>
+        <v>1490700</v>
       </c>
       <c r="J58" s="3">
-        <v>1361300</v>
+        <v>1297600</v>
       </c>
       <c r="K58" s="3">
         <v>808700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1903800</v>
+        <v>1814800</v>
       </c>
       <c r="E59" s="3">
-        <v>1035200</v>
+        <v>986800</v>
       </c>
       <c r="F59" s="3">
-        <v>1386500</v>
+        <v>1321700</v>
       </c>
       <c r="G59" s="3">
-        <v>821900</v>
+        <v>783400</v>
       </c>
       <c r="H59" s="3">
-        <v>498200</v>
+        <v>474900</v>
       </c>
       <c r="I59" s="3">
-        <v>491200</v>
+        <v>468200</v>
       </c>
       <c r="J59" s="3">
-        <v>1475700</v>
+        <v>1406700</v>
       </c>
       <c r="K59" s="3">
         <v>165700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6638400</v>
+        <v>6328000</v>
       </c>
       <c r="E60" s="3">
-        <v>4558600</v>
+        <v>4345400</v>
       </c>
       <c r="F60" s="3">
-        <v>4567400</v>
+        <v>4353800</v>
       </c>
       <c r="G60" s="3">
-        <v>3525300</v>
+        <v>3360500</v>
       </c>
       <c r="H60" s="3">
-        <v>2915100</v>
+        <v>2778800</v>
       </c>
       <c r="I60" s="3">
-        <v>2681500</v>
+        <v>2556100</v>
       </c>
       <c r="J60" s="3">
-        <v>2719400</v>
+        <v>2592200</v>
       </c>
       <c r="K60" s="3">
         <v>1660200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1723200</v>
+        <v>1642600</v>
       </c>
       <c r="E61" s="3">
-        <v>1112000</v>
+        <v>1060000</v>
       </c>
       <c r="F61" s="3">
-        <v>423200</v>
+        <v>403400</v>
       </c>
       <c r="G61" s="3">
-        <v>378600</v>
+        <v>360900</v>
       </c>
       <c r="H61" s="3">
-        <v>177700</v>
+        <v>169400</v>
       </c>
       <c r="I61" s="3">
-        <v>77800</v>
+        <v>74100</v>
       </c>
       <c r="J61" s="3">
-        <v>316100</v>
+        <v>301300</v>
       </c>
       <c r="K61" s="3">
         <v>530100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>209800</v>
+        <v>200000</v>
       </c>
       <c r="E62" s="3">
-        <v>205900</v>
+        <v>196300</v>
       </c>
       <c r="F62" s="3">
-        <v>179400</v>
+        <v>171000</v>
       </c>
       <c r="G62" s="3">
-        <v>97200</v>
+        <v>92600</v>
       </c>
       <c r="H62" s="3">
-        <v>112200</v>
+        <v>106900</v>
       </c>
       <c r="I62" s="3">
-        <v>107400</v>
+        <v>102300</v>
       </c>
       <c r="J62" s="3">
-        <v>58100</v>
+        <v>55400</v>
       </c>
       <c r="K62" s="3">
         <v>36600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9044200</v>
+        <v>8621200</v>
       </c>
       <c r="E66" s="3">
-        <v>6315000</v>
+        <v>6019600</v>
       </c>
       <c r="F66" s="3">
-        <v>5628200</v>
+        <v>5365000</v>
       </c>
       <c r="G66" s="3">
-        <v>4090800</v>
+        <v>3899500</v>
       </c>
       <c r="H66" s="3">
-        <v>3204900</v>
+        <v>3055000</v>
       </c>
       <c r="I66" s="3">
-        <v>2866600</v>
+        <v>2732500</v>
       </c>
       <c r="J66" s="3">
-        <v>3332800</v>
+        <v>3176900</v>
       </c>
       <c r="K66" s="3">
         <v>2457400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>822100</v>
+        <v>783600</v>
       </c>
       <c r="E72" s="3">
-        <v>716800</v>
+        <v>683200</v>
       </c>
       <c r="F72" s="3">
-        <v>682200</v>
+        <v>650300</v>
       </c>
       <c r="G72" s="3">
-        <v>550900</v>
+        <v>525200</v>
       </c>
       <c r="H72" s="3">
-        <v>491600</v>
+        <v>468600</v>
       </c>
       <c r="I72" s="3">
-        <v>470900</v>
+        <v>448900</v>
       </c>
       <c r="J72" s="3">
-        <v>204300</v>
+        <v>194700</v>
       </c>
       <c r="K72" s="3">
         <v>112800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1613600</v>
+        <v>1538100</v>
       </c>
       <c r="E76" s="3">
-        <v>1458500</v>
+        <v>1390300</v>
       </c>
       <c r="F76" s="3">
-        <v>1358600</v>
+        <v>1295000</v>
       </c>
       <c r="G76" s="3">
-        <v>1144900</v>
+        <v>1091300</v>
       </c>
       <c r="H76" s="3">
-        <v>976800</v>
+        <v>931100</v>
       </c>
       <c r="I76" s="3">
-        <v>943500</v>
+        <v>899300</v>
       </c>
       <c r="J76" s="3">
-        <v>631100</v>
+        <v>601600</v>
       </c>
       <c r="K76" s="3">
         <v>553300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105300</v>
+        <v>100400</v>
       </c>
       <c r="E81" s="3">
-        <v>33600</v>
+        <v>32100</v>
       </c>
       <c r="F81" s="3">
-        <v>131200</v>
+        <v>125100</v>
       </c>
       <c r="G81" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="H81" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="I81" s="3">
-        <v>266800</v>
+        <v>254300</v>
       </c>
       <c r="J81" s="3">
-        <v>101800</v>
+        <v>97100</v>
       </c>
       <c r="K81" s="3">
         <v>107700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>260500</v>
+        <v>248300</v>
       </c>
       <c r="E83" s="3">
-        <v>200200</v>
+        <v>190800</v>
       </c>
       <c r="F83" s="3">
-        <v>141200</v>
+        <v>134600</v>
       </c>
       <c r="G83" s="3">
-        <v>117700</v>
+        <v>112200</v>
       </c>
       <c r="H83" s="3">
-        <v>88700</v>
+        <v>84500</v>
       </c>
       <c r="I83" s="3">
-        <v>114000</v>
+        <v>108600</v>
       </c>
       <c r="J83" s="3">
-        <v>91200</v>
+        <v>86900</v>
       </c>
       <c r="K83" s="3">
         <v>69700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62900</v>
+        <v>59900</v>
       </c>
       <c r="E89" s="3">
-        <v>86400</v>
+        <v>82300</v>
       </c>
       <c r="F89" s="3">
-        <v>206000</v>
+        <v>196400</v>
       </c>
       <c r="G89" s="3">
-        <v>89700</v>
+        <v>85500</v>
       </c>
       <c r="H89" s="3">
-        <v>-25900</v>
+        <v>-24700</v>
       </c>
       <c r="I89" s="3">
-        <v>-263300</v>
+        <v>-251000</v>
       </c>
       <c r="J89" s="3">
-        <v>195500</v>
+        <v>186400</v>
       </c>
       <c r="K89" s="3">
         <v>29500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1263700</v>
+        <v>-1204600</v>
       </c>
       <c r="E91" s="3">
-        <v>-603300</v>
+        <v>-575100</v>
       </c>
       <c r="F91" s="3">
-        <v>-536500</v>
+        <v>-511400</v>
       </c>
       <c r="G91" s="3">
-        <v>-358000</v>
+        <v>-341200</v>
       </c>
       <c r="H91" s="3">
-        <v>-374500</v>
+        <v>-357000</v>
       </c>
       <c r="I91" s="3">
-        <v>-574200</v>
+        <v>-547300</v>
       </c>
       <c r="J91" s="3">
-        <v>-436600</v>
+        <v>-416200</v>
       </c>
       <c r="K91" s="3">
         <v>-473500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1651500</v>
+        <v>-1574200</v>
       </c>
       <c r="E94" s="3">
-        <v>-718300</v>
+        <v>-684700</v>
       </c>
       <c r="F94" s="3">
-        <v>-879900</v>
+        <v>-838700</v>
       </c>
       <c r="G94" s="3">
-        <v>-574600</v>
+        <v>-547700</v>
       </c>
       <c r="H94" s="3">
-        <v>-355400</v>
+        <v>-338700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1008900</v>
+        <v>-961700</v>
       </c>
       <c r="J94" s="3">
-        <v>-484000</v>
+        <v>-461400</v>
       </c>
       <c r="K94" s="3">
         <v>-656100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1755000</v>
+        <v>1672900</v>
       </c>
       <c r="E100" s="3">
-        <v>919600</v>
+        <v>876600</v>
       </c>
       <c r="F100" s="3">
-        <v>1078000</v>
+        <v>1027500</v>
       </c>
       <c r="G100" s="3">
-        <v>580100</v>
+        <v>553000</v>
       </c>
       <c r="H100" s="3">
-        <v>383200</v>
+        <v>365300</v>
       </c>
       <c r="I100" s="3">
-        <v>1088700</v>
+        <v>1037700</v>
       </c>
       <c r="J100" s="3">
-        <v>562300</v>
+        <v>536000</v>
       </c>
       <c r="K100" s="3">
         <v>836700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17100</v>
+        <v>-16300</v>
       </c>
       <c r="E101" s="3">
-        <v>-24700</v>
+        <v>-23600</v>
       </c>
       <c r="F101" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="G101" s="3">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="H101" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="I101" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="J101" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K101" s="3">
         <v>-1700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>149300</v>
+        <v>142300</v>
       </c>
       <c r="E102" s="3">
-        <v>263000</v>
+        <v>250700</v>
       </c>
       <c r="F102" s="3">
-        <v>407700</v>
+        <v>388600</v>
       </c>
       <c r="G102" s="3">
-        <v>105200</v>
+        <v>100300</v>
       </c>
       <c r="H102" s="3">
-        <v>-8600</v>
+        <v>-8200</v>
       </c>
       <c r="I102" s="3">
-        <v>-172600</v>
+        <v>-164600</v>
       </c>
       <c r="J102" s="3">
-        <v>278400</v>
+        <v>265400</v>
       </c>
       <c r="K102" s="3">
         <v>208400</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5683100</v>
+        <v>5863500</v>
       </c>
       <c r="E8" s="3">
-        <v>4890000</v>
+        <v>5045300</v>
       </c>
       <c r="F8" s="3">
-        <v>4140700</v>
+        <v>4272200</v>
       </c>
       <c r="G8" s="3">
-        <v>3485900</v>
+        <v>3596600</v>
       </c>
       <c r="H8" s="3">
-        <v>3685000</v>
+        <v>3802000</v>
       </c>
       <c r="I8" s="3">
-        <v>2979000</v>
+        <v>3073600</v>
       </c>
       <c r="J8" s="3">
-        <v>2151200</v>
+        <v>2219600</v>
       </c>
       <c r="K8" s="3">
         <v>1536700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4756300</v>
+        <v>4907300</v>
       </c>
       <c r="E9" s="3">
-        <v>4030900</v>
+        <v>4158900</v>
       </c>
       <c r="F9" s="3">
-        <v>3384600</v>
+        <v>3492100</v>
       </c>
       <c r="G9" s="3">
-        <v>2996800</v>
+        <v>3092000</v>
       </c>
       <c r="H9" s="3">
-        <v>3268600</v>
+        <v>3372400</v>
       </c>
       <c r="I9" s="3">
-        <v>2440400</v>
+        <v>2517800</v>
       </c>
       <c r="J9" s="3">
-        <v>1743200</v>
+        <v>1798500</v>
       </c>
       <c r="K9" s="3">
         <v>1205900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>926800</v>
+        <v>956200</v>
       </c>
       <c r="E10" s="3">
-        <v>859100</v>
+        <v>886400</v>
       </c>
       <c r="F10" s="3">
-        <v>756100</v>
+        <v>780100</v>
       </c>
       <c r="G10" s="3">
-        <v>489100</v>
+        <v>504600</v>
       </c>
       <c r="H10" s="3">
-        <v>416400</v>
+        <v>429600</v>
       </c>
       <c r="I10" s="3">
-        <v>538600</v>
+        <v>555700</v>
       </c>
       <c r="J10" s="3">
-        <v>408100</v>
+        <v>421000</v>
       </c>
       <c r="K10" s="3">
         <v>330900</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>64300</v>
+        <v>66300</v>
       </c>
       <c r="E12" s="3">
-        <v>54200</v>
+        <v>55900</v>
       </c>
       <c r="F12" s="3">
-        <v>45200</v>
+        <v>46600</v>
       </c>
       <c r="G12" s="3">
-        <v>51000</v>
+        <v>52600</v>
       </c>
       <c r="H12" s="3">
-        <v>40900</v>
+        <v>42200</v>
       </c>
       <c r="I12" s="3">
-        <v>25200</v>
+        <v>26000</v>
       </c>
       <c r="J12" s="3">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="K12" s="3">
         <v>16800</v>
@@ -935,22 +935,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="E14" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="F14" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="G14" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5529600</v>
+        <v>5705200</v>
       </c>
       <c r="E17" s="3">
-        <v>4641600</v>
+        <v>4788900</v>
       </c>
       <c r="F17" s="3">
-        <v>3897100</v>
+        <v>4020900</v>
       </c>
       <c r="G17" s="3">
-        <v>3397500</v>
+        <v>3505300</v>
       </c>
       <c r="H17" s="3">
-        <v>3639700</v>
+        <v>3755300</v>
       </c>
       <c r="I17" s="3">
-        <v>2790500</v>
+        <v>2879100</v>
       </c>
       <c r="J17" s="3">
-        <v>1995100</v>
+        <v>2058400</v>
       </c>
       <c r="K17" s="3">
         <v>1403600</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>153500</v>
+        <v>158300</v>
       </c>
       <c r="E18" s="3">
-        <v>248500</v>
+        <v>256400</v>
       </c>
       <c r="F18" s="3">
-        <v>243500</v>
+        <v>251300</v>
       </c>
       <c r="G18" s="3">
-        <v>88500</v>
+        <v>91300</v>
       </c>
       <c r="H18" s="3">
-        <v>45300</v>
+        <v>46800</v>
       </c>
       <c r="I18" s="3">
-        <v>188500</v>
+        <v>194500</v>
       </c>
       <c r="J18" s="3">
-        <v>156200</v>
+        <v>161100</v>
       </c>
       <c r="K18" s="3">
         <v>133200</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>114900</v>
+        <v>118600</v>
       </c>
       <c r="E20" s="3">
-        <v>-75500</v>
+        <v>-77900</v>
       </c>
       <c r="F20" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="G20" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="H20" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="I20" s="3">
-        <v>-14800</v>
+        <v>-15300</v>
       </c>
       <c r="J20" s="3">
-        <v>-35500</v>
+        <v>-36600</v>
       </c>
       <c r="K20" s="3">
         <v>-44400</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>514800</v>
+        <v>533600</v>
       </c>
       <c r="E21" s="3">
-        <v>362300</v>
+        <v>375700</v>
       </c>
       <c r="F21" s="3">
-        <v>386000</v>
+        <v>399600</v>
       </c>
       <c r="G21" s="3">
-        <v>220700</v>
+        <v>228800</v>
       </c>
       <c r="H21" s="3">
-        <v>146900</v>
+        <v>152400</v>
       </c>
       <c r="I21" s="3">
-        <v>281500</v>
+        <v>291500</v>
       </c>
       <c r="J21" s="3">
-        <v>206900</v>
+        <v>214400</v>
       </c>
       <c r="K21" s="3">
         <v>158700</v>
@@ -1200,19 +1200,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>116700</v>
+        <v>120400</v>
       </c>
       <c r="E22" s="3">
-        <v>94100</v>
+        <v>97100</v>
       </c>
       <c r="F22" s="3">
-        <v>78200</v>
+        <v>80700</v>
       </c>
       <c r="G22" s="3">
-        <v>52600</v>
+        <v>54300</v>
       </c>
       <c r="H22" s="3">
-        <v>42400</v>
+        <v>43700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>17</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>151700</v>
+        <v>156500</v>
       </c>
       <c r="E23" s="3">
-        <v>78800</v>
+        <v>81300</v>
       </c>
       <c r="F23" s="3">
-        <v>174200</v>
+        <v>179700</v>
       </c>
       <c r="G23" s="3">
-        <v>56700</v>
+        <v>58500</v>
       </c>
       <c r="H23" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="I23" s="3">
-        <v>173700</v>
+        <v>179200</v>
       </c>
       <c r="J23" s="3">
-        <v>120700</v>
+        <v>124500</v>
       </c>
       <c r="K23" s="3">
         <v>88800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27000</v>
+        <v>27900</v>
       </c>
       <c r="E24" s="3">
-        <v>24800</v>
+        <v>25600</v>
       </c>
       <c r="F24" s="3">
-        <v>38700</v>
+        <v>39900</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I24" s="3">
-        <v>35800</v>
+        <v>37000</v>
       </c>
       <c r="J24" s="3">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="K24" s="3">
         <v>-21400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>124700</v>
+        <v>128600</v>
       </c>
       <c r="E26" s="3">
-        <v>54000</v>
+        <v>55700</v>
       </c>
       <c r="F26" s="3">
-        <v>135500</v>
+        <v>139800</v>
       </c>
       <c r="G26" s="3">
-        <v>56100</v>
+        <v>57900</v>
       </c>
       <c r="H26" s="3">
-        <v>20100</v>
+        <v>20700</v>
       </c>
       <c r="I26" s="3">
-        <v>137800</v>
+        <v>142200</v>
       </c>
       <c r="J26" s="3">
-        <v>106700</v>
+        <v>110100</v>
       </c>
       <c r="K26" s="3">
         <v>110100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100400</v>
+        <v>103600</v>
       </c>
       <c r="E27" s="3">
-        <v>32100</v>
+        <v>33100</v>
       </c>
       <c r="F27" s="3">
-        <v>125100</v>
+        <v>129100</v>
       </c>
       <c r="G27" s="3">
-        <v>56600</v>
+        <v>58400</v>
       </c>
       <c r="H27" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="I27" s="3">
-        <v>115700</v>
+        <v>119400</v>
       </c>
       <c r="J27" s="3">
-        <v>84600</v>
+        <v>87300</v>
       </c>
       <c r="K27" s="3">
         <v>103300</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>138600</v>
+        <v>143000</v>
       </c>
       <c r="J29" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="K29" s="3">
         <v>4400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-114900</v>
+        <v>-118600</v>
       </c>
       <c r="E32" s="3">
-        <v>75500</v>
+        <v>77900</v>
       </c>
       <c r="F32" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="G32" s="3">
-        <v>-20900</v>
+        <v>-21500</v>
       </c>
       <c r="H32" s="3">
-        <v>-17800</v>
+        <v>-18300</v>
       </c>
       <c r="I32" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="J32" s="3">
-        <v>35500</v>
+        <v>36600</v>
       </c>
       <c r="K32" s="3">
         <v>44400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100400</v>
+        <v>103600</v>
       </c>
       <c r="E33" s="3">
-        <v>32100</v>
+        <v>33100</v>
       </c>
       <c r="F33" s="3">
-        <v>125100</v>
+        <v>129100</v>
       </c>
       <c r="G33" s="3">
-        <v>56600</v>
+        <v>58400</v>
       </c>
       <c r="H33" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="I33" s="3">
-        <v>254300</v>
+        <v>262400</v>
       </c>
       <c r="J33" s="3">
-        <v>97100</v>
+        <v>100200</v>
       </c>
       <c r="K33" s="3">
         <v>107700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100400</v>
+        <v>103600</v>
       </c>
       <c r="E35" s="3">
-        <v>32100</v>
+        <v>33100</v>
       </c>
       <c r="F35" s="3">
-        <v>125100</v>
+        <v>129100</v>
       </c>
       <c r="G35" s="3">
-        <v>56600</v>
+        <v>58400</v>
       </c>
       <c r="H35" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="I35" s="3">
-        <v>254300</v>
+        <v>262400</v>
       </c>
       <c r="J35" s="3">
-        <v>97100</v>
+        <v>100200</v>
       </c>
       <c r="K35" s="3">
         <v>107700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1158300</v>
+        <v>1195100</v>
       </c>
       <c r="E41" s="3">
-        <v>1041400</v>
+        <v>1074500</v>
       </c>
       <c r="F41" s="3">
-        <v>787000</v>
+        <v>812000</v>
       </c>
       <c r="G41" s="3">
-        <v>432200</v>
+        <v>445900</v>
       </c>
       <c r="H41" s="3">
-        <v>268400</v>
+        <v>276900</v>
       </c>
       <c r="I41" s="3">
-        <v>348200</v>
+        <v>359300</v>
       </c>
       <c r="J41" s="3">
-        <v>333000</v>
+        <v>343600</v>
       </c>
       <c r="K41" s="3">
         <v>280300</v>
@@ -1863,10 +1863,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="E42" s="3">
-        <v>79300</v>
+        <v>81900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>17</v>
@@ -1878,10 +1878,10 @@
         <v>400</v>
       </c>
       <c r="I42" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="J42" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K42" s="3">
         <v>21000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1311900</v>
+        <v>1353500</v>
       </c>
       <c r="E43" s="3">
-        <v>960400</v>
+        <v>990800</v>
       </c>
       <c r="F43" s="3">
-        <v>1057800</v>
+        <v>1091400</v>
       </c>
       <c r="G43" s="3">
-        <v>1008000</v>
+        <v>1040000</v>
       </c>
       <c r="H43" s="3">
-        <v>1020200</v>
+        <v>1052600</v>
       </c>
       <c r="I43" s="3">
-        <v>1086500</v>
+        <v>1121000</v>
       </c>
       <c r="J43" s="3">
-        <v>459900</v>
+        <v>474500</v>
       </c>
       <c r="K43" s="3">
         <v>536200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1844700</v>
+        <v>1903300</v>
       </c>
       <c r="E44" s="3">
-        <v>1166100</v>
+        <v>1203100</v>
       </c>
       <c r="F44" s="3">
-        <v>810000</v>
+        <v>835700</v>
       </c>
       <c r="G44" s="3">
-        <v>799500</v>
+        <v>824900</v>
       </c>
       <c r="H44" s="3">
-        <v>594900</v>
+        <v>613800</v>
       </c>
       <c r="I44" s="3">
-        <v>622700</v>
+        <v>642500</v>
       </c>
       <c r="J44" s="3">
-        <v>445900</v>
+        <v>460100</v>
       </c>
       <c r="K44" s="3">
         <v>298300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2001100</v>
+        <v>2064700</v>
       </c>
       <c r="E45" s="3">
-        <v>1441300</v>
+        <v>1487100</v>
       </c>
       <c r="F45" s="3">
-        <v>1756200</v>
+        <v>1812000</v>
       </c>
       <c r="G45" s="3">
-        <v>941600</v>
+        <v>971500</v>
       </c>
       <c r="H45" s="3">
-        <v>845500</v>
+        <v>872300</v>
       </c>
       <c r="I45" s="3">
-        <v>674200</v>
+        <v>695700</v>
       </c>
       <c r="J45" s="3">
-        <v>1891100</v>
+        <v>1951100</v>
       </c>
       <c r="K45" s="3">
         <v>505400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6337000</v>
+        <v>6538200</v>
       </c>
       <c r="E46" s="3">
-        <v>4688600</v>
+        <v>4837400</v>
       </c>
       <c r="F46" s="3">
-        <v>4411000</v>
+        <v>4551100</v>
       </c>
       <c r="G46" s="3">
-        <v>3181300</v>
+        <v>3282300</v>
       </c>
       <c r="H46" s="3">
-        <v>2729400</v>
+        <v>2816100</v>
       </c>
       <c r="I46" s="3">
-        <v>2741600</v>
+        <v>2828600</v>
       </c>
       <c r="J46" s="3">
-        <v>3131300</v>
+        <v>3230700</v>
       </c>
       <c r="K46" s="3">
         <v>1641300</v>
@@ -2058,19 +2058,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>92100</v>
+        <v>95000</v>
       </c>
       <c r="E47" s="3">
-        <v>30700</v>
+        <v>31700</v>
       </c>
       <c r="F47" s="3">
-        <v>38700</v>
+        <v>39900</v>
       </c>
       <c r="G47" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H47" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I47" s="3">
         <v>1000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2928300</v>
+        <v>3021300</v>
       </c>
       <c r="E48" s="3">
-        <v>1983100</v>
+        <v>2046100</v>
       </c>
       <c r="F48" s="3">
-        <v>1751700</v>
+        <v>1807300</v>
       </c>
       <c r="G48" s="3">
-        <v>1398500</v>
+        <v>1442900</v>
       </c>
       <c r="H48" s="3">
-        <v>995800</v>
+        <v>1027400</v>
       </c>
       <c r="I48" s="3">
-        <v>667300</v>
+        <v>688500</v>
       </c>
       <c r="J48" s="3">
-        <v>524300</v>
+        <v>540900</v>
       </c>
       <c r="K48" s="3">
         <v>1176100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="E49" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F49" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G49" s="3">
-        <v>85000</v>
+        <v>87700</v>
       </c>
       <c r="H49" s="3">
-        <v>65300</v>
+        <v>67400</v>
       </c>
       <c r="I49" s="3">
-        <v>65600</v>
+        <v>67700</v>
       </c>
       <c r="J49" s="3">
-        <v>51600</v>
+        <v>53200</v>
       </c>
       <c r="K49" s="3">
         <v>60200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>794200</v>
+        <v>819400</v>
       </c>
       <c r="E52" s="3">
-        <v>702600</v>
+        <v>724900</v>
       </c>
       <c r="F52" s="3">
-        <v>453500</v>
+        <v>467900</v>
       </c>
       <c r="G52" s="3">
-        <v>322500</v>
+        <v>332700</v>
       </c>
       <c r="H52" s="3">
-        <v>192600</v>
+        <v>198700</v>
       </c>
       <c r="I52" s="3">
-        <v>156300</v>
+        <v>161300</v>
       </c>
       <c r="J52" s="3">
-        <v>179800</v>
+        <v>185600</v>
       </c>
       <c r="K52" s="3">
         <v>116800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10159300</v>
+        <v>10481900</v>
       </c>
       <c r="E54" s="3">
-        <v>7409900</v>
+        <v>7645200</v>
       </c>
       <c r="F54" s="3">
-        <v>6660000</v>
+        <v>6871500</v>
       </c>
       <c r="G54" s="3">
-        <v>4990800</v>
+        <v>5149200</v>
       </c>
       <c r="H54" s="3">
-        <v>3986200</v>
+        <v>4112800</v>
       </c>
       <c r="I54" s="3">
-        <v>3631800</v>
+        <v>3747100</v>
       </c>
       <c r="J54" s="3">
-        <v>3778500</v>
+        <v>3898500</v>
       </c>
       <c r="K54" s="3">
         <v>3010700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>948700</v>
+        <v>978900</v>
       </c>
       <c r="E57" s="3">
-        <v>619500</v>
+        <v>639200</v>
       </c>
       <c r="F57" s="3">
-        <v>694500</v>
+        <v>716500</v>
       </c>
       <c r="G57" s="3">
-        <v>741600</v>
+        <v>765200</v>
       </c>
       <c r="H57" s="3">
-        <v>649200</v>
+        <v>669800</v>
       </c>
       <c r="I57" s="3">
-        <v>597200</v>
+        <v>616100</v>
       </c>
       <c r="J57" s="3">
-        <v>526800</v>
+        <v>543600</v>
       </c>
       <c r="K57" s="3">
         <v>685800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3564400</v>
+        <v>3677600</v>
       </c>
       <c r="E58" s="3">
-        <v>2739100</v>
+        <v>2826100</v>
       </c>
       <c r="F58" s="3">
-        <v>2337600</v>
+        <v>2411900</v>
       </c>
       <c r="G58" s="3">
-        <v>1835400</v>
+        <v>1893700</v>
       </c>
       <c r="H58" s="3">
-        <v>1654700</v>
+        <v>1707200</v>
       </c>
       <c r="I58" s="3">
-        <v>1490700</v>
+        <v>1538000</v>
       </c>
       <c r="J58" s="3">
-        <v>1297600</v>
+        <v>1338800</v>
       </c>
       <c r="K58" s="3">
         <v>808700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1814800</v>
+        <v>1872400</v>
       </c>
       <c r="E59" s="3">
-        <v>986800</v>
+        <v>1018100</v>
       </c>
       <c r="F59" s="3">
-        <v>1321700</v>
+        <v>1363700</v>
       </c>
       <c r="G59" s="3">
-        <v>783400</v>
+        <v>808300</v>
       </c>
       <c r="H59" s="3">
-        <v>474900</v>
+        <v>490000</v>
       </c>
       <c r="I59" s="3">
-        <v>468200</v>
+        <v>483100</v>
       </c>
       <c r="J59" s="3">
-        <v>1406700</v>
+        <v>1451300</v>
       </c>
       <c r="K59" s="3">
         <v>165700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6328000</v>
+        <v>6528900</v>
       </c>
       <c r="E60" s="3">
-        <v>4345400</v>
+        <v>4483400</v>
       </c>
       <c r="F60" s="3">
-        <v>4353800</v>
+        <v>4492000</v>
       </c>
       <c r="G60" s="3">
-        <v>3360500</v>
+        <v>3467200</v>
       </c>
       <c r="H60" s="3">
-        <v>2778800</v>
+        <v>2867000</v>
       </c>
       <c r="I60" s="3">
-        <v>2556100</v>
+        <v>2637200</v>
       </c>
       <c r="J60" s="3">
-        <v>2592200</v>
+        <v>2674600</v>
       </c>
       <c r="K60" s="3">
         <v>1660200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1642600</v>
+        <v>1694700</v>
       </c>
       <c r="E61" s="3">
-        <v>1060000</v>
+        <v>1093600</v>
       </c>
       <c r="F61" s="3">
-        <v>403400</v>
+        <v>416200</v>
       </c>
       <c r="G61" s="3">
-        <v>360900</v>
+        <v>372400</v>
       </c>
       <c r="H61" s="3">
-        <v>169400</v>
+        <v>174700</v>
       </c>
       <c r="I61" s="3">
-        <v>74100</v>
+        <v>76500</v>
       </c>
       <c r="J61" s="3">
-        <v>301300</v>
+        <v>310900</v>
       </c>
       <c r="K61" s="3">
         <v>530100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200000</v>
+        <v>206300</v>
       </c>
       <c r="E62" s="3">
-        <v>196300</v>
+        <v>202500</v>
       </c>
       <c r="F62" s="3">
-        <v>171000</v>
+        <v>176400</v>
       </c>
       <c r="G62" s="3">
-        <v>92600</v>
+        <v>95600</v>
       </c>
       <c r="H62" s="3">
-        <v>106900</v>
+        <v>110300</v>
       </c>
       <c r="I62" s="3">
-        <v>102300</v>
+        <v>105600</v>
       </c>
       <c r="J62" s="3">
-        <v>55400</v>
+        <v>57100</v>
       </c>
       <c r="K62" s="3">
         <v>36600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8621200</v>
+        <v>8894900</v>
       </c>
       <c r="E66" s="3">
-        <v>6019600</v>
+        <v>6210800</v>
       </c>
       <c r="F66" s="3">
-        <v>5365000</v>
+        <v>5535300</v>
       </c>
       <c r="G66" s="3">
-        <v>3899500</v>
+        <v>4023300</v>
       </c>
       <c r="H66" s="3">
-        <v>3055000</v>
+        <v>3152000</v>
       </c>
       <c r="I66" s="3">
-        <v>2732500</v>
+        <v>2819300</v>
       </c>
       <c r="J66" s="3">
-        <v>3176900</v>
+        <v>3277800</v>
       </c>
       <c r="K66" s="3">
         <v>2457400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>783600</v>
+        <v>808500</v>
       </c>
       <c r="E72" s="3">
-        <v>683200</v>
+        <v>704900</v>
       </c>
       <c r="F72" s="3">
-        <v>650300</v>
+        <v>670900</v>
       </c>
       <c r="G72" s="3">
-        <v>525200</v>
+        <v>541800</v>
       </c>
       <c r="H72" s="3">
-        <v>468600</v>
+        <v>483500</v>
       </c>
       <c r="I72" s="3">
-        <v>448900</v>
+        <v>463100</v>
       </c>
       <c r="J72" s="3">
-        <v>194700</v>
+        <v>200900</v>
       </c>
       <c r="K72" s="3">
         <v>112800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1538100</v>
+        <v>1587000</v>
       </c>
       <c r="E76" s="3">
-        <v>1390300</v>
+        <v>1434500</v>
       </c>
       <c r="F76" s="3">
-        <v>1295000</v>
+        <v>1336100</v>
       </c>
       <c r="G76" s="3">
-        <v>1091300</v>
+        <v>1126000</v>
       </c>
       <c r="H76" s="3">
-        <v>931100</v>
+        <v>960700</v>
       </c>
       <c r="I76" s="3">
-        <v>899300</v>
+        <v>927900</v>
       </c>
       <c r="J76" s="3">
-        <v>601600</v>
+        <v>620700</v>
       </c>
       <c r="K76" s="3">
         <v>553300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100400</v>
+        <v>103600</v>
       </c>
       <c r="E81" s="3">
-        <v>32100</v>
+        <v>33100</v>
       </c>
       <c r="F81" s="3">
-        <v>125100</v>
+        <v>129100</v>
       </c>
       <c r="G81" s="3">
-        <v>56600</v>
+        <v>58400</v>
       </c>
       <c r="H81" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="I81" s="3">
-        <v>254300</v>
+        <v>262400</v>
       </c>
       <c r="J81" s="3">
-        <v>97100</v>
+        <v>100200</v>
       </c>
       <c r="K81" s="3">
         <v>107700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>248300</v>
+        <v>256200</v>
       </c>
       <c r="E83" s="3">
-        <v>190800</v>
+        <v>196900</v>
       </c>
       <c r="F83" s="3">
-        <v>134600</v>
+        <v>138900</v>
       </c>
       <c r="G83" s="3">
-        <v>112200</v>
+        <v>115800</v>
       </c>
       <c r="H83" s="3">
-        <v>84500</v>
+        <v>87200</v>
       </c>
       <c r="I83" s="3">
-        <v>108600</v>
+        <v>112100</v>
       </c>
       <c r="J83" s="3">
-        <v>86900</v>
+        <v>89700</v>
       </c>
       <c r="K83" s="3">
         <v>69700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>59900</v>
+        <v>61800</v>
       </c>
       <c r="E89" s="3">
-        <v>82300</v>
+        <v>84900</v>
       </c>
       <c r="F89" s="3">
-        <v>196400</v>
+        <v>202600</v>
       </c>
       <c r="G89" s="3">
-        <v>85500</v>
+        <v>88300</v>
       </c>
       <c r="H89" s="3">
-        <v>-24700</v>
+        <v>-25400</v>
       </c>
       <c r="I89" s="3">
-        <v>-251000</v>
+        <v>-258900</v>
       </c>
       <c r="J89" s="3">
-        <v>186400</v>
+        <v>192300</v>
       </c>
       <c r="K89" s="3">
         <v>29500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1204600</v>
+        <v>-1242900</v>
       </c>
       <c r="E91" s="3">
-        <v>-575100</v>
+        <v>-593400</v>
       </c>
       <c r="F91" s="3">
-        <v>-511400</v>
+        <v>-527700</v>
       </c>
       <c r="G91" s="3">
-        <v>-341200</v>
+        <v>-352100</v>
       </c>
       <c r="H91" s="3">
-        <v>-357000</v>
+        <v>-368400</v>
       </c>
       <c r="I91" s="3">
-        <v>-547300</v>
+        <v>-564700</v>
       </c>
       <c r="J91" s="3">
-        <v>-416200</v>
+        <v>-429400</v>
       </c>
       <c r="K91" s="3">
         <v>-473500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1574200</v>
+        <v>-1624200</v>
       </c>
       <c r="E94" s="3">
-        <v>-684700</v>
+        <v>-706400</v>
       </c>
       <c r="F94" s="3">
-        <v>-838700</v>
+        <v>-865400</v>
       </c>
       <c r="G94" s="3">
-        <v>-547700</v>
+        <v>-565100</v>
       </c>
       <c r="H94" s="3">
-        <v>-338700</v>
+        <v>-349500</v>
       </c>
       <c r="I94" s="3">
-        <v>-961700</v>
+        <v>-992300</v>
       </c>
       <c r="J94" s="3">
-        <v>-461400</v>
+        <v>-476000</v>
       </c>
       <c r="K94" s="3">
         <v>-656100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1672900</v>
+        <v>1726000</v>
       </c>
       <c r="E100" s="3">
-        <v>876600</v>
+        <v>904400</v>
       </c>
       <c r="F100" s="3">
-        <v>1027500</v>
+        <v>1060200</v>
       </c>
       <c r="G100" s="3">
+        <v>570500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>376900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1070700</v>
+      </c>
+      <c r="J100" s="3">
         <v>553000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>365300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1037700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>536000</v>
       </c>
       <c r="K100" s="3">
         <v>836700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16300</v>
+        <v>-16800</v>
       </c>
       <c r="E101" s="3">
-        <v>-23600</v>
+        <v>-24300</v>
       </c>
       <c r="F101" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="G101" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="H101" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="I101" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="J101" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K101" s="3">
         <v>-1700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>142300</v>
+        <v>146800</v>
       </c>
       <c r="E102" s="3">
-        <v>250700</v>
+        <v>258600</v>
       </c>
       <c r="F102" s="3">
-        <v>388600</v>
+        <v>401000</v>
       </c>
       <c r="G102" s="3">
-        <v>100300</v>
+        <v>103500</v>
       </c>
       <c r="H102" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="I102" s="3">
-        <v>-164600</v>
+        <v>-169800</v>
       </c>
       <c r="J102" s="3">
-        <v>265400</v>
+        <v>273800</v>
       </c>
       <c r="K102" s="3">
         <v>208400</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>JKS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5863500</v>
+        <v>11816500</v>
       </c>
       <c r="E8" s="3">
-        <v>5045300</v>
+        <v>5803500</v>
       </c>
       <c r="F8" s="3">
-        <v>4272200</v>
+        <v>4993700</v>
       </c>
       <c r="G8" s="3">
-        <v>3596600</v>
+        <v>4228400</v>
       </c>
       <c r="H8" s="3">
-        <v>3802000</v>
+        <v>3559800</v>
       </c>
       <c r="I8" s="3">
-        <v>3073600</v>
+        <v>3763100</v>
       </c>
       <c r="J8" s="3">
+        <v>3042100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2219600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1536700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1081500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>688000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1074000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4907300</v>
+        <v>10071200</v>
       </c>
       <c r="E9" s="3">
-        <v>4158900</v>
+        <v>4857100</v>
       </c>
       <c r="F9" s="3">
-        <v>3492100</v>
+        <v>4116400</v>
       </c>
       <c r="G9" s="3">
-        <v>3092000</v>
+        <v>3456300</v>
       </c>
       <c r="H9" s="3">
-        <v>3372400</v>
+        <v>3060300</v>
       </c>
       <c r="I9" s="3">
-        <v>2517800</v>
+        <v>3337900</v>
       </c>
       <c r="J9" s="3">
+        <v>2492100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1798500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1205900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>861900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1309300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>906800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>956200</v>
+        <v>1745400</v>
       </c>
       <c r="E10" s="3">
-        <v>886400</v>
+        <v>946400</v>
       </c>
       <c r="F10" s="3">
-        <v>780100</v>
+        <v>877300</v>
       </c>
       <c r="G10" s="3">
-        <v>504600</v>
+        <v>772100</v>
       </c>
       <c r="H10" s="3">
-        <v>429600</v>
+        <v>499500</v>
       </c>
       <c r="I10" s="3">
-        <v>555700</v>
+        <v>425300</v>
       </c>
       <c r="J10" s="3">
+        <v>550000</v>
+      </c>
+      <c r="K10" s="3">
         <v>421000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>330900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>219600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-621300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>167200</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>66300</v>
+        <v>103000</v>
       </c>
       <c r="E12" s="3">
-        <v>55900</v>
+        <v>65600</v>
       </c>
       <c r="F12" s="3">
-        <v>46600</v>
+        <v>55300</v>
       </c>
       <c r="G12" s="3">
-        <v>52600</v>
+        <v>46100</v>
       </c>
       <c r="H12" s="3">
-        <v>42200</v>
+        <v>52100</v>
       </c>
       <c r="I12" s="3">
-        <v>26000</v>
+        <v>41800</v>
       </c>
       <c r="J12" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K12" s="3">
         <v>20600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4400</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>39300</v>
+        <v>51100</v>
       </c>
       <c r="E14" s="3">
-        <v>16400</v>
+        <v>38900</v>
       </c>
       <c r="F14" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G14" s="3">
         <v>6900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>17300</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6600</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5705200</v>
+        <v>11753500</v>
       </c>
       <c r="E17" s="3">
-        <v>4788900</v>
+        <v>5646800</v>
       </c>
       <c r="F17" s="3">
-        <v>4020900</v>
+        <v>4739900</v>
       </c>
       <c r="G17" s="3">
-        <v>3505300</v>
+        <v>3979700</v>
       </c>
       <c r="H17" s="3">
-        <v>3755300</v>
+        <v>3469500</v>
       </c>
       <c r="I17" s="3">
-        <v>2879100</v>
+        <v>3716900</v>
       </c>
       <c r="J17" s="3">
+        <v>2849600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2058400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1403600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>982900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>864900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1028100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>158300</v>
+        <v>63000</v>
       </c>
       <c r="E18" s="3">
-        <v>256400</v>
+        <v>156700</v>
       </c>
       <c r="F18" s="3">
-        <v>251300</v>
+        <v>253700</v>
       </c>
       <c r="G18" s="3">
-        <v>91300</v>
+        <v>248700</v>
       </c>
       <c r="H18" s="3">
-        <v>46800</v>
+        <v>90300</v>
       </c>
       <c r="I18" s="3">
-        <v>194500</v>
+        <v>46300</v>
       </c>
       <c r="J18" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K18" s="3">
         <v>161100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>98600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-177000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,106 +1148,113 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>118600</v>
+        <v>371400</v>
       </c>
       <c r="E20" s="3">
-        <v>-77900</v>
+        <v>117400</v>
       </c>
       <c r="F20" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="G20" s="3">
         <v>9100</v>
       </c>
-      <c r="G20" s="3">
-        <v>21500</v>
-      </c>
       <c r="H20" s="3">
-        <v>18300</v>
+        <v>21300</v>
       </c>
       <c r="I20" s="3">
-        <v>-15300</v>
+        <v>18100</v>
       </c>
       <c r="J20" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-36600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-62900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-45800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>533600</v>
+        <v>824900</v>
       </c>
       <c r="E21" s="3">
-        <v>375700</v>
+        <v>529000</v>
       </c>
       <c r="F21" s="3">
-        <v>399600</v>
+        <v>372500</v>
       </c>
       <c r="G21" s="3">
-        <v>228800</v>
+        <v>395900</v>
       </c>
       <c r="H21" s="3">
-        <v>152400</v>
+        <v>226900</v>
       </c>
       <c r="I21" s="3">
-        <v>291500</v>
+        <v>151200</v>
       </c>
       <c r="J21" s="3">
+        <v>288900</v>
+      </c>
+      <c r="K21" s="3">
         <v>214400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>158700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>91400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-174600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>90900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>120400</v>
+        <v>153400</v>
       </c>
       <c r="E22" s="3">
-        <v>97100</v>
+        <v>119200</v>
       </c>
       <c r="F22" s="3">
-        <v>80700</v>
+        <v>96100</v>
       </c>
       <c r="G22" s="3">
-        <v>54300</v>
+        <v>79900</v>
       </c>
       <c r="H22" s="3">
-        <v>43700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>17</v>
+        <v>53700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>43300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>17</v>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>156500</v>
+        <v>281000</v>
       </c>
       <c r="E23" s="3">
-        <v>81300</v>
+        <v>154900</v>
       </c>
       <c r="F23" s="3">
-        <v>179700</v>
+        <v>80500</v>
       </c>
       <c r="G23" s="3">
-        <v>58500</v>
+        <v>177900</v>
       </c>
       <c r="H23" s="3">
-        <v>21400</v>
+        <v>57900</v>
       </c>
       <c r="I23" s="3">
-        <v>179200</v>
+        <v>21200</v>
       </c>
       <c r="J23" s="3">
+        <v>177400</v>
+      </c>
+      <c r="K23" s="3">
         <v>124500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>88800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-222800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27900</v>
+        <v>86000</v>
       </c>
       <c r="E24" s="3">
-        <v>25600</v>
+        <v>27600</v>
       </c>
       <c r="F24" s="3">
-        <v>39900</v>
+        <v>25400</v>
       </c>
       <c r="G24" s="3">
+        <v>39500</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
-        <v>37000</v>
-      </c>
       <c r="J24" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K24" s="3">
         <v>14400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-21400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11800</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>128600</v>
+        <v>194900</v>
       </c>
       <c r="E26" s="3">
-        <v>55700</v>
+        <v>127300</v>
       </c>
       <c r="F26" s="3">
-        <v>139800</v>
+        <v>55100</v>
       </c>
       <c r="G26" s="3">
-        <v>57900</v>
+        <v>138300</v>
       </c>
       <c r="H26" s="3">
-        <v>20700</v>
+        <v>57300</v>
       </c>
       <c r="I26" s="3">
-        <v>142200</v>
+        <v>20500</v>
       </c>
       <c r="J26" s="3">
-        <v>110100</v>
+        <v>140800</v>
       </c>
       <c r="K26" s="3">
         <v>110100</v>
       </c>
       <c r="L26" s="3">
+        <v>110100</v>
+      </c>
+      <c r="M26" s="3">
         <v>32900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-221500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>103600</v>
+        <v>88200</v>
       </c>
       <c r="E27" s="3">
-        <v>33100</v>
+        <v>102500</v>
       </c>
       <c r="F27" s="3">
-        <v>129100</v>
+        <v>32700</v>
       </c>
       <c r="G27" s="3">
-        <v>58400</v>
+        <v>127700</v>
       </c>
       <c r="H27" s="3">
-        <v>20400</v>
+        <v>57800</v>
       </c>
       <c r="I27" s="3">
-        <v>119400</v>
+        <v>20100</v>
       </c>
       <c r="J27" s="3">
+        <v>118200</v>
+      </c>
+      <c r="K27" s="3">
         <v>87300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-221300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,23 +1541,23 @@
       <c r="F29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>143000</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>141500</v>
+      </c>
+      <c r="K29" s="3">
         <v>12900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>17</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-118600</v>
+        <v>-371400</v>
       </c>
       <c r="E32" s="3">
-        <v>77900</v>
+        <v>-117400</v>
       </c>
       <c r="F32" s="3">
+        <v>77100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-9100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-21500</v>
-      </c>
       <c r="H32" s="3">
-        <v>-18300</v>
+        <v>-21300</v>
       </c>
       <c r="I32" s="3">
-        <v>15300</v>
+        <v>-18100</v>
       </c>
       <c r="J32" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K32" s="3">
         <v>36600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>62900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>45800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>103600</v>
+        <v>88200</v>
       </c>
       <c r="E33" s="3">
-        <v>33100</v>
+        <v>102500</v>
       </c>
       <c r="F33" s="3">
-        <v>129100</v>
+        <v>32700</v>
       </c>
       <c r="G33" s="3">
-        <v>58400</v>
+        <v>127700</v>
       </c>
       <c r="H33" s="3">
-        <v>20400</v>
+        <v>57800</v>
       </c>
       <c r="I33" s="3">
-        <v>262400</v>
+        <v>20100</v>
       </c>
       <c r="J33" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K33" s="3">
         <v>100200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>107700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-221300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>103600</v>
+        <v>88200</v>
       </c>
       <c r="E35" s="3">
-        <v>33100</v>
+        <v>102500</v>
       </c>
       <c r="F35" s="3">
-        <v>129100</v>
+        <v>32700</v>
       </c>
       <c r="G35" s="3">
-        <v>58400</v>
+        <v>127700</v>
       </c>
       <c r="H35" s="3">
-        <v>20400</v>
+        <v>57800</v>
       </c>
       <c r="I35" s="3">
-        <v>262400</v>
+        <v>20100</v>
       </c>
       <c r="J35" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K35" s="3">
         <v>100200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>107700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-221300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,76 +1903,80 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1195100</v>
+        <v>1456100</v>
       </c>
       <c r="E41" s="3">
-        <v>1074500</v>
+        <v>1182900</v>
       </c>
       <c r="F41" s="3">
-        <v>812000</v>
+        <v>1063500</v>
       </c>
       <c r="G41" s="3">
-        <v>445900</v>
+        <v>803700</v>
       </c>
       <c r="H41" s="3">
-        <v>276900</v>
+        <v>441400</v>
       </c>
       <c r="I41" s="3">
-        <v>359300</v>
+        <v>274100</v>
       </c>
       <c r="J41" s="3">
+        <v>355600</v>
+      </c>
+      <c r="K41" s="3">
         <v>343600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>280300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>81900</v>
-      </c>
-      <c r="F42" s="3" t="s">
+        <v>21300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>81000</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>400</v>
       </c>
-      <c r="I42" s="3">
-        <v>10200</v>
-      </c>
       <c r="J42" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K42" s="3">
         <v>4200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21000</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>17</v>
@@ -1895,282 +1984,306 @@
       <c r="N42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1353500</v>
+        <v>3556100</v>
       </c>
       <c r="E43" s="3">
-        <v>990800</v>
+        <v>1339700</v>
       </c>
       <c r="F43" s="3">
-        <v>1091400</v>
+        <v>980700</v>
       </c>
       <c r="G43" s="3">
-        <v>1040000</v>
+        <v>1080200</v>
       </c>
       <c r="H43" s="3">
-        <v>1052600</v>
+        <v>1029400</v>
       </c>
       <c r="I43" s="3">
-        <v>1121000</v>
+        <v>1041900</v>
       </c>
       <c r="J43" s="3">
+        <v>1109500</v>
+      </c>
+      <c r="K43" s="3">
         <v>474500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>536200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>343300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>276500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>374700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1903300</v>
+        <v>2480600</v>
       </c>
       <c r="E44" s="3">
-        <v>1203100</v>
+        <v>1883800</v>
       </c>
       <c r="F44" s="3">
-        <v>835700</v>
+        <v>1190800</v>
       </c>
       <c r="G44" s="3">
-        <v>824900</v>
+        <v>827100</v>
       </c>
       <c r="H44" s="3">
-        <v>613800</v>
+        <v>816400</v>
       </c>
       <c r="I44" s="3">
-        <v>642500</v>
+        <v>607500</v>
       </c>
       <c r="J44" s="3">
+        <v>635900</v>
+      </c>
+      <c r="K44" s="3">
         <v>460100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>298300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>108800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>75800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>116100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2064700</v>
+        <v>2220000</v>
       </c>
       <c r="E45" s="3">
-        <v>1487100</v>
+        <v>2043500</v>
       </c>
       <c r="F45" s="3">
-        <v>1812000</v>
+        <v>1471900</v>
       </c>
       <c r="G45" s="3">
-        <v>971500</v>
+        <v>1793400</v>
       </c>
       <c r="H45" s="3">
-        <v>872300</v>
+        <v>961600</v>
       </c>
       <c r="I45" s="3">
-        <v>695700</v>
+        <v>863400</v>
       </c>
       <c r="J45" s="3">
+        <v>688500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1951100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>505400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>294500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>179900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>131500</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6538200</v>
+        <v>9712700</v>
       </c>
       <c r="E46" s="3">
-        <v>4837400</v>
+        <v>6471200</v>
       </c>
       <c r="F46" s="3">
-        <v>4551100</v>
+        <v>4787900</v>
       </c>
       <c r="G46" s="3">
-        <v>3282300</v>
+        <v>4504500</v>
       </c>
       <c r="H46" s="3">
-        <v>2816100</v>
+        <v>3248700</v>
       </c>
       <c r="I46" s="3">
-        <v>2828600</v>
+        <v>2787300</v>
       </c>
       <c r="J46" s="3">
+        <v>2799700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3230700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1641300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>816300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>571900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>670200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95000</v>
+        <v>243200</v>
       </c>
       <c r="E47" s="3">
-        <v>31700</v>
+        <v>94000</v>
       </c>
       <c r="F47" s="3">
-        <v>39900</v>
+        <v>31400</v>
       </c>
       <c r="G47" s="3">
-        <v>3700</v>
+        <v>39500</v>
       </c>
       <c r="H47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I47" s="3">
         <v>3200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1000</v>
       </c>
       <c r="J47" s="3">
         <v>1000</v>
       </c>
       <c r="K47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="3">
         <v>16300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5000</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3021300</v>
+        <v>4725800</v>
       </c>
       <c r="E48" s="3">
-        <v>2046100</v>
+        <v>2990400</v>
       </c>
       <c r="F48" s="3">
-        <v>1807300</v>
+        <v>2025100</v>
       </c>
       <c r="G48" s="3">
-        <v>1442900</v>
+        <v>1788800</v>
       </c>
       <c r="H48" s="3">
-        <v>1027400</v>
+        <v>1428100</v>
       </c>
       <c r="I48" s="3">
-        <v>688500</v>
+        <v>1016900</v>
       </c>
       <c r="J48" s="3">
+        <v>681400</v>
+      </c>
+      <c r="K48" s="3">
         <v>540900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1176100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>694500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>554700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>571600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8000</v>
+        <v>214800</v>
       </c>
       <c r="E49" s="3">
-        <v>5100</v>
+        <v>162800</v>
       </c>
       <c r="F49" s="3">
-        <v>5200</v>
+        <v>113300</v>
       </c>
       <c r="G49" s="3">
-        <v>87700</v>
+        <v>90200</v>
       </c>
       <c r="H49" s="3">
-        <v>67400</v>
+        <v>86800</v>
       </c>
       <c r="I49" s="3">
-        <v>67700</v>
+        <v>66700</v>
       </c>
       <c r="J49" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K49" s="3">
         <v>53200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>54100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>819400</v>
+        <v>549700</v>
       </c>
       <c r="E52" s="3">
-        <v>724900</v>
+        <v>656100</v>
       </c>
       <c r="F52" s="3">
-        <v>467900</v>
+        <v>609300</v>
       </c>
       <c r="G52" s="3">
-        <v>332700</v>
+        <v>378100</v>
       </c>
       <c r="H52" s="3">
-        <v>198700</v>
+        <v>329300</v>
       </c>
       <c r="I52" s="3">
-        <v>161300</v>
+        <v>196600</v>
       </c>
       <c r="J52" s="3">
+        <v>159700</v>
+      </c>
+      <c r="K52" s="3">
         <v>185600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>116800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>70500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10481900</v>
+        <v>15446300</v>
       </c>
       <c r="E54" s="3">
-        <v>7645200</v>
+        <v>10374600</v>
       </c>
       <c r="F54" s="3">
-        <v>6871500</v>
+        <v>7567000</v>
       </c>
       <c r="G54" s="3">
-        <v>5149200</v>
+        <v>6801100</v>
       </c>
       <c r="H54" s="3">
-        <v>4112800</v>
+        <v>5096500</v>
       </c>
       <c r="I54" s="3">
-        <v>3747100</v>
+        <v>4070700</v>
       </c>
       <c r="J54" s="3">
+        <v>3708800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3898500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3010700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1621200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1201300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1334500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>978900</v>
+        <v>1475200</v>
       </c>
       <c r="E57" s="3">
-        <v>639200</v>
+        <v>968900</v>
       </c>
       <c r="F57" s="3">
-        <v>716500</v>
+        <v>632700</v>
       </c>
       <c r="G57" s="3">
-        <v>765200</v>
+        <v>709200</v>
       </c>
       <c r="H57" s="3">
-        <v>669800</v>
+        <v>757300</v>
       </c>
       <c r="I57" s="3">
-        <v>616100</v>
+        <v>662900</v>
       </c>
       <c r="J57" s="3">
+        <v>609800</v>
+      </c>
+      <c r="K57" s="3">
         <v>543600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>685800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>386800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>404700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>290200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3677600</v>
+        <v>4721000</v>
       </c>
       <c r="E58" s="3">
-        <v>2826100</v>
+        <v>3640000</v>
       </c>
       <c r="F58" s="3">
-        <v>2411900</v>
+        <v>2797100</v>
       </c>
       <c r="G58" s="3">
-        <v>1893700</v>
+        <v>2387200</v>
       </c>
       <c r="H58" s="3">
-        <v>1707200</v>
+        <v>1874300</v>
       </c>
       <c r="I58" s="3">
-        <v>1538000</v>
+        <v>1689800</v>
       </c>
       <c r="J58" s="3">
+        <v>1522300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1338800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>808700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>645300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>532100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>923400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1872400</v>
+        <v>3034400</v>
       </c>
       <c r="E59" s="3">
-        <v>1018100</v>
+        <v>1853200</v>
       </c>
       <c r="F59" s="3">
-        <v>1363700</v>
+        <v>1007700</v>
       </c>
       <c r="G59" s="3">
-        <v>808300</v>
+        <v>1349700</v>
       </c>
       <c r="H59" s="3">
-        <v>490000</v>
+        <v>800000</v>
       </c>
       <c r="I59" s="3">
-        <v>483100</v>
+        <v>485000</v>
       </c>
       <c r="J59" s="3">
+        <v>478100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1451300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>165700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6528900</v>
+        <v>9230700</v>
       </c>
       <c r="E60" s="3">
-        <v>4483400</v>
+        <v>6462100</v>
       </c>
       <c r="F60" s="3">
-        <v>4492000</v>
+        <v>4437500</v>
       </c>
       <c r="G60" s="3">
-        <v>3467200</v>
+        <v>4446100</v>
       </c>
       <c r="H60" s="3">
-        <v>2867000</v>
+        <v>3431700</v>
       </c>
       <c r="I60" s="3">
-        <v>2637200</v>
+        <v>2837700</v>
       </c>
       <c r="J60" s="3">
+        <v>2610300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2674600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1660200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1105700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>895100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>820600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1694700</v>
+        <v>2098900</v>
       </c>
       <c r="E61" s="3">
-        <v>1093600</v>
+        <v>1677400</v>
       </c>
       <c r="F61" s="3">
-        <v>416200</v>
+        <v>1082400</v>
       </c>
       <c r="G61" s="3">
-        <v>372400</v>
+        <v>411900</v>
       </c>
       <c r="H61" s="3">
-        <v>174700</v>
+        <v>368600</v>
       </c>
       <c r="I61" s="3">
-        <v>76500</v>
+        <v>173000</v>
       </c>
       <c r="J61" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K61" s="3">
         <v>310900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>530100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>182500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>93400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>79000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>206300</v>
+        <v>278200</v>
       </c>
       <c r="E62" s="3">
-        <v>202500</v>
+        <v>204200</v>
       </c>
       <c r="F62" s="3">
-        <v>176400</v>
+        <v>200400</v>
       </c>
       <c r="G62" s="3">
-        <v>95600</v>
+        <v>174600</v>
       </c>
       <c r="H62" s="3">
-        <v>110300</v>
+        <v>94600</v>
       </c>
       <c r="I62" s="3">
-        <v>105600</v>
+        <v>109200</v>
       </c>
       <c r="J62" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K62" s="3">
         <v>57100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8894900</v>
+        <v>13124000</v>
       </c>
       <c r="E66" s="3">
-        <v>6210800</v>
+        <v>8803900</v>
       </c>
       <c r="F66" s="3">
-        <v>5535300</v>
+        <v>6147200</v>
       </c>
       <c r="G66" s="3">
-        <v>4023300</v>
+        <v>5478700</v>
       </c>
       <c r="H66" s="3">
-        <v>3152000</v>
+        <v>3982100</v>
       </c>
       <c r="I66" s="3">
-        <v>2819300</v>
+        <v>3119800</v>
       </c>
       <c r="J66" s="3">
+        <v>2790400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3277800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2457400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1314100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1005400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>913500</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>808500</v>
+        <v>888400</v>
       </c>
       <c r="E72" s="3">
-        <v>704900</v>
+        <v>800200</v>
       </c>
       <c r="F72" s="3">
-        <v>670900</v>
+        <v>697700</v>
       </c>
       <c r="G72" s="3">
-        <v>541800</v>
+        <v>664000</v>
       </c>
       <c r="H72" s="3">
-        <v>483500</v>
+        <v>536300</v>
       </c>
       <c r="I72" s="3">
-        <v>463100</v>
+        <v>478500</v>
       </c>
       <c r="J72" s="3">
+        <v>458400</v>
+      </c>
+      <c r="K72" s="3">
         <v>200900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>112800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>203100</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1587000</v>
+        <v>2322300</v>
       </c>
       <c r="E76" s="3">
-        <v>1434500</v>
+        <v>1570700</v>
       </c>
       <c r="F76" s="3">
-        <v>1336100</v>
+        <v>1419800</v>
       </c>
       <c r="G76" s="3">
-        <v>1126000</v>
+        <v>1322500</v>
       </c>
       <c r="H76" s="3">
-        <v>960700</v>
+        <v>1114400</v>
       </c>
       <c r="I76" s="3">
-        <v>927900</v>
+        <v>950900</v>
       </c>
       <c r="J76" s="3">
+        <v>918400</v>
+      </c>
+      <c r="K76" s="3">
         <v>620700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>553300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>307000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>195900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>421000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>103600</v>
+        <v>88200</v>
       </c>
       <c r="E81" s="3">
-        <v>33100</v>
+        <v>102500</v>
       </c>
       <c r="F81" s="3">
-        <v>129100</v>
+        <v>32700</v>
       </c>
       <c r="G81" s="3">
-        <v>58400</v>
+        <v>127700</v>
       </c>
       <c r="H81" s="3">
-        <v>20400</v>
+        <v>57800</v>
       </c>
       <c r="I81" s="3">
-        <v>262400</v>
+        <v>20100</v>
       </c>
       <c r="J81" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K81" s="3">
         <v>100200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>107700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-221300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>256200</v>
+        <v>388400</v>
       </c>
       <c r="E83" s="3">
-        <v>196900</v>
+        <v>253600</v>
       </c>
       <c r="F83" s="3">
-        <v>138900</v>
+        <v>194900</v>
       </c>
       <c r="G83" s="3">
-        <v>115800</v>
+        <v>137500</v>
       </c>
       <c r="H83" s="3">
-        <v>87200</v>
+        <v>114600</v>
       </c>
       <c r="I83" s="3">
-        <v>112100</v>
+        <v>86300</v>
       </c>
       <c r="J83" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K83" s="3">
         <v>89700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>61800</v>
+        <v>-824600</v>
       </c>
       <c r="E89" s="3">
-        <v>84900</v>
+        <v>61200</v>
       </c>
       <c r="F89" s="3">
-        <v>202600</v>
+        <v>84100</v>
       </c>
       <c r="G89" s="3">
-        <v>88300</v>
+        <v>200500</v>
       </c>
       <c r="H89" s="3">
-        <v>-25400</v>
+        <v>87400</v>
       </c>
       <c r="I89" s="3">
-        <v>-258900</v>
+        <v>-25200</v>
       </c>
       <c r="J89" s="3">
+        <v>-256300</v>
+      </c>
+      <c r="K89" s="3">
         <v>192300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-111400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1242900</v>
+        <v>-1741500</v>
       </c>
       <c r="E91" s="3">
-        <v>-593400</v>
+        <v>-1230100</v>
       </c>
       <c r="F91" s="3">
-        <v>-527700</v>
+        <v>-587300</v>
       </c>
       <c r="G91" s="3">
-        <v>-352100</v>
+        <v>-522300</v>
       </c>
       <c r="H91" s="3">
-        <v>-368400</v>
+        <v>-348500</v>
       </c>
       <c r="I91" s="3">
-        <v>-564700</v>
+        <v>-364600</v>
       </c>
       <c r="J91" s="3">
+        <v>-558900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-429400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-473500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-151700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-276200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1624200</v>
+        <v>-1744500</v>
       </c>
       <c r="E94" s="3">
-        <v>-706400</v>
+        <v>-1607600</v>
       </c>
       <c r="F94" s="3">
-        <v>-865400</v>
+        <v>-699200</v>
       </c>
       <c r="G94" s="3">
-        <v>-565100</v>
+        <v>-856500</v>
       </c>
       <c r="H94" s="3">
-        <v>-349500</v>
+        <v>-559300</v>
       </c>
       <c r="I94" s="3">
-        <v>-992300</v>
+        <v>-345900</v>
       </c>
       <c r="J94" s="3">
+        <v>-982100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-476000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-656100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-196500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-71900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-353900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1726000</v>
+        <v>2845700</v>
       </c>
       <c r="E100" s="3">
-        <v>904400</v>
+        <v>1708300</v>
       </c>
       <c r="F100" s="3">
-        <v>1060200</v>
+        <v>895200</v>
       </c>
       <c r="G100" s="3">
-        <v>570500</v>
+        <v>1049300</v>
       </c>
       <c r="H100" s="3">
-        <v>376900</v>
+        <v>564700</v>
       </c>
       <c r="I100" s="3">
-        <v>1070700</v>
+        <v>373100</v>
       </c>
       <c r="J100" s="3">
+        <v>1059700</v>
+      </c>
+      <c r="K100" s="3">
         <v>553000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>836700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>128500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-53200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>453800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16800</v>
+        <v>32400</v>
       </c>
       <c r="E101" s="3">
-        <v>-24300</v>
+        <v>-16600</v>
       </c>
       <c r="F101" s="3">
-        <v>3600</v>
+        <v>-24100</v>
       </c>
       <c r="G101" s="3">
-        <v>9800</v>
+        <v>3500</v>
       </c>
       <c r="H101" s="3">
-        <v>-10400</v>
+        <v>9700</v>
       </c>
       <c r="I101" s="3">
-        <v>10700</v>
+        <v>-10300</v>
       </c>
       <c r="J101" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K101" s="3">
         <v>4500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>146800</v>
+        <v>309000</v>
       </c>
       <c r="E102" s="3">
-        <v>258600</v>
+        <v>145300</v>
       </c>
       <c r="F102" s="3">
-        <v>401000</v>
+        <v>256000</v>
       </c>
       <c r="G102" s="3">
-        <v>103500</v>
+        <v>396900</v>
       </c>
       <c r="H102" s="3">
+        <v>102400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-8400</v>
       </c>
-      <c r="I102" s="3">
-        <v>-169800</v>
-      </c>
       <c r="J102" s="3">
+        <v>-168100</v>
+      </c>
+      <c r="K102" s="3">
         <v>273800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>208400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-22200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11816500</v>
+        <v>11453300</v>
       </c>
       <c r="E8" s="3">
-        <v>5803500</v>
+        <v>5625100</v>
       </c>
       <c r="F8" s="3">
-        <v>4993700</v>
+        <v>4840100</v>
       </c>
       <c r="G8" s="3">
-        <v>4228400</v>
+        <v>4098400</v>
       </c>
       <c r="H8" s="3">
-        <v>3559800</v>
+        <v>3450400</v>
       </c>
       <c r="I8" s="3">
-        <v>3763100</v>
+        <v>3647400</v>
       </c>
       <c r="J8" s="3">
-        <v>3042100</v>
+        <v>2948600</v>
       </c>
       <c r="K8" s="3">
         <v>2219600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10071200</v>
+        <v>9761600</v>
       </c>
       <c r="E9" s="3">
-        <v>4857100</v>
+        <v>4707800</v>
       </c>
       <c r="F9" s="3">
-        <v>4116400</v>
+        <v>3989800</v>
       </c>
       <c r="G9" s="3">
-        <v>3456300</v>
+        <v>3350100</v>
       </c>
       <c r="H9" s="3">
-        <v>3060300</v>
+        <v>2966200</v>
       </c>
       <c r="I9" s="3">
-        <v>3337900</v>
+        <v>3235300</v>
       </c>
       <c r="J9" s="3">
-        <v>2492100</v>
+        <v>2415500</v>
       </c>
       <c r="K9" s="3">
         <v>1798500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1745400</v>
+        <v>1691700</v>
       </c>
       <c r="E10" s="3">
-        <v>946400</v>
+        <v>917300</v>
       </c>
       <c r="F10" s="3">
-        <v>877300</v>
+        <v>850300</v>
       </c>
       <c r="G10" s="3">
-        <v>772100</v>
+        <v>748400</v>
       </c>
       <c r="H10" s="3">
-        <v>499500</v>
+        <v>484100</v>
       </c>
       <c r="I10" s="3">
-        <v>425300</v>
+        <v>412200</v>
       </c>
       <c r="J10" s="3">
-        <v>550000</v>
+        <v>533100</v>
       </c>
       <c r="K10" s="3">
         <v>421000</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>103000</v>
+        <v>99900</v>
       </c>
       <c r="E12" s="3">
-        <v>65600</v>
+        <v>63600</v>
       </c>
       <c r="F12" s="3">
-        <v>55300</v>
+        <v>53600</v>
       </c>
       <c r="G12" s="3">
-        <v>46100</v>
+        <v>44700</v>
       </c>
       <c r="H12" s="3">
-        <v>52100</v>
+        <v>50500</v>
       </c>
       <c r="I12" s="3">
-        <v>41800</v>
+        <v>40500</v>
       </c>
       <c r="J12" s="3">
-        <v>25700</v>
+        <v>25000</v>
       </c>
       <c r="K12" s="3">
         <v>20600</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>51100</v>
+        <v>49500</v>
       </c>
       <c r="E14" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="F14" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="G14" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H14" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>17100</v>
+        <v>16600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11753500</v>
+        <v>11392200</v>
       </c>
       <c r="E17" s="3">
-        <v>5646800</v>
+        <v>5473200</v>
       </c>
       <c r="F17" s="3">
-        <v>4739900</v>
+        <v>4594200</v>
       </c>
       <c r="G17" s="3">
-        <v>3979700</v>
+        <v>3857400</v>
       </c>
       <c r="H17" s="3">
-        <v>3469500</v>
+        <v>3362800</v>
       </c>
       <c r="I17" s="3">
-        <v>3716900</v>
+        <v>3602600</v>
       </c>
       <c r="J17" s="3">
-        <v>2849600</v>
+        <v>2762000</v>
       </c>
       <c r="K17" s="3">
         <v>2058400</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>63000</v>
+        <v>61100</v>
       </c>
       <c r="E18" s="3">
-        <v>156700</v>
+        <v>151900</v>
       </c>
       <c r="F18" s="3">
-        <v>253700</v>
+        <v>245900</v>
       </c>
       <c r="G18" s="3">
-        <v>248700</v>
+        <v>241100</v>
       </c>
       <c r="H18" s="3">
-        <v>90300</v>
+        <v>87600</v>
       </c>
       <c r="I18" s="3">
-        <v>46300</v>
+        <v>44900</v>
       </c>
       <c r="J18" s="3">
-        <v>192500</v>
+        <v>186600</v>
       </c>
       <c r="K18" s="3">
         <v>161100</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>371400</v>
+        <v>360000</v>
       </c>
       <c r="E20" s="3">
-        <v>117400</v>
+        <v>113800</v>
       </c>
       <c r="F20" s="3">
-        <v>-77100</v>
+        <v>-74800</v>
       </c>
       <c r="G20" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="H20" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="I20" s="3">
-        <v>18100</v>
+        <v>17600</v>
       </c>
       <c r="J20" s="3">
-        <v>-15100</v>
+        <v>-14700</v>
       </c>
       <c r="K20" s="3">
         <v>-36600</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>824900</v>
+        <v>797500</v>
       </c>
       <c r="E21" s="3">
-        <v>529000</v>
+        <v>511500</v>
       </c>
       <c r="F21" s="3">
-        <v>372500</v>
+        <v>360000</v>
       </c>
       <c r="G21" s="3">
-        <v>395900</v>
+        <v>383100</v>
       </c>
       <c r="H21" s="3">
-        <v>226900</v>
+        <v>219300</v>
       </c>
       <c r="I21" s="3">
-        <v>151200</v>
+        <v>146100</v>
       </c>
       <c r="J21" s="3">
-        <v>288900</v>
+        <v>279400</v>
       </c>
       <c r="K21" s="3">
         <v>214400</v>
@@ -1239,22 +1239,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>153400</v>
+        <v>148700</v>
       </c>
       <c r="E22" s="3">
-        <v>119200</v>
+        <v>115500</v>
       </c>
       <c r="F22" s="3">
-        <v>96100</v>
+        <v>93100</v>
       </c>
       <c r="G22" s="3">
-        <v>79900</v>
+        <v>77400</v>
       </c>
       <c r="H22" s="3">
-        <v>53700</v>
+        <v>52100</v>
       </c>
       <c r="I22" s="3">
-        <v>43300</v>
+        <v>41900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>17</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>281000</v>
+        <v>272400</v>
       </c>
       <c r="E23" s="3">
-        <v>154900</v>
+        <v>150200</v>
       </c>
       <c r="F23" s="3">
-        <v>80500</v>
+        <v>78000</v>
       </c>
       <c r="G23" s="3">
-        <v>177900</v>
+        <v>172400</v>
       </c>
       <c r="H23" s="3">
-        <v>57900</v>
+        <v>56100</v>
       </c>
       <c r="I23" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="J23" s="3">
-        <v>177400</v>
+        <v>171900</v>
       </c>
       <c r="K23" s="3">
         <v>124500</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>86000</v>
+        <v>83400</v>
       </c>
       <c r="E24" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="F24" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="G24" s="3">
-        <v>39500</v>
+        <v>38300</v>
       </c>
       <c r="H24" s="3">
         <v>600</v>
       </c>
       <c r="I24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J24" s="3">
-        <v>36600</v>
+        <v>35500</v>
       </c>
       <c r="K24" s="3">
         <v>14400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>194900</v>
+        <v>189000</v>
       </c>
       <c r="E26" s="3">
-        <v>127300</v>
+        <v>123400</v>
       </c>
       <c r="F26" s="3">
-        <v>55100</v>
+        <v>53500</v>
       </c>
       <c r="G26" s="3">
-        <v>138300</v>
+        <v>134100</v>
       </c>
       <c r="H26" s="3">
-        <v>57300</v>
+        <v>55500</v>
       </c>
       <c r="I26" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="J26" s="3">
-        <v>140800</v>
+        <v>136400</v>
       </c>
       <c r="K26" s="3">
         <v>110100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>88200</v>
+        <v>85500</v>
       </c>
       <c r="E27" s="3">
-        <v>102500</v>
+        <v>99300</v>
       </c>
       <c r="F27" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="G27" s="3">
-        <v>127700</v>
+        <v>123800</v>
       </c>
       <c r="H27" s="3">
-        <v>57800</v>
+        <v>56000</v>
       </c>
       <c r="I27" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="J27" s="3">
-        <v>118200</v>
+        <v>114500</v>
       </c>
       <c r="K27" s="3">
         <v>87300</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>141500</v>
+        <v>137200</v>
       </c>
       <c r="K29" s="3">
         <v>12900</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-371400</v>
+        <v>-360000</v>
       </c>
       <c r="E32" s="3">
-        <v>-117400</v>
+        <v>-113800</v>
       </c>
       <c r="F32" s="3">
-        <v>77100</v>
+        <v>74800</v>
       </c>
       <c r="G32" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="H32" s="3">
-        <v>-21300</v>
+        <v>-20700</v>
       </c>
       <c r="I32" s="3">
-        <v>-18100</v>
+        <v>-17600</v>
       </c>
       <c r="J32" s="3">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="K32" s="3">
         <v>36600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88200</v>
+        <v>85500</v>
       </c>
       <c r="E33" s="3">
-        <v>102500</v>
+        <v>99300</v>
       </c>
       <c r="F33" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="G33" s="3">
-        <v>127700</v>
+        <v>123800</v>
       </c>
       <c r="H33" s="3">
-        <v>57800</v>
+        <v>56000</v>
       </c>
       <c r="I33" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="J33" s="3">
-        <v>259700</v>
+        <v>251700</v>
       </c>
       <c r="K33" s="3">
         <v>100200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88200</v>
+        <v>85500</v>
       </c>
       <c r="E35" s="3">
-        <v>102500</v>
+        <v>99300</v>
       </c>
       <c r="F35" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="G35" s="3">
-        <v>127700</v>
+        <v>123800</v>
       </c>
       <c r="H35" s="3">
-        <v>57800</v>
+        <v>56000</v>
       </c>
       <c r="I35" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="J35" s="3">
-        <v>259700</v>
+        <v>251700</v>
       </c>
       <c r="K35" s="3">
         <v>100200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1456100</v>
+        <v>1411300</v>
       </c>
       <c r="E41" s="3">
-        <v>1182900</v>
+        <v>1146500</v>
       </c>
       <c r="F41" s="3">
-        <v>1063500</v>
+        <v>1030800</v>
       </c>
       <c r="G41" s="3">
-        <v>803700</v>
+        <v>779000</v>
       </c>
       <c r="H41" s="3">
-        <v>441400</v>
+        <v>427800</v>
       </c>
       <c r="I41" s="3">
-        <v>274100</v>
+        <v>265700</v>
       </c>
       <c r="J41" s="3">
-        <v>355600</v>
+        <v>344600</v>
       </c>
       <c r="K41" s="3">
         <v>343600</v>
@@ -1955,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="F42" s="3">
-        <v>81000</v>
+        <v>78500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>17</v>
@@ -1970,7 +1970,7 @@
         <v>400</v>
       </c>
       <c r="J42" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="K42" s="3">
         <v>4200</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3556100</v>
+        <v>3446800</v>
       </c>
       <c r="E43" s="3">
-        <v>1339700</v>
+        <v>1298500</v>
       </c>
       <c r="F43" s="3">
-        <v>980700</v>
+        <v>950600</v>
       </c>
       <c r="G43" s="3">
-        <v>1080200</v>
+        <v>1047000</v>
       </c>
       <c r="H43" s="3">
-        <v>1029400</v>
+        <v>997700</v>
       </c>
       <c r="I43" s="3">
-        <v>1041900</v>
+        <v>1009800</v>
       </c>
       <c r="J43" s="3">
-        <v>1109500</v>
+        <v>1075400</v>
       </c>
       <c r="K43" s="3">
         <v>474500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2480600</v>
+        <v>2404300</v>
       </c>
       <c r="E44" s="3">
-        <v>1883800</v>
+        <v>1825900</v>
       </c>
       <c r="F44" s="3">
-        <v>1190800</v>
+        <v>1154200</v>
       </c>
       <c r="G44" s="3">
-        <v>827100</v>
+        <v>801700</v>
       </c>
       <c r="H44" s="3">
-        <v>816400</v>
+        <v>791300</v>
       </c>
       <c r="I44" s="3">
-        <v>607500</v>
+        <v>588800</v>
       </c>
       <c r="J44" s="3">
-        <v>635900</v>
+        <v>616400</v>
       </c>
       <c r="K44" s="3">
         <v>460100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2220000</v>
+        <v>2151700</v>
       </c>
       <c r="E45" s="3">
-        <v>2043500</v>
+        <v>1980700</v>
       </c>
       <c r="F45" s="3">
-        <v>1471900</v>
+        <v>1426600</v>
       </c>
       <c r="G45" s="3">
-        <v>1793400</v>
+        <v>1738300</v>
       </c>
       <c r="H45" s="3">
-        <v>961600</v>
+        <v>932000</v>
       </c>
       <c r="I45" s="3">
-        <v>863400</v>
+        <v>836900</v>
       </c>
       <c r="J45" s="3">
-        <v>688500</v>
+        <v>667400</v>
       </c>
       <c r="K45" s="3">
         <v>1951100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9712700</v>
+        <v>9414100</v>
       </c>
       <c r="E46" s="3">
-        <v>6471200</v>
+        <v>6272300</v>
       </c>
       <c r="F46" s="3">
-        <v>4787900</v>
+        <v>4640700</v>
       </c>
       <c r="G46" s="3">
-        <v>4504500</v>
+        <v>4366000</v>
       </c>
       <c r="H46" s="3">
-        <v>3248700</v>
+        <v>3148900</v>
       </c>
       <c r="I46" s="3">
-        <v>2787300</v>
+        <v>2701600</v>
       </c>
       <c r="J46" s="3">
-        <v>2799700</v>
+        <v>2713600</v>
       </c>
       <c r="K46" s="3">
         <v>3230700</v>
@@ -2162,22 +2162,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>243200</v>
+        <v>235800</v>
       </c>
       <c r="E47" s="3">
-        <v>94000</v>
+        <v>91100</v>
       </c>
       <c r="F47" s="3">
-        <v>31400</v>
+        <v>30400</v>
       </c>
       <c r="G47" s="3">
-        <v>39500</v>
+        <v>38300</v>
       </c>
       <c r="H47" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I47" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J47" s="3">
         <v>1000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4725800</v>
+        <v>4580600</v>
       </c>
       <c r="E48" s="3">
-        <v>2990400</v>
+        <v>2898400</v>
       </c>
       <c r="F48" s="3">
-        <v>2025100</v>
+        <v>1962900</v>
       </c>
       <c r="G48" s="3">
-        <v>1788800</v>
+        <v>1733800</v>
       </c>
       <c r="H48" s="3">
-        <v>1428100</v>
+        <v>1384200</v>
       </c>
       <c r="I48" s="3">
-        <v>1016900</v>
+        <v>985700</v>
       </c>
       <c r="J48" s="3">
-        <v>681400</v>
+        <v>660500</v>
       </c>
       <c r="K48" s="3">
         <v>540900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>214800</v>
+        <v>208200</v>
       </c>
       <c r="E49" s="3">
-        <v>162800</v>
+        <v>157800</v>
       </c>
       <c r="F49" s="3">
-        <v>113300</v>
+        <v>109800</v>
       </c>
       <c r="G49" s="3">
-        <v>90200</v>
+        <v>87400</v>
       </c>
       <c r="H49" s="3">
-        <v>86800</v>
+        <v>84100</v>
       </c>
       <c r="I49" s="3">
-        <v>66700</v>
+        <v>64600</v>
       </c>
       <c r="J49" s="3">
-        <v>67000</v>
+        <v>64900</v>
       </c>
       <c r="K49" s="3">
         <v>53200</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>549700</v>
+        <v>532800</v>
       </c>
       <c r="E52" s="3">
-        <v>656100</v>
+        <v>635900</v>
       </c>
       <c r="F52" s="3">
-        <v>609300</v>
+        <v>590600</v>
       </c>
       <c r="G52" s="3">
-        <v>378100</v>
+        <v>366500</v>
       </c>
       <c r="H52" s="3">
-        <v>329300</v>
+        <v>319200</v>
       </c>
       <c r="I52" s="3">
-        <v>196600</v>
+        <v>190600</v>
       </c>
       <c r="J52" s="3">
-        <v>159700</v>
+        <v>154700</v>
       </c>
       <c r="K52" s="3">
         <v>185600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15446300</v>
+        <v>14971500</v>
       </c>
       <c r="E54" s="3">
-        <v>10374600</v>
+        <v>10055700</v>
       </c>
       <c r="F54" s="3">
-        <v>7567000</v>
+        <v>7334400</v>
       </c>
       <c r="G54" s="3">
-        <v>6801100</v>
+        <v>6592000</v>
       </c>
       <c r="H54" s="3">
-        <v>5096500</v>
+        <v>4939900</v>
       </c>
       <c r="I54" s="3">
-        <v>4070700</v>
+        <v>3945500</v>
       </c>
       <c r="J54" s="3">
-        <v>3708800</v>
+        <v>3594800</v>
       </c>
       <c r="K54" s="3">
         <v>3898500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1475200</v>
+        <v>1429900</v>
       </c>
       <c r="E57" s="3">
-        <v>968900</v>
+        <v>939100</v>
       </c>
       <c r="F57" s="3">
-        <v>632700</v>
+        <v>613200</v>
       </c>
       <c r="G57" s="3">
-        <v>709200</v>
+        <v>687400</v>
       </c>
       <c r="H57" s="3">
-        <v>757300</v>
+        <v>734100</v>
       </c>
       <c r="I57" s="3">
-        <v>662900</v>
+        <v>642500</v>
       </c>
       <c r="J57" s="3">
-        <v>609800</v>
+        <v>591100</v>
       </c>
       <c r="K57" s="3">
         <v>543600</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4721000</v>
+        <v>4575900</v>
       </c>
       <c r="E58" s="3">
-        <v>3640000</v>
+        <v>3528100</v>
       </c>
       <c r="F58" s="3">
-        <v>2797100</v>
+        <v>2711100</v>
       </c>
       <c r="G58" s="3">
-        <v>2387200</v>
+        <v>2313800</v>
       </c>
       <c r="H58" s="3">
-        <v>1874300</v>
+        <v>1816700</v>
       </c>
       <c r="I58" s="3">
-        <v>1689800</v>
+        <v>1637800</v>
       </c>
       <c r="J58" s="3">
-        <v>1522300</v>
+        <v>1475500</v>
       </c>
       <c r="K58" s="3">
         <v>1338800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3034400</v>
+        <v>2941200</v>
       </c>
       <c r="E59" s="3">
-        <v>1853200</v>
+        <v>1796300</v>
       </c>
       <c r="F59" s="3">
-        <v>1007700</v>
+        <v>976700</v>
       </c>
       <c r="G59" s="3">
-        <v>1349700</v>
+        <v>1308200</v>
       </c>
       <c r="H59" s="3">
-        <v>800000</v>
+        <v>775400</v>
       </c>
       <c r="I59" s="3">
-        <v>485000</v>
+        <v>470100</v>
       </c>
       <c r="J59" s="3">
-        <v>478100</v>
+        <v>463400</v>
       </c>
       <c r="K59" s="3">
         <v>1451300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9230700</v>
+        <v>8946900</v>
       </c>
       <c r="E60" s="3">
-        <v>6462100</v>
+        <v>6263400</v>
       </c>
       <c r="F60" s="3">
-        <v>4437500</v>
+        <v>4301100</v>
       </c>
       <c r="G60" s="3">
-        <v>4446100</v>
+        <v>4309400</v>
       </c>
       <c r="H60" s="3">
-        <v>3431700</v>
+        <v>3326200</v>
       </c>
       <c r="I60" s="3">
-        <v>2837700</v>
+        <v>2750400</v>
       </c>
       <c r="J60" s="3">
-        <v>2610300</v>
+        <v>2530000</v>
       </c>
       <c r="K60" s="3">
         <v>2674600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2098900</v>
+        <v>2034300</v>
       </c>
       <c r="E61" s="3">
-        <v>1677400</v>
+        <v>1625800</v>
       </c>
       <c r="F61" s="3">
-        <v>1082400</v>
+        <v>1049200</v>
       </c>
       <c r="G61" s="3">
-        <v>411900</v>
+        <v>399300</v>
       </c>
       <c r="H61" s="3">
-        <v>368600</v>
+        <v>357200</v>
       </c>
       <c r="I61" s="3">
-        <v>173000</v>
+        <v>167600</v>
       </c>
       <c r="J61" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="K61" s="3">
         <v>310900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>278200</v>
+        <v>269600</v>
       </c>
       <c r="E62" s="3">
-        <v>204200</v>
+        <v>197900</v>
       </c>
       <c r="F62" s="3">
-        <v>200400</v>
+        <v>194300</v>
       </c>
       <c r="G62" s="3">
-        <v>174600</v>
+        <v>169300</v>
       </c>
       <c r="H62" s="3">
-        <v>94600</v>
+        <v>91700</v>
       </c>
       <c r="I62" s="3">
-        <v>109200</v>
+        <v>105800</v>
       </c>
       <c r="J62" s="3">
-        <v>104500</v>
+        <v>101300</v>
       </c>
       <c r="K62" s="3">
         <v>57100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13124000</v>
+        <v>12720500</v>
       </c>
       <c r="E66" s="3">
-        <v>8803900</v>
+        <v>8533200</v>
       </c>
       <c r="F66" s="3">
-        <v>6147200</v>
+        <v>5958200</v>
       </c>
       <c r="G66" s="3">
-        <v>5478700</v>
+        <v>5310200</v>
       </c>
       <c r="H66" s="3">
-        <v>3982100</v>
+        <v>3859700</v>
       </c>
       <c r="I66" s="3">
-        <v>3119800</v>
+        <v>3023900</v>
       </c>
       <c r="J66" s="3">
-        <v>2790400</v>
+        <v>2704600</v>
       </c>
       <c r="K66" s="3">
         <v>3277800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>888400</v>
+        <v>861100</v>
       </c>
       <c r="E72" s="3">
-        <v>800200</v>
+        <v>775600</v>
       </c>
       <c r="F72" s="3">
-        <v>697700</v>
+        <v>676300</v>
       </c>
       <c r="G72" s="3">
-        <v>664000</v>
+        <v>643600</v>
       </c>
       <c r="H72" s="3">
-        <v>536300</v>
+        <v>519800</v>
       </c>
       <c r="I72" s="3">
-        <v>478500</v>
+        <v>463800</v>
       </c>
       <c r="J72" s="3">
-        <v>458400</v>
+        <v>444300</v>
       </c>
       <c r="K72" s="3">
         <v>200900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2322300</v>
+        <v>2250900</v>
       </c>
       <c r="E76" s="3">
-        <v>1570700</v>
+        <v>1522400</v>
       </c>
       <c r="F76" s="3">
-        <v>1419800</v>
+        <v>1376100</v>
       </c>
       <c r="G76" s="3">
-        <v>1322500</v>
+        <v>1281800</v>
       </c>
       <c r="H76" s="3">
-        <v>1114400</v>
+        <v>1080200</v>
       </c>
       <c r="I76" s="3">
-        <v>950900</v>
+        <v>921600</v>
       </c>
       <c r="J76" s="3">
-        <v>918400</v>
+        <v>890200</v>
       </c>
       <c r="K76" s="3">
         <v>620700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88200</v>
+        <v>85500</v>
       </c>
       <c r="E81" s="3">
-        <v>102500</v>
+        <v>99300</v>
       </c>
       <c r="F81" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="G81" s="3">
-        <v>127700</v>
+        <v>123800</v>
       </c>
       <c r="H81" s="3">
-        <v>57800</v>
+        <v>56000</v>
       </c>
       <c r="I81" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="J81" s="3">
-        <v>259700</v>
+        <v>251700</v>
       </c>
       <c r="K81" s="3">
         <v>100200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>388400</v>
+        <v>376400</v>
       </c>
       <c r="E83" s="3">
-        <v>253600</v>
+        <v>245800</v>
       </c>
       <c r="F83" s="3">
-        <v>194900</v>
+        <v>188900</v>
       </c>
       <c r="G83" s="3">
-        <v>137500</v>
+        <v>133200</v>
       </c>
       <c r="H83" s="3">
-        <v>114600</v>
+        <v>111100</v>
       </c>
       <c r="I83" s="3">
-        <v>86300</v>
+        <v>83600</v>
       </c>
       <c r="J83" s="3">
-        <v>110900</v>
+        <v>107500</v>
       </c>
       <c r="K83" s="3">
         <v>89700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-824600</v>
+        <v>-799200</v>
       </c>
       <c r="E89" s="3">
-        <v>61200</v>
+        <v>59300</v>
       </c>
       <c r="F89" s="3">
-        <v>84100</v>
+        <v>81500</v>
       </c>
       <c r="G89" s="3">
-        <v>200500</v>
+        <v>194400</v>
       </c>
       <c r="H89" s="3">
-        <v>87400</v>
+        <v>84700</v>
       </c>
       <c r="I89" s="3">
-        <v>-25200</v>
+        <v>-24400</v>
       </c>
       <c r="J89" s="3">
-        <v>-256300</v>
+        <v>-248400</v>
       </c>
       <c r="K89" s="3">
         <v>192300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1741500</v>
+        <v>-1688000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1230100</v>
+        <v>-1192300</v>
       </c>
       <c r="F91" s="3">
-        <v>-587300</v>
+        <v>-569200</v>
       </c>
       <c r="G91" s="3">
-        <v>-522300</v>
+        <v>-506200</v>
       </c>
       <c r="H91" s="3">
-        <v>-348500</v>
+        <v>-337800</v>
       </c>
       <c r="I91" s="3">
-        <v>-364600</v>
+        <v>-353400</v>
       </c>
       <c r="J91" s="3">
-        <v>-558900</v>
+        <v>-541700</v>
       </c>
       <c r="K91" s="3">
         <v>-429400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1744500</v>
+        <v>-1690900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1607600</v>
+        <v>-1558200</v>
       </c>
       <c r="F94" s="3">
-        <v>-699200</v>
+        <v>-677700</v>
       </c>
       <c r="G94" s="3">
-        <v>-856500</v>
+        <v>-830200</v>
       </c>
       <c r="H94" s="3">
-        <v>-559300</v>
+        <v>-542100</v>
       </c>
       <c r="I94" s="3">
-        <v>-345900</v>
+        <v>-335300</v>
       </c>
       <c r="J94" s="3">
-        <v>-982100</v>
+        <v>-951900</v>
       </c>
       <c r="K94" s="3">
         <v>-476000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2845700</v>
+        <v>2758200</v>
       </c>
       <c r="E100" s="3">
-        <v>1708300</v>
+        <v>1655800</v>
       </c>
       <c r="F100" s="3">
-        <v>895200</v>
+        <v>867600</v>
       </c>
       <c r="G100" s="3">
-        <v>1049300</v>
+        <v>1017100</v>
       </c>
       <c r="H100" s="3">
-        <v>564700</v>
+        <v>547300</v>
       </c>
       <c r="I100" s="3">
-        <v>373100</v>
+        <v>361600</v>
       </c>
       <c r="J100" s="3">
-        <v>1059700</v>
+        <v>1027200</v>
       </c>
       <c r="K100" s="3">
         <v>553000</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32400</v>
+        <v>31400</v>
       </c>
       <c r="E101" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="F101" s="3">
-        <v>-24100</v>
+        <v>-23300</v>
       </c>
       <c r="G101" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H101" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="I101" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="J101" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="K101" s="3">
         <v>4500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>309000</v>
+        <v>299500</v>
       </c>
       <c r="E102" s="3">
-        <v>145300</v>
+        <v>140900</v>
       </c>
       <c r="F102" s="3">
-        <v>256000</v>
+        <v>248100</v>
       </c>
       <c r="G102" s="3">
-        <v>396900</v>
+        <v>384700</v>
       </c>
       <c r="H102" s="3">
-        <v>102400</v>
+        <v>99300</v>
       </c>
       <c r="I102" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="J102" s="3">
-        <v>-168100</v>
+        <v>-162900</v>
       </c>
       <c r="K102" s="3">
         <v>273800</v>

--- a/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JKS_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11453300</v>
+        <v>11478200</v>
       </c>
       <c r="E8" s="3">
-        <v>5625100</v>
+        <v>5637300</v>
       </c>
       <c r="F8" s="3">
-        <v>4840100</v>
+        <v>4850700</v>
       </c>
       <c r="G8" s="3">
-        <v>4098400</v>
+        <v>4107400</v>
       </c>
       <c r="H8" s="3">
-        <v>3450400</v>
+        <v>3457900</v>
       </c>
       <c r="I8" s="3">
-        <v>3647400</v>
+        <v>3655400</v>
       </c>
       <c r="J8" s="3">
-        <v>2948600</v>
+        <v>2955000</v>
       </c>
       <c r="K8" s="3">
         <v>2219600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9761600</v>
+        <v>9782800</v>
       </c>
       <c r="E9" s="3">
-        <v>4707800</v>
+        <v>4718000</v>
       </c>
       <c r="F9" s="3">
-        <v>3989800</v>
+        <v>3998500</v>
       </c>
       <c r="G9" s="3">
-        <v>3350100</v>
+        <v>3357400</v>
       </c>
       <c r="H9" s="3">
-        <v>2966200</v>
+        <v>2972700</v>
       </c>
       <c r="I9" s="3">
-        <v>3235300</v>
+        <v>3242300</v>
       </c>
       <c r="J9" s="3">
-        <v>2415500</v>
+        <v>2420700</v>
       </c>
       <c r="K9" s="3">
         <v>1798500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1691700</v>
+        <v>1695400</v>
       </c>
       <c r="E10" s="3">
-        <v>917300</v>
+        <v>919300</v>
       </c>
       <c r="F10" s="3">
-        <v>850300</v>
+        <v>852200</v>
       </c>
       <c r="G10" s="3">
-        <v>748400</v>
+        <v>750000</v>
       </c>
       <c r="H10" s="3">
-        <v>484100</v>
+        <v>485200</v>
       </c>
       <c r="I10" s="3">
-        <v>412200</v>
+        <v>413100</v>
       </c>
       <c r="J10" s="3">
-        <v>533100</v>
+        <v>534300</v>
       </c>
       <c r="K10" s="3">
         <v>421000</v>
@@ -870,22 +870,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>99900</v>
+        <v>100100</v>
       </c>
       <c r="E12" s="3">
-        <v>63600</v>
+        <v>63700</v>
       </c>
       <c r="F12" s="3">
-        <v>53600</v>
+        <v>53700</v>
       </c>
       <c r="G12" s="3">
-        <v>44700</v>
+        <v>44800</v>
       </c>
       <c r="H12" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="I12" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="J12" s="3">
         <v>25000</v>
@@ -954,13 +954,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>49500</v>
+        <v>49600</v>
       </c>
       <c r="E14" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="F14" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="G14" s="3">
         <v>6700</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11392200</v>
+        <v>11417000</v>
       </c>
       <c r="E17" s="3">
-        <v>5473200</v>
+        <v>5485100</v>
       </c>
       <c r="F17" s="3">
-        <v>4594200</v>
+        <v>4604200</v>
       </c>
       <c r="G17" s="3">
-        <v>3857400</v>
+        <v>3865800</v>
       </c>
       <c r="H17" s="3">
-        <v>3362800</v>
+        <v>3370100</v>
       </c>
       <c r="I17" s="3">
-        <v>3602600</v>
+        <v>3610400</v>
       </c>
       <c r="J17" s="3">
-        <v>2762000</v>
+        <v>2768000</v>
       </c>
       <c r="K17" s="3">
         <v>2058400</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>61100</v>
+        <v>61200</v>
       </c>
       <c r="E18" s="3">
-        <v>151900</v>
+        <v>152200</v>
       </c>
       <c r="F18" s="3">
-        <v>245900</v>
+        <v>246500</v>
       </c>
       <c r="G18" s="3">
-        <v>241100</v>
+        <v>241600</v>
       </c>
       <c r="H18" s="3">
-        <v>87600</v>
+        <v>87800</v>
       </c>
       <c r="I18" s="3">
         <v>44900</v>
       </c>
       <c r="J18" s="3">
-        <v>186600</v>
+        <v>187000</v>
       </c>
       <c r="K18" s="3">
         <v>161100</v>
@@ -1155,13 +1155,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>360000</v>
+        <v>360800</v>
       </c>
       <c r="E20" s="3">
-        <v>113800</v>
+        <v>114000</v>
       </c>
       <c r="F20" s="3">
-        <v>-74800</v>
+        <v>-74900</v>
       </c>
       <c r="G20" s="3">
         <v>8800</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>797500</v>
+        <v>799000</v>
       </c>
       <c r="E21" s="3">
-        <v>511500</v>
+        <v>512400</v>
       </c>
       <c r="F21" s="3">
-        <v>360000</v>
+        <v>360700</v>
       </c>
       <c r="G21" s="3">
-        <v>383100</v>
+        <v>383800</v>
       </c>
       <c r="H21" s="3">
-        <v>219300</v>
+        <v>219700</v>
       </c>
       <c r="I21" s="3">
-        <v>146100</v>
+        <v>146400</v>
       </c>
       <c r="J21" s="3">
-        <v>279400</v>
+        <v>280000</v>
       </c>
       <c r="K21" s="3">
         <v>214400</v>
@@ -1239,22 +1239,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>148700</v>
+        <v>149000</v>
       </c>
       <c r="E22" s="3">
-        <v>115500</v>
+        <v>115800</v>
       </c>
       <c r="F22" s="3">
-        <v>93100</v>
+        <v>93300</v>
       </c>
       <c r="G22" s="3">
-        <v>77400</v>
+        <v>77600</v>
       </c>
       <c r="H22" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="I22" s="3">
-        <v>41900</v>
+        <v>42000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>17</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>272400</v>
+        <v>272900</v>
       </c>
       <c r="E23" s="3">
-        <v>150200</v>
+        <v>150500</v>
       </c>
       <c r="F23" s="3">
-        <v>78000</v>
+        <v>78200</v>
       </c>
       <c r="G23" s="3">
-        <v>172400</v>
+        <v>172800</v>
       </c>
       <c r="H23" s="3">
-        <v>56100</v>
+        <v>56300</v>
       </c>
       <c r="I23" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="J23" s="3">
-        <v>171900</v>
+        <v>172300</v>
       </c>
       <c r="K23" s="3">
         <v>124500</v>
@@ -1323,16 +1323,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>83400</v>
+        <v>83600</v>
       </c>
       <c r="E24" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="F24" s="3">
         <v>24600</v>
       </c>
       <c r="G24" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="H24" s="3">
         <v>600</v>
@@ -1341,7 +1341,7 @@
         <v>600</v>
       </c>
       <c r="J24" s="3">
-        <v>35500</v>
+        <v>35600</v>
       </c>
       <c r="K24" s="3">
         <v>14400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>189000</v>
+        <v>189400</v>
       </c>
       <c r="E26" s="3">
-        <v>123400</v>
+        <v>123700</v>
       </c>
       <c r="F26" s="3">
-        <v>53500</v>
+        <v>53600</v>
       </c>
       <c r="G26" s="3">
-        <v>134100</v>
+        <v>134400</v>
       </c>
       <c r="H26" s="3">
-        <v>55500</v>
+        <v>55600</v>
       </c>
       <c r="I26" s="3">
         <v>19900</v>
       </c>
       <c r="J26" s="3">
-        <v>136400</v>
+        <v>136700</v>
       </c>
       <c r="K26" s="3">
         <v>110100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>85500</v>
+        <v>85700</v>
       </c>
       <c r="E27" s="3">
-        <v>99300</v>
+        <v>99600</v>
       </c>
       <c r="F27" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="G27" s="3">
-        <v>123800</v>
+        <v>124100</v>
       </c>
       <c r="H27" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="I27" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="J27" s="3">
-        <v>114500</v>
+        <v>114800</v>
       </c>
       <c r="K27" s="3">
         <v>87300</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>137200</v>
+        <v>137500</v>
       </c>
       <c r="K29" s="3">
         <v>12900</v>
@@ -1659,13 +1659,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-360000</v>
+        <v>-360800</v>
       </c>
       <c r="E32" s="3">
-        <v>-113800</v>
+        <v>-114000</v>
       </c>
       <c r="F32" s="3">
-        <v>74800</v>
+        <v>74900</v>
       </c>
       <c r="G32" s="3">
         <v>-8800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>85500</v>
+        <v>85700</v>
       </c>
       <c r="E33" s="3">
-        <v>99300</v>
+        <v>99600</v>
       </c>
       <c r="F33" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="G33" s="3">
-        <v>123800</v>
+        <v>124100</v>
       </c>
       <c r="H33" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="I33" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="J33" s="3">
-        <v>251700</v>
+        <v>252200</v>
       </c>
       <c r="K33" s="3">
         <v>100200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>85500</v>
+        <v>85700</v>
       </c>
       <c r="E35" s="3">
-        <v>99300</v>
+        <v>99600</v>
       </c>
       <c r="F35" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="G35" s="3">
-        <v>123800</v>
+        <v>124100</v>
       </c>
       <c r="H35" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="I35" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="J35" s="3">
-        <v>251700</v>
+        <v>252200</v>
       </c>
       <c r="K35" s="3">
         <v>100200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1411300</v>
+        <v>1414400</v>
       </c>
       <c r="E41" s="3">
-        <v>1146500</v>
+        <v>1149000</v>
       </c>
       <c r="F41" s="3">
-        <v>1030800</v>
+        <v>1033100</v>
       </c>
       <c r="G41" s="3">
-        <v>779000</v>
+        <v>780700</v>
       </c>
       <c r="H41" s="3">
-        <v>427800</v>
+        <v>428700</v>
       </c>
       <c r="I41" s="3">
-        <v>265700</v>
+        <v>266300</v>
       </c>
       <c r="J41" s="3">
-        <v>344600</v>
+        <v>345400</v>
       </c>
       <c r="K41" s="3">
         <v>343600</v>
@@ -1958,7 +1958,7 @@
         <v>20700</v>
       </c>
       <c r="F42" s="3">
-        <v>78500</v>
+        <v>78700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>17</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3446800</v>
+        <v>3454300</v>
       </c>
       <c r="E43" s="3">
-        <v>1298500</v>
+        <v>1301300</v>
       </c>
       <c r="F43" s="3">
-        <v>950600</v>
+        <v>952600</v>
       </c>
       <c r="G43" s="3">
-        <v>1047000</v>
+        <v>1049300</v>
       </c>
       <c r="H43" s="3">
-        <v>997700</v>
+        <v>999900</v>
       </c>
       <c r="I43" s="3">
-        <v>1009800</v>
+        <v>1012000</v>
       </c>
       <c r="J43" s="3">
-        <v>1075400</v>
+        <v>1077800</v>
       </c>
       <c r="K43" s="3">
         <v>474500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2404300</v>
+        <v>2409500</v>
       </c>
       <c r="E44" s="3">
-        <v>1825900</v>
+        <v>1829900</v>
       </c>
       <c r="F44" s="3">
-        <v>1154200</v>
+        <v>1156700</v>
       </c>
       <c r="G44" s="3">
-        <v>801700</v>
+        <v>803500</v>
       </c>
       <c r="H44" s="3">
-        <v>791300</v>
+        <v>793000</v>
       </c>
       <c r="I44" s="3">
-        <v>588800</v>
+        <v>590100</v>
       </c>
       <c r="J44" s="3">
-        <v>616400</v>
+        <v>617700</v>
       </c>
       <c r="K44" s="3">
         <v>460100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2151700</v>
+        <v>2156400</v>
       </c>
       <c r="E45" s="3">
-        <v>1980700</v>
+        <v>1985000</v>
       </c>
       <c r="F45" s="3">
-        <v>1426600</v>
+        <v>1429700</v>
       </c>
       <c r="G45" s="3">
-        <v>1738300</v>
+        <v>1742100</v>
       </c>
       <c r="H45" s="3">
-        <v>932000</v>
+        <v>934100</v>
       </c>
       <c r="I45" s="3">
-        <v>836900</v>
+        <v>838700</v>
       </c>
       <c r="J45" s="3">
-        <v>667400</v>
+        <v>668800</v>
       </c>
       <c r="K45" s="3">
         <v>1951100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9414100</v>
+        <v>9434600</v>
       </c>
       <c r="E46" s="3">
-        <v>6272300</v>
+        <v>6286000</v>
       </c>
       <c r="F46" s="3">
-        <v>4640700</v>
+        <v>4650800</v>
       </c>
       <c r="G46" s="3">
-        <v>4366000</v>
+        <v>4375500</v>
       </c>
       <c r="H46" s="3">
-        <v>3148900</v>
+        <v>3155700</v>
       </c>
       <c r="I46" s="3">
-        <v>2701600</v>
+        <v>2707500</v>
       </c>
       <c r="J46" s="3">
-        <v>2713600</v>
+        <v>2719500</v>
       </c>
       <c r="K46" s="3">
         <v>3230700</v>
@@ -2162,16 +2162,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>235800</v>
+        <v>236300</v>
       </c>
       <c r="E47" s="3">
-        <v>91100</v>
+        <v>91300</v>
       </c>
       <c r="F47" s="3">
-        <v>30400</v>
+        <v>30500</v>
       </c>
       <c r="G47" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="H47" s="3">
         <v>3500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4580600</v>
+        <v>4590500</v>
       </c>
       <c r="E48" s="3">
-        <v>2898400</v>
+        <v>2904800</v>
       </c>
       <c r="F48" s="3">
-        <v>1962900</v>
+        <v>1967100</v>
       </c>
       <c r="G48" s="3">
-        <v>1733800</v>
+        <v>1737600</v>
       </c>
       <c r="H48" s="3">
-        <v>1384200</v>
+        <v>1387200</v>
       </c>
       <c r="I48" s="3">
-        <v>985700</v>
+        <v>987800</v>
       </c>
       <c r="J48" s="3">
-        <v>660500</v>
+        <v>661900</v>
       </c>
       <c r="K48" s="3">
         <v>540900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>208200</v>
+        <v>208600</v>
       </c>
       <c r="E49" s="3">
-        <v>157800</v>
+        <v>158200</v>
       </c>
       <c r="F49" s="3">
-        <v>109800</v>
+        <v>110000</v>
       </c>
       <c r="G49" s="3">
-        <v>87400</v>
+        <v>87600</v>
       </c>
       <c r="H49" s="3">
-        <v>84100</v>
+        <v>84300</v>
       </c>
       <c r="I49" s="3">
-        <v>64600</v>
+        <v>64800</v>
       </c>
       <c r="J49" s="3">
-        <v>64900</v>
+        <v>65100</v>
       </c>
       <c r="K49" s="3">
         <v>53200</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>532800</v>
+        <v>534000</v>
       </c>
       <c r="E52" s="3">
-        <v>635900</v>
+        <v>637300</v>
       </c>
       <c r="F52" s="3">
-        <v>590600</v>
+        <v>591900</v>
       </c>
       <c r="G52" s="3">
-        <v>366500</v>
+        <v>367300</v>
       </c>
       <c r="H52" s="3">
-        <v>319200</v>
+        <v>319900</v>
       </c>
       <c r="I52" s="3">
-        <v>190600</v>
+        <v>191000</v>
       </c>
       <c r="J52" s="3">
-        <v>154700</v>
+        <v>155100</v>
       </c>
       <c r="K52" s="3">
         <v>185600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14971500</v>
+        <v>15004100</v>
       </c>
       <c r="E54" s="3">
-        <v>10055700</v>
+        <v>10077600</v>
       </c>
       <c r="F54" s="3">
-        <v>7334400</v>
+        <v>7350300</v>
       </c>
       <c r="G54" s="3">
-        <v>6592000</v>
+        <v>6606400</v>
       </c>
       <c r="H54" s="3">
-        <v>4939900</v>
+        <v>4950600</v>
       </c>
       <c r="I54" s="3">
-        <v>3945500</v>
+        <v>3954100</v>
       </c>
       <c r="J54" s="3">
-        <v>3594800</v>
+        <v>3602600</v>
       </c>
       <c r="K54" s="3">
         <v>3898500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1429900</v>
+        <v>1433000</v>
       </c>
       <c r="E57" s="3">
-        <v>939100</v>
+        <v>941100</v>
       </c>
       <c r="F57" s="3">
-        <v>613200</v>
+        <v>614500</v>
       </c>
       <c r="G57" s="3">
-        <v>687400</v>
+        <v>688900</v>
       </c>
       <c r="H57" s="3">
-        <v>734100</v>
+        <v>735700</v>
       </c>
       <c r="I57" s="3">
-        <v>642500</v>
+        <v>643900</v>
       </c>
       <c r="J57" s="3">
-        <v>591100</v>
+        <v>592400</v>
       </c>
       <c r="K57" s="3">
         <v>543600</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4575900</v>
+        <v>4585800</v>
       </c>
       <c r="E58" s="3">
-        <v>3528100</v>
+        <v>3535700</v>
       </c>
       <c r="F58" s="3">
-        <v>2711100</v>
+        <v>2717000</v>
       </c>
       <c r="G58" s="3">
-        <v>2313800</v>
+        <v>2318800</v>
       </c>
       <c r="H58" s="3">
-        <v>1816700</v>
+        <v>1820600</v>
       </c>
       <c r="I58" s="3">
-        <v>1637800</v>
+        <v>1641400</v>
       </c>
       <c r="J58" s="3">
-        <v>1475500</v>
+        <v>1478700</v>
       </c>
       <c r="K58" s="3">
         <v>1338800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2941200</v>
+        <v>2947600</v>
       </c>
       <c r="E59" s="3">
-        <v>1796300</v>
+        <v>1800200</v>
       </c>
       <c r="F59" s="3">
-        <v>976700</v>
+        <v>978800</v>
       </c>
       <c r="G59" s="3">
-        <v>1308200</v>
+        <v>1311000</v>
       </c>
       <c r="H59" s="3">
-        <v>775400</v>
+        <v>777100</v>
       </c>
       <c r="I59" s="3">
-        <v>470100</v>
+        <v>471100</v>
       </c>
       <c r="J59" s="3">
-        <v>463400</v>
+        <v>464400</v>
       </c>
       <c r="K59" s="3">
         <v>1451300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8946900</v>
+        <v>8966400</v>
       </c>
       <c r="E60" s="3">
-        <v>6263400</v>
+        <v>6277000</v>
       </c>
       <c r="F60" s="3">
-        <v>4301100</v>
+        <v>4310400</v>
       </c>
       <c r="G60" s="3">
-        <v>4309400</v>
+        <v>4318800</v>
       </c>
       <c r="H60" s="3">
-        <v>3326200</v>
+        <v>3333400</v>
       </c>
       <c r="I60" s="3">
-        <v>2750400</v>
+        <v>2756400</v>
       </c>
       <c r="J60" s="3">
-        <v>2530000</v>
+        <v>2535500</v>
       </c>
       <c r="K60" s="3">
         <v>2674600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2034300</v>
+        <v>2038800</v>
       </c>
       <c r="E61" s="3">
-        <v>1625800</v>
+        <v>1629400</v>
       </c>
       <c r="F61" s="3">
-        <v>1049200</v>
+        <v>1051400</v>
       </c>
       <c r="G61" s="3">
-        <v>399300</v>
+        <v>400100</v>
       </c>
       <c r="H61" s="3">
-        <v>357200</v>
+        <v>358000</v>
       </c>
       <c r="I61" s="3">
-        <v>167600</v>
+        <v>168000</v>
       </c>
       <c r="J61" s="3">
-        <v>73400</v>
+        <v>73500</v>
       </c>
       <c r="K61" s="3">
         <v>310900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>269600</v>
+        <v>270200</v>
       </c>
       <c r="E62" s="3">
-        <v>197900</v>
+        <v>198400</v>
       </c>
       <c r="F62" s="3">
-        <v>194300</v>
+        <v>194700</v>
       </c>
       <c r="G62" s="3">
-        <v>169300</v>
+        <v>169600</v>
       </c>
       <c r="H62" s="3">
-        <v>91700</v>
+        <v>91900</v>
       </c>
       <c r="I62" s="3">
-        <v>105800</v>
+        <v>106100</v>
       </c>
       <c r="J62" s="3">
-        <v>101300</v>
+        <v>101500</v>
       </c>
       <c r="K62" s="3">
         <v>57100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12720500</v>
+        <v>12748200</v>
       </c>
       <c r="E66" s="3">
-        <v>8533200</v>
+        <v>8551800</v>
       </c>
       <c r="F66" s="3">
-        <v>5958200</v>
+        <v>5971200</v>
       </c>
       <c r="G66" s="3">
-        <v>5310200</v>
+        <v>5321800</v>
       </c>
       <c r="H66" s="3">
-        <v>3859700</v>
+        <v>3868100</v>
       </c>
       <c r="I66" s="3">
-        <v>3023900</v>
+        <v>3030500</v>
       </c>
       <c r="J66" s="3">
-        <v>2704600</v>
+        <v>2710500</v>
       </c>
       <c r="K66" s="3">
         <v>3277800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>861100</v>
+        <v>863000</v>
       </c>
       <c r="E72" s="3">
-        <v>775600</v>
+        <v>777300</v>
       </c>
       <c r="F72" s="3">
-        <v>676300</v>
+        <v>677700</v>
       </c>
       <c r="G72" s="3">
-        <v>643600</v>
+        <v>645000</v>
       </c>
       <c r="H72" s="3">
-        <v>519800</v>
+        <v>520900</v>
       </c>
       <c r="I72" s="3">
-        <v>463800</v>
+        <v>464800</v>
       </c>
       <c r="J72" s="3">
-        <v>444300</v>
+        <v>445200</v>
       </c>
       <c r="K72" s="3">
         <v>200900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2250900</v>
+        <v>2255800</v>
       </c>
       <c r="E76" s="3">
-        <v>1522400</v>
+        <v>1525800</v>
       </c>
       <c r="F76" s="3">
-        <v>1376100</v>
+        <v>1379100</v>
       </c>
       <c r="G76" s="3">
-        <v>1281800</v>
+        <v>1284600</v>
       </c>
       <c r="H76" s="3">
-        <v>1080200</v>
+        <v>1082500</v>
       </c>
       <c r="I76" s="3">
-        <v>921600</v>
+        <v>923700</v>
       </c>
       <c r="J76" s="3">
-        <v>890200</v>
+        <v>892100</v>
       </c>
       <c r="K76" s="3">
         <v>620700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>85500</v>
+        <v>85700</v>
       </c>
       <c r="E81" s="3">
-        <v>99300</v>
+        <v>99600</v>
       </c>
       <c r="F81" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="G81" s="3">
-        <v>123800</v>
+        <v>124100</v>
       </c>
       <c r="H81" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="I81" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="J81" s="3">
-        <v>251700</v>
+        <v>252200</v>
       </c>
       <c r="K81" s="3">
         <v>100200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>376400</v>
+        <v>377300</v>
       </c>
       <c r="E83" s="3">
-        <v>245800</v>
+        <v>246300</v>
       </c>
       <c r="F83" s="3">
-        <v>188900</v>
+        <v>189300</v>
       </c>
       <c r="G83" s="3">
-        <v>133200</v>
+        <v>133500</v>
       </c>
       <c r="H83" s="3">
-        <v>111100</v>
+        <v>111300</v>
       </c>
       <c r="I83" s="3">
-        <v>83600</v>
+        <v>83800</v>
       </c>
       <c r="J83" s="3">
-        <v>107500</v>
+        <v>107800</v>
       </c>
       <c r="K83" s="3">
         <v>89700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-799200</v>
+        <v>-801000</v>
       </c>
       <c r="E89" s="3">
-        <v>59300</v>
+        <v>59500</v>
       </c>
       <c r="F89" s="3">
-        <v>81500</v>
+        <v>81700</v>
       </c>
       <c r="G89" s="3">
-        <v>194400</v>
+        <v>194800</v>
       </c>
       <c r="H89" s="3">
-        <v>84700</v>
+        <v>84900</v>
       </c>
       <c r="I89" s="3">
-        <v>-24400</v>
+        <v>-24500</v>
       </c>
       <c r="J89" s="3">
-        <v>-248400</v>
+        <v>-249000</v>
       </c>
       <c r="K89" s="3">
         <v>192300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1688000</v>
+        <v>-1691700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1192300</v>
+        <v>-1194900</v>
       </c>
       <c r="F91" s="3">
-        <v>-569200</v>
+        <v>-570500</v>
       </c>
       <c r="G91" s="3">
-        <v>-506200</v>
+        <v>-507300</v>
       </c>
       <c r="H91" s="3">
-        <v>-337800</v>
+        <v>-338500</v>
       </c>
       <c r="I91" s="3">
-        <v>-353400</v>
+        <v>-354100</v>
       </c>
       <c r="J91" s="3">
-        <v>-541700</v>
+        <v>-542900</v>
       </c>
       <c r="K91" s="3">
         <v>-429400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1690900</v>
+        <v>-1694600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1558200</v>
+        <v>-1561600</v>
       </c>
       <c r="F94" s="3">
-        <v>-677700</v>
+        <v>-679200</v>
       </c>
       <c r="G94" s="3">
-        <v>-830200</v>
+        <v>-832000</v>
       </c>
       <c r="H94" s="3">
-        <v>-542100</v>
+        <v>-543300</v>
       </c>
       <c r="I94" s="3">
-        <v>-335300</v>
+        <v>-336000</v>
       </c>
       <c r="J94" s="3">
-        <v>-951900</v>
+        <v>-954000</v>
       </c>
       <c r="K94" s="3">
         <v>-476000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2758200</v>
+        <v>2764200</v>
       </c>
       <c r="E100" s="3">
-        <v>1655800</v>
+        <v>1659400</v>
       </c>
       <c r="F100" s="3">
-        <v>867600</v>
+        <v>869500</v>
       </c>
       <c r="G100" s="3">
-        <v>1017100</v>
+        <v>1019300</v>
       </c>
       <c r="H100" s="3">
-        <v>547300</v>
+        <v>548500</v>
       </c>
       <c r="I100" s="3">
-        <v>361600</v>
+        <v>362400</v>
       </c>
       <c r="J100" s="3">
-        <v>1027200</v>
+        <v>1029400</v>
       </c>
       <c r="K100" s="3">
         <v>553000</v>
@@ -4207,13 +4207,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="E101" s="3">
         <v>-16100</v>
       </c>
       <c r="F101" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="G101" s="3">
         <v>3400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>299500</v>
+        <v>300100</v>
       </c>
       <c r="E102" s="3">
-        <v>140900</v>
+        <v>141200</v>
       </c>
       <c r="F102" s="3">
-        <v>248100</v>
+        <v>248700</v>
       </c>
       <c r="G102" s="3">
-        <v>384700</v>
+        <v>385500</v>
       </c>
       <c r="H102" s="3">
-        <v>99300</v>
+        <v>99500</v>
       </c>
       <c r="I102" s="3">
         <v>-8100</v>
       </c>
       <c r="J102" s="3">
-        <v>-162900</v>
+        <v>-163200</v>
       </c>
       <c r="K102" s="3">
         <v>273800</v>
